--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80F68B-CD70-4F94-85D1-C24757F67100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04131AC8-3B82-4E4F-9F16-69D154CBF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9564,8 +9564,170 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9666,176 +9828,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10907,12 +10907,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="151" t="str">
+      <c r="I25" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -11472,57 +11472,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="158" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="212" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="167" t="s">
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="221" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="176" t="s">
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="230" t="s">
         <v>520</v>
       </c>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="152" t="s">
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="161" t="str">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="215" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="217"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -11530,53 +11530,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="158" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="212" t="s">
         <v>522</v>
       </c>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="152" t="s">
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="164" t="str">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="161" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="215" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -11584,45 +11584,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158" t="s">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212" t="s">
         <v>524</v>
       </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="215"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="217"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -11659,1020 +11659,1181 @@
       <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="185" t="s">
+      <c r="C7" s="191"/>
+      <c r="D7" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="185" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="185" t="s">
+      <c r="H7" s="192"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="185" t="s">
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="187"/>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="185" t="s">
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="192"/>
+      <c r="AA7" s="192"/>
+      <c r="AB7" s="192"/>
+      <c r="AC7" s="192"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="191"/>
+      <c r="AF7" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="187"/>
-      <c r="AI7" s="186"/>
+      <c r="AG7" s="192"/>
+      <c r="AH7" s="192"/>
+      <c r="AI7" s="191"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="199"/>
-      <c r="T8" s="199"/>
-      <c r="U8" s="199"/>
-      <c r="V8" s="199"/>
-      <c r="W8" s="199"/>
-      <c r="X8" s="199"/>
-      <c r="Y8" s="199"/>
-      <c r="Z8" s="199"/>
-      <c r="AA8" s="199"/>
-      <c r="AB8" s="199"/>
-      <c r="AC8" s="199"/>
-      <c r="AD8" s="199"/>
-      <c r="AE8" s="200"/>
-      <c r="AF8" s="195"/>
-      <c r="AG8" s="196"/>
-      <c r="AH8" s="196"/>
-      <c r="AI8" s="197"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="202"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="209"/>
-      <c r="Q9" s="210"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="211"/>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="211"/>
-      <c r="AD9" s="211"/>
-      <c r="AE9" s="212"/>
-      <c r="AF9" s="207"/>
-      <c r="AG9" s="208"/>
-      <c r="AH9" s="208"/>
-      <c r="AI9" s="209"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="187"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="188"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="184"/>
+      <c r="AH9" s="184"/>
+      <c r="AI9" s="185"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="208"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="211"/>
-      <c r="V10" s="211"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="211"/>
-      <c r="AA10" s="211"/>
-      <c r="AB10" s="211"/>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="211"/>
-      <c r="AE10" s="212"/>
-      <c r="AF10" s="207"/>
-      <c r="AG10" s="208"/>
-      <c r="AH10" s="208"/>
-      <c r="AI10" s="209"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="183"/>
+      <c r="AG10" s="184"/>
+      <c r="AH10" s="184"/>
+      <c r="AI10" s="185"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="201"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
-      <c r="O11" s="208"/>
-      <c r="P11" s="209"/>
-      <c r="Q11" s="210"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
-      <c r="W11" s="211"/>
-      <c r="X11" s="211"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="211"/>
-      <c r="AA11" s="211"/>
-      <c r="AB11" s="211"/>
-      <c r="AC11" s="211"/>
-      <c r="AD11" s="211"/>
-      <c r="AE11" s="212"/>
-      <c r="AF11" s="207"/>
-      <c r="AG11" s="208"/>
-      <c r="AH11" s="208"/>
-      <c r="AI11" s="209"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
+      <c r="AF11" s="183"/>
+      <c r="AG11" s="184"/>
+      <c r="AH11" s="184"/>
+      <c r="AI11" s="185"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="201"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="208"/>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
-      <c r="P12" s="209"/>
-      <c r="Q12" s="210"/>
-      <c r="R12" s="211"/>
-      <c r="S12" s="211"/>
-      <c r="T12" s="211"/>
-      <c r="U12" s="211"/>
-      <c r="V12" s="211"/>
-      <c r="W12" s="211"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="211"/>
-      <c r="AA12" s="211"/>
-      <c r="AB12" s="211"/>
-      <c r="AC12" s="211"/>
-      <c r="AD12" s="211"/>
-      <c r="AE12" s="212"/>
-      <c r="AF12" s="207"/>
-      <c r="AG12" s="208"/>
-      <c r="AH12" s="208"/>
-      <c r="AI12" s="209"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="187"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="187"/>
+      <c r="X12" s="187"/>
+      <c r="Y12" s="187"/>
+      <c r="Z12" s="187"/>
+      <c r="AA12" s="187"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="187"/>
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="183"/>
+      <c r="AG12" s="184"/>
+      <c r="AH12" s="184"/>
+      <c r="AI12" s="185"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="201"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
-      <c r="P13" s="209"/>
-      <c r="Q13" s="210"/>
-      <c r="R13" s="211"/>
-      <c r="S13" s="211"/>
-      <c r="T13" s="211"/>
-      <c r="U13" s="211"/>
-      <c r="V13" s="211"/>
-      <c r="W13" s="211"/>
-      <c r="X13" s="211"/>
-      <c r="Y13" s="211"/>
-      <c r="Z13" s="211"/>
-      <c r="AA13" s="211"/>
-      <c r="AB13" s="211"/>
-      <c r="AC13" s="211"/>
-      <c r="AD13" s="211"/>
-      <c r="AE13" s="212"/>
-      <c r="AF13" s="207"/>
-      <c r="AG13" s="208"/>
-      <c r="AH13" s="208"/>
-      <c r="AI13" s="209"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="187"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="187"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="183"/>
+      <c r="AG13" s="184"/>
+      <c r="AH13" s="184"/>
+      <c r="AI13" s="185"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="201"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="209"/>
-      <c r="Q14" s="210"/>
-      <c r="R14" s="211"/>
-      <c r="S14" s="211"/>
-      <c r="T14" s="211"/>
-      <c r="U14" s="211"/>
-      <c r="V14" s="211"/>
-      <c r="W14" s="211"/>
-      <c r="X14" s="211"/>
-      <c r="Y14" s="211"/>
-      <c r="Z14" s="211"/>
-      <c r="AA14" s="211"/>
-      <c r="AB14" s="211"/>
-      <c r="AC14" s="211"/>
-      <c r="AD14" s="211"/>
-      <c r="AE14" s="212"/>
-      <c r="AF14" s="207"/>
-      <c r="AG14" s="208"/>
-      <c r="AH14" s="208"/>
-      <c r="AI14" s="209"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="187"/>
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="188"/>
+      <c r="AF14" s="183"/>
+      <c r="AG14" s="184"/>
+      <c r="AH14" s="184"/>
+      <c r="AI14" s="185"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="201"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="210"/>
-      <c r="R15" s="211"/>
-      <c r="S15" s="211"/>
-      <c r="T15" s="211"/>
-      <c r="U15" s="211"/>
-      <c r="V15" s="211"/>
-      <c r="W15" s="211"/>
-      <c r="X15" s="211"/>
-      <c r="Y15" s="211"/>
-      <c r="Z15" s="211"/>
-      <c r="AA15" s="211"/>
-      <c r="AB15" s="211"/>
-      <c r="AC15" s="211"/>
-      <c r="AD15" s="211"/>
-      <c r="AE15" s="212"/>
-      <c r="AF15" s="207"/>
-      <c r="AG15" s="208"/>
-      <c r="AH15" s="208"/>
-      <c r="AI15" s="209"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="188"/>
+      <c r="AF15" s="183"/>
+      <c r="AG15" s="184"/>
+      <c r="AH15" s="184"/>
+      <c r="AI15" s="185"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="201"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
-      <c r="O16" s="208"/>
-      <c r="P16" s="209"/>
-      <c r="Q16" s="210"/>
-      <c r="R16" s="211"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="211"/>
-      <c r="U16" s="211"/>
-      <c r="V16" s="211"/>
-      <c r="W16" s="211"/>
-      <c r="X16" s="211"/>
-      <c r="Y16" s="211"/>
-      <c r="Z16" s="211"/>
-      <c r="AA16" s="211"/>
-      <c r="AB16" s="211"/>
-      <c r="AC16" s="211"/>
-      <c r="AD16" s="211"/>
-      <c r="AE16" s="212"/>
-      <c r="AF16" s="207"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="209"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="187"/>
+      <c r="T16" s="187"/>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="187"/>
+      <c r="AB16" s="187"/>
+      <c r="AC16" s="187"/>
+      <c r="AD16" s="187"/>
+      <c r="AE16" s="188"/>
+      <c r="AF16" s="183"/>
+      <c r="AG16" s="184"/>
+      <c r="AH16" s="184"/>
+      <c r="AI16" s="185"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="201"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="209"/>
-      <c r="Q17" s="210"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211"/>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="211"/>
-      <c r="AA17" s="211"/>
-      <c r="AB17" s="211"/>
-      <c r="AC17" s="211"/>
-      <c r="AD17" s="211"/>
-      <c r="AE17" s="212"/>
-      <c r="AF17" s="207"/>
-      <c r="AG17" s="208"/>
-      <c r="AH17" s="208"/>
-      <c r="AI17" s="209"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="187"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="187"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="187"/>
+      <c r="AB17" s="187"/>
+      <c r="AC17" s="187"/>
+      <c r="AD17" s="187"/>
+      <c r="AE17" s="188"/>
+      <c r="AF17" s="183"/>
+      <c r="AG17" s="184"/>
+      <c r="AH17" s="184"/>
+      <c r="AI17" s="185"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="209"/>
-      <c r="Q18" s="210"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="211"/>
-      <c r="AE18" s="212"/>
-      <c r="AF18" s="207"/>
-      <c r="AG18" s="208"/>
-      <c r="AH18" s="208"/>
-      <c r="AI18" s="209"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="187"/>
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="187"/>
+      <c r="AB18" s="187"/>
+      <c r="AC18" s="187"/>
+      <c r="AD18" s="187"/>
+      <c r="AE18" s="188"/>
+      <c r="AF18" s="183"/>
+      <c r="AG18" s="184"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="185"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="208"/>
-      <c r="N19" s="208"/>
-      <c r="O19" s="208"/>
-      <c r="P19" s="209"/>
-      <c r="Q19" s="210"/>
-      <c r="R19" s="211"/>
-      <c r="S19" s="211"/>
-      <c r="T19" s="211"/>
-      <c r="U19" s="211"/>
-      <c r="V19" s="211"/>
-      <c r="W19" s="211"/>
-      <c r="X19" s="211"/>
-      <c r="Y19" s="211"/>
-      <c r="Z19" s="211"/>
-      <c r="AA19" s="211"/>
-      <c r="AB19" s="211"/>
-      <c r="AC19" s="211"/>
-      <c r="AD19" s="211"/>
-      <c r="AE19" s="212"/>
-      <c r="AF19" s="207"/>
-      <c r="AG19" s="208"/>
-      <c r="AH19" s="208"/>
-      <c r="AI19" s="209"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="184"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="187"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="187"/>
+      <c r="Y19" s="187"/>
+      <c r="Z19" s="187"/>
+      <c r="AA19" s="187"/>
+      <c r="AB19" s="187"/>
+      <c r="AC19" s="187"/>
+      <c r="AD19" s="187"/>
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="183"/>
+      <c r="AG19" s="184"/>
+      <c r="AH19" s="184"/>
+      <c r="AI19" s="185"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="208"/>
-      <c r="M20" s="208"/>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="209"/>
-      <c r="Q20" s="210"/>
-      <c r="R20" s="211"/>
-      <c r="S20" s="211"/>
-      <c r="T20" s="211"/>
-      <c r="U20" s="211"/>
-      <c r="V20" s="211"/>
-      <c r="W20" s="211"/>
-      <c r="X20" s="211"/>
-      <c r="Y20" s="211"/>
-      <c r="Z20" s="211"/>
-      <c r="AA20" s="211"/>
-      <c r="AB20" s="211"/>
-      <c r="AC20" s="211"/>
-      <c r="AD20" s="211"/>
-      <c r="AE20" s="212"/>
-      <c r="AF20" s="207"/>
-      <c r="AG20" s="208"/>
-      <c r="AH20" s="208"/>
-      <c r="AI20" s="209"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
+      <c r="O20" s="184"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="187"/>
+      <c r="S20" s="187"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="187"/>
+      <c r="Y20" s="187"/>
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="187"/>
+      <c r="AB20" s="187"/>
+      <c r="AC20" s="187"/>
+      <c r="AD20" s="187"/>
+      <c r="AE20" s="188"/>
+      <c r="AF20" s="183"/>
+      <c r="AG20" s="184"/>
+      <c r="AH20" s="184"/>
+      <c r="AI20" s="185"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="201"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="207"/>
-      <c r="K21" s="208"/>
-      <c r="L21" s="208"/>
-      <c r="M21" s="208"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="209"/>
-      <c r="Q21" s="210"/>
-      <c r="R21" s="211"/>
-      <c r="S21" s="211"/>
-      <c r="T21" s="211"/>
-      <c r="U21" s="211"/>
-      <c r="V21" s="211"/>
-      <c r="W21" s="211"/>
-      <c r="X21" s="211"/>
-      <c r="Y21" s="211"/>
-      <c r="Z21" s="211"/>
-      <c r="AA21" s="211"/>
-      <c r="AB21" s="211"/>
-      <c r="AC21" s="211"/>
-      <c r="AD21" s="211"/>
-      <c r="AE21" s="212"/>
-      <c r="AF21" s="207"/>
-      <c r="AG21" s="208"/>
-      <c r="AH21" s="208"/>
-      <c r="AI21" s="209"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="X21" s="187"/>
+      <c r="Y21" s="187"/>
+      <c r="Z21" s="187"/>
+      <c r="AA21" s="187"/>
+      <c r="AB21" s="187"/>
+      <c r="AC21" s="187"/>
+      <c r="AD21" s="187"/>
+      <c r="AE21" s="188"/>
+      <c r="AF21" s="183"/>
+      <c r="AG21" s="184"/>
+      <c r="AH21" s="184"/>
+      <c r="AI21" s="185"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="201"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
-      <c r="M22" s="208"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="209"/>
-      <c r="Q22" s="210"/>
-      <c r="R22" s="211"/>
-      <c r="S22" s="211"/>
-      <c r="T22" s="211"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
-      <c r="W22" s="211"/>
-      <c r="X22" s="211"/>
-      <c r="Y22" s="211"/>
-      <c r="Z22" s="211"/>
-      <c r="AA22" s="211"/>
-      <c r="AB22" s="211"/>
-      <c r="AC22" s="211"/>
-      <c r="AD22" s="211"/>
-      <c r="AE22" s="212"/>
-      <c r="AF22" s="207"/>
-      <c r="AG22" s="208"/>
-      <c r="AH22" s="208"/>
-      <c r="AI22" s="209"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="187"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="187"/>
+      <c r="Y22" s="187"/>
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="187"/>
+      <c r="AB22" s="187"/>
+      <c r="AC22" s="187"/>
+      <c r="AD22" s="187"/>
+      <c r="AE22" s="188"/>
+      <c r="AF22" s="183"/>
+      <c r="AG22" s="184"/>
+      <c r="AH22" s="184"/>
+      <c r="AI22" s="185"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
-      <c r="N23" s="208"/>
-      <c r="O23" s="208"/>
-      <c r="P23" s="209"/>
-      <c r="Q23" s="210"/>
-      <c r="R23" s="211"/>
-      <c r="S23" s="211"/>
-      <c r="T23" s="211"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="211"/>
-      <c r="W23" s="211"/>
-      <c r="X23" s="211"/>
-      <c r="Y23" s="211"/>
-      <c r="Z23" s="211"/>
-      <c r="AA23" s="211"/>
-      <c r="AB23" s="211"/>
-      <c r="AC23" s="211"/>
-      <c r="AD23" s="211"/>
-      <c r="AE23" s="212"/>
-      <c r="AF23" s="207"/>
-      <c r="AG23" s="208"/>
-      <c r="AH23" s="208"/>
-      <c r="AI23" s="209"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="187"/>
+      <c r="AC23" s="187"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="188"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="184"/>
+      <c r="AH23" s="184"/>
+      <c r="AI23" s="185"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="208"/>
-      <c r="O24" s="208"/>
-      <c r="P24" s="209"/>
-      <c r="Q24" s="210"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="211"/>
-      <c r="X24" s="211"/>
-      <c r="Y24" s="211"/>
-      <c r="Z24" s="211"/>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="211"/>
-      <c r="AC24" s="211"/>
-      <c r="AD24" s="211"/>
-      <c r="AE24" s="212"/>
-      <c r="AF24" s="207"/>
-      <c r="AG24" s="208"/>
-      <c r="AH24" s="208"/>
-      <c r="AI24" s="209"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+      <c r="X24" s="187"/>
+      <c r="Y24" s="187"/>
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="187"/>
+      <c r="AB24" s="187"/>
+      <c r="AC24" s="187"/>
+      <c r="AD24" s="187"/>
+      <c r="AE24" s="188"/>
+      <c r="AF24" s="183"/>
+      <c r="AG24" s="184"/>
+      <c r="AH24" s="184"/>
+      <c r="AI24" s="185"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="201"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="207"/>
-      <c r="K25" s="208"/>
-      <c r="L25" s="208"/>
-      <c r="M25" s="208"/>
-      <c r="N25" s="208"/>
-      <c r="O25" s="208"/>
-      <c r="P25" s="209"/>
-      <c r="Q25" s="210"/>
-      <c r="R25" s="211"/>
-      <c r="S25" s="211"/>
-      <c r="T25" s="211"/>
-      <c r="U25" s="211"/>
-      <c r="V25" s="211"/>
-      <c r="W25" s="211"/>
-      <c r="X25" s="211"/>
-      <c r="Y25" s="211"/>
-      <c r="Z25" s="211"/>
-      <c r="AA25" s="211"/>
-      <c r="AB25" s="211"/>
-      <c r="AC25" s="211"/>
-      <c r="AD25" s="211"/>
-      <c r="AE25" s="212"/>
-      <c r="AF25" s="207"/>
-      <c r="AG25" s="208"/>
-      <c r="AH25" s="208"/>
-      <c r="AI25" s="209"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="187"/>
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+      <c r="AD25" s="187"/>
+      <c r="AE25" s="188"/>
+      <c r="AF25" s="183"/>
+      <c r="AG25" s="184"/>
+      <c r="AH25" s="184"/>
+      <c r="AI25" s="185"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="201"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="208"/>
-      <c r="N26" s="208"/>
-      <c r="O26" s="208"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="210"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="211"/>
-      <c r="T26" s="211"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="211"/>
-      <c r="W26" s="211"/>
-      <c r="X26" s="211"/>
-      <c r="Y26" s="211"/>
-      <c r="Z26" s="211"/>
-      <c r="AA26" s="211"/>
-      <c r="AB26" s="211"/>
-      <c r="AC26" s="211"/>
-      <c r="AD26" s="211"/>
-      <c r="AE26" s="212"/>
-      <c r="AF26" s="207"/>
-      <c r="AG26" s="208"/>
-      <c r="AH26" s="208"/>
-      <c r="AI26" s="209"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="187"/>
+      <c r="Z26" s="187"/>
+      <c r="AA26" s="187"/>
+      <c r="AB26" s="187"/>
+      <c r="AC26" s="187"/>
+      <c r="AD26" s="187"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="183"/>
+      <c r="AG26" s="184"/>
+      <c r="AH26" s="184"/>
+      <c r="AI26" s="185"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="201"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="207"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="211"/>
-      <c r="W27" s="211"/>
-      <c r="X27" s="211"/>
-      <c r="Y27" s="211"/>
-      <c r="Z27" s="211"/>
-      <c r="AA27" s="211"/>
-      <c r="AB27" s="211"/>
-      <c r="AC27" s="211"/>
-      <c r="AD27" s="211"/>
-      <c r="AE27" s="212"/>
-      <c r="AF27" s="207"/>
-      <c r="AG27" s="208"/>
-      <c r="AH27" s="208"/>
-      <c r="AI27" s="209"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="187"/>
+      <c r="Z27" s="187"/>
+      <c r="AA27" s="187"/>
+      <c r="AB27" s="187"/>
+      <c r="AC27" s="187"/>
+      <c r="AD27" s="187"/>
+      <c r="AE27" s="188"/>
+      <c r="AF27" s="183"/>
+      <c r="AG27" s="184"/>
+      <c r="AH27" s="184"/>
+      <c r="AI27" s="185"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="201"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="207"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="208"/>
-      <c r="N28" s="208"/>
-      <c r="O28" s="208"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="210"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="211"/>
-      <c r="AC28" s="211"/>
-      <c r="AD28" s="211"/>
-      <c r="AE28" s="212"/>
-      <c r="AF28" s="207"/>
-      <c r="AG28" s="208"/>
-      <c r="AH28" s="208"/>
-      <c r="AI28" s="209"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="187"/>
+      <c r="AC28" s="187"/>
+      <c r="AD28" s="187"/>
+      <c r="AE28" s="188"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="184"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="185"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="201"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="207"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="208"/>
-      <c r="M29" s="208"/>
-      <c r="N29" s="208"/>
-      <c r="O29" s="208"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="210"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="211"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="211"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="211"/>
-      <c r="AB29" s="211"/>
-      <c r="AC29" s="211"/>
-      <c r="AD29" s="211"/>
-      <c r="AE29" s="212"/>
-      <c r="AF29" s="207"/>
-      <c r="AG29" s="208"/>
-      <c r="AH29" s="208"/>
-      <c r="AI29" s="209"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="187"/>
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+      <c r="AD29" s="187"/>
+      <c r="AE29" s="188"/>
+      <c r="AF29" s="183"/>
+      <c r="AG29" s="184"/>
+      <c r="AH29" s="184"/>
+      <c r="AI29" s="185"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="201"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="208"/>
-      <c r="N30" s="208"/>
-      <c r="O30" s="208"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="210"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="211"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="211"/>
-      <c r="AB30" s="211"/>
-      <c r="AC30" s="211"/>
-      <c r="AD30" s="211"/>
-      <c r="AE30" s="212"/>
-      <c r="AF30" s="207"/>
-      <c r="AG30" s="208"/>
-      <c r="AH30" s="208"/>
-      <c r="AI30" s="209"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="184"/>
+      <c r="O30" s="184"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="187"/>
+      <c r="S30" s="187"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="187"/>
+      <c r="X30" s="187"/>
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="187"/>
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="187"/>
+      <c r="AC30" s="187"/>
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="188"/>
+      <c r="AF30" s="183"/>
+      <c r="AG30" s="184"/>
+      <c r="AH30" s="184"/>
+      <c r="AI30" s="185"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="201"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
-      <c r="M31" s="208"/>
-      <c r="N31" s="208"/>
-      <c r="O31" s="208"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="210"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="211"/>
-      <c r="AB31" s="211"/>
-      <c r="AC31" s="211"/>
-      <c r="AD31" s="211"/>
-      <c r="AE31" s="212"/>
-      <c r="AF31" s="207"/>
-      <c r="AG31" s="208"/>
-      <c r="AH31" s="208"/>
-      <c r="AI31" s="209"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="185"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="187"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="187"/>
+      <c r="Z31" s="187"/>
+      <c r="AA31" s="187"/>
+      <c r="AB31" s="187"/>
+      <c r="AC31" s="187"/>
+      <c r="AD31" s="187"/>
+      <c r="AE31" s="188"/>
+      <c r="AF31" s="183"/>
+      <c r="AG31" s="184"/>
+      <c r="AH31" s="184"/>
+      <c r="AI31" s="185"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="201"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="208"/>
-      <c r="M32" s="208"/>
-      <c r="N32" s="208"/>
-      <c r="O32" s="208"/>
-      <c r="P32" s="209"/>
-      <c r="Q32" s="210"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="211"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
-      <c r="W32" s="211"/>
-      <c r="X32" s="211"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="211"/>
-      <c r="AA32" s="211"/>
-      <c r="AB32" s="211"/>
-      <c r="AC32" s="211"/>
-      <c r="AD32" s="211"/>
-      <c r="AE32" s="212"/>
-      <c r="AF32" s="207"/>
-      <c r="AG32" s="208"/>
-      <c r="AH32" s="208"/>
-      <c r="AI32" s="209"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="185"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="187"/>
+      <c r="Y32" s="187"/>
+      <c r="Z32" s="187"/>
+      <c r="AA32" s="187"/>
+      <c r="AB32" s="187"/>
+      <c r="AC32" s="187"/>
+      <c r="AD32" s="187"/>
+      <c r="AE32" s="188"/>
+      <c r="AF32" s="183"/>
+      <c r="AG32" s="184"/>
+      <c r="AH32" s="184"/>
+      <c r="AI32" s="185"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="201"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="208"/>
-      <c r="L33" s="208"/>
-      <c r="M33" s="208"/>
-      <c r="N33" s="208"/>
-      <c r="O33" s="208"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="210"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="211"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="211"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="211"/>
-      <c r="Y33" s="211"/>
-      <c r="Z33" s="211"/>
-      <c r="AA33" s="211"/>
-      <c r="AB33" s="211"/>
-      <c r="AC33" s="211"/>
-      <c r="AD33" s="211"/>
-      <c r="AE33" s="212"/>
-      <c r="AF33" s="207"/>
-      <c r="AG33" s="208"/>
-      <c r="AH33" s="208"/>
-      <c r="AI33" s="209"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="185"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="187"/>
+      <c r="T33" s="187"/>
+      <c r="U33" s="187"/>
+      <c r="V33" s="187"/>
+      <c r="W33" s="187"/>
+      <c r="X33" s="187"/>
+      <c r="Y33" s="187"/>
+      <c r="Z33" s="187"/>
+      <c r="AA33" s="187"/>
+      <c r="AB33" s="187"/>
+      <c r="AC33" s="187"/>
+      <c r="AD33" s="187"/>
+      <c r="AE33" s="188"/>
+      <c r="AF33" s="183"/>
+      <c r="AG33" s="184"/>
+      <c r="AH33" s="184"/>
+      <c r="AI33" s="185"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12691,167 +12852,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12871,7 +12871,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -13920,7 +13920,7 @@
       <c r="J36" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="K36" s="216"/>
+      <c r="K36" s="151"/>
       <c r="L36" s="99"/>
       <c r="M36" s="80"/>
       <c r="N36" s="80"/>
@@ -13954,7 +13954,7 @@
       <c r="J37" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="K37" s="216"/>
+      <c r="K37" s="151"/>
       <c r="L37" s="99"/>
       <c r="M37" s="80"/>
       <c r="N37" s="80"/>
@@ -14013,7 +14013,7 @@
       <c r="C39" s="50"/>
       <c r="D39" s="53"/>
       <c r="E39" s="54"/>
-      <c r="F39" s="217" t="s">
+      <c r="F39" s="152" t="s">
         <v>218</v>
       </c>
       <c r="G39" s="97"/>
@@ -14081,8 +14081,8 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="153"/>
       <c r="D41" s="53"/>
       <c r="E41" s="54"/>
       <c r="F41" s="51" t="s">
@@ -16605,7 +16605,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="214" t="s">
+      <c r="B112" s="239" t="s">
         <v>224</v>
       </c>
       <c r="C112" s="56"/>
@@ -16641,7 +16641,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="214"/>
+      <c r="B113" s="239"/>
       <c r="C113" s="56"/>
       <c r="D113" s="44"/>
       <c r="E113" s="82"/>
@@ -17313,7 +17313,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="214" t="s">
+      <c r="B132" s="239" t="s">
         <v>253</v>
       </c>
       <c r="C132" s="56"/>
@@ -17349,7 +17349,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="214"/>
+      <c r="B133" s="239"/>
       <c r="C133" s="56"/>
       <c r="D133" s="44"/>
       <c r="E133" s="44"/>
@@ -22570,7 +22570,7 @@
         <v>95-4-1</v>
       </c>
       <c r="B282" s="50"/>
-      <c r="C282" s="219"/>
+      <c r="C282" s="154"/>
       <c r="D282" s="54"/>
       <c r="E282" s="54"/>
       <c r="F282" s="51" t="s">
@@ -23027,8 +23027,8 @@
 )</f>
         <v>100-9-1</v>
       </c>
-      <c r="B295" s="218"/>
-      <c r="C295" s="218"/>
+      <c r="B295" s="153"/>
+      <c r="C295" s="153"/>
       <c r="D295" s="53"/>
       <c r="E295" s="54"/>
       <c r="F295" s="51" t="s">
@@ -24580,7 +24580,7 @@
       <c r="G47" s="99"/>
       <c r="H47" s="80"/>
       <c r="I47" s="80"/>
-      <c r="J47" s="220" t="s">
+      <c r="J47" s="155" t="s">
         <v>547</v>
       </c>
       <c r="K47" s="99"/>
@@ -24615,7 +24615,7 @@
       <c r="G48" s="99"/>
       <c r="H48" s="80"/>
       <c r="I48" s="80"/>
-      <c r="J48" s="220" t="s">
+      <c r="J48" s="155" t="s">
         <v>547</v>
       </c>
       <c r="K48" s="99"/>
@@ -24650,7 +24650,7 @@
       <c r="G49" s="99"/>
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
-      <c r="J49" s="220" t="s">
+      <c r="J49" s="155" t="s">
         <v>547</v>
       </c>
       <c r="K49" s="99"/>
@@ -25534,10 +25534,10 @@
       <c r="B74" s="118"/>
       <c r="C74" s="127"/>
       <c r="D74" s="103"/>
-      <c r="E74" s="221" t="s">
+      <c r="E74" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="222" t="s">
+      <c r="F74" s="157" t="s">
         <v>109</v>
       </c>
       <c r="G74" s="51"/>
@@ -25882,7 +25882,7 @@
       <c r="G83" s="99"/>
       <c r="H83" s="80"/>
       <c r="I83" s="80"/>
-      <c r="J83" s="220" t="s">
+      <c r="J83" s="155" t="s">
         <v>563</v>
       </c>
       <c r="K83" s="99"/>
@@ -27036,7 +27036,7 @@
       <c r="D114" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="E114" s="224" t="s">
+      <c r="E114" s="159" t="s">
         <v>93</v>
       </c>
       <c r="F114" s="104" t="s">
@@ -27045,7 +27045,7 @@
       <c r="G114" s="99"/>
       <c r="H114" s="80"/>
       <c r="I114" s="80"/>
-      <c r="J114" s="223" t="s">
+      <c r="J114" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K114" s="99"/>
@@ -27070,7 +27070,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B115" s="225" t="s">
+      <c r="B115" s="240" t="s">
         <v>495</v>
       </c>
       <c r="C115" s="108"/>
@@ -27082,7 +27082,7 @@
       <c r="G115" s="99"/>
       <c r="H115" s="80"/>
       <c r="I115" s="80"/>
-      <c r="J115" s="223" t="s">
+      <c r="J115" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K115" s="99"/>
@@ -27107,7 +27107,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B116" s="225"/>
+      <c r="B116" s="240"/>
       <c r="C116" s="108"/>
       <c r="D116" s="103"/>
       <c r="E116" s="132"/>
@@ -27117,7 +27117,7 @@
       <c r="G116" s="99"/>
       <c r="H116" s="80"/>
       <c r="I116" s="80"/>
-      <c r="J116" s="223" t="s">
+      <c r="J116" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K116" s="99"/>
@@ -27152,7 +27152,7 @@
       <c r="G117" s="99"/>
       <c r="H117" s="80"/>
       <c r="I117" s="80"/>
-      <c r="J117" s="223" t="s">
+      <c r="J117" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K117" s="99"/>
@@ -27189,7 +27189,7 @@
       <c r="G118" s="99"/>
       <c r="H118" s="80"/>
       <c r="I118" s="80"/>
-      <c r="J118" s="223" t="s">
+      <c r="J118" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K118" s="99"/>
@@ -27224,7 +27224,7 @@
       <c r="G119" s="99"/>
       <c r="H119" s="80"/>
       <c r="I119" s="80"/>
-      <c r="J119" s="223" t="s">
+      <c r="J119" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K119" s="99"/>
@@ -27259,7 +27259,7 @@
       <c r="G120" s="99"/>
       <c r="H120" s="80"/>
       <c r="I120" s="80"/>
-      <c r="J120" s="223" t="s">
+      <c r="J120" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K120" s="99"/>
@@ -27294,7 +27294,7 @@
       <c r="G121" s="99"/>
       <c r="H121" s="80"/>
       <c r="I121" s="80"/>
-      <c r="J121" s="223" t="s">
+      <c r="J121" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K121" s="99"/>
@@ -27326,12 +27326,12 @@
       <c r="F122" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="G122" s="99"/>
+      <c r="G122" s="99" t="s">
+        <v>233</v>
+      </c>
       <c r="H122" s="80"/>
       <c r="I122" s="80"/>
-      <c r="J122" s="223" t="s">
-        <v>572</v>
-      </c>
+      <c r="J122" s="158"/>
       <c r="K122" s="99"/>
       <c r="L122" s="80"/>
       <c r="M122" s="80"/>
@@ -27366,7 +27366,7 @@
       <c r="G123" s="99"/>
       <c r="H123" s="80"/>
       <c r="I123" s="80"/>
-      <c r="J123" s="223" t="s">
+      <c r="J123" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K123" s="99"/>
@@ -27401,7 +27401,7 @@
       <c r="G124" s="99"/>
       <c r="H124" s="80"/>
       <c r="I124" s="80"/>
-      <c r="J124" s="223" t="s">
+      <c r="J124" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K124" s="99"/>
@@ -27543,7 +27543,7 @@
       <c r="G128" s="99"/>
       <c r="H128" s="80"/>
       <c r="I128" s="80"/>
-      <c r="J128" s="223" t="s">
+      <c r="J128" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K128" s="99"/>
@@ -27582,7 +27582,7 @@
       <c r="G129" s="99"/>
       <c r="H129" s="80"/>
       <c r="I129" s="80"/>
-      <c r="J129" s="223" t="s">
+      <c r="J129" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K129" s="99"/>
@@ -27660,7 +27660,7 @@
       <c r="G131" s="99"/>
       <c r="H131" s="80"/>
       <c r="I131" s="80"/>
-      <c r="J131" s="223" t="s">
+      <c r="J131" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K131" s="99"/>
@@ -27695,7 +27695,7 @@
       <c r="G132" s="99"/>
       <c r="H132" s="80"/>
       <c r="I132" s="80"/>
-      <c r="J132" s="223" t="s">
+      <c r="J132" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K132" s="99"/>
@@ -27730,7 +27730,7 @@
       <c r="G133" s="99"/>
       <c r="H133" s="80"/>
       <c r="I133" s="80"/>
-      <c r="J133" s="223" t="s">
+      <c r="J133" s="158" t="s">
         <v>572</v>
       </c>
       <c r="K133" s="99"/>
@@ -27804,7 +27804,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B135" s="215" t="s">
+      <c r="B135" s="241" t="s">
         <v>253</v>
       </c>
       <c r="C135" s="123"/>
@@ -27813,7 +27813,7 @@
       <c r="F135" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="G135" s="226"/>
+      <c r="G135" s="160"/>
       <c r="H135" s="96" t="s">
         <v>554</v>
       </c>
@@ -27847,7 +27847,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B136" s="215"/>
+      <c r="B136" s="241"/>
       <c r="C136" s="123"/>
       <c r="D136" s="118"/>
       <c r="E136" s="123"/>
@@ -30957,7 +30957,7 @@
       <c r="G218" s="99"/>
       <c r="H218" s="80"/>
       <c r="I218" s="80"/>
-      <c r="J218" s="227" t="s">
+      <c r="J218" s="161" t="s">
         <v>666</v>
       </c>
       <c r="K218" s="99"/>
@@ -34612,7 +34612,7 @@
       <c r="G319" s="99"/>
       <c r="H319" s="80"/>
       <c r="I319" s="80"/>
-      <c r="J319" s="220" t="s">
+      <c r="J319" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K319" s="99"/>
@@ -34647,7 +34647,7 @@
       <c r="G320" s="99"/>
       <c r="H320" s="80"/>
       <c r="I320" s="80"/>
-      <c r="J320" s="220" t="s">
+      <c r="J320" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K320" s="99"/>
@@ -34682,7 +34682,7 @@
       <c r="G321" s="99"/>
       <c r="H321" s="80"/>
       <c r="I321" s="80"/>
-      <c r="J321" s="220" t="s">
+      <c r="J321" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K321" s="99"/>
@@ -34717,7 +34717,7 @@
       <c r="G322" s="99"/>
       <c r="H322" s="80"/>
       <c r="I322" s="80"/>
-      <c r="J322" s="220" t="s">
+      <c r="J322" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K322" s="99"/>
@@ -34758,7 +34758,7 @@
       <c r="G323" s="99"/>
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
-      <c r="J323" s="220" t="s">
+      <c r="J323" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K323" s="99"/>
@@ -34795,7 +34795,7 @@
       <c r="G324" s="99"/>
       <c r="H324" s="80"/>
       <c r="I324" s="80"/>
-      <c r="J324" s="220" t="s">
+      <c r="J324" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K324" s="99"/>
@@ -34832,7 +34832,7 @@
       <c r="G325" s="99"/>
       <c r="H325" s="80"/>
       <c r="I325" s="80"/>
-      <c r="J325" s="220" t="s">
+      <c r="J325" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K325" s="99"/>
@@ -34869,7 +34869,7 @@
       <c r="G326" s="99"/>
       <c r="H326" s="80"/>
       <c r="I326" s="80"/>
-      <c r="J326" s="220" t="s">
+      <c r="J326" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K326" s="99"/>
@@ -34908,7 +34908,7 @@
       <c r="G327" s="99"/>
       <c r="H327" s="80"/>
       <c r="I327" s="80"/>
-      <c r="J327" s="220" t="s">
+      <c r="J327" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K327" s="99"/>
@@ -34943,7 +34943,7 @@
       <c r="G328" s="99"/>
       <c r="H328" s="80"/>
       <c r="I328" s="80"/>
-      <c r="J328" s="220" t="s">
+      <c r="J328" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K328" s="99"/>
@@ -34978,7 +34978,7 @@
       <c r="G329" s="99"/>
       <c r="H329" s="80"/>
       <c r="I329" s="80"/>
-      <c r="J329" s="220" t="s">
+      <c r="J329" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K329" s="99"/>
@@ -35013,7 +35013,7 @@
       <c r="G330" s="99"/>
       <c r="H330" s="80"/>
       <c r="I330" s="80"/>
-      <c r="J330" s="220" t="s">
+      <c r="J330" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K330" s="99"/>
@@ -35048,7 +35048,7 @@
       <c r="G331" s="99"/>
       <c r="H331" s="80"/>
       <c r="I331" s="80"/>
-      <c r="J331" s="220" t="s">
+      <c r="J331" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K331" s="99"/>
@@ -35083,7 +35083,7 @@
       <c r="G332" s="99"/>
       <c r="H332" s="80"/>
       <c r="I332" s="80"/>
-      <c r="J332" s="220" t="s">
+      <c r="J332" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K332" s="99"/>
@@ -35118,7 +35118,7 @@
       <c r="G333" s="99"/>
       <c r="H333" s="80"/>
       <c r="I333" s="80"/>
-      <c r="J333" s="220" t="s">
+      <c r="J333" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K333" s="99"/>
@@ -35153,7 +35153,7 @@
       <c r="G334" s="99"/>
       <c r="H334" s="80"/>
       <c r="I334" s="80"/>
-      <c r="J334" s="220" t="s">
+      <c r="J334" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K334" s="99"/>
@@ -35188,7 +35188,7 @@
       <c r="G335" s="99"/>
       <c r="H335" s="80"/>
       <c r="I335" s="80"/>
-      <c r="J335" s="220" t="s">
+      <c r="J335" s="155" t="s">
         <v>537</v>
       </c>
       <c r="K335" s="99"/>
@@ -35523,10 +35523,10 @@
       </c>
       <c r="B344" s="91"/>
       <c r="C344" s="91"/>
-      <c r="D344" s="228" t="s">
+      <c r="D344" s="162" t="s">
         <v>465</v>
       </c>
-      <c r="E344" s="228" t="s">
+      <c r="E344" s="162" t="s">
         <v>52</v>
       </c>
       <c r="F344" s="99" t="s">
@@ -35562,8 +35562,8 @@
       </c>
       <c r="B345" s="91"/>
       <c r="C345" s="91"/>
-      <c r="D345" s="229"/>
-      <c r="E345" s="229"/>
+      <c r="D345" s="163"/>
+      <c r="E345" s="163"/>
       <c r="F345" s="99" t="s">
         <v>467</v>
       </c>
@@ -35597,8 +35597,8 @@
       </c>
       <c r="B346" s="91"/>
       <c r="C346" s="91"/>
-      <c r="D346" s="230"/>
-      <c r="E346" s="230"/>
+      <c r="D346" s="164"/>
+      <c r="E346" s="164"/>
       <c r="F346" s="99" t="s">
         <v>468</v>
       </c>
@@ -35632,10 +35632,10 @@
       </c>
       <c r="B347" s="91"/>
       <c r="C347" s="91"/>
-      <c r="D347" s="228" t="s">
+      <c r="D347" s="162" t="s">
         <v>469</v>
       </c>
-      <c r="E347" s="228" t="s">
+      <c r="E347" s="162" t="s">
         <v>52</v>
       </c>
       <c r="F347" s="99" t="s">
@@ -35671,8 +35671,8 @@
       </c>
       <c r="B348" s="91"/>
       <c r="C348" s="91"/>
-      <c r="D348" s="229"/>
-      <c r="E348" s="229"/>
+      <c r="D348" s="163"/>
+      <c r="E348" s="163"/>
       <c r="F348" s="99" t="s">
         <v>471</v>
       </c>
@@ -35706,8 +35706,8 @@
       </c>
       <c r="B349" s="91"/>
       <c r="C349" s="91"/>
-      <c r="D349" s="230"/>
-      <c r="E349" s="230"/>
+      <c r="D349" s="164"/>
+      <c r="E349" s="164"/>
       <c r="F349" s="99" t="s">
         <v>472</v>
       </c>
@@ -35741,10 +35741,10 @@
       </c>
       <c r="B350" s="91"/>
       <c r="C350" s="91"/>
-      <c r="D350" s="228" t="s">
+      <c r="D350" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="E350" s="228" t="s">
+      <c r="E350" s="162" t="s">
         <v>52</v>
       </c>
       <c r="F350" s="99" t="s">
@@ -35780,8 +35780,8 @@
       </c>
       <c r="B351" s="91"/>
       <c r="C351" s="91"/>
-      <c r="D351" s="229"/>
-      <c r="E351" s="229"/>
+      <c r="D351" s="163"/>
+      <c r="E351" s="163"/>
       <c r="F351" s="99" t="s">
         <v>474</v>
       </c>
@@ -35815,8 +35815,8 @@
       </c>
       <c r="B352" s="91"/>
       <c r="C352" s="91"/>
-      <c r="D352" s="229"/>
-      <c r="E352" s="229"/>
+      <c r="D352" s="163"/>
+      <c r="E352" s="163"/>
       <c r="F352" s="99" t="s">
         <v>475</v>
       </c>
@@ -35850,8 +35850,8 @@
       </c>
       <c r="B353" s="91"/>
       <c r="C353" s="91"/>
-      <c r="D353" s="229"/>
-      <c r="E353" s="229"/>
+      <c r="D353" s="163"/>
+      <c r="E353" s="163"/>
       <c r="F353" s="99" t="s">
         <v>476</v>
       </c>
@@ -35885,8 +35885,8 @@
       </c>
       <c r="B354" s="91"/>
       <c r="C354" s="91"/>
-      <c r="D354" s="229"/>
-      <c r="E354" s="229"/>
+      <c r="D354" s="163"/>
+      <c r="E354" s="163"/>
       <c r="F354" s="99" t="s">
         <v>477</v>
       </c>
@@ -35920,8 +35920,8 @@
       </c>
       <c r="B355" s="91"/>
       <c r="C355" s="91"/>
-      <c r="D355" s="229"/>
-      <c r="E355" s="229"/>
+      <c r="D355" s="163"/>
+      <c r="E355" s="163"/>
       <c r="F355" s="99" t="s">
         <v>478</v>
       </c>
@@ -35955,8 +35955,8 @@
       </c>
       <c r="B356" s="91"/>
       <c r="C356" s="91"/>
-      <c r="D356" s="229"/>
-      <c r="E356" s="229"/>
+      <c r="D356" s="163"/>
+      <c r="E356" s="163"/>
       <c r="F356" s="99" t="s">
         <v>479</v>
       </c>
@@ -35990,8 +35990,8 @@
       </c>
       <c r="B357" s="92"/>
       <c r="C357" s="92"/>
-      <c r="D357" s="230"/>
-      <c r="E357" s="230"/>
+      <c r="D357" s="164"/>
+      <c r="E357" s="164"/>
       <c r="F357" s="99" t="s">
         <v>480</v>
       </c>
@@ -36259,65 +36259,65 @@
       <c r="A11" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="231" t="s">
+      <c r="C11" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="232" t="s">
+      <c r="D11" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="232" t="s">
+      <c r="E11" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="232" t="s">
+      <c r="F11" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="233"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="233"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
     </row>
     <row r="12" spans="1:15" s="29" customFormat="1">
       <c r="A12" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="235"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
       <c r="D12" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="232" t="s">
+      <c r="E12" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="233"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="233"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
     </row>
     <row r="13" spans="1:15" s="29" customFormat="1" ht="33.75">
       <c r="A13" s="148" t="s">
         <v>531</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="237" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="171" t="s">
         <v>533</v>
       </c>
-      <c r="D13" s="238" t="s">
+      <c r="D13" s="172" t="s">
         <v>525</v>
       </c>
       <c r="E13" s="98" t="s">
@@ -36330,21 +36330,21 @@
         <v>683</v>
       </c>
       <c r="H13" s="98"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
     </row>
     <row r="14" spans="1:15" s="29" customFormat="1" ht="56.25">
       <c r="A14" s="148" t="s">
         <v>532</v>
       </c>
-      <c r="B14" s="240"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="238" t="s">
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="172" t="s">
         <v>528</v>
       </c>
       <c r="E14" s="98" t="s">
@@ -36357,13 +36357,13 @@
         <v>683</v>
       </c>
       <c r="H14" s="98"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="239"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="239"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
     </row>
     <row r="15" spans="1:15" s="29" customFormat="1">
       <c r="D15" s="31"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04131AC8-3B82-4E4F-9F16-69D154CBF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0988A030-8F97-4A78-9150-15A8FBB21E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7549,22 +7549,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同名ファイルが合った場合の仕様なし</t>
-    <rPh sb="0" eb="2">
-      <t>ドウメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー時の出力対象ファイルについての仕様なし</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
@@ -8628,6 +8612,19 @@
     <t>バッチ処理ID：BA1060101</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同名ファイルがあった場合の仕様なし</t>
+    <rPh sb="0" eb="2">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9642,93 +9639,6 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9827,6 +9737,93 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11472,57 +11469,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="212" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="183" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="221" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="230" t="s">
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="201" t="s">
         <v>520</v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="206" t="s">
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="203"/>
+      <c r="AA1" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="207"/>
-      <c r="AC1" s="208" t="str">
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="179" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="215" t="str">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="186" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="217"/>
+      <c r="AH1" s="187"/>
+      <c r="AI1" s="188"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -11530,53 +11527,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="212" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="183" t="s">
         <v>522</v>
       </c>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="206" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="189" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="215" t="str">
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="191"/>
+      <c r="AG2" s="186" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="217"/>
+      <c r="AH2" s="187"/>
+      <c r="AI2" s="188"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -11584,45 +11581,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="212" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="183" t="s">
         <v>524</v>
       </c>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="217"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="208"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="186"/>
+      <c r="AH3" s="187"/>
+      <c r="AI3" s="188"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -11659,1181 +11656,1020 @@
       <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="191"/>
-      <c r="D7" s="190" t="s">
+      <c r="C7" s="211"/>
+      <c r="D7" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="190" t="s">
+      <c r="E7" s="212"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="190" t="s">
+      <c r="H7" s="212"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="190" t="s">
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="192"/>
-      <c r="AB7" s="192"/>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="191"/>
-      <c r="AF7" s="190" t="s">
+      <c r="R7" s="212"/>
+      <c r="S7" s="212"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="212"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="212"/>
+      <c r="Z7" s="212"/>
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="212"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="212"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="192"/>
-      <c r="AI7" s="191"/>
+      <c r="AG7" s="212"/>
+      <c r="AH7" s="212"/>
+      <c r="AI7" s="211"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="205"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="201"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="202"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="220"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="221"/>
+      <c r="P8" s="222"/>
+      <c r="Q8" s="223"/>
+      <c r="R8" s="224"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="224"/>
+      <c r="U8" s="224"/>
+      <c r="V8" s="224"/>
+      <c r="W8" s="224"/>
+      <c r="X8" s="224"/>
+      <c r="Y8" s="224"/>
+      <c r="Z8" s="224"/>
+      <c r="AA8" s="224"/>
+      <c r="AB8" s="224"/>
+      <c r="AC8" s="224"/>
+      <c r="AD8" s="224"/>
+      <c r="AE8" s="225"/>
+      <c r="AF8" s="220"/>
+      <c r="AG8" s="221"/>
+      <c r="AH8" s="221"/>
+      <c r="AI8" s="222"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="188"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="185"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="234"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="236"/>
+      <c r="S9" s="236"/>
+      <c r="T9" s="236"/>
+      <c r="U9" s="236"/>
+      <c r="V9" s="236"/>
+      <c r="W9" s="236"/>
+      <c r="X9" s="236"/>
+      <c r="Y9" s="236"/>
+      <c r="Z9" s="236"/>
+      <c r="AA9" s="236"/>
+      <c r="AB9" s="236"/>
+      <c r="AC9" s="236"/>
+      <c r="AD9" s="236"/>
+      <c r="AE9" s="237"/>
+      <c r="AF9" s="232"/>
+      <c r="AG9" s="233"/>
+      <c r="AH9" s="233"/>
+      <c r="AI9" s="234"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="187"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="184"/>
-      <c r="AH10" s="184"/>
-      <c r="AI10" s="185"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="233"/>
+      <c r="L10" s="233"/>
+      <c r="M10" s="233"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="234"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="236"/>
+      <c r="W10" s="236"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="236"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
+      <c r="AB10" s="236"/>
+      <c r="AC10" s="236"/>
+      <c r="AD10" s="236"/>
+      <c r="AE10" s="237"/>
+      <c r="AF10" s="232"/>
+      <c r="AG10" s="233"/>
+      <c r="AH10" s="233"/>
+      <c r="AI10" s="234"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="187"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="184"/>
-      <c r="AH11" s="184"/>
-      <c r="AI11" s="185"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="233"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="233"/>
+      <c r="N11" s="233"/>
+      <c r="O11" s="233"/>
+      <c r="P11" s="234"/>
+      <c r="Q11" s="235"/>
+      <c r="R11" s="236"/>
+      <c r="S11" s="236"/>
+      <c r="T11" s="236"/>
+      <c r="U11" s="236"/>
+      <c r="V11" s="236"/>
+      <c r="W11" s="236"/>
+      <c r="X11" s="236"/>
+      <c r="Y11" s="236"/>
+      <c r="Z11" s="236"/>
+      <c r="AA11" s="236"/>
+      <c r="AB11" s="236"/>
+      <c r="AC11" s="236"/>
+      <c r="AD11" s="236"/>
+      <c r="AE11" s="237"/>
+      <c r="AF11" s="232"/>
+      <c r="AG11" s="233"/>
+      <c r="AH11" s="233"/>
+      <c r="AI11" s="234"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="184"/>
-      <c r="AH12" s="184"/>
-      <c r="AI12" s="185"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="233"/>
+      <c r="O12" s="233"/>
+      <c r="P12" s="234"/>
+      <c r="Q12" s="235"/>
+      <c r="R12" s="236"/>
+      <c r="S12" s="236"/>
+      <c r="T12" s="236"/>
+      <c r="U12" s="236"/>
+      <c r="V12" s="236"/>
+      <c r="W12" s="236"/>
+      <c r="X12" s="236"/>
+      <c r="Y12" s="236"/>
+      <c r="Z12" s="236"/>
+      <c r="AA12" s="236"/>
+      <c r="AB12" s="236"/>
+      <c r="AC12" s="236"/>
+      <c r="AD12" s="236"/>
+      <c r="AE12" s="237"/>
+      <c r="AF12" s="232"/>
+      <c r="AG12" s="233"/>
+      <c r="AH12" s="233"/>
+      <c r="AI12" s="234"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="187"/>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="187"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="183"/>
-      <c r="AG13" s="184"/>
-      <c r="AH13" s="184"/>
-      <c r="AI13" s="185"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="233"/>
+      <c r="L13" s="233"/>
+      <c r="M13" s="233"/>
+      <c r="N13" s="233"/>
+      <c r="O13" s="233"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="236"/>
+      <c r="S13" s="236"/>
+      <c r="T13" s="236"/>
+      <c r="U13" s="236"/>
+      <c r="V13" s="236"/>
+      <c r="W13" s="236"/>
+      <c r="X13" s="236"/>
+      <c r="Y13" s="236"/>
+      <c r="Z13" s="236"/>
+      <c r="AA13" s="236"/>
+      <c r="AB13" s="236"/>
+      <c r="AC13" s="236"/>
+      <c r="AD13" s="236"/>
+      <c r="AE13" s="237"/>
+      <c r="AF13" s="232"/>
+      <c r="AG13" s="233"/>
+      <c r="AH13" s="233"/>
+      <c r="AI13" s="234"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="187"/>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="183"/>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="184"/>
-      <c r="AI14" s="185"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="233"/>
+      <c r="M14" s="233"/>
+      <c r="N14" s="233"/>
+      <c r="O14" s="233"/>
+      <c r="P14" s="234"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="236"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="236"/>
+      <c r="V14" s="236"/>
+      <c r="W14" s="236"/>
+      <c r="X14" s="236"/>
+      <c r="Y14" s="236"/>
+      <c r="Z14" s="236"/>
+      <c r="AA14" s="236"/>
+      <c r="AB14" s="236"/>
+      <c r="AC14" s="236"/>
+      <c r="AD14" s="236"/>
+      <c r="AE14" s="237"/>
+      <c r="AF14" s="232"/>
+      <c r="AG14" s="233"/>
+      <c r="AH14" s="233"/>
+      <c r="AI14" s="234"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="187"/>
-      <c r="AE15" s="188"/>
-      <c r="AF15" s="183"/>
-      <c r="AG15" s="184"/>
-      <c r="AH15" s="184"/>
-      <c r="AI15" s="185"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="233"/>
+      <c r="M15" s="233"/>
+      <c r="N15" s="233"/>
+      <c r="O15" s="233"/>
+      <c r="P15" s="234"/>
+      <c r="Q15" s="235"/>
+      <c r="R15" s="236"/>
+      <c r="S15" s="236"/>
+      <c r="T15" s="236"/>
+      <c r="U15" s="236"/>
+      <c r="V15" s="236"/>
+      <c r="W15" s="236"/>
+      <c r="X15" s="236"/>
+      <c r="Y15" s="236"/>
+      <c r="Z15" s="236"/>
+      <c r="AA15" s="236"/>
+      <c r="AB15" s="236"/>
+      <c r="AC15" s="236"/>
+      <c r="AD15" s="236"/>
+      <c r="AE15" s="237"/>
+      <c r="AF15" s="232"/>
+      <c r="AG15" s="233"/>
+      <c r="AH15" s="233"/>
+      <c r="AI15" s="234"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
-      <c r="S16" s="187"/>
-      <c r="T16" s="187"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="187"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="187"/>
-      <c r="Z16" s="187"/>
-      <c r="AA16" s="187"/>
-      <c r="AB16" s="187"/>
-      <c r="AC16" s="187"/>
-      <c r="AD16" s="187"/>
-      <c r="AE16" s="188"/>
-      <c r="AF16" s="183"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="185"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="233"/>
+      <c r="L16" s="233"/>
+      <c r="M16" s="233"/>
+      <c r="N16" s="233"/>
+      <c r="O16" s="233"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="235"/>
+      <c r="R16" s="236"/>
+      <c r="S16" s="236"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="236"/>
+      <c r="W16" s="236"/>
+      <c r="X16" s="236"/>
+      <c r="Y16" s="236"/>
+      <c r="Z16" s="236"/>
+      <c r="AA16" s="236"/>
+      <c r="AB16" s="236"/>
+      <c r="AC16" s="236"/>
+      <c r="AD16" s="236"/>
+      <c r="AE16" s="237"/>
+      <c r="AF16" s="232"/>
+      <c r="AG16" s="233"/>
+      <c r="AH16" s="233"/>
+      <c r="AI16" s="234"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="187"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187"/>
-      <c r="AE17" s="188"/>
-      <c r="AF17" s="183"/>
-      <c r="AG17" s="184"/>
-      <c r="AH17" s="184"/>
-      <c r="AI17" s="185"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="234"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="236"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="236"/>
+      <c r="Z17" s="236"/>
+      <c r="AA17" s="236"/>
+      <c r="AB17" s="236"/>
+      <c r="AC17" s="236"/>
+      <c r="AD17" s="236"/>
+      <c r="AE17" s="237"/>
+      <c r="AF17" s="232"/>
+      <c r="AG17" s="233"/>
+      <c r="AH17" s="233"/>
+      <c r="AI17" s="234"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="187"/>
-      <c r="V18" s="187"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
-      <c r="Y18" s="187"/>
-      <c r="Z18" s="187"/>
-      <c r="AA18" s="187"/>
-      <c r="AB18" s="187"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="187"/>
-      <c r="AE18" s="188"/>
-      <c r="AF18" s="183"/>
-      <c r="AG18" s="184"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="185"/>
+      <c r="B18" s="226"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="230"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="227"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="233"/>
+      <c r="O18" s="233"/>
+      <c r="P18" s="234"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="236"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="236"/>
+      <c r="W18" s="236"/>
+      <c r="X18" s="236"/>
+      <c r="Y18" s="236"/>
+      <c r="Z18" s="236"/>
+      <c r="AA18" s="236"/>
+      <c r="AB18" s="236"/>
+      <c r="AC18" s="236"/>
+      <c r="AD18" s="236"/>
+      <c r="AE18" s="237"/>
+      <c r="AF18" s="232"/>
+      <c r="AG18" s="233"/>
+      <c r="AH18" s="233"/>
+      <c r="AI18" s="234"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="184"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="187"/>
-      <c r="AD19" s="187"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="183"/>
-      <c r="AG19" s="184"/>
-      <c r="AH19" s="184"/>
-      <c r="AI19" s="185"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="234"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="236"/>
+      <c r="W19" s="236"/>
+      <c r="X19" s="236"/>
+      <c r="Y19" s="236"/>
+      <c r="Z19" s="236"/>
+      <c r="AA19" s="236"/>
+      <c r="AB19" s="236"/>
+      <c r="AC19" s="236"/>
+      <c r="AD19" s="236"/>
+      <c r="AE19" s="237"/>
+      <c r="AF19" s="232"/>
+      <c r="AG19" s="233"/>
+      <c r="AH19" s="233"/>
+      <c r="AI19" s="234"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="184"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="185"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="187"/>
-      <c r="Z20" s="187"/>
-      <c r="AA20" s="187"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="187"/>
-      <c r="AD20" s="187"/>
-      <c r="AE20" s="188"/>
-      <c r="AF20" s="183"/>
-      <c r="AG20" s="184"/>
-      <c r="AH20" s="184"/>
-      <c r="AI20" s="185"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="233"/>
+      <c r="O20" s="233"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="236"/>
+      <c r="S20" s="236"/>
+      <c r="T20" s="236"/>
+      <c r="U20" s="236"/>
+      <c r="V20" s="236"/>
+      <c r="W20" s="236"/>
+      <c r="X20" s="236"/>
+      <c r="Y20" s="236"/>
+      <c r="Z20" s="236"/>
+      <c r="AA20" s="236"/>
+      <c r="AB20" s="236"/>
+      <c r="AC20" s="236"/>
+      <c r="AD20" s="236"/>
+      <c r="AE20" s="237"/>
+      <c r="AF20" s="232"/>
+      <c r="AG20" s="233"/>
+      <c r="AH20" s="233"/>
+      <c r="AI20" s="234"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="187"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="187"/>
-      <c r="X21" s="187"/>
-      <c r="Y21" s="187"/>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="187"/>
-      <c r="AD21" s="187"/>
-      <c r="AE21" s="188"/>
-      <c r="AF21" s="183"/>
-      <c r="AG21" s="184"/>
-      <c r="AH21" s="184"/>
-      <c r="AI21" s="185"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="233"/>
+      <c r="P21" s="234"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="236"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="236"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="236"/>
+      <c r="W21" s="236"/>
+      <c r="X21" s="236"/>
+      <c r="Y21" s="236"/>
+      <c r="Z21" s="236"/>
+      <c r="AA21" s="236"/>
+      <c r="AB21" s="236"/>
+      <c r="AC21" s="236"/>
+      <c r="AD21" s="236"/>
+      <c r="AE21" s="237"/>
+      <c r="AF21" s="232"/>
+      <c r="AG21" s="233"/>
+      <c r="AH21" s="233"/>
+      <c r="AI21" s="234"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="187"/>
-      <c r="U22" s="187"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="187"/>
-      <c r="X22" s="187"/>
-      <c r="Y22" s="187"/>
-      <c r="Z22" s="187"/>
-      <c r="AA22" s="187"/>
-      <c r="AB22" s="187"/>
-      <c r="AC22" s="187"/>
-      <c r="AD22" s="187"/>
-      <c r="AE22" s="188"/>
-      <c r="AF22" s="183"/>
-      <c r="AG22" s="184"/>
-      <c r="AH22" s="184"/>
-      <c r="AI22" s="185"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="227"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="233"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="233"/>
+      <c r="N22" s="233"/>
+      <c r="O22" s="233"/>
+      <c r="P22" s="234"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="236"/>
+      <c r="V22" s="236"/>
+      <c r="W22" s="236"/>
+      <c r="X22" s="236"/>
+      <c r="Y22" s="236"/>
+      <c r="Z22" s="236"/>
+      <c r="AA22" s="236"/>
+      <c r="AB22" s="236"/>
+      <c r="AC22" s="236"/>
+      <c r="AD22" s="236"/>
+      <c r="AE22" s="237"/>
+      <c r="AF22" s="232"/>
+      <c r="AG22" s="233"/>
+      <c r="AH22" s="233"/>
+      <c r="AI22" s="234"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="187"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="187"/>
-      <c r="V23" s="187"/>
-      <c r="W23" s="187"/>
-      <c r="X23" s="187"/>
-      <c r="Y23" s="187"/>
-      <c r="Z23" s="187"/>
-      <c r="AA23" s="187"/>
-      <c r="AB23" s="187"/>
-      <c r="AC23" s="187"/>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="188"/>
-      <c r="AF23" s="183"/>
-      <c r="AG23" s="184"/>
-      <c r="AH23" s="184"/>
-      <c r="AI23" s="185"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="227"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="233"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="233"/>
+      <c r="N23" s="233"/>
+      <c r="O23" s="233"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="236"/>
+      <c r="S23" s="236"/>
+      <c r="T23" s="236"/>
+      <c r="U23" s="236"/>
+      <c r="V23" s="236"/>
+      <c r="W23" s="236"/>
+      <c r="X23" s="236"/>
+      <c r="Y23" s="236"/>
+      <c r="Z23" s="236"/>
+      <c r="AA23" s="236"/>
+      <c r="AB23" s="236"/>
+      <c r="AC23" s="236"/>
+      <c r="AD23" s="236"/>
+      <c r="AE23" s="237"/>
+      <c r="AF23" s="232"/>
+      <c r="AG23" s="233"/>
+      <c r="AH23" s="233"/>
+      <c r="AI23" s="234"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="185"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
-      <c r="S24" s="187"/>
-      <c r="T24" s="187"/>
-      <c r="U24" s="187"/>
-      <c r="V24" s="187"/>
-      <c r="W24" s="187"/>
-      <c r="X24" s="187"/>
-      <c r="Y24" s="187"/>
-      <c r="Z24" s="187"/>
-      <c r="AA24" s="187"/>
-      <c r="AB24" s="187"/>
-      <c r="AC24" s="187"/>
-      <c r="AD24" s="187"/>
-      <c r="AE24" s="188"/>
-      <c r="AF24" s="183"/>
-      <c r="AG24" s="184"/>
-      <c r="AH24" s="184"/>
-      <c r="AI24" s="185"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="231"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="233"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="233"/>
+      <c r="N24" s="233"/>
+      <c r="O24" s="233"/>
+      <c r="P24" s="234"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="236"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="236"/>
+      <c r="U24" s="236"/>
+      <c r="V24" s="236"/>
+      <c r="W24" s="236"/>
+      <c r="X24" s="236"/>
+      <c r="Y24" s="236"/>
+      <c r="Z24" s="236"/>
+      <c r="AA24" s="236"/>
+      <c r="AB24" s="236"/>
+      <c r="AC24" s="236"/>
+      <c r="AD24" s="236"/>
+      <c r="AE24" s="237"/>
+      <c r="AF24" s="232"/>
+      <c r="AG24" s="233"/>
+      <c r="AH24" s="233"/>
+      <c r="AI24" s="234"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="187"/>
-      <c r="V25" s="187"/>
-      <c r="W25" s="187"/>
-      <c r="X25" s="187"/>
-      <c r="Y25" s="187"/>
-      <c r="Z25" s="187"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
-      <c r="AD25" s="187"/>
-      <c r="AE25" s="188"/>
-      <c r="AF25" s="183"/>
-      <c r="AG25" s="184"/>
-      <c r="AH25" s="184"/>
-      <c r="AI25" s="185"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="227"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="233"/>
+      <c r="L25" s="233"/>
+      <c r="M25" s="233"/>
+      <c r="N25" s="233"/>
+      <c r="O25" s="233"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="236"/>
+      <c r="X25" s="236"/>
+      <c r="Y25" s="236"/>
+      <c r="Z25" s="236"/>
+      <c r="AA25" s="236"/>
+      <c r="AB25" s="236"/>
+      <c r="AC25" s="236"/>
+      <c r="AD25" s="236"/>
+      <c r="AE25" s="237"/>
+      <c r="AF25" s="232"/>
+      <c r="AG25" s="233"/>
+      <c r="AH25" s="233"/>
+      <c r="AI25" s="234"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="187"/>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
-      <c r="AB26" s="187"/>
-      <c r="AC26" s="187"/>
-      <c r="AD26" s="187"/>
-      <c r="AE26" s="188"/>
-      <c r="AF26" s="183"/>
-      <c r="AG26" s="184"/>
-      <c r="AH26" s="184"/>
-      <c r="AI26" s="185"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="233"/>
+      <c r="L26" s="233"/>
+      <c r="M26" s="233"/>
+      <c r="N26" s="233"/>
+      <c r="O26" s="233"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="236"/>
+      <c r="S26" s="236"/>
+      <c r="T26" s="236"/>
+      <c r="U26" s="236"/>
+      <c r="V26" s="236"/>
+      <c r="W26" s="236"/>
+      <c r="X26" s="236"/>
+      <c r="Y26" s="236"/>
+      <c r="Z26" s="236"/>
+      <c r="AA26" s="236"/>
+      <c r="AB26" s="236"/>
+      <c r="AC26" s="236"/>
+      <c r="AD26" s="236"/>
+      <c r="AE26" s="237"/>
+      <c r="AF26" s="232"/>
+      <c r="AG26" s="233"/>
+      <c r="AH26" s="233"/>
+      <c r="AI26" s="234"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="185"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="187"/>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="187"/>
-      <c r="AD27" s="187"/>
-      <c r="AE27" s="188"/>
-      <c r="AF27" s="183"/>
-      <c r="AG27" s="184"/>
-      <c r="AH27" s="184"/>
-      <c r="AI27" s="185"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="233"/>
+      <c r="L27" s="233"/>
+      <c r="M27" s="233"/>
+      <c r="N27" s="233"/>
+      <c r="O27" s="233"/>
+      <c r="P27" s="234"/>
+      <c r="Q27" s="235"/>
+      <c r="R27" s="236"/>
+      <c r="S27" s="236"/>
+      <c r="T27" s="236"/>
+      <c r="U27" s="236"/>
+      <c r="V27" s="236"/>
+      <c r="W27" s="236"/>
+      <c r="X27" s="236"/>
+      <c r="Y27" s="236"/>
+      <c r="Z27" s="236"/>
+      <c r="AA27" s="236"/>
+      <c r="AB27" s="236"/>
+      <c r="AC27" s="236"/>
+      <c r="AD27" s="236"/>
+      <c r="AE27" s="237"/>
+      <c r="AF27" s="232"/>
+      <c r="AG27" s="233"/>
+      <c r="AH27" s="233"/>
+      <c r="AI27" s="234"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="183"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="185"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="233"/>
+      <c r="L28" s="233"/>
+      <c r="M28" s="233"/>
+      <c r="N28" s="233"/>
+      <c r="O28" s="233"/>
+      <c r="P28" s="234"/>
+      <c r="Q28" s="235"/>
+      <c r="R28" s="236"/>
+      <c r="S28" s="236"/>
+      <c r="T28" s="236"/>
+      <c r="U28" s="236"/>
+      <c r="V28" s="236"/>
+      <c r="W28" s="236"/>
+      <c r="X28" s="236"/>
+      <c r="Y28" s="236"/>
+      <c r="Z28" s="236"/>
+      <c r="AA28" s="236"/>
+      <c r="AB28" s="236"/>
+      <c r="AC28" s="236"/>
+      <c r="AD28" s="236"/>
+      <c r="AE28" s="237"/>
+      <c r="AF28" s="232"/>
+      <c r="AG28" s="233"/>
+      <c r="AH28" s="233"/>
+      <c r="AI28" s="234"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="187"/>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="187"/>
-      <c r="AC29" s="187"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="188"/>
-      <c r="AF29" s="183"/>
-      <c r="AG29" s="184"/>
-      <c r="AH29" s="184"/>
-      <c r="AI29" s="185"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="227"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="233"/>
+      <c r="L29" s="233"/>
+      <c r="M29" s="233"/>
+      <c r="N29" s="233"/>
+      <c r="O29" s="233"/>
+      <c r="P29" s="234"/>
+      <c r="Q29" s="235"/>
+      <c r="R29" s="236"/>
+      <c r="S29" s="236"/>
+      <c r="T29" s="236"/>
+      <c r="U29" s="236"/>
+      <c r="V29" s="236"/>
+      <c r="W29" s="236"/>
+      <c r="X29" s="236"/>
+      <c r="Y29" s="236"/>
+      <c r="Z29" s="236"/>
+      <c r="AA29" s="236"/>
+      <c r="AB29" s="236"/>
+      <c r="AC29" s="236"/>
+      <c r="AD29" s="236"/>
+      <c r="AE29" s="237"/>
+      <c r="AF29" s="232"/>
+      <c r="AG29" s="233"/>
+      <c r="AH29" s="233"/>
+      <c r="AI29" s="234"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="185"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="187"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="187"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="187"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
-      <c r="AB30" s="187"/>
-      <c r="AC30" s="187"/>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="188"/>
-      <c r="AF30" s="183"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="185"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="227"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="233"/>
+      <c r="L30" s="233"/>
+      <c r="M30" s="233"/>
+      <c r="N30" s="233"/>
+      <c r="O30" s="233"/>
+      <c r="P30" s="234"/>
+      <c r="Q30" s="235"/>
+      <c r="R30" s="236"/>
+      <c r="S30" s="236"/>
+      <c r="T30" s="236"/>
+      <c r="U30" s="236"/>
+      <c r="V30" s="236"/>
+      <c r="W30" s="236"/>
+      <c r="X30" s="236"/>
+      <c r="Y30" s="236"/>
+      <c r="Z30" s="236"/>
+      <c r="AA30" s="236"/>
+      <c r="AB30" s="236"/>
+      <c r="AC30" s="236"/>
+      <c r="AD30" s="236"/>
+      <c r="AE30" s="237"/>
+      <c r="AF30" s="232"/>
+      <c r="AG30" s="233"/>
+      <c r="AH30" s="233"/>
+      <c r="AI30" s="234"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="185"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
-      <c r="AB31" s="187"/>
-      <c r="AC31" s="187"/>
-      <c r="AD31" s="187"/>
-      <c r="AE31" s="188"/>
-      <c r="AF31" s="183"/>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
-      <c r="AI31" s="185"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="233"/>
+      <c r="L31" s="233"/>
+      <c r="M31" s="233"/>
+      <c r="N31" s="233"/>
+      <c r="O31" s="233"/>
+      <c r="P31" s="234"/>
+      <c r="Q31" s="235"/>
+      <c r="R31" s="236"/>
+      <c r="S31" s="236"/>
+      <c r="T31" s="236"/>
+      <c r="U31" s="236"/>
+      <c r="V31" s="236"/>
+      <c r="W31" s="236"/>
+      <c r="X31" s="236"/>
+      <c r="Y31" s="236"/>
+      <c r="Z31" s="236"/>
+      <c r="AA31" s="236"/>
+      <c r="AB31" s="236"/>
+      <c r="AC31" s="236"/>
+      <c r="AD31" s="236"/>
+      <c r="AE31" s="237"/>
+      <c r="AF31" s="232"/>
+      <c r="AG31" s="233"/>
+      <c r="AH31" s="233"/>
+      <c r="AI31" s="234"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
-      <c r="AB32" s="187"/>
-      <c r="AC32" s="187"/>
-      <c r="AD32" s="187"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="183"/>
-      <c r="AG32" s="184"/>
-      <c r="AH32" s="184"/>
-      <c r="AI32" s="185"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="233"/>
+      <c r="M32" s="233"/>
+      <c r="N32" s="233"/>
+      <c r="O32" s="233"/>
+      <c r="P32" s="234"/>
+      <c r="Q32" s="235"/>
+      <c r="R32" s="236"/>
+      <c r="S32" s="236"/>
+      <c r="T32" s="236"/>
+      <c r="U32" s="236"/>
+      <c r="V32" s="236"/>
+      <c r="W32" s="236"/>
+      <c r="X32" s="236"/>
+      <c r="Y32" s="236"/>
+      <c r="Z32" s="236"/>
+      <c r="AA32" s="236"/>
+      <c r="AB32" s="236"/>
+      <c r="AC32" s="236"/>
+      <c r="AD32" s="236"/>
+      <c r="AE32" s="237"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="233"/>
+      <c r="AH32" s="233"/>
+      <c r="AI32" s="234"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="185"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="187"/>
-      <c r="W33" s="187"/>
-      <c r="X33" s="187"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="187"/>
-      <c r="AB33" s="187"/>
-      <c r="AC33" s="187"/>
-      <c r="AD33" s="187"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="183"/>
-      <c r="AG33" s="184"/>
-      <c r="AH33" s="184"/>
-      <c r="AI33" s="185"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="227"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="227"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="233"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="233"/>
+      <c r="N33" s="233"/>
+      <c r="O33" s="233"/>
+      <c r="P33" s="234"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="236"/>
+      <c r="S33" s="236"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="236"/>
+      <c r="X33" s="236"/>
+      <c r="Y33" s="236"/>
+      <c r="Z33" s="236"/>
+      <c r="AA33" s="236"/>
+      <c r="AB33" s="236"/>
+      <c r="AC33" s="236"/>
+      <c r="AD33" s="236"/>
+      <c r="AE33" s="237"/>
+      <c r="AF33" s="232"/>
+      <c r="AG33" s="233"/>
+      <c r="AH33" s="233"/>
+      <c r="AI33" s="234"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12852,6 +12688,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -23135,7 +23132,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>24</v>
@@ -23146,7 +23143,7 @@
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -27965,7 +27962,7 @@
       <c r="H139" s="80"/>
       <c r="I139" s="80"/>
       <c r="J139" s="99" t="s">
-        <v>582</v>
+        <v>685</v>
       </c>
       <c r="K139" s="99"/>
       <c r="L139" s="80"/>
@@ -28004,7 +28001,7 @@
       <c r="H140" s="80"/>
       <c r="I140" s="80"/>
       <c r="J140" s="99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K140" s="99"/>
       <c r="L140" s="80"/>
@@ -28046,13 +28043,13 @@
         <v>554</v>
       </c>
       <c r="I141" s="96" t="s">
+        <v>583</v>
+      </c>
+      <c r="J141" s="139" t="s">
         <v>584</v>
       </c>
-      <c r="J141" s="139" t="s">
-        <v>585</v>
-      </c>
       <c r="K141" s="139" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L141" s="96"/>
       <c r="M141" s="96"/>
@@ -28089,13 +28086,13 @@
         <v>554</v>
       </c>
       <c r="I142" s="96" t="s">
+        <v>585</v>
+      </c>
+      <c r="J142" s="139" t="s">
         <v>586</v>
       </c>
-      <c r="J142" s="139" t="s">
-        <v>587</v>
-      </c>
       <c r="K142" s="139" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L142" s="96"/>
       <c r="M142" s="96"/>
@@ -28132,13 +28129,13 @@
         <v>554</v>
       </c>
       <c r="I143" s="96" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J143" s="139" t="s">
         <v>575</v>
       </c>
       <c r="K143" s="139" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L143" s="96"/>
       <c r="M143" s="96"/>
@@ -28212,13 +28209,13 @@
         <v>554</v>
       </c>
       <c r="I145" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J145" s="139" t="s">
         <v>575</v>
       </c>
       <c r="K145" s="139" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L145" s="96"/>
       <c r="M145" s="96"/>
@@ -28466,16 +28463,16 @@
       </c>
       <c r="G152" s="139"/>
       <c r="H152" s="96" t="s">
+        <v>593</v>
+      </c>
+      <c r="I152" s="96" t="s">
+        <v>591</v>
+      </c>
+      <c r="J152" s="139" t="s">
         <v>594</v>
       </c>
-      <c r="I152" s="96" t="s">
-        <v>592</v>
-      </c>
-      <c r="J152" s="139" t="s">
+      <c r="K152" s="139" t="s">
         <v>595</v>
-      </c>
-      <c r="K152" s="139" t="s">
-        <v>596</v>
       </c>
       <c r="L152" s="96"/>
       <c r="M152" s="96"/>
@@ -28505,16 +28502,16 @@
       <c r="F153" s="141"/>
       <c r="G153" s="139"/>
       <c r="H153" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I153" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J153" s="139" t="s">
+        <v>596</v>
+      </c>
+      <c r="K153" s="139" t="s">
         <v>597</v>
-      </c>
-      <c r="K153" s="139" t="s">
-        <v>598</v>
       </c>
       <c r="L153" s="96"/>
       <c r="M153" s="96"/>
@@ -28544,16 +28541,16 @@
       <c r="F154" s="141"/>
       <c r="G154" s="139"/>
       <c r="H154" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I154" s="96" t="s">
         <v>555</v>
       </c>
       <c r="J154" s="139" t="s">
+        <v>598</v>
+      </c>
+      <c r="K154" s="139" t="s">
         <v>599</v>
-      </c>
-      <c r="K154" s="139" t="s">
-        <v>600</v>
       </c>
       <c r="L154" s="96"/>
       <c r="M154" s="96"/>
@@ -28583,16 +28580,16 @@
       <c r="F155" s="141"/>
       <c r="G155" s="139"/>
       <c r="H155" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I155" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J155" s="139" t="s">
+        <v>600</v>
+      </c>
+      <c r="K155" s="139" t="s">
         <v>601</v>
-      </c>
-      <c r="K155" s="139" t="s">
-        <v>602</v>
       </c>
       <c r="L155" s="96"/>
       <c r="M155" s="96"/>
@@ -28622,16 +28619,16 @@
       <c r="F156" s="141"/>
       <c r="G156" s="139"/>
       <c r="H156" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I156" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J156" s="139" t="s">
+        <v>602</v>
+      </c>
+      <c r="K156" s="139" t="s">
         <v>603</v>
-      </c>
-      <c r="K156" s="139" t="s">
-        <v>604</v>
       </c>
       <c r="L156" s="96"/>
       <c r="M156" s="96"/>
@@ -28661,16 +28658,16 @@
       <c r="F157" s="141"/>
       <c r="G157" s="139"/>
       <c r="H157" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I157" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J157" s="139" t="s">
+        <v>604</v>
+      </c>
+      <c r="K157" s="139" t="s">
         <v>605</v>
-      </c>
-      <c r="K157" s="139" t="s">
-        <v>606</v>
       </c>
       <c r="L157" s="96"/>
       <c r="M157" s="96"/>
@@ -28700,16 +28697,16 @@
       <c r="F158" s="141"/>
       <c r="G158" s="139"/>
       <c r="H158" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I158" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J158" s="139" t="s">
+        <v>606</v>
+      </c>
+      <c r="K158" s="139" t="s">
         <v>607</v>
-      </c>
-      <c r="K158" s="139" t="s">
-        <v>608</v>
       </c>
       <c r="L158" s="96"/>
       <c r="M158" s="96"/>
@@ -28739,16 +28736,16 @@
       <c r="F159" s="141"/>
       <c r="G159" s="139"/>
       <c r="H159" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I159" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J159" s="139" t="s">
+        <v>608</v>
+      </c>
+      <c r="K159" s="139" t="s">
         <v>609</v>
-      </c>
-      <c r="K159" s="139" t="s">
-        <v>610</v>
       </c>
       <c r="L159" s="96"/>
       <c r="M159" s="96"/>
@@ -28778,16 +28775,16 @@
       <c r="F160" s="141"/>
       <c r="G160" s="139"/>
       <c r="H160" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I160" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J160" s="139" t="s">
+        <v>610</v>
+      </c>
+      <c r="K160" s="139" t="s">
         <v>611</v>
-      </c>
-      <c r="K160" s="139" t="s">
-        <v>612</v>
       </c>
       <c r="L160" s="96"/>
       <c r="M160" s="96"/>
@@ -28817,16 +28814,16 @@
       <c r="F161" s="141"/>
       <c r="G161" s="139"/>
       <c r="H161" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I161" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J161" s="139" t="s">
+        <v>612</v>
+      </c>
+      <c r="K161" s="139" t="s">
         <v>613</v>
-      </c>
-      <c r="K161" s="139" t="s">
-        <v>614</v>
       </c>
       <c r="L161" s="96"/>
       <c r="M161" s="96"/>
@@ -28856,16 +28853,16 @@
       <c r="F162" s="141"/>
       <c r="G162" s="139"/>
       <c r="H162" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I162" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J162" s="139" t="s">
+        <v>614</v>
+      </c>
+      <c r="K162" s="139" t="s">
         <v>615</v>
-      </c>
-      <c r="K162" s="139" t="s">
-        <v>616</v>
       </c>
       <c r="L162" s="96"/>
       <c r="M162" s="96"/>
@@ -28895,16 +28892,16 @@
       <c r="F163" s="141"/>
       <c r="G163" s="139"/>
       <c r="H163" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I163" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J163" s="139" t="s">
+        <v>616</v>
+      </c>
+      <c r="K163" s="139" t="s">
         <v>617</v>
-      </c>
-      <c r="K163" s="139" t="s">
-        <v>618</v>
       </c>
       <c r="L163" s="96"/>
       <c r="M163" s="96"/>
@@ -28934,16 +28931,16 @@
       <c r="F164" s="138"/>
       <c r="G164" s="139"/>
       <c r="H164" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I164" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J164" s="139" t="s">
+        <v>618</v>
+      </c>
+      <c r="K164" s="139" t="s">
         <v>619</v>
-      </c>
-      <c r="K164" s="139" t="s">
-        <v>620</v>
       </c>
       <c r="L164" s="96"/>
       <c r="M164" s="96"/>
@@ -28978,7 +28975,7 @@
       <c r="I165" s="80"/>
       <c r="J165" s="99"/>
       <c r="K165" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L165" s="80"/>
       <c r="M165" s="80"/>
@@ -29015,7 +29012,7 @@
       <c r="I166" s="80"/>
       <c r="J166" s="99"/>
       <c r="K166" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L166" s="80"/>
       <c r="M166" s="80"/>
@@ -29050,7 +29047,7 @@
       <c r="I167" s="80"/>
       <c r="J167" s="99"/>
       <c r="K167" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L167" s="80"/>
       <c r="M167" s="80"/>
@@ -29085,7 +29082,7 @@
       <c r="I168" s="80"/>
       <c r="J168" s="99"/>
       <c r="K168" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L168" s="80"/>
       <c r="M168" s="80"/>
@@ -29120,7 +29117,7 @@
       <c r="I169" s="80"/>
       <c r="J169" s="99"/>
       <c r="K169" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L169" s="80"/>
       <c r="M169" s="80"/>
@@ -29155,7 +29152,7 @@
       <c r="I170" s="80"/>
       <c r="J170" s="99"/>
       <c r="K170" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L170" s="80"/>
       <c r="M170" s="80"/>
@@ -29190,7 +29187,7 @@
       <c r="I171" s="80"/>
       <c r="J171" s="99"/>
       <c r="K171" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L171" s="80"/>
       <c r="M171" s="80"/>
@@ -29225,7 +29222,7 @@
       <c r="I172" s="80"/>
       <c r="J172" s="99"/>
       <c r="K172" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L172" s="80"/>
       <c r="M172" s="80"/>
@@ -29260,7 +29257,7 @@
       <c r="I173" s="80"/>
       <c r="J173" s="99"/>
       <c r="K173" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L173" s="80"/>
       <c r="M173" s="80"/>
@@ -29295,7 +29292,7 @@
       <c r="I174" s="80"/>
       <c r="J174" s="99"/>
       <c r="K174" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L174" s="80"/>
       <c r="M174" s="80"/>
@@ -29330,7 +29327,7 @@
       <c r="I175" s="80"/>
       <c r="J175" s="99"/>
       <c r="K175" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L175" s="80"/>
       <c r="M175" s="80"/>
@@ -29365,7 +29362,7 @@
       <c r="I176" s="80"/>
       <c r="J176" s="99"/>
       <c r="K176" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L176" s="80"/>
       <c r="M176" s="80"/>
@@ -29399,16 +29396,16 @@
       </c>
       <c r="G177" s="139"/>
       <c r="H177" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I177" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I177" s="96" t="s">
+      <c r="J177" s="139" t="s">
         <v>624</v>
       </c>
-      <c r="J177" s="139" t="s">
+      <c r="K177" s="139" t="s">
         <v>625</v>
-      </c>
-      <c r="K177" s="139" t="s">
-        <v>626</v>
       </c>
       <c r="L177" s="96"/>
       <c r="M177" s="96"/>
@@ -29438,16 +29435,16 @@
       <c r="F178" s="141"/>
       <c r="G178" s="139"/>
       <c r="H178" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I178" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I178" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J178" s="139" t="s">
+        <v>626</v>
+      </c>
+      <c r="K178" s="139" t="s">
         <v>627</v>
-      </c>
-      <c r="K178" s="139" t="s">
-        <v>628</v>
       </c>
       <c r="L178" s="96"/>
       <c r="M178" s="96"/>
@@ -29477,16 +29474,16 @@
       <c r="F179" s="141"/>
       <c r="G179" s="139"/>
       <c r="H179" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I179" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I179" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J179" s="139" t="s">
+        <v>628</v>
+      </c>
+      <c r="K179" s="139" t="s">
         <v>629</v>
-      </c>
-      <c r="K179" s="139" t="s">
-        <v>630</v>
       </c>
       <c r="L179" s="96"/>
       <c r="M179" s="96"/>
@@ -29516,16 +29513,16 @@
       <c r="F180" s="141"/>
       <c r="G180" s="139"/>
       <c r="H180" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I180" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I180" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J180" s="139" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K180" s="139" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L180" s="96"/>
       <c r="M180" s="96"/>
@@ -29555,16 +29552,16 @@
       <c r="F181" s="141"/>
       <c r="G181" s="139"/>
       <c r="H181" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I181" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I181" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J181" s="139" t="s">
+        <v>631</v>
+      </c>
+      <c r="K181" s="139" t="s">
         <v>632</v>
-      </c>
-      <c r="K181" s="139" t="s">
-        <v>633</v>
       </c>
       <c r="L181" s="96"/>
       <c r="M181" s="96"/>
@@ -29594,16 +29591,16 @@
       <c r="F182" s="141"/>
       <c r="G182" s="139"/>
       <c r="H182" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I182" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I182" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J182" s="139" t="s">
+        <v>633</v>
+      </c>
+      <c r="K182" s="139" t="s">
         <v>634</v>
-      </c>
-      <c r="K182" s="139" t="s">
-        <v>635</v>
       </c>
       <c r="L182" s="96"/>
       <c r="M182" s="96"/>
@@ -29633,16 +29630,16 @@
       <c r="F183" s="141"/>
       <c r="G183" s="139"/>
       <c r="H183" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I183" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I183" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J183" s="139" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K183" s="139" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L183" s="96"/>
       <c r="M183" s="96"/>
@@ -29672,16 +29669,16 @@
       <c r="F184" s="141"/>
       <c r="G184" s="139"/>
       <c r="H184" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I184" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I184" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J184" s="139" t="s">
+        <v>636</v>
+      </c>
+      <c r="K184" s="139" t="s">
         <v>637</v>
-      </c>
-      <c r="K184" s="139" t="s">
-        <v>638</v>
       </c>
       <c r="L184" s="96"/>
       <c r="M184" s="96"/>
@@ -29711,16 +29708,16 @@
       <c r="F185" s="141"/>
       <c r="G185" s="139"/>
       <c r="H185" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I185" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I185" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J185" s="139" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K185" s="139" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L185" s="96"/>
       <c r="M185" s="96"/>
@@ -29750,16 +29747,16 @@
       <c r="F186" s="141"/>
       <c r="G186" s="139"/>
       <c r="H186" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I186" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I186" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J186" s="139" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K186" s="139" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L186" s="96"/>
       <c r="M186" s="96"/>
@@ -29789,16 +29786,16 @@
       <c r="F187" s="141"/>
       <c r="G187" s="139"/>
       <c r="H187" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I187" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I187" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J187" s="139" t="s">
+        <v>640</v>
+      </c>
+      <c r="K187" s="139" t="s">
         <v>641</v>
-      </c>
-      <c r="K187" s="139" t="s">
-        <v>642</v>
       </c>
       <c r="L187" s="96"/>
       <c r="M187" s="96"/>
@@ -29828,16 +29825,16 @@
       <c r="F188" s="141"/>
       <c r="G188" s="139"/>
       <c r="H188" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I188" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I188" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J188" s="139" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K188" s="139" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L188" s="96"/>
       <c r="M188" s="96"/>
@@ -29867,16 +29864,16 @@
       <c r="F189" s="138"/>
       <c r="G189" s="139"/>
       <c r="H189" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I189" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I189" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J189" s="139" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K189" s="139" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L189" s="96"/>
       <c r="M189" s="96"/>
@@ -29908,16 +29905,16 @@
       </c>
       <c r="G190" s="139"/>
       <c r="H190" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I190" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I190" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J190" s="139" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K190" s="139" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L190" s="96"/>
       <c r="M190" s="96"/>
@@ -29947,16 +29944,16 @@
       <c r="F191" s="141"/>
       <c r="G191" s="139"/>
       <c r="H191" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I191" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I191" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J191" s="139" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K191" s="139" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L191" s="96"/>
       <c r="M191" s="96"/>
@@ -29986,16 +29983,16 @@
       <c r="F192" s="141"/>
       <c r="G192" s="139"/>
       <c r="H192" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I192" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I192" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J192" s="139" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K192" s="139" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L192" s="96"/>
       <c r="M192" s="96"/>
@@ -30025,16 +30022,16 @@
       <c r="F193" s="141"/>
       <c r="G193" s="139"/>
       <c r="H193" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I193" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I193" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J193" s="139" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K193" s="139" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L193" s="96"/>
       <c r="M193" s="96"/>
@@ -30064,16 +30061,16 @@
       <c r="F194" s="141"/>
       <c r="G194" s="139"/>
       <c r="H194" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I194" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I194" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J194" s="139" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K194" s="139" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L194" s="96"/>
       <c r="M194" s="96"/>
@@ -30103,16 +30100,16 @@
       <c r="F195" s="141"/>
       <c r="G195" s="139"/>
       <c r="H195" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I195" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I195" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J195" s="139" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K195" s="139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L195" s="96"/>
       <c r="M195" s="96"/>
@@ -30142,16 +30139,16 @@
       <c r="F196" s="141"/>
       <c r="G196" s="139"/>
       <c r="H196" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I196" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I196" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J196" s="139" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K196" s="139" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L196" s="96"/>
       <c r="M196" s="96"/>
@@ -30181,16 +30178,16 @@
       <c r="F197" s="141"/>
       <c r="G197" s="139"/>
       <c r="H197" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I197" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I197" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J197" s="139" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K197" s="139" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L197" s="96"/>
       <c r="M197" s="96"/>
@@ -30220,16 +30217,16 @@
       <c r="F198" s="141"/>
       <c r="G198" s="139"/>
       <c r="H198" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I198" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I198" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J198" s="139" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K198" s="139" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L198" s="96"/>
       <c r="M198" s="96"/>
@@ -30259,16 +30256,16 @@
       <c r="F199" s="141"/>
       <c r="G199" s="139"/>
       <c r="H199" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I199" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I199" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J199" s="139" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K199" s="139" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L199" s="96"/>
       <c r="M199" s="96"/>
@@ -30298,16 +30295,16 @@
       <c r="F200" s="141"/>
       <c r="G200" s="139"/>
       <c r="H200" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I200" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I200" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J200" s="139" t="s">
+        <v>654</v>
+      </c>
+      <c r="K200" s="139" t="s">
         <v>655</v>
-      </c>
-      <c r="K200" s="139" t="s">
-        <v>656</v>
       </c>
       <c r="L200" s="96"/>
       <c r="M200" s="96"/>
@@ -30337,16 +30334,16 @@
       <c r="F201" s="141"/>
       <c r="G201" s="139"/>
       <c r="H201" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I201" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I201" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J201" s="139" t="s">
+        <v>656</v>
+      </c>
+      <c r="K201" s="139" t="s">
         <v>657</v>
-      </c>
-      <c r="K201" s="139" t="s">
-        <v>658</v>
       </c>
       <c r="L201" s="96"/>
       <c r="M201" s="96"/>
@@ -30376,16 +30373,16 @@
       <c r="F202" s="138"/>
       <c r="G202" s="139"/>
       <c r="H202" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="I202" s="96" t="s">
         <v>623</v>
       </c>
-      <c r="I202" s="96" t="s">
-        <v>624</v>
-      </c>
       <c r="J202" s="139" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K202" s="139" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L202" s="96"/>
       <c r="M202" s="96"/>
@@ -30417,16 +30414,16 @@
       </c>
       <c r="G203" s="139"/>
       <c r="H203" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I203" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J203" s="139" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K203" s="139" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L203" s="96"/>
       <c r="M203" s="96"/>
@@ -30456,16 +30453,16 @@
       <c r="F204" s="138"/>
       <c r="G204" s="139"/>
       <c r="H204" s="96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I204" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J204" s="139" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K204" s="139" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L204" s="96"/>
       <c r="M204" s="96"/>
@@ -30499,7 +30496,7 @@
       <c r="H205" s="80"/>
       <c r="I205" s="80"/>
       <c r="J205" s="99" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K205" s="99"/>
       <c r="L205" s="80"/>
@@ -30534,7 +30531,7 @@
       <c r="H206" s="80"/>
       <c r="I206" s="80"/>
       <c r="J206" s="99" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K206" s="99"/>
       <c r="L206" s="80"/>
@@ -30676,7 +30673,7 @@
       <c r="H210" s="80"/>
       <c r="I210" s="80"/>
       <c r="J210" s="99" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K210" s="99"/>
       <c r="L210" s="80"/>
@@ -30746,7 +30743,7 @@
       <c r="H212" s="80"/>
       <c r="I212" s="80"/>
       <c r="J212" s="99" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K212" s="99"/>
       <c r="L212" s="80"/>
@@ -30781,7 +30778,7 @@
       <c r="H213" s="80"/>
       <c r="I213" s="80"/>
       <c r="J213" s="99" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K213" s="99"/>
       <c r="L213" s="80"/>
@@ -30816,7 +30813,7 @@
       <c r="H214" s="80"/>
       <c r="I214" s="80"/>
       <c r="J214" s="99" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K214" s="99"/>
       <c r="L214" s="80"/>
@@ -30958,7 +30955,7 @@
       <c r="H218" s="80"/>
       <c r="I218" s="80"/>
       <c r="J218" s="161" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K218" s="99"/>
       <c r="L218" s="80"/>
@@ -35230,16 +35227,16 @@
       </c>
       <c r="G336" s="61"/>
       <c r="H336" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="I336" s="62" t="s">
         <v>667</v>
       </c>
-      <c r="I336" s="62" t="s">
+      <c r="J336" s="62" t="s">
         <v>668</v>
       </c>
-      <c r="J336" s="62" t="s">
+      <c r="K336" s="62" t="s">
         <v>669</v>
-      </c>
-      <c r="K336" s="62" t="s">
-        <v>670</v>
       </c>
       <c r="L336" s="62"/>
       <c r="M336" s="62"/>
@@ -35271,16 +35268,16 @@
       </c>
       <c r="G337" s="61"/>
       <c r="H337" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="I337" s="62" t="s">
         <v>667</v>
       </c>
-      <c r="I337" s="62" t="s">
-        <v>668</v>
-      </c>
       <c r="J337" s="62" t="s">
+        <v>670</v>
+      </c>
+      <c r="K337" s="62" t="s">
         <v>671</v>
-      </c>
-      <c r="K337" s="62" t="s">
-        <v>672</v>
       </c>
       <c r="L337" s="62"/>
       <c r="M337" s="62"/>
@@ -35314,7 +35311,7 @@
       <c r="H338" s="80"/>
       <c r="I338" s="80"/>
       <c r="J338" s="80" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K338" s="80"/>
       <c r="L338" s="80"/>
@@ -35349,7 +35346,7 @@
       <c r="H339" s="80"/>
       <c r="I339" s="80"/>
       <c r="J339" s="80" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K339" s="80"/>
       <c r="L339" s="80"/>
@@ -35386,7 +35383,7 @@
       <c r="H340" s="80"/>
       <c r="I340" s="80"/>
       <c r="J340" s="80" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K340" s="80"/>
       <c r="L340" s="80"/>
@@ -35423,7 +35420,7 @@
       <c r="H341" s="80"/>
       <c r="I341" s="80"/>
       <c r="J341" s="80" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K341" s="80"/>
       <c r="L341" s="80"/>
@@ -35536,7 +35533,7 @@
       <c r="H344" s="80"/>
       <c r="I344" s="80"/>
       <c r="J344" s="80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K344" s="80"/>
       <c r="L344" s="80"/>
@@ -35571,7 +35568,7 @@
       <c r="H345" s="80"/>
       <c r="I345" s="80"/>
       <c r="J345" s="80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K345" s="80"/>
       <c r="L345" s="80"/>
@@ -35606,7 +35603,7 @@
       <c r="H346" s="80"/>
       <c r="I346" s="80"/>
       <c r="J346" s="80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K346" s="80"/>
       <c r="L346" s="80"/>
@@ -35645,7 +35642,7 @@
       <c r="H347" s="80"/>
       <c r="I347" s="80"/>
       <c r="J347" s="80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K347" s="80"/>
       <c r="L347" s="80"/>
@@ -35680,7 +35677,7 @@
       <c r="H348" s="80"/>
       <c r="I348" s="80"/>
       <c r="J348" s="80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K348" s="80"/>
       <c r="L348" s="80"/>
@@ -35715,7 +35712,7 @@
       <c r="H349" s="80"/>
       <c r="I349" s="80"/>
       <c r="J349" s="80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K349" s="80"/>
       <c r="L349" s="80"/>
@@ -35754,7 +35751,7 @@
       <c r="H350" s="80"/>
       <c r="I350" s="80"/>
       <c r="J350" s="80" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K350" s="80"/>
       <c r="L350" s="80"/>
@@ -35789,7 +35786,7 @@
       <c r="H351" s="80"/>
       <c r="I351" s="80"/>
       <c r="J351" s="80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K351" s="80"/>
       <c r="L351" s="80"/>
@@ -35824,7 +35821,7 @@
       <c r="H352" s="80"/>
       <c r="I352" s="80"/>
       <c r="J352" s="80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K352" s="80"/>
       <c r="L352" s="80"/>
@@ -35859,7 +35856,7 @@
       <c r="H353" s="80"/>
       <c r="I353" s="80"/>
       <c r="J353" s="80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K353" s="80"/>
       <c r="L353" s="80"/>
@@ -35894,7 +35891,7 @@
       <c r="H354" s="80"/>
       <c r="I354" s="80"/>
       <c r="J354" s="80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K354" s="80"/>
       <c r="L354" s="80"/>
@@ -35929,7 +35926,7 @@
       <c r="H355" s="80"/>
       <c r="I355" s="80"/>
       <c r="J355" s="80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K355" s="80"/>
       <c r="L355" s="80"/>
@@ -35964,7 +35961,7 @@
       <c r="H356" s="80"/>
       <c r="I356" s="80"/>
       <c r="J356" s="80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K356" s="80"/>
       <c r="L356" s="80"/>
@@ -35999,7 +35996,7 @@
       <c r="H357" s="80"/>
       <c r="I357" s="80"/>
       <c r="J357" s="80" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K357" s="80"/>
       <c r="L357" s="80"/>
@@ -36042,7 +36039,7 @@
       <c r="H358" s="80"/>
       <c r="I358" s="80"/>
       <c r="J358" s="80" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K358" s="80"/>
       <c r="L358" s="80"/>
@@ -36085,7 +36082,7 @@
       <c r="H359" s="80"/>
       <c r="I359" s="80"/>
       <c r="J359" s="80" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K359" s="80"/>
       <c r="L359" s="80"/>
@@ -36327,7 +36324,7 @@
         <v>527</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H13" s="98"/>
       <c r="I13" s="173"/>
@@ -36354,7 +36351,7 @@
         <v>530</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="173"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0988A030-8F97-4A78-9150-15A8FBB21E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C50AA-A496-4E2E-9AE3-CA8C4325DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="688">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8626,6 +8626,32 @@
     <rPh sb="13" eb="15">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一のリクエストのみで構成されているため、リクエスト単体テストで取引単体としての観点はカバーできており対象外</t>
+    <rPh sb="0" eb="2">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>トリヒキタンタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データバリエーションなし</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9639,6 +9665,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9737,93 +9850,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10461,15 +10487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>626268</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283368</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10484,7 +10510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="1638300"/>
+          <a:off x="2619375" y="1571625"/>
           <a:ext cx="10922793" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11469,57 +11495,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="183" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="212" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="192" t="s">
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="221" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="201" t="s">
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="230" t="s">
         <v>520</v>
       </c>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="203"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="186" t="str">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="215" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="188"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="217"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -11527,53 +11553,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="183" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="212" t="s">
         <v>522</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="189" t="str">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="191"/>
-      <c r="AG2" s="186" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="215" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="188"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -11581,45 +11607,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="183" t="s">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212" t="s">
         <v>524</v>
       </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="200"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="208"/>
-      <c r="V3" s="208"/>
-      <c r="W3" s="208"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="208"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="187"/>
-      <c r="AI3" s="188"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="215"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="217"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -11656,1020 +11682,1181 @@
       <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="210" t="s">
+      <c r="C7" s="191"/>
+      <c r="D7" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="212"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="210" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="212"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="210" t="s">
+      <c r="H7" s="192"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="210" t="s">
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="212"/>
-      <c r="Y7" s="212"/>
-      <c r="Z7" s="212"/>
-      <c r="AA7" s="212"/>
-      <c r="AB7" s="212"/>
-      <c r="AC7" s="212"/>
-      <c r="AD7" s="212"/>
-      <c r="AE7" s="211"/>
-      <c r="AF7" s="210" t="s">
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="192"/>
+      <c r="AA7" s="192"/>
+      <c r="AB7" s="192"/>
+      <c r="AC7" s="192"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="191"/>
+      <c r="AF7" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AG7" s="212"/>
-      <c r="AH7" s="212"/>
-      <c r="AI7" s="211"/>
+      <c r="AG7" s="192"/>
+      <c r="AH7" s="192"/>
+      <c r="AI7" s="191"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="221"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="221"/>
-      <c r="P8" s="222"/>
-      <c r="Q8" s="223"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="224"/>
-      <c r="W8" s="224"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="224"/>
-      <c r="AA8" s="224"/>
-      <c r="AB8" s="224"/>
-      <c r="AC8" s="224"/>
-      <c r="AD8" s="224"/>
-      <c r="AE8" s="225"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="221"/>
-      <c r="AH8" s="221"/>
-      <c r="AI8" s="222"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="202"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="233"/>
-      <c r="N9" s="233"/>
-      <c r="O9" s="233"/>
-      <c r="P9" s="234"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="236"/>
-      <c r="S9" s="236"/>
-      <c r="T9" s="236"/>
-      <c r="U9" s="236"/>
-      <c r="V9" s="236"/>
-      <c r="W9" s="236"/>
-      <c r="X9" s="236"/>
-      <c r="Y9" s="236"/>
-      <c r="Z9" s="236"/>
-      <c r="AA9" s="236"/>
-      <c r="AB9" s="236"/>
-      <c r="AC9" s="236"/>
-      <c r="AD9" s="236"/>
-      <c r="AE9" s="237"/>
-      <c r="AF9" s="232"/>
-      <c r="AG9" s="233"/>
-      <c r="AH9" s="233"/>
-      <c r="AI9" s="234"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="187"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="188"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="184"/>
+      <c r="AH9" s="184"/>
+      <c r="AI9" s="185"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="226"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="234"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="236"/>
-      <c r="U10" s="236"/>
-      <c r="V10" s="236"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="236"/>
-      <c r="Y10" s="236"/>
-      <c r="Z10" s="236"/>
-      <c r="AA10" s="236"/>
-      <c r="AB10" s="236"/>
-      <c r="AC10" s="236"/>
-      <c r="AD10" s="236"/>
-      <c r="AE10" s="237"/>
-      <c r="AF10" s="232"/>
-      <c r="AG10" s="233"/>
-      <c r="AH10" s="233"/>
-      <c r="AI10" s="234"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="183"/>
+      <c r="AG10" s="184"/>
+      <c r="AH10" s="184"/>
+      <c r="AI10" s="185"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="226"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="233"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="233"/>
-      <c r="P11" s="234"/>
-      <c r="Q11" s="235"/>
-      <c r="R11" s="236"/>
-      <c r="S11" s="236"/>
-      <c r="T11" s="236"/>
-      <c r="U11" s="236"/>
-      <c r="V11" s="236"/>
-      <c r="W11" s="236"/>
-      <c r="X11" s="236"/>
-      <c r="Y11" s="236"/>
-      <c r="Z11" s="236"/>
-      <c r="AA11" s="236"/>
-      <c r="AB11" s="236"/>
-      <c r="AC11" s="236"/>
-      <c r="AD11" s="236"/>
-      <c r="AE11" s="237"/>
-      <c r="AF11" s="232"/>
-      <c r="AG11" s="233"/>
-      <c r="AH11" s="233"/>
-      <c r="AI11" s="234"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
+      <c r="AF11" s="183"/>
+      <c r="AG11" s="184"/>
+      <c r="AH11" s="184"/>
+      <c r="AI11" s="185"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="226"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="233"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="233"/>
-      <c r="P12" s="234"/>
-      <c r="Q12" s="235"/>
-      <c r="R12" s="236"/>
-      <c r="S12" s="236"/>
-      <c r="T12" s="236"/>
-      <c r="U12" s="236"/>
-      <c r="V12" s="236"/>
-      <c r="W12" s="236"/>
-      <c r="X12" s="236"/>
-      <c r="Y12" s="236"/>
-      <c r="Z12" s="236"/>
-      <c r="AA12" s="236"/>
-      <c r="AB12" s="236"/>
-      <c r="AC12" s="236"/>
-      <c r="AD12" s="236"/>
-      <c r="AE12" s="237"/>
-      <c r="AF12" s="232"/>
-      <c r="AG12" s="233"/>
-      <c r="AH12" s="233"/>
-      <c r="AI12" s="234"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="187"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="187"/>
+      <c r="X12" s="187"/>
+      <c r="Y12" s="187"/>
+      <c r="Z12" s="187"/>
+      <c r="AA12" s="187"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="187"/>
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="183"/>
+      <c r="AG12" s="184"/>
+      <c r="AH12" s="184"/>
+      <c r="AI12" s="185"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="230"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="233"/>
-      <c r="L13" s="233"/>
-      <c r="M13" s="233"/>
-      <c r="N13" s="233"/>
-      <c r="O13" s="233"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="236"/>
-      <c r="T13" s="236"/>
-      <c r="U13" s="236"/>
-      <c r="V13" s="236"/>
-      <c r="W13" s="236"/>
-      <c r="X13" s="236"/>
-      <c r="Y13" s="236"/>
-      <c r="Z13" s="236"/>
-      <c r="AA13" s="236"/>
-      <c r="AB13" s="236"/>
-      <c r="AC13" s="236"/>
-      <c r="AD13" s="236"/>
-      <c r="AE13" s="237"/>
-      <c r="AF13" s="232"/>
-      <c r="AG13" s="233"/>
-      <c r="AH13" s="233"/>
-      <c r="AI13" s="234"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="187"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="187"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="183"/>
+      <c r="AG13" s="184"/>
+      <c r="AH13" s="184"/>
+      <c r="AI13" s="185"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="226"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="233"/>
-      <c r="M14" s="233"/>
-      <c r="N14" s="233"/>
-      <c r="O14" s="233"/>
-      <c r="P14" s="234"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="236"/>
-      <c r="W14" s="236"/>
-      <c r="X14" s="236"/>
-      <c r="Y14" s="236"/>
-      <c r="Z14" s="236"/>
-      <c r="AA14" s="236"/>
-      <c r="AB14" s="236"/>
-      <c r="AC14" s="236"/>
-      <c r="AD14" s="236"/>
-      <c r="AE14" s="237"/>
-      <c r="AF14" s="232"/>
-      <c r="AG14" s="233"/>
-      <c r="AH14" s="233"/>
-      <c r="AI14" s="234"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="187"/>
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="188"/>
+      <c r="AF14" s="183"/>
+      <c r="AG14" s="184"/>
+      <c r="AH14" s="184"/>
+      <c r="AI14" s="185"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="226"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="233"/>
-      <c r="M15" s="233"/>
-      <c r="N15" s="233"/>
-      <c r="O15" s="233"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="235"/>
-      <c r="R15" s="236"/>
-      <c r="S15" s="236"/>
-      <c r="T15" s="236"/>
-      <c r="U15" s="236"/>
-      <c r="V15" s="236"/>
-      <c r="W15" s="236"/>
-      <c r="X15" s="236"/>
-      <c r="Y15" s="236"/>
-      <c r="Z15" s="236"/>
-      <c r="AA15" s="236"/>
-      <c r="AB15" s="236"/>
-      <c r="AC15" s="236"/>
-      <c r="AD15" s="236"/>
-      <c r="AE15" s="237"/>
-      <c r="AF15" s="232"/>
-      <c r="AG15" s="233"/>
-      <c r="AH15" s="233"/>
-      <c r="AI15" s="234"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="188"/>
+      <c r="AF15" s="183"/>
+      <c r="AG15" s="184"/>
+      <c r="AH15" s="184"/>
+      <c r="AI15" s="185"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="226"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="231"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="233"/>
-      <c r="L16" s="233"/>
-      <c r="M16" s="233"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="233"/>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="235"/>
-      <c r="R16" s="236"/>
-      <c r="S16" s="236"/>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="236"/>
-      <c r="W16" s="236"/>
-      <c r="X16" s="236"/>
-      <c r="Y16" s="236"/>
-      <c r="Z16" s="236"/>
-      <c r="AA16" s="236"/>
-      <c r="AB16" s="236"/>
-      <c r="AC16" s="236"/>
-      <c r="AD16" s="236"/>
-      <c r="AE16" s="237"/>
-      <c r="AF16" s="232"/>
-      <c r="AG16" s="233"/>
-      <c r="AH16" s="233"/>
-      <c r="AI16" s="234"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="187"/>
+      <c r="T16" s="187"/>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="187"/>
+      <c r="AB16" s="187"/>
+      <c r="AC16" s="187"/>
+      <c r="AD16" s="187"/>
+      <c r="AE16" s="188"/>
+      <c r="AF16" s="183"/>
+      <c r="AG16" s="184"/>
+      <c r="AH16" s="184"/>
+      <c r="AI16" s="185"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="226"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="233"/>
-      <c r="N17" s="233"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="234"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="236"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="236"/>
-      <c r="W17" s="236"/>
-      <c r="X17" s="236"/>
-      <c r="Y17" s="236"/>
-      <c r="Z17" s="236"/>
-      <c r="AA17" s="236"/>
-      <c r="AB17" s="236"/>
-      <c r="AC17" s="236"/>
-      <c r="AD17" s="236"/>
-      <c r="AE17" s="237"/>
-      <c r="AF17" s="232"/>
-      <c r="AG17" s="233"/>
-      <c r="AH17" s="233"/>
-      <c r="AI17" s="234"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="187"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="187"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="187"/>
+      <c r="AB17" s="187"/>
+      <c r="AC17" s="187"/>
+      <c r="AD17" s="187"/>
+      <c r="AE17" s="188"/>
+      <c r="AF17" s="183"/>
+      <c r="AG17" s="184"/>
+      <c r="AH17" s="184"/>
+      <c r="AI17" s="185"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="226"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="227"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
-      <c r="P18" s="234"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="236"/>
-      <c r="V18" s="236"/>
-      <c r="W18" s="236"/>
-      <c r="X18" s="236"/>
-      <c r="Y18" s="236"/>
-      <c r="Z18" s="236"/>
-      <c r="AA18" s="236"/>
-      <c r="AB18" s="236"/>
-      <c r="AC18" s="236"/>
-      <c r="AD18" s="236"/>
-      <c r="AE18" s="237"/>
-      <c r="AF18" s="232"/>
-      <c r="AG18" s="233"/>
-      <c r="AH18" s="233"/>
-      <c r="AI18" s="234"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="187"/>
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="187"/>
+      <c r="AB18" s="187"/>
+      <c r="AC18" s="187"/>
+      <c r="AD18" s="187"/>
+      <c r="AE18" s="188"/>
+      <c r="AF18" s="183"/>
+      <c r="AG18" s="184"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="185"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="234"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="236"/>
-      <c r="S19" s="236"/>
-      <c r="T19" s="236"/>
-      <c r="U19" s="236"/>
-      <c r="V19" s="236"/>
-      <c r="W19" s="236"/>
-      <c r="X19" s="236"/>
-      <c r="Y19" s="236"/>
-      <c r="Z19" s="236"/>
-      <c r="AA19" s="236"/>
-      <c r="AB19" s="236"/>
-      <c r="AC19" s="236"/>
-      <c r="AD19" s="236"/>
-      <c r="AE19" s="237"/>
-      <c r="AF19" s="232"/>
-      <c r="AG19" s="233"/>
-      <c r="AH19" s="233"/>
-      <c r="AI19" s="234"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="184"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="187"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="187"/>
+      <c r="Y19" s="187"/>
+      <c r="Z19" s="187"/>
+      <c r="AA19" s="187"/>
+      <c r="AB19" s="187"/>
+      <c r="AC19" s="187"/>
+      <c r="AD19" s="187"/>
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="183"/>
+      <c r="AG19" s="184"/>
+      <c r="AH19" s="184"/>
+      <c r="AI19" s="185"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="226"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="233"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="233"/>
-      <c r="P20" s="234"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="236"/>
-      <c r="S20" s="236"/>
-      <c r="T20" s="236"/>
-      <c r="U20" s="236"/>
-      <c r="V20" s="236"/>
-      <c r="W20" s="236"/>
-      <c r="X20" s="236"/>
-      <c r="Y20" s="236"/>
-      <c r="Z20" s="236"/>
-      <c r="AA20" s="236"/>
-      <c r="AB20" s="236"/>
-      <c r="AC20" s="236"/>
-      <c r="AD20" s="236"/>
-      <c r="AE20" s="237"/>
-      <c r="AF20" s="232"/>
-      <c r="AG20" s="233"/>
-      <c r="AH20" s="233"/>
-      <c r="AI20" s="234"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
+      <c r="O20" s="184"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="187"/>
+      <c r="S20" s="187"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="187"/>
+      <c r="Y20" s="187"/>
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="187"/>
+      <c r="AB20" s="187"/>
+      <c r="AC20" s="187"/>
+      <c r="AD20" s="187"/>
+      <c r="AE20" s="188"/>
+      <c r="AF20" s="183"/>
+      <c r="AG20" s="184"/>
+      <c r="AH20" s="184"/>
+      <c r="AI20" s="185"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="226"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="228"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="233"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="234"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="236"/>
-      <c r="S21" s="236"/>
-      <c r="T21" s="236"/>
-      <c r="U21" s="236"/>
-      <c r="V21" s="236"/>
-      <c r="W21" s="236"/>
-      <c r="X21" s="236"/>
-      <c r="Y21" s="236"/>
-      <c r="Z21" s="236"/>
-      <c r="AA21" s="236"/>
-      <c r="AB21" s="236"/>
-      <c r="AC21" s="236"/>
-      <c r="AD21" s="236"/>
-      <c r="AE21" s="237"/>
-      <c r="AF21" s="232"/>
-      <c r="AG21" s="233"/>
-      <c r="AH21" s="233"/>
-      <c r="AI21" s="234"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="X21" s="187"/>
+      <c r="Y21" s="187"/>
+      <c r="Z21" s="187"/>
+      <c r="AA21" s="187"/>
+      <c r="AB21" s="187"/>
+      <c r="AC21" s="187"/>
+      <c r="AD21" s="187"/>
+      <c r="AE21" s="188"/>
+      <c r="AF21" s="183"/>
+      <c r="AG21" s="184"/>
+      <c r="AH21" s="184"/>
+      <c r="AI21" s="185"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="231"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="233"/>
-      <c r="L22" s="233"/>
-      <c r="M22" s="233"/>
-      <c r="N22" s="233"/>
-      <c r="O22" s="233"/>
-      <c r="P22" s="234"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="236"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="236"/>
-      <c r="U22" s="236"/>
-      <c r="V22" s="236"/>
-      <c r="W22" s="236"/>
-      <c r="X22" s="236"/>
-      <c r="Y22" s="236"/>
-      <c r="Z22" s="236"/>
-      <c r="AA22" s="236"/>
-      <c r="AB22" s="236"/>
-      <c r="AC22" s="236"/>
-      <c r="AD22" s="236"/>
-      <c r="AE22" s="237"/>
-      <c r="AF22" s="232"/>
-      <c r="AG22" s="233"/>
-      <c r="AH22" s="233"/>
-      <c r="AI22" s="234"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="187"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="187"/>
+      <c r="Y22" s="187"/>
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="187"/>
+      <c r="AB22" s="187"/>
+      <c r="AC22" s="187"/>
+      <c r="AD22" s="187"/>
+      <c r="AE22" s="188"/>
+      <c r="AF22" s="183"/>
+      <c r="AG22" s="184"/>
+      <c r="AH22" s="184"/>
+      <c r="AI22" s="185"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="226"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="232"/>
-      <c r="K23" s="233"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="233"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="236"/>
-      <c r="S23" s="236"/>
-      <c r="T23" s="236"/>
-      <c r="U23" s="236"/>
-      <c r="V23" s="236"/>
-      <c r="W23" s="236"/>
-      <c r="X23" s="236"/>
-      <c r="Y23" s="236"/>
-      <c r="Z23" s="236"/>
-      <c r="AA23" s="236"/>
-      <c r="AB23" s="236"/>
-      <c r="AC23" s="236"/>
-      <c r="AD23" s="236"/>
-      <c r="AE23" s="237"/>
-      <c r="AF23" s="232"/>
-      <c r="AG23" s="233"/>
-      <c r="AH23" s="233"/>
-      <c r="AI23" s="234"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="187"/>
+      <c r="AC23" s="187"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="188"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="184"/>
+      <c r="AH23" s="184"/>
+      <c r="AI23" s="185"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="226"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="228"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="231"/>
-      <c r="I24" s="227"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="233"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
-      <c r="N24" s="233"/>
-      <c r="O24" s="233"/>
-      <c r="P24" s="234"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="236"/>
-      <c r="S24" s="236"/>
-      <c r="T24" s="236"/>
-      <c r="U24" s="236"/>
-      <c r="V24" s="236"/>
-      <c r="W24" s="236"/>
-      <c r="X24" s="236"/>
-      <c r="Y24" s="236"/>
-      <c r="Z24" s="236"/>
-      <c r="AA24" s="236"/>
-      <c r="AB24" s="236"/>
-      <c r="AC24" s="236"/>
-      <c r="AD24" s="236"/>
-      <c r="AE24" s="237"/>
-      <c r="AF24" s="232"/>
-      <c r="AG24" s="233"/>
-      <c r="AH24" s="233"/>
-      <c r="AI24" s="234"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+      <c r="X24" s="187"/>
+      <c r="Y24" s="187"/>
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="187"/>
+      <c r="AB24" s="187"/>
+      <c r="AC24" s="187"/>
+      <c r="AD24" s="187"/>
+      <c r="AE24" s="188"/>
+      <c r="AF24" s="183"/>
+      <c r="AG24" s="184"/>
+      <c r="AH24" s="184"/>
+      <c r="AI24" s="185"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="226"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="230"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
-      <c r="N25" s="233"/>
-      <c r="O25" s="233"/>
-      <c r="P25" s="234"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="236"/>
-      <c r="U25" s="236"/>
-      <c r="V25" s="236"/>
-      <c r="W25" s="236"/>
-      <c r="X25" s="236"/>
-      <c r="Y25" s="236"/>
-      <c r="Z25" s="236"/>
-      <c r="AA25" s="236"/>
-      <c r="AB25" s="236"/>
-      <c r="AC25" s="236"/>
-      <c r="AD25" s="236"/>
-      <c r="AE25" s="237"/>
-      <c r="AF25" s="232"/>
-      <c r="AG25" s="233"/>
-      <c r="AH25" s="233"/>
-      <c r="AI25" s="234"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="187"/>
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+      <c r="AD25" s="187"/>
+      <c r="AE25" s="188"/>
+      <c r="AF25" s="183"/>
+      <c r="AG25" s="184"/>
+      <c r="AH25" s="184"/>
+      <c r="AI25" s="185"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="226"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="228"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="227"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="233"/>
-      <c r="O26" s="233"/>
-      <c r="P26" s="234"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="236"/>
-      <c r="S26" s="236"/>
-      <c r="T26" s="236"/>
-      <c r="U26" s="236"/>
-      <c r="V26" s="236"/>
-      <c r="W26" s="236"/>
-      <c r="X26" s="236"/>
-      <c r="Y26" s="236"/>
-      <c r="Z26" s="236"/>
-      <c r="AA26" s="236"/>
-      <c r="AB26" s="236"/>
-      <c r="AC26" s="236"/>
-      <c r="AD26" s="236"/>
-      <c r="AE26" s="237"/>
-      <c r="AF26" s="232"/>
-      <c r="AG26" s="233"/>
-      <c r="AH26" s="233"/>
-      <c r="AI26" s="234"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="187"/>
+      <c r="Z26" s="187"/>
+      <c r="AA26" s="187"/>
+      <c r="AB26" s="187"/>
+      <c r="AC26" s="187"/>
+      <c r="AD26" s="187"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="183"/>
+      <c r="AG26" s="184"/>
+      <c r="AH26" s="184"/>
+      <c r="AI26" s="185"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="226"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="230"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="233"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="233"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="233"/>
-      <c r="P27" s="234"/>
-      <c r="Q27" s="235"/>
-      <c r="R27" s="236"/>
-      <c r="S27" s="236"/>
-      <c r="T27" s="236"/>
-      <c r="U27" s="236"/>
-      <c r="V27" s="236"/>
-      <c r="W27" s="236"/>
-      <c r="X27" s="236"/>
-      <c r="Y27" s="236"/>
-      <c r="Z27" s="236"/>
-      <c r="AA27" s="236"/>
-      <c r="AB27" s="236"/>
-      <c r="AC27" s="236"/>
-      <c r="AD27" s="236"/>
-      <c r="AE27" s="237"/>
-      <c r="AF27" s="232"/>
-      <c r="AG27" s="233"/>
-      <c r="AH27" s="233"/>
-      <c r="AI27" s="234"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="187"/>
+      <c r="Z27" s="187"/>
+      <c r="AA27" s="187"/>
+      <c r="AB27" s="187"/>
+      <c r="AC27" s="187"/>
+      <c r="AD27" s="187"/>
+      <c r="AE27" s="188"/>
+      <c r="AF27" s="183"/>
+      <c r="AG27" s="184"/>
+      <c r="AH27" s="184"/>
+      <c r="AI27" s="185"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="226"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="233"/>
-      <c r="L28" s="233"/>
-      <c r="M28" s="233"/>
-      <c r="N28" s="233"/>
-      <c r="O28" s="233"/>
-      <c r="P28" s="234"/>
-      <c r="Q28" s="235"/>
-      <c r="R28" s="236"/>
-      <c r="S28" s="236"/>
-      <c r="T28" s="236"/>
-      <c r="U28" s="236"/>
-      <c r="V28" s="236"/>
-      <c r="W28" s="236"/>
-      <c r="X28" s="236"/>
-      <c r="Y28" s="236"/>
-      <c r="Z28" s="236"/>
-      <c r="AA28" s="236"/>
-      <c r="AB28" s="236"/>
-      <c r="AC28" s="236"/>
-      <c r="AD28" s="236"/>
-      <c r="AE28" s="237"/>
-      <c r="AF28" s="232"/>
-      <c r="AG28" s="233"/>
-      <c r="AH28" s="233"/>
-      <c r="AI28" s="234"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="187"/>
+      <c r="AC28" s="187"/>
+      <c r="AD28" s="187"/>
+      <c r="AE28" s="188"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="184"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="185"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="226"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="231"/>
-      <c r="I29" s="227"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="233"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
-      <c r="N29" s="233"/>
-      <c r="O29" s="233"/>
-      <c r="P29" s="234"/>
-      <c r="Q29" s="235"/>
-      <c r="R29" s="236"/>
-      <c r="S29" s="236"/>
-      <c r="T29" s="236"/>
-      <c r="U29" s="236"/>
-      <c r="V29" s="236"/>
-      <c r="W29" s="236"/>
-      <c r="X29" s="236"/>
-      <c r="Y29" s="236"/>
-      <c r="Z29" s="236"/>
-      <c r="AA29" s="236"/>
-      <c r="AB29" s="236"/>
-      <c r="AC29" s="236"/>
-      <c r="AD29" s="236"/>
-      <c r="AE29" s="237"/>
-      <c r="AF29" s="232"/>
-      <c r="AG29" s="233"/>
-      <c r="AH29" s="233"/>
-      <c r="AI29" s="234"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="187"/>
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+      <c r="AD29" s="187"/>
+      <c r="AE29" s="188"/>
+      <c r="AF29" s="183"/>
+      <c r="AG29" s="184"/>
+      <c r="AH29" s="184"/>
+      <c r="AI29" s="185"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="226"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="233"/>
-      <c r="O30" s="233"/>
-      <c r="P30" s="234"/>
-      <c r="Q30" s="235"/>
-      <c r="R30" s="236"/>
-      <c r="S30" s="236"/>
-      <c r="T30" s="236"/>
-      <c r="U30" s="236"/>
-      <c r="V30" s="236"/>
-      <c r="W30" s="236"/>
-      <c r="X30" s="236"/>
-      <c r="Y30" s="236"/>
-      <c r="Z30" s="236"/>
-      <c r="AA30" s="236"/>
-      <c r="AB30" s="236"/>
-      <c r="AC30" s="236"/>
-      <c r="AD30" s="236"/>
-      <c r="AE30" s="237"/>
-      <c r="AF30" s="232"/>
-      <c r="AG30" s="233"/>
-      <c r="AH30" s="233"/>
-      <c r="AI30" s="234"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="184"/>
+      <c r="O30" s="184"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="187"/>
+      <c r="S30" s="187"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="187"/>
+      <c r="X30" s="187"/>
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="187"/>
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="187"/>
+      <c r="AC30" s="187"/>
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="188"/>
+      <c r="AF30" s="183"/>
+      <c r="AG30" s="184"/>
+      <c r="AH30" s="184"/>
+      <c r="AI30" s="185"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="226"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="232"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="234"/>
-      <c r="Q31" s="235"/>
-      <c r="R31" s="236"/>
-      <c r="S31" s="236"/>
-      <c r="T31" s="236"/>
-      <c r="U31" s="236"/>
-      <c r="V31" s="236"/>
-      <c r="W31" s="236"/>
-      <c r="X31" s="236"/>
-      <c r="Y31" s="236"/>
-      <c r="Z31" s="236"/>
-      <c r="AA31" s="236"/>
-      <c r="AB31" s="236"/>
-      <c r="AC31" s="236"/>
-      <c r="AD31" s="236"/>
-      <c r="AE31" s="237"/>
-      <c r="AF31" s="232"/>
-      <c r="AG31" s="233"/>
-      <c r="AH31" s="233"/>
-      <c r="AI31" s="234"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="185"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="187"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="187"/>
+      <c r="Z31" s="187"/>
+      <c r="AA31" s="187"/>
+      <c r="AB31" s="187"/>
+      <c r="AC31" s="187"/>
+      <c r="AD31" s="187"/>
+      <c r="AE31" s="188"/>
+      <c r="AF31" s="183"/>
+      <c r="AG31" s="184"/>
+      <c r="AH31" s="184"/>
+      <c r="AI31" s="185"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="226"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="231"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="238"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="233"/>
-      <c r="O32" s="233"/>
-      <c r="P32" s="234"/>
-      <c r="Q32" s="235"/>
-      <c r="R32" s="236"/>
-      <c r="S32" s="236"/>
-      <c r="T32" s="236"/>
-      <c r="U32" s="236"/>
-      <c r="V32" s="236"/>
-      <c r="W32" s="236"/>
-      <c r="X32" s="236"/>
-      <c r="Y32" s="236"/>
-      <c r="Z32" s="236"/>
-      <c r="AA32" s="236"/>
-      <c r="AB32" s="236"/>
-      <c r="AC32" s="236"/>
-      <c r="AD32" s="236"/>
-      <c r="AE32" s="237"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="233"/>
-      <c r="AH32" s="233"/>
-      <c r="AI32" s="234"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="185"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="187"/>
+      <c r="Y32" s="187"/>
+      <c r="Z32" s="187"/>
+      <c r="AA32" s="187"/>
+      <c r="AB32" s="187"/>
+      <c r="AC32" s="187"/>
+      <c r="AD32" s="187"/>
+      <c r="AE32" s="188"/>
+      <c r="AF32" s="183"/>
+      <c r="AG32" s="184"/>
+      <c r="AH32" s="184"/>
+      <c r="AI32" s="185"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="226"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="234"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="236"/>
-      <c r="S33" s="236"/>
-      <c r="T33" s="236"/>
-      <c r="U33" s="236"/>
-      <c r="V33" s="236"/>
-      <c r="W33" s="236"/>
-      <c r="X33" s="236"/>
-      <c r="Y33" s="236"/>
-      <c r="Z33" s="236"/>
-      <c r="AA33" s="236"/>
-      <c r="AB33" s="236"/>
-      <c r="AC33" s="236"/>
-      <c r="AD33" s="236"/>
-      <c r="AE33" s="237"/>
-      <c r="AF33" s="232"/>
-      <c r="AG33" s="233"/>
-      <c r="AH33" s="233"/>
-      <c r="AI33" s="234"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="185"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="187"/>
+      <c r="T33" s="187"/>
+      <c r="U33" s="187"/>
+      <c r="V33" s="187"/>
+      <c r="W33" s="187"/>
+      <c r="X33" s="187"/>
+      <c r="Y33" s="187"/>
+      <c r="Z33" s="187"/>
+      <c r="AA33" s="187"/>
+      <c r="AB33" s="187"/>
+      <c r="AC33" s="187"/>
+      <c r="AD33" s="187"/>
+      <c r="AE33" s="188"/>
+      <c r="AF33" s="183"/>
+      <c r="AG33" s="184"/>
+      <c r="AH33" s="184"/>
+      <c r="AI33" s="185"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12688,167 +12875,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -36252,7 +36278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="29" customFormat="1">
+    <row r="11" spans="1:15" s="29" customFormat="1" ht="33.75">
       <c r="A11" s="148" t="s">
         <v>30</v>
       </c>
@@ -36271,7 +36297,9 @@
       <c r="F11" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="158"/>
+      <c r="G11" s="158" t="s">
+        <v>686</v>
+      </c>
       <c r="H11" s="158"/>
       <c r="I11" s="167"/>
       <c r="J11" s="167"/>
@@ -36296,7 +36324,9 @@
       <c r="F12" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="158"/>
+      <c r="G12" s="158" t="s">
+        <v>687</v>
+      </c>
       <c r="H12" s="158"/>
       <c r="I12" s="167"/>
       <c r="J12" s="167"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C50AA-A496-4E2E-9AE3-CA8C4325DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C68333-9E95-4158-A852-025D83898B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BA1060101_クラス単体テスト!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BA1060101_リクエスト単体テスト!$A$10:$R$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BA1060101_リクエスト単体テスト!$A$10:$R$359</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">取引単体!$A$10:$O$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BA1060101_クラス単体テスト!$A$1:$Q$295</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">BA1060101_リクエスト単体テスト!$A$1:$R$359</definedName>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="687">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -7364,13 +7364,6 @@
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>24-1-2で確認</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>結合なし</t>
@@ -8368,20 +8361,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>24-2-1で確認</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>27-1-1で確認</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>(a)システム機能設計書
 (b)テーブル定義書</t>
     <rPh sb="7" eb="12">
@@ -8653,6 +8632,50 @@
   <si>
     <t>データバリエーションなし</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力データ定義、処理詳細、出力データ定義</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象データが全てファイルに出力されている（出力ファイルで件数を確認する）。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -9163,7 +9186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -9617,9 +9640,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9664,93 +9684,6 @@
     </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9851,6 +9784,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9858,6 +9878,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10930,12 +10963,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="176" t="str">
+      <c r="I25" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -11495,57 +11528,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="212" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="182" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="221" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="230" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="200" t="s">
         <v>520</v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="206" t="s">
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="207"/>
-      <c r="AC1" s="208" t="str">
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="178" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="215" t="str">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="185" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="217"/>
+      <c r="AH1" s="186"/>
+      <c r="AI1" s="187"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -11553,53 +11586,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="212" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="182" t="s">
         <v>522</v>
       </c>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="206" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="188" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="215" t="str">
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="185" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="217"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="187"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -11607,45 +11640,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="212" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="182" t="s">
         <v>524</v>
       </c>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="217"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="185"/>
+      <c r="AH3" s="186"/>
+      <c r="AI3" s="187"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -11682,1181 +11715,1020 @@
       <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="191"/>
-      <c r="D7" s="190" t="s">
+      <c r="C7" s="210"/>
+      <c r="D7" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="190" t="s">
+      <c r="E7" s="211"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="190" t="s">
+      <c r="H7" s="211"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="190" t="s">
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="192"/>
-      <c r="AB7" s="192"/>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="191"/>
-      <c r="AF7" s="190" t="s">
+      <c r="R7" s="211"/>
+      <c r="S7" s="211"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="211"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="211"/>
+      <c r="AA7" s="211"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="210"/>
+      <c r="AF7" s="209" t="s">
         <v>35</v>
       </c>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="192"/>
-      <c r="AI7" s="191"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="210"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="205"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="201"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="202"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="220"/>
+      <c r="O8" s="220"/>
+      <c r="P8" s="221"/>
+      <c r="Q8" s="222"/>
+      <c r="R8" s="223"/>
+      <c r="S8" s="223"/>
+      <c r="T8" s="223"/>
+      <c r="U8" s="223"/>
+      <c r="V8" s="223"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="223"/>
+      <c r="Z8" s="223"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="224"/>
+      <c r="AF8" s="219"/>
+      <c r="AG8" s="220"/>
+      <c r="AH8" s="220"/>
+      <c r="AI8" s="221"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="188"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="185"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="232"/>
+      <c r="L9" s="232"/>
+      <c r="M9" s="232"/>
+      <c r="N9" s="232"/>
+      <c r="O9" s="232"/>
+      <c r="P9" s="233"/>
+      <c r="Q9" s="234"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="235"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="235"/>
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="235"/>
+      <c r="AB9" s="235"/>
+      <c r="AC9" s="235"/>
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="236"/>
+      <c r="AF9" s="231"/>
+      <c r="AG9" s="232"/>
+      <c r="AH9" s="232"/>
+      <c r="AI9" s="233"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="187"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="184"/>
-      <c r="AH10" s="184"/>
-      <c r="AI10" s="185"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="232"/>
+      <c r="L10" s="232"/>
+      <c r="M10" s="232"/>
+      <c r="N10" s="232"/>
+      <c r="O10" s="232"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="234"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="235"/>
+      <c r="U10" s="235"/>
+      <c r="V10" s="235"/>
+      <c r="W10" s="235"/>
+      <c r="X10" s="235"/>
+      <c r="Y10" s="235"/>
+      <c r="Z10" s="235"/>
+      <c r="AA10" s="235"/>
+      <c r="AB10" s="235"/>
+      <c r="AC10" s="235"/>
+      <c r="AD10" s="235"/>
+      <c r="AE10" s="236"/>
+      <c r="AF10" s="231"/>
+      <c r="AG10" s="232"/>
+      <c r="AH10" s="232"/>
+      <c r="AI10" s="233"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="187"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="184"/>
-      <c r="AH11" s="184"/>
-      <c r="AI11" s="185"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="230"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="232"/>
+      <c r="M11" s="232"/>
+      <c r="N11" s="232"/>
+      <c r="O11" s="232"/>
+      <c r="P11" s="233"/>
+      <c r="Q11" s="234"/>
+      <c r="R11" s="235"/>
+      <c r="S11" s="235"/>
+      <c r="T11" s="235"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="235"/>
+      <c r="W11" s="235"/>
+      <c r="X11" s="235"/>
+      <c r="Y11" s="235"/>
+      <c r="Z11" s="235"/>
+      <c r="AA11" s="235"/>
+      <c r="AB11" s="235"/>
+      <c r="AC11" s="235"/>
+      <c r="AD11" s="235"/>
+      <c r="AE11" s="236"/>
+      <c r="AF11" s="231"/>
+      <c r="AG11" s="232"/>
+      <c r="AH11" s="232"/>
+      <c r="AI11" s="233"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="184"/>
-      <c r="AH12" s="184"/>
-      <c r="AI12" s="185"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="230"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="232"/>
+      <c r="M12" s="232"/>
+      <c r="N12" s="232"/>
+      <c r="O12" s="232"/>
+      <c r="P12" s="233"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="235"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="235"/>
+      <c r="V12" s="235"/>
+      <c r="W12" s="235"/>
+      <c r="X12" s="235"/>
+      <c r="Y12" s="235"/>
+      <c r="Z12" s="235"/>
+      <c r="AA12" s="235"/>
+      <c r="AB12" s="235"/>
+      <c r="AC12" s="235"/>
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="236"/>
+      <c r="AF12" s="231"/>
+      <c r="AG12" s="232"/>
+      <c r="AH12" s="232"/>
+      <c r="AI12" s="233"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="187"/>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="187"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="183"/>
-      <c r="AG13" s="184"/>
-      <c r="AH13" s="184"/>
-      <c r="AI13" s="185"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="231"/>
+      <c r="K13" s="232"/>
+      <c r="L13" s="232"/>
+      <c r="M13" s="232"/>
+      <c r="N13" s="232"/>
+      <c r="O13" s="232"/>
+      <c r="P13" s="233"/>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="235"/>
+      <c r="U13" s="235"/>
+      <c r="V13" s="235"/>
+      <c r="W13" s="235"/>
+      <c r="X13" s="235"/>
+      <c r="Y13" s="235"/>
+      <c r="Z13" s="235"/>
+      <c r="AA13" s="235"/>
+      <c r="AB13" s="235"/>
+      <c r="AC13" s="235"/>
+      <c r="AD13" s="235"/>
+      <c r="AE13" s="236"/>
+      <c r="AF13" s="231"/>
+      <c r="AG13" s="232"/>
+      <c r="AH13" s="232"/>
+      <c r="AI13" s="233"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="187"/>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="183"/>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="184"/>
-      <c r="AI14" s="185"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="225"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="233"/>
+      <c r="Q14" s="234"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="235"/>
+      <c r="U14" s="235"/>
+      <c r="V14" s="235"/>
+      <c r="W14" s="235"/>
+      <c r="X14" s="235"/>
+      <c r="Y14" s="235"/>
+      <c r="Z14" s="235"/>
+      <c r="AA14" s="235"/>
+      <c r="AB14" s="235"/>
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="235"/>
+      <c r="AE14" s="236"/>
+      <c r="AF14" s="231"/>
+      <c r="AG14" s="232"/>
+      <c r="AH14" s="232"/>
+      <c r="AI14" s="233"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="187"/>
-      <c r="AE15" s="188"/>
-      <c r="AF15" s="183"/>
-      <c r="AG15" s="184"/>
-      <c r="AH15" s="184"/>
-      <c r="AI15" s="185"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="232"/>
+      <c r="M15" s="232"/>
+      <c r="N15" s="232"/>
+      <c r="O15" s="232"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="234"/>
+      <c r="R15" s="235"/>
+      <c r="S15" s="235"/>
+      <c r="T15" s="235"/>
+      <c r="U15" s="235"/>
+      <c r="V15" s="235"/>
+      <c r="W15" s="235"/>
+      <c r="X15" s="235"/>
+      <c r="Y15" s="235"/>
+      <c r="Z15" s="235"/>
+      <c r="AA15" s="235"/>
+      <c r="AB15" s="235"/>
+      <c r="AC15" s="235"/>
+      <c r="AD15" s="235"/>
+      <c r="AE15" s="236"/>
+      <c r="AF15" s="231"/>
+      <c r="AG15" s="232"/>
+      <c r="AH15" s="232"/>
+      <c r="AI15" s="233"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
-      <c r="S16" s="187"/>
-      <c r="T16" s="187"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="187"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="187"/>
-      <c r="Z16" s="187"/>
-      <c r="AA16" s="187"/>
-      <c r="AB16" s="187"/>
-      <c r="AC16" s="187"/>
-      <c r="AD16" s="187"/>
-      <c r="AE16" s="188"/>
-      <c r="AF16" s="183"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="185"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="229"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="233"/>
+      <c r="Q16" s="234"/>
+      <c r="R16" s="235"/>
+      <c r="S16" s="235"/>
+      <c r="T16" s="235"/>
+      <c r="U16" s="235"/>
+      <c r="V16" s="235"/>
+      <c r="W16" s="235"/>
+      <c r="X16" s="235"/>
+      <c r="Y16" s="235"/>
+      <c r="Z16" s="235"/>
+      <c r="AA16" s="235"/>
+      <c r="AB16" s="235"/>
+      <c r="AC16" s="235"/>
+      <c r="AD16" s="235"/>
+      <c r="AE16" s="236"/>
+      <c r="AF16" s="231"/>
+      <c r="AG16" s="232"/>
+      <c r="AH16" s="232"/>
+      <c r="AI16" s="233"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="187"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187"/>
-      <c r="AE17" s="188"/>
-      <c r="AF17" s="183"/>
-      <c r="AG17" s="184"/>
-      <c r="AH17" s="184"/>
-      <c r="AI17" s="185"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="233"/>
+      <c r="Q17" s="234"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="235"/>
+      <c r="U17" s="235"/>
+      <c r="V17" s="235"/>
+      <c r="W17" s="235"/>
+      <c r="X17" s="235"/>
+      <c r="Y17" s="235"/>
+      <c r="Z17" s="235"/>
+      <c r="AA17" s="235"/>
+      <c r="AB17" s="235"/>
+      <c r="AC17" s="235"/>
+      <c r="AD17" s="235"/>
+      <c r="AE17" s="236"/>
+      <c r="AF17" s="231"/>
+      <c r="AG17" s="232"/>
+      <c r="AH17" s="232"/>
+      <c r="AI17" s="233"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="187"/>
-      <c r="V18" s="187"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
-      <c r="Y18" s="187"/>
-      <c r="Z18" s="187"/>
-      <c r="AA18" s="187"/>
-      <c r="AB18" s="187"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="187"/>
-      <c r="AE18" s="188"/>
-      <c r="AF18" s="183"/>
-      <c r="AG18" s="184"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="185"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="230"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="232"/>
+      <c r="O18" s="232"/>
+      <c r="P18" s="233"/>
+      <c r="Q18" s="234"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="235"/>
+      <c r="U18" s="235"/>
+      <c r="V18" s="235"/>
+      <c r="W18" s="235"/>
+      <c r="X18" s="235"/>
+      <c r="Y18" s="235"/>
+      <c r="Z18" s="235"/>
+      <c r="AA18" s="235"/>
+      <c r="AB18" s="235"/>
+      <c r="AC18" s="235"/>
+      <c r="AD18" s="235"/>
+      <c r="AE18" s="236"/>
+      <c r="AF18" s="231"/>
+      <c r="AG18" s="232"/>
+      <c r="AH18" s="232"/>
+      <c r="AI18" s="233"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="184"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="187"/>
-      <c r="AD19" s="187"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="183"/>
-      <c r="AG19" s="184"/>
-      <c r="AH19" s="184"/>
-      <c r="AI19" s="185"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="232"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="234"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="235"/>
+      <c r="U19" s="235"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="235"/>
+      <c r="X19" s="235"/>
+      <c r="Y19" s="235"/>
+      <c r="Z19" s="235"/>
+      <c r="AA19" s="235"/>
+      <c r="AB19" s="235"/>
+      <c r="AC19" s="235"/>
+      <c r="AD19" s="235"/>
+      <c r="AE19" s="236"/>
+      <c r="AF19" s="231"/>
+      <c r="AG19" s="232"/>
+      <c r="AH19" s="232"/>
+      <c r="AI19" s="233"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="184"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="185"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="187"/>
-      <c r="Z20" s="187"/>
-      <c r="AA20" s="187"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="187"/>
-      <c r="AD20" s="187"/>
-      <c r="AE20" s="188"/>
-      <c r="AF20" s="183"/>
-      <c r="AG20" s="184"/>
-      <c r="AH20" s="184"/>
-      <c r="AI20" s="185"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="232"/>
+      <c r="O20" s="232"/>
+      <c r="P20" s="233"/>
+      <c r="Q20" s="234"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="235"/>
+      <c r="U20" s="235"/>
+      <c r="V20" s="235"/>
+      <c r="W20" s="235"/>
+      <c r="X20" s="235"/>
+      <c r="Y20" s="235"/>
+      <c r="Z20" s="235"/>
+      <c r="AA20" s="235"/>
+      <c r="AB20" s="235"/>
+      <c r="AC20" s="235"/>
+      <c r="AD20" s="235"/>
+      <c r="AE20" s="236"/>
+      <c r="AF20" s="231"/>
+      <c r="AG20" s="232"/>
+      <c r="AH20" s="232"/>
+      <c r="AI20" s="233"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="187"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="187"/>
-      <c r="X21" s="187"/>
-      <c r="Y21" s="187"/>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="187"/>
-      <c r="AD21" s="187"/>
-      <c r="AE21" s="188"/>
-      <c r="AF21" s="183"/>
-      <c r="AG21" s="184"/>
-      <c r="AH21" s="184"/>
-      <c r="AI21" s="185"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="232"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="232"/>
+      <c r="O21" s="232"/>
+      <c r="P21" s="233"/>
+      <c r="Q21" s="234"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="235"/>
+      <c r="U21" s="235"/>
+      <c r="V21" s="235"/>
+      <c r="W21" s="235"/>
+      <c r="X21" s="235"/>
+      <c r="Y21" s="235"/>
+      <c r="Z21" s="235"/>
+      <c r="AA21" s="235"/>
+      <c r="AB21" s="235"/>
+      <c r="AC21" s="235"/>
+      <c r="AD21" s="235"/>
+      <c r="AE21" s="236"/>
+      <c r="AF21" s="231"/>
+      <c r="AG21" s="232"/>
+      <c r="AH21" s="232"/>
+      <c r="AI21" s="233"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="187"/>
-      <c r="U22" s="187"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="187"/>
-      <c r="X22" s="187"/>
-      <c r="Y22" s="187"/>
-      <c r="Z22" s="187"/>
-      <c r="AA22" s="187"/>
-      <c r="AB22" s="187"/>
-      <c r="AC22" s="187"/>
-      <c r="AD22" s="187"/>
-      <c r="AE22" s="188"/>
-      <c r="AF22" s="183"/>
-      <c r="AG22" s="184"/>
-      <c r="AH22" s="184"/>
-      <c r="AI22" s="185"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="230"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="233"/>
+      <c r="Q22" s="234"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="235"/>
+      <c r="U22" s="235"/>
+      <c r="V22" s="235"/>
+      <c r="W22" s="235"/>
+      <c r="X22" s="235"/>
+      <c r="Y22" s="235"/>
+      <c r="Z22" s="235"/>
+      <c r="AA22" s="235"/>
+      <c r="AB22" s="235"/>
+      <c r="AC22" s="235"/>
+      <c r="AD22" s="235"/>
+      <c r="AE22" s="236"/>
+      <c r="AF22" s="231"/>
+      <c r="AG22" s="232"/>
+      <c r="AH22" s="232"/>
+      <c r="AI22" s="233"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="187"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="187"/>
-      <c r="V23" s="187"/>
-      <c r="W23" s="187"/>
-      <c r="X23" s="187"/>
-      <c r="Y23" s="187"/>
-      <c r="Z23" s="187"/>
-      <c r="AA23" s="187"/>
-      <c r="AB23" s="187"/>
-      <c r="AC23" s="187"/>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="188"/>
-      <c r="AF23" s="183"/>
-      <c r="AG23" s="184"/>
-      <c r="AH23" s="184"/>
-      <c r="AI23" s="185"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="234"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="235"/>
+      <c r="U23" s="235"/>
+      <c r="V23" s="235"/>
+      <c r="W23" s="235"/>
+      <c r="X23" s="235"/>
+      <c r="Y23" s="235"/>
+      <c r="Z23" s="235"/>
+      <c r="AA23" s="235"/>
+      <c r="AB23" s="235"/>
+      <c r="AC23" s="235"/>
+      <c r="AD23" s="235"/>
+      <c r="AE23" s="236"/>
+      <c r="AF23" s="231"/>
+      <c r="AG23" s="232"/>
+      <c r="AH23" s="232"/>
+      <c r="AI23" s="233"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="185"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
-      <c r="S24" s="187"/>
-      <c r="T24" s="187"/>
-      <c r="U24" s="187"/>
-      <c r="V24" s="187"/>
-      <c r="W24" s="187"/>
-      <c r="X24" s="187"/>
-      <c r="Y24" s="187"/>
-      <c r="Z24" s="187"/>
-      <c r="AA24" s="187"/>
-      <c r="AB24" s="187"/>
-      <c r="AC24" s="187"/>
-      <c r="AD24" s="187"/>
-      <c r="AE24" s="188"/>
-      <c r="AF24" s="183"/>
-      <c r="AG24" s="184"/>
-      <c r="AH24" s="184"/>
-      <c r="AI24" s="185"/>
+      <c r="B24" s="225"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="232"/>
+      <c r="N24" s="232"/>
+      <c r="O24" s="232"/>
+      <c r="P24" s="233"/>
+      <c r="Q24" s="234"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="235"/>
+      <c r="U24" s="235"/>
+      <c r="V24" s="235"/>
+      <c r="W24" s="235"/>
+      <c r="X24" s="235"/>
+      <c r="Y24" s="235"/>
+      <c r="Z24" s="235"/>
+      <c r="AA24" s="235"/>
+      <c r="AB24" s="235"/>
+      <c r="AC24" s="235"/>
+      <c r="AD24" s="235"/>
+      <c r="AE24" s="236"/>
+      <c r="AF24" s="231"/>
+      <c r="AG24" s="232"/>
+      <c r="AH24" s="232"/>
+      <c r="AI24" s="233"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="187"/>
-      <c r="V25" s="187"/>
-      <c r="W25" s="187"/>
-      <c r="X25" s="187"/>
-      <c r="Y25" s="187"/>
-      <c r="Z25" s="187"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
-      <c r="AD25" s="187"/>
-      <c r="AE25" s="188"/>
-      <c r="AF25" s="183"/>
-      <c r="AG25" s="184"/>
-      <c r="AH25" s="184"/>
-      <c r="AI25" s="185"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="226"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="232"/>
+      <c r="O25" s="232"/>
+      <c r="P25" s="233"/>
+      <c r="Q25" s="234"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="235"/>
+      <c r="U25" s="235"/>
+      <c r="V25" s="235"/>
+      <c r="W25" s="235"/>
+      <c r="X25" s="235"/>
+      <c r="Y25" s="235"/>
+      <c r="Z25" s="235"/>
+      <c r="AA25" s="235"/>
+      <c r="AB25" s="235"/>
+      <c r="AC25" s="235"/>
+      <c r="AD25" s="235"/>
+      <c r="AE25" s="236"/>
+      <c r="AF25" s="231"/>
+      <c r="AG25" s="232"/>
+      <c r="AH25" s="232"/>
+      <c r="AI25" s="233"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="187"/>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
-      <c r="AB26" s="187"/>
-      <c r="AC26" s="187"/>
-      <c r="AD26" s="187"/>
-      <c r="AE26" s="188"/>
-      <c r="AF26" s="183"/>
-      <c r="AG26" s="184"/>
-      <c r="AH26" s="184"/>
-      <c r="AI26" s="185"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="225"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="226"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="232"/>
+      <c r="O26" s="232"/>
+      <c r="P26" s="233"/>
+      <c r="Q26" s="234"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="235"/>
+      <c r="U26" s="235"/>
+      <c r="V26" s="235"/>
+      <c r="W26" s="235"/>
+      <c r="X26" s="235"/>
+      <c r="Y26" s="235"/>
+      <c r="Z26" s="235"/>
+      <c r="AA26" s="235"/>
+      <c r="AB26" s="235"/>
+      <c r="AC26" s="235"/>
+      <c r="AD26" s="235"/>
+      <c r="AE26" s="236"/>
+      <c r="AF26" s="231"/>
+      <c r="AG26" s="232"/>
+      <c r="AH26" s="232"/>
+      <c r="AI26" s="233"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="185"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="187"/>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="187"/>
-      <c r="AD27" s="187"/>
-      <c r="AE27" s="188"/>
-      <c r="AF27" s="183"/>
-      <c r="AG27" s="184"/>
-      <c r="AH27" s="184"/>
-      <c r="AI27" s="185"/>
+      <c r="B27" s="225"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="225"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="233"/>
+      <c r="Q27" s="234"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="235"/>
+      <c r="V27" s="235"/>
+      <c r="W27" s="235"/>
+      <c r="X27" s="235"/>
+      <c r="Y27" s="235"/>
+      <c r="Z27" s="235"/>
+      <c r="AA27" s="235"/>
+      <c r="AB27" s="235"/>
+      <c r="AC27" s="235"/>
+      <c r="AD27" s="235"/>
+      <c r="AE27" s="236"/>
+      <c r="AF27" s="231"/>
+      <c r="AG27" s="232"/>
+      <c r="AH27" s="232"/>
+      <c r="AI27" s="233"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="183"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="185"/>
+      <c r="B28" s="225"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="225"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="226"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="232"/>
+      <c r="N28" s="232"/>
+      <c r="O28" s="232"/>
+      <c r="P28" s="233"/>
+      <c r="Q28" s="234"/>
+      <c r="R28" s="235"/>
+      <c r="S28" s="235"/>
+      <c r="T28" s="235"/>
+      <c r="U28" s="235"/>
+      <c r="V28" s="235"/>
+      <c r="W28" s="235"/>
+      <c r="X28" s="235"/>
+      <c r="Y28" s="235"/>
+      <c r="Z28" s="235"/>
+      <c r="AA28" s="235"/>
+      <c r="AB28" s="235"/>
+      <c r="AC28" s="235"/>
+      <c r="AD28" s="235"/>
+      <c r="AE28" s="236"/>
+      <c r="AF28" s="231"/>
+      <c r="AG28" s="232"/>
+      <c r="AH28" s="232"/>
+      <c r="AI28" s="233"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="187"/>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="187"/>
-      <c r="AC29" s="187"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="188"/>
-      <c r="AF29" s="183"/>
-      <c r="AG29" s="184"/>
-      <c r="AH29" s="184"/>
-      <c r="AI29" s="185"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="233"/>
+      <c r="Q29" s="234"/>
+      <c r="R29" s="235"/>
+      <c r="S29" s="235"/>
+      <c r="T29" s="235"/>
+      <c r="U29" s="235"/>
+      <c r="V29" s="235"/>
+      <c r="W29" s="235"/>
+      <c r="X29" s="235"/>
+      <c r="Y29" s="235"/>
+      <c r="Z29" s="235"/>
+      <c r="AA29" s="235"/>
+      <c r="AB29" s="235"/>
+      <c r="AC29" s="235"/>
+      <c r="AD29" s="235"/>
+      <c r="AE29" s="236"/>
+      <c r="AF29" s="231"/>
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="232"/>
+      <c r="AI29" s="233"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="185"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="187"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="187"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="187"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
-      <c r="AB30" s="187"/>
-      <c r="AC30" s="187"/>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="188"/>
-      <c r="AF30" s="183"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="185"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="230"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="232"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="233"/>
+      <c r="Q30" s="234"/>
+      <c r="R30" s="235"/>
+      <c r="S30" s="235"/>
+      <c r="T30" s="235"/>
+      <c r="U30" s="235"/>
+      <c r="V30" s="235"/>
+      <c r="W30" s="235"/>
+      <c r="X30" s="235"/>
+      <c r="Y30" s="235"/>
+      <c r="Z30" s="235"/>
+      <c r="AA30" s="235"/>
+      <c r="AB30" s="235"/>
+      <c r="AC30" s="235"/>
+      <c r="AD30" s="235"/>
+      <c r="AE30" s="236"/>
+      <c r="AF30" s="231"/>
+      <c r="AG30" s="232"/>
+      <c r="AH30" s="232"/>
+      <c r="AI30" s="233"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="185"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
-      <c r="AB31" s="187"/>
-      <c r="AC31" s="187"/>
-      <c r="AD31" s="187"/>
-      <c r="AE31" s="188"/>
-      <c r="AF31" s="183"/>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
-      <c r="AI31" s="185"/>
+      <c r="B31" s="225"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="225"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="233"/>
+      <c r="Q31" s="234"/>
+      <c r="R31" s="235"/>
+      <c r="S31" s="235"/>
+      <c r="T31" s="235"/>
+      <c r="U31" s="235"/>
+      <c r="V31" s="235"/>
+      <c r="W31" s="235"/>
+      <c r="X31" s="235"/>
+      <c r="Y31" s="235"/>
+      <c r="Z31" s="235"/>
+      <c r="AA31" s="235"/>
+      <c r="AB31" s="235"/>
+      <c r="AC31" s="235"/>
+      <c r="AD31" s="235"/>
+      <c r="AE31" s="236"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="232"/>
+      <c r="AH31" s="232"/>
+      <c r="AI31" s="233"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
-      <c r="AB32" s="187"/>
-      <c r="AC32" s="187"/>
-      <c r="AD32" s="187"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="183"/>
-      <c r="AG32" s="184"/>
-      <c r="AH32" s="184"/>
-      <c r="AI32" s="185"/>
+      <c r="B32" s="225"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="237"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="233"/>
+      <c r="Q32" s="234"/>
+      <c r="R32" s="235"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="235"/>
+      <c r="V32" s="235"/>
+      <c r="W32" s="235"/>
+      <c r="X32" s="235"/>
+      <c r="Y32" s="235"/>
+      <c r="Z32" s="235"/>
+      <c r="AA32" s="235"/>
+      <c r="AB32" s="235"/>
+      <c r="AC32" s="235"/>
+      <c r="AD32" s="235"/>
+      <c r="AE32" s="236"/>
+      <c r="AF32" s="231"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="232"/>
+      <c r="AI32" s="233"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="185"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="187"/>
-      <c r="W33" s="187"/>
-      <c r="X33" s="187"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="187"/>
-      <c r="AB33" s="187"/>
-      <c r="AC33" s="187"/>
-      <c r="AD33" s="187"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="183"/>
-      <c r="AG33" s="184"/>
-      <c r="AH33" s="184"/>
-      <c r="AI33" s="185"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="225"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="232"/>
+      <c r="M33" s="232"/>
+      <c r="N33" s="232"/>
+      <c r="O33" s="232"/>
+      <c r="P33" s="233"/>
+      <c r="Q33" s="234"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="235"/>
+      <c r="V33" s="235"/>
+      <c r="W33" s="235"/>
+      <c r="X33" s="235"/>
+      <c r="Y33" s="235"/>
+      <c r="Z33" s="235"/>
+      <c r="AA33" s="235"/>
+      <c r="AB33" s="235"/>
+      <c r="AC33" s="235"/>
+      <c r="AD33" s="235"/>
+      <c r="AE33" s="236"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="232"/>
+      <c r="AH33" s="232"/>
+      <c r="AI33" s="233"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12875,6 +12747,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -16628,7 +16661,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="239" t="s">
+      <c r="B112" s="238" t="s">
         <v>224</v>
       </c>
       <c r="C112" s="56"/>
@@ -16664,7 +16697,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="239"/>
+      <c r="B113" s="238"/>
       <c r="C113" s="56"/>
       <c r="D113" s="44"/>
       <c r="E113" s="82"/>
@@ -17336,7 +17369,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="239" t="s">
+      <c r="B132" s="238" t="s">
         <v>253</v>
       </c>
       <c r="C132" s="56"/>
@@ -17372,7 +17405,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="239"/>
+      <c r="B133" s="238"/>
       <c r="C133" s="56"/>
       <c r="D133" s="44"/>
       <c r="E133" s="44"/>
@@ -23158,7 +23191,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>24</v>
@@ -23169,7 +23202,7 @@
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -25880,8 +25913,8 @@
       <c r="Q82" s="122"/>
       <c r="R82" s="61"/>
     </row>
-    <row r="83" spans="1:18">
-      <c r="A83" s="42" t="str" cm="1">
+    <row r="83" spans="1:18" s="243" customFormat="1" ht="33.75">
+      <c r="A83" s="241" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E83)&gt;0)*ROW($E$11:E83),0)),
@@ -25893,29 +25926,35 @@
 )</f>
         <v>25-1-1</v>
       </c>
-      <c r="B83" s="118"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="104" t="s">
+      <c r="B83" s="141"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F83" s="104" t="s">
+      <c r="F83" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G83" s="99"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="155" t="s">
-        <v>563</v>
-      </c>
-      <c r="K83" s="99"/>
-      <c r="L83" s="80"/>
-      <c r="M83" s="80"/>
-      <c r="N83" s="80"/>
-      <c r="O83" s="80"/>
-      <c r="P83" s="80"/>
-      <c r="Q83" s="105"/>
-      <c r="R83" s="99"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="I83" s="96" t="s">
+        <v>685</v>
+      </c>
+      <c r="J83" s="242" t="s">
+        <v>558</v>
+      </c>
+      <c r="K83" s="139" t="s">
+        <v>686</v>
+      </c>
+      <c r="L83" s="96"/>
+      <c r="M83" s="96"/>
+      <c r="N83" s="96"/>
+      <c r="O83" s="96"/>
+      <c r="P83" s="96"/>
+      <c r="Q83" s="140"/>
+      <c r="R83" s="139"/>
     </row>
     <row r="84" spans="1:18" ht="33.75">
       <c r="A84" s="42" t="str" cm="1">
@@ -25943,7 +25982,7 @@
       <c r="H84" s="80"/>
       <c r="I84" s="80"/>
       <c r="J84" s="99" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K84" s="99"/>
       <c r="L84" s="80"/>
@@ -25978,7 +26017,7 @@
       <c r="H85" s="80"/>
       <c r="I85" s="80"/>
       <c r="J85" s="99" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K85" s="99"/>
       <c r="L85" s="80"/>
@@ -26016,13 +26055,13 @@
         <v>554</v>
       </c>
       <c r="I86" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="J86" s="61" t="s">
         <v>565</v>
       </c>
-      <c r="J86" s="61" t="s">
-        <v>566</v>
-      </c>
       <c r="K86" s="61" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L86" s="62"/>
       <c r="M86" s="62"/>
@@ -26058,7 +26097,7 @@
       <c r="H87" s="80"/>
       <c r="I87" s="80"/>
       <c r="J87" s="99" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K87" s="99"/>
       <c r="L87" s="80"/>
@@ -26099,7 +26138,7 @@
       <c r="H88" s="80"/>
       <c r="I88" s="80"/>
       <c r="J88" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K88" s="99"/>
       <c r="L88" s="80"/>
@@ -26136,7 +26175,7 @@
       <c r="H89" s="80"/>
       <c r="I89" s="80"/>
       <c r="J89" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K89" s="99"/>
       <c r="L89" s="80"/>
@@ -26173,7 +26212,7 @@
       <c r="H90" s="80"/>
       <c r="I90" s="80"/>
       <c r="J90" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K90" s="99"/>
       <c r="L90" s="80"/>
@@ -26214,7 +26253,7 @@
       <c r="H91" s="51"/>
       <c r="I91" s="51"/>
       <c r="J91" s="98" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K91" s="80"/>
       <c r="L91" s="80"/>
@@ -26249,7 +26288,7 @@
       <c r="H92" s="80"/>
       <c r="I92" s="80"/>
       <c r="J92" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K92" s="99"/>
       <c r="L92" s="80"/>
@@ -26286,7 +26325,7 @@
       <c r="H93" s="80"/>
       <c r="I93" s="80"/>
       <c r="J93" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K93" s="99"/>
       <c r="L93" s="80"/>
@@ -26323,7 +26362,7 @@
       <c r="H94" s="80"/>
       <c r="I94" s="80"/>
       <c r="J94" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K94" s="99"/>
       <c r="L94" s="80"/>
@@ -26358,7 +26397,7 @@
       <c r="H95" s="80"/>
       <c r="I95" s="80"/>
       <c r="J95" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K95" s="99"/>
       <c r="L95" s="80"/>
@@ -26395,7 +26434,7 @@
       <c r="H96" s="80"/>
       <c r="I96" s="80"/>
       <c r="J96" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K96" s="99"/>
       <c r="L96" s="80"/>
@@ -26436,7 +26475,7 @@
       <c r="H97" s="80"/>
       <c r="I97" s="80"/>
       <c r="J97" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K97" s="99"/>
       <c r="L97" s="80"/>
@@ -26471,7 +26510,7 @@
       <c r="H98" s="80"/>
       <c r="I98" s="80"/>
       <c r="J98" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K98" s="99"/>
       <c r="L98" s="80"/>
@@ -26506,7 +26545,7 @@
       <c r="H99" s="80"/>
       <c r="I99" s="80"/>
       <c r="J99" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K99" s="99"/>
       <c r="L99" s="80"/>
@@ -26541,7 +26580,7 @@
       <c r="H100" s="80"/>
       <c r="I100" s="80"/>
       <c r="J100" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K100" s="99"/>
       <c r="L100" s="80"/>
@@ -26576,7 +26615,7 @@
       <c r="H101" s="80"/>
       <c r="I101" s="80"/>
       <c r="J101" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K101" s="99"/>
       <c r="L101" s="80"/>
@@ -26613,7 +26652,7 @@
       <c r="H102" s="80"/>
       <c r="I102" s="80"/>
       <c r="J102" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K102" s="99"/>
       <c r="L102" s="80"/>
@@ -26648,7 +26687,7 @@
       <c r="H103" s="80"/>
       <c r="I103" s="80"/>
       <c r="J103" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K103" s="99"/>
       <c r="L103" s="80"/>
@@ -26683,7 +26722,7 @@
       <c r="H104" s="80"/>
       <c r="I104" s="80"/>
       <c r="J104" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K104" s="99"/>
       <c r="L104" s="80"/>
@@ -26718,7 +26757,7 @@
       <c r="H105" s="80"/>
       <c r="I105" s="80"/>
       <c r="J105" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K105" s="99"/>
       <c r="L105" s="80"/>
@@ -26753,7 +26792,7 @@
       <c r="H106" s="80"/>
       <c r="I106" s="80"/>
       <c r="J106" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K106" s="99"/>
       <c r="L106" s="80"/>
@@ -26790,7 +26829,7 @@
       <c r="H107" s="80"/>
       <c r="I107" s="80"/>
       <c r="J107" s="99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K107" s="99"/>
       <c r="L107" s="80"/>
@@ -26833,7 +26872,7 @@
       <c r="H108" s="80"/>
       <c r="I108" s="80"/>
       <c r="J108" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K108" s="99"/>
       <c r="L108" s="80"/>
@@ -26874,7 +26913,7 @@
       <c r="H109" s="80"/>
       <c r="I109" s="80"/>
       <c r="J109" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K109" s="99"/>
       <c r="L109" s="80"/>
@@ -26909,7 +26948,7 @@
       <c r="H110" s="80"/>
       <c r="I110" s="80"/>
       <c r="J110" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K110" s="99"/>
       <c r="L110" s="80"/>
@@ -26950,7 +26989,7 @@
       <c r="H111" s="80"/>
       <c r="I111" s="80"/>
       <c r="J111" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K111" s="99"/>
       <c r="L111" s="80"/>
@@ -26991,7 +27030,7 @@
       <c r="H112" s="80"/>
       <c r="I112" s="80"/>
       <c r="J112" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K112" s="99"/>
       <c r="L112" s="80"/>
@@ -27026,7 +27065,7 @@
       <c r="H113" s="80"/>
       <c r="I113" s="80"/>
       <c r="J113" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K113" s="99"/>
       <c r="L113" s="80"/>
@@ -27069,7 +27108,7 @@
       <c r="H114" s="80"/>
       <c r="I114" s="80"/>
       <c r="J114" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K114" s="99"/>
       <c r="L114" s="80"/>
@@ -27093,7 +27132,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B115" s="240" t="s">
+      <c r="B115" s="239" t="s">
         <v>495</v>
       </c>
       <c r="C115" s="108"/>
@@ -27106,7 +27145,7 @@
       <c r="H115" s="80"/>
       <c r="I115" s="80"/>
       <c r="J115" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K115" s="99"/>
       <c r="L115" s="80"/>
@@ -27130,7 +27169,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B116" s="240"/>
+      <c r="B116" s="239"/>
       <c r="C116" s="108"/>
       <c r="D116" s="103"/>
       <c r="E116" s="132"/>
@@ -27141,7 +27180,7 @@
       <c r="H116" s="80"/>
       <c r="I116" s="80"/>
       <c r="J116" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K116" s="99"/>
       <c r="L116" s="80"/>
@@ -27176,7 +27215,7 @@
       <c r="H117" s="80"/>
       <c r="I117" s="80"/>
       <c r="J117" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K117" s="99"/>
       <c r="L117" s="80"/>
@@ -27213,7 +27252,7 @@
       <c r="H118" s="80"/>
       <c r="I118" s="80"/>
       <c r="J118" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K118" s="99"/>
       <c r="L118" s="80"/>
@@ -27248,7 +27287,7 @@
       <c r="H119" s="80"/>
       <c r="I119" s="80"/>
       <c r="J119" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K119" s="99"/>
       <c r="L119" s="80"/>
@@ -27283,7 +27322,7 @@
       <c r="H120" s="80"/>
       <c r="I120" s="80"/>
       <c r="J120" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K120" s="99"/>
       <c r="L120" s="80"/>
@@ -27318,7 +27357,7 @@
       <c r="H121" s="80"/>
       <c r="I121" s="80"/>
       <c r="J121" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K121" s="99"/>
       <c r="L121" s="80"/>
@@ -27390,7 +27429,7 @@
       <c r="H123" s="80"/>
       <c r="I123" s="80"/>
       <c r="J123" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K123" s="99"/>
       <c r="L123" s="80"/>
@@ -27425,7 +27464,7 @@
       <c r="H124" s="80"/>
       <c r="I124" s="80"/>
       <c r="J124" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K124" s="99"/>
       <c r="L124" s="80"/>
@@ -27567,7 +27606,7 @@
       <c r="H128" s="80"/>
       <c r="I128" s="80"/>
       <c r="J128" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K128" s="99"/>
       <c r="L128" s="80"/>
@@ -27606,7 +27645,7 @@
       <c r="H129" s="80"/>
       <c r="I129" s="80"/>
       <c r="J129" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K129" s="99"/>
       <c r="L129" s="80"/>
@@ -27684,7 +27723,7 @@
       <c r="H131" s="80"/>
       <c r="I131" s="80"/>
       <c r="J131" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K131" s="99"/>
       <c r="L131" s="80"/>
@@ -27719,7 +27758,7 @@
       <c r="H132" s="80"/>
       <c r="I132" s="80"/>
       <c r="J132" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K132" s="99"/>
       <c r="L132" s="80"/>
@@ -27754,7 +27793,7 @@
       <c r="H133" s="80"/>
       <c r="I133" s="80"/>
       <c r="J133" s="158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K133" s="99"/>
       <c r="L133" s="80"/>
@@ -27795,16 +27834,16 @@
       </c>
       <c r="G134" s="60"/>
       <c r="H134" s="62" t="s">
+        <v>572</v>
+      </c>
+      <c r="I134" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="I134" s="62" t="s">
+      <c r="J134" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="J134" s="61" t="s">
-        <v>575</v>
-      </c>
       <c r="K134" s="61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L134" s="62"/>
       <c r="M134" s="62"/>
@@ -27827,7 +27866,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B135" s="241" t="s">
+      <c r="B135" s="240" t="s">
         <v>253</v>
       </c>
       <c r="C135" s="123"/>
@@ -27841,13 +27880,13 @@
         <v>554</v>
       </c>
       <c r="I135" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="J135" s="139" t="s">
+        <v>574</v>
+      </c>
+      <c r="K135" s="139" t="s">
         <v>576</v>
-      </c>
-      <c r="J135" s="139" t="s">
-        <v>575</v>
-      </c>
-      <c r="K135" s="139" t="s">
-        <v>577</v>
       </c>
       <c r="L135" s="96"/>
       <c r="M135" s="96"/>
@@ -27870,7 +27909,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B136" s="241"/>
+      <c r="B136" s="240"/>
       <c r="C136" s="123"/>
       <c r="D136" s="118"/>
       <c r="E136" s="123"/>
@@ -27881,7 +27920,7 @@
       <c r="H136" s="80"/>
       <c r="I136" s="80"/>
       <c r="J136" s="99" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K136" s="99"/>
       <c r="L136" s="80"/>
@@ -27916,7 +27955,7 @@
       <c r="H137" s="80"/>
       <c r="I137" s="80"/>
       <c r="J137" s="99" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K137" s="99"/>
       <c r="L137" s="80"/>
@@ -27953,7 +27992,7 @@
       <c r="H138" s="80"/>
       <c r="I138" s="80"/>
       <c r="J138" s="99" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K138" s="99"/>
       <c r="L138" s="80"/>
@@ -27988,7 +28027,7 @@
       <c r="H139" s="80"/>
       <c r="I139" s="80"/>
       <c r="J139" s="99" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K139" s="99"/>
       <c r="L139" s="80"/>
@@ -28027,7 +28066,7 @@
       <c r="H140" s="80"/>
       <c r="I140" s="80"/>
       <c r="J140" s="99" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K140" s="99"/>
       <c r="L140" s="80"/>
@@ -28069,13 +28108,13 @@
         <v>554</v>
       </c>
       <c r="I141" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="J141" s="139" t="s">
         <v>583</v>
       </c>
-      <c r="J141" s="139" t="s">
-        <v>584</v>
-      </c>
       <c r="K141" s="139" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L141" s="96"/>
       <c r="M141" s="96"/>
@@ -28112,13 +28151,13 @@
         <v>554</v>
       </c>
       <c r="I142" s="96" t="s">
+        <v>584</v>
+      </c>
+      <c r="J142" s="139" t="s">
         <v>585</v>
       </c>
-      <c r="J142" s="139" t="s">
-        <v>586</v>
-      </c>
       <c r="K142" s="139" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L142" s="96"/>
       <c r="M142" s="96"/>
@@ -28155,13 +28194,13 @@
         <v>554</v>
       </c>
       <c r="I143" s="96" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J143" s="139" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K143" s="139" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L143" s="96"/>
       <c r="M143" s="96"/>
@@ -28235,13 +28274,13 @@
         <v>554</v>
       </c>
       <c r="I145" s="96" t="s">
+        <v>590</v>
+      </c>
+      <c r="J145" s="139" t="s">
+        <v>574</v>
+      </c>
+      <c r="K145" s="139" t="s">
         <v>591</v>
-      </c>
-      <c r="J145" s="139" t="s">
-        <v>575</v>
-      </c>
-      <c r="K145" s="139" t="s">
-        <v>592</v>
       </c>
       <c r="L145" s="96"/>
       <c r="M145" s="96"/>
@@ -28489,16 +28528,16 @@
       </c>
       <c r="G152" s="139"/>
       <c r="H152" s="96" t="s">
+        <v>592</v>
+      </c>
+      <c r="I152" s="96" t="s">
+        <v>590</v>
+      </c>
+      <c r="J152" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="I152" s="96" t="s">
-        <v>591</v>
-      </c>
-      <c r="J152" s="139" t="s">
+      <c r="K152" s="139" t="s">
         <v>594</v>
-      </c>
-      <c r="K152" s="139" t="s">
-        <v>595</v>
       </c>
       <c r="L152" s="96"/>
       <c r="M152" s="96"/>
@@ -28528,16 +28567,16 @@
       <c r="F153" s="141"/>
       <c r="G153" s="139"/>
       <c r="H153" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I153" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J153" s="139" t="s">
+        <v>595</v>
+      </c>
+      <c r="K153" s="139" t="s">
         <v>596</v>
-      </c>
-      <c r="K153" s="139" t="s">
-        <v>597</v>
       </c>
       <c r="L153" s="96"/>
       <c r="M153" s="96"/>
@@ -28567,16 +28606,16 @@
       <c r="F154" s="141"/>
       <c r="G154" s="139"/>
       <c r="H154" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I154" s="96" t="s">
         <v>555</v>
       </c>
       <c r="J154" s="139" t="s">
+        <v>597</v>
+      </c>
+      <c r="K154" s="139" t="s">
         <v>598</v>
-      </c>
-      <c r="K154" s="139" t="s">
-        <v>599</v>
       </c>
       <c r="L154" s="96"/>
       <c r="M154" s="96"/>
@@ -28606,16 +28645,16 @@
       <c r="F155" s="141"/>
       <c r="G155" s="139"/>
       <c r="H155" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I155" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J155" s="139" t="s">
+        <v>599</v>
+      </c>
+      <c r="K155" s="139" t="s">
         <v>600</v>
-      </c>
-      <c r="K155" s="139" t="s">
-        <v>601</v>
       </c>
       <c r="L155" s="96"/>
       <c r="M155" s="96"/>
@@ -28645,16 +28684,16 @@
       <c r="F156" s="141"/>
       <c r="G156" s="139"/>
       <c r="H156" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I156" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J156" s="139" t="s">
+        <v>601</v>
+      </c>
+      <c r="K156" s="139" t="s">
         <v>602</v>
-      </c>
-      <c r="K156" s="139" t="s">
-        <v>603</v>
       </c>
       <c r="L156" s="96"/>
       <c r="M156" s="96"/>
@@ -28684,16 +28723,16 @@
       <c r="F157" s="141"/>
       <c r="G157" s="139"/>
       <c r="H157" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I157" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J157" s="139" t="s">
+        <v>603</v>
+      </c>
+      <c r="K157" s="139" t="s">
         <v>604</v>
-      </c>
-      <c r="K157" s="139" t="s">
-        <v>605</v>
       </c>
       <c r="L157" s="96"/>
       <c r="M157" s="96"/>
@@ -28723,16 +28762,16 @@
       <c r="F158" s="141"/>
       <c r="G158" s="139"/>
       <c r="H158" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I158" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J158" s="139" t="s">
+        <v>605</v>
+      </c>
+      <c r="K158" s="139" t="s">
         <v>606</v>
-      </c>
-      <c r="K158" s="139" t="s">
-        <v>607</v>
       </c>
       <c r="L158" s="96"/>
       <c r="M158" s="96"/>
@@ -28762,16 +28801,16 @@
       <c r="F159" s="141"/>
       <c r="G159" s="139"/>
       <c r="H159" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I159" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J159" s="139" t="s">
+        <v>607</v>
+      </c>
+      <c r="K159" s="139" t="s">
         <v>608</v>
-      </c>
-      <c r="K159" s="139" t="s">
-        <v>609</v>
       </c>
       <c r="L159" s="96"/>
       <c r="M159" s="96"/>
@@ -28801,16 +28840,16 @@
       <c r="F160" s="141"/>
       <c r="G160" s="139"/>
       <c r="H160" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I160" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J160" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="K160" s="139" t="s">
         <v>610</v>
-      </c>
-      <c r="K160" s="139" t="s">
-        <v>611</v>
       </c>
       <c r="L160" s="96"/>
       <c r="M160" s="96"/>
@@ -28840,16 +28879,16 @@
       <c r="F161" s="141"/>
       <c r="G161" s="139"/>
       <c r="H161" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I161" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J161" s="139" t="s">
+        <v>611</v>
+      </c>
+      <c r="K161" s="139" t="s">
         <v>612</v>
-      </c>
-      <c r="K161" s="139" t="s">
-        <v>613</v>
       </c>
       <c r="L161" s="96"/>
       <c r="M161" s="96"/>
@@ -28879,16 +28918,16 @@
       <c r="F162" s="141"/>
       <c r="G162" s="139"/>
       <c r="H162" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I162" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J162" s="139" t="s">
+        <v>613</v>
+      </c>
+      <c r="K162" s="139" t="s">
         <v>614</v>
-      </c>
-      <c r="K162" s="139" t="s">
-        <v>615</v>
       </c>
       <c r="L162" s="96"/>
       <c r="M162" s="96"/>
@@ -28918,16 +28957,16 @@
       <c r="F163" s="141"/>
       <c r="G163" s="139"/>
       <c r="H163" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I163" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J163" s="139" t="s">
+        <v>615</v>
+      </c>
+      <c r="K163" s="139" t="s">
         <v>616</v>
-      </c>
-      <c r="K163" s="139" t="s">
-        <v>617</v>
       </c>
       <c r="L163" s="96"/>
       <c r="M163" s="96"/>
@@ -28957,16 +28996,16 @@
       <c r="F164" s="138"/>
       <c r="G164" s="139"/>
       <c r="H164" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I164" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J164" s="139" t="s">
+        <v>617</v>
+      </c>
+      <c r="K164" s="139" t="s">
         <v>618</v>
-      </c>
-      <c r="K164" s="139" t="s">
-        <v>619</v>
       </c>
       <c r="L164" s="96"/>
       <c r="M164" s="96"/>
@@ -29001,7 +29040,7 @@
       <c r="I165" s="80"/>
       <c r="J165" s="99"/>
       <c r="K165" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L165" s="80"/>
       <c r="M165" s="80"/>
@@ -29038,7 +29077,7 @@
       <c r="I166" s="80"/>
       <c r="J166" s="99"/>
       <c r="K166" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L166" s="80"/>
       <c r="M166" s="80"/>
@@ -29073,7 +29112,7 @@
       <c r="I167" s="80"/>
       <c r="J167" s="99"/>
       <c r="K167" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L167" s="80"/>
       <c r="M167" s="80"/>
@@ -29108,7 +29147,7 @@
       <c r="I168" s="80"/>
       <c r="J168" s="99"/>
       <c r="K168" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L168" s="80"/>
       <c r="M168" s="80"/>
@@ -29143,7 +29182,7 @@
       <c r="I169" s="80"/>
       <c r="J169" s="99"/>
       <c r="K169" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L169" s="80"/>
       <c r="M169" s="80"/>
@@ -29178,7 +29217,7 @@
       <c r="I170" s="80"/>
       <c r="J170" s="99"/>
       <c r="K170" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L170" s="80"/>
       <c r="M170" s="80"/>
@@ -29213,7 +29252,7 @@
       <c r="I171" s="80"/>
       <c r="J171" s="99"/>
       <c r="K171" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L171" s="80"/>
       <c r="M171" s="80"/>
@@ -29248,7 +29287,7 @@
       <c r="I172" s="80"/>
       <c r="J172" s="99"/>
       <c r="K172" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L172" s="80"/>
       <c r="M172" s="80"/>
@@ -29283,7 +29322,7 @@
       <c r="I173" s="80"/>
       <c r="J173" s="99"/>
       <c r="K173" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L173" s="80"/>
       <c r="M173" s="80"/>
@@ -29318,7 +29357,7 @@
       <c r="I174" s="80"/>
       <c r="J174" s="99"/>
       <c r="K174" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L174" s="80"/>
       <c r="M174" s="80"/>
@@ -29353,7 +29392,7 @@
       <c r="I175" s="80"/>
       <c r="J175" s="99"/>
       <c r="K175" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L175" s="80"/>
       <c r="M175" s="80"/>
@@ -29388,7 +29427,7 @@
       <c r="I176" s="80"/>
       <c r="J176" s="99"/>
       <c r="K176" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L176" s="80"/>
       <c r="M176" s="80"/>
@@ -29422,16 +29461,16 @@
       </c>
       <c r="G177" s="139"/>
       <c r="H177" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I177" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I177" s="96" t="s">
+      <c r="J177" s="139" t="s">
         <v>623</v>
       </c>
-      <c r="J177" s="139" t="s">
+      <c r="K177" s="139" t="s">
         <v>624</v>
-      </c>
-      <c r="K177" s="139" t="s">
-        <v>625</v>
       </c>
       <c r="L177" s="96"/>
       <c r="M177" s="96"/>
@@ -29461,16 +29500,16 @@
       <c r="F178" s="141"/>
       <c r="G178" s="139"/>
       <c r="H178" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I178" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I178" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J178" s="139" t="s">
+        <v>625</v>
+      </c>
+      <c r="K178" s="139" t="s">
         <v>626</v>
-      </c>
-      <c r="K178" s="139" t="s">
-        <v>627</v>
       </c>
       <c r="L178" s="96"/>
       <c r="M178" s="96"/>
@@ -29500,16 +29539,16 @@
       <c r="F179" s="141"/>
       <c r="G179" s="139"/>
       <c r="H179" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I179" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I179" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J179" s="139" t="s">
+        <v>627</v>
+      </c>
+      <c r="K179" s="139" t="s">
         <v>628</v>
-      </c>
-      <c r="K179" s="139" t="s">
-        <v>629</v>
       </c>
       <c r="L179" s="96"/>
       <c r="M179" s="96"/>
@@ -29539,16 +29578,16 @@
       <c r="F180" s="141"/>
       <c r="G180" s="139"/>
       <c r="H180" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I180" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I180" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J180" s="139" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K180" s="139" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L180" s="96"/>
       <c r="M180" s="96"/>
@@ -29578,16 +29617,16 @@
       <c r="F181" s="141"/>
       <c r="G181" s="139"/>
       <c r="H181" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I181" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I181" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J181" s="139" t="s">
+        <v>630</v>
+      </c>
+      <c r="K181" s="139" t="s">
         <v>631</v>
-      </c>
-      <c r="K181" s="139" t="s">
-        <v>632</v>
       </c>
       <c r="L181" s="96"/>
       <c r="M181" s="96"/>
@@ -29617,16 +29656,16 @@
       <c r="F182" s="141"/>
       <c r="G182" s="139"/>
       <c r="H182" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I182" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I182" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J182" s="139" t="s">
+        <v>632</v>
+      </c>
+      <c r="K182" s="139" t="s">
         <v>633</v>
-      </c>
-      <c r="K182" s="139" t="s">
-        <v>634</v>
       </c>
       <c r="L182" s="96"/>
       <c r="M182" s="96"/>
@@ -29656,16 +29695,16 @@
       <c r="F183" s="141"/>
       <c r="G183" s="139"/>
       <c r="H183" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I183" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I183" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J183" s="139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K183" s="139" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L183" s="96"/>
       <c r="M183" s="96"/>
@@ -29695,16 +29734,16 @@
       <c r="F184" s="141"/>
       <c r="G184" s="139"/>
       <c r="H184" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I184" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I184" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J184" s="139" t="s">
+        <v>635</v>
+      </c>
+      <c r="K184" s="139" t="s">
         <v>636</v>
-      </c>
-      <c r="K184" s="139" t="s">
-        <v>637</v>
       </c>
       <c r="L184" s="96"/>
       <c r="M184" s="96"/>
@@ -29734,16 +29773,16 @@
       <c r="F185" s="141"/>
       <c r="G185" s="139"/>
       <c r="H185" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I185" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I185" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J185" s="139" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K185" s="139" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L185" s="96"/>
       <c r="M185" s="96"/>
@@ -29773,16 +29812,16 @@
       <c r="F186" s="141"/>
       <c r="G186" s="139"/>
       <c r="H186" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I186" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I186" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J186" s="139" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K186" s="139" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L186" s="96"/>
       <c r="M186" s="96"/>
@@ -29812,16 +29851,16 @@
       <c r="F187" s="141"/>
       <c r="G187" s="139"/>
       <c r="H187" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I187" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I187" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J187" s="139" t="s">
+        <v>639</v>
+      </c>
+      <c r="K187" s="139" t="s">
         <v>640</v>
-      </c>
-      <c r="K187" s="139" t="s">
-        <v>641</v>
       </c>
       <c r="L187" s="96"/>
       <c r="M187" s="96"/>
@@ -29851,16 +29890,16 @@
       <c r="F188" s="141"/>
       <c r="G188" s="139"/>
       <c r="H188" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I188" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I188" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J188" s="139" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K188" s="139" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L188" s="96"/>
       <c r="M188" s="96"/>
@@ -29890,16 +29929,16 @@
       <c r="F189" s="138"/>
       <c r="G189" s="139"/>
       <c r="H189" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I189" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I189" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J189" s="139" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K189" s="139" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L189" s="96"/>
       <c r="M189" s="96"/>
@@ -29931,16 +29970,16 @@
       </c>
       <c r="G190" s="139"/>
       <c r="H190" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I190" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I190" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J190" s="139" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K190" s="139" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L190" s="96"/>
       <c r="M190" s="96"/>
@@ -29970,16 +30009,16 @@
       <c r="F191" s="141"/>
       <c r="G191" s="139"/>
       <c r="H191" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I191" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I191" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J191" s="139" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K191" s="139" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L191" s="96"/>
       <c r="M191" s="96"/>
@@ -30009,16 +30048,16 @@
       <c r="F192" s="141"/>
       <c r="G192" s="139"/>
       <c r="H192" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I192" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I192" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J192" s="139" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K192" s="139" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L192" s="96"/>
       <c r="M192" s="96"/>
@@ -30048,16 +30087,16 @@
       <c r="F193" s="141"/>
       <c r="G193" s="139"/>
       <c r="H193" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I193" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I193" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J193" s="139" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K193" s="139" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L193" s="96"/>
       <c r="M193" s="96"/>
@@ -30087,16 +30126,16 @@
       <c r="F194" s="141"/>
       <c r="G194" s="139"/>
       <c r="H194" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I194" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I194" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J194" s="139" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K194" s="139" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L194" s="96"/>
       <c r="M194" s="96"/>
@@ -30126,16 +30165,16 @@
       <c r="F195" s="141"/>
       <c r="G195" s="139"/>
       <c r="H195" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I195" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I195" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J195" s="139" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K195" s="139" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L195" s="96"/>
       <c r="M195" s="96"/>
@@ -30165,16 +30204,16 @@
       <c r="F196" s="141"/>
       <c r="G196" s="139"/>
       <c r="H196" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I196" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I196" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J196" s="139" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K196" s="139" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L196" s="96"/>
       <c r="M196" s="96"/>
@@ -30204,16 +30243,16 @@
       <c r="F197" s="141"/>
       <c r="G197" s="139"/>
       <c r="H197" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I197" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I197" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J197" s="139" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K197" s="139" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L197" s="96"/>
       <c r="M197" s="96"/>
@@ -30243,16 +30282,16 @@
       <c r="F198" s="141"/>
       <c r="G198" s="139"/>
       <c r="H198" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I198" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I198" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J198" s="139" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K198" s="139" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L198" s="96"/>
       <c r="M198" s="96"/>
@@ -30282,16 +30321,16 @@
       <c r="F199" s="141"/>
       <c r="G199" s="139"/>
       <c r="H199" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I199" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I199" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J199" s="139" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K199" s="139" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L199" s="96"/>
       <c r="M199" s="96"/>
@@ -30321,16 +30360,16 @@
       <c r="F200" s="141"/>
       <c r="G200" s="139"/>
       <c r="H200" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I200" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I200" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J200" s="139" t="s">
+        <v>653</v>
+      </c>
+      <c r="K200" s="139" t="s">
         <v>654</v>
-      </c>
-      <c r="K200" s="139" t="s">
-        <v>655</v>
       </c>
       <c r="L200" s="96"/>
       <c r="M200" s="96"/>
@@ -30360,16 +30399,16 @@
       <c r="F201" s="141"/>
       <c r="G201" s="139"/>
       <c r="H201" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I201" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I201" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J201" s="139" t="s">
+        <v>655</v>
+      </c>
+      <c r="K201" s="139" t="s">
         <v>656</v>
-      </c>
-      <c r="K201" s="139" t="s">
-        <v>657</v>
       </c>
       <c r="L201" s="96"/>
       <c r="M201" s="96"/>
@@ -30399,16 +30438,16 @@
       <c r="F202" s="138"/>
       <c r="G202" s="139"/>
       <c r="H202" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="I202" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="I202" s="96" t="s">
-        <v>623</v>
-      </c>
       <c r="J202" s="139" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K202" s="139" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L202" s="96"/>
       <c r="M202" s="96"/>
@@ -30440,16 +30479,16 @@
       </c>
       <c r="G203" s="139"/>
       <c r="H203" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I203" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J203" s="139" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K203" s="139" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L203" s="96"/>
       <c r="M203" s="96"/>
@@ -30479,16 +30518,16 @@
       <c r="F204" s="138"/>
       <c r="G204" s="139"/>
       <c r="H204" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I204" s="96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J204" s="139" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K204" s="139" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L204" s="96"/>
       <c r="M204" s="96"/>
@@ -30522,7 +30561,7 @@
       <c r="H205" s="80"/>
       <c r="I205" s="80"/>
       <c r="J205" s="99" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K205" s="99"/>
       <c r="L205" s="80"/>
@@ -30557,7 +30596,7 @@
       <c r="H206" s="80"/>
       <c r="I206" s="80"/>
       <c r="J206" s="99" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K206" s="99"/>
       <c r="L206" s="80"/>
@@ -30638,8 +30677,8 @@
       <c r="Q208" s="105"/>
       <c r="R208" s="99"/>
     </row>
-    <row r="209" spans="1:18" ht="22.5">
-      <c r="A209" s="42" t="str" cm="1">
+    <row r="209" spans="1:18" s="243" customFormat="1" ht="33.75">
+      <c r="A209" s="241" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E209)&gt;0)*ROW($E$11:E209),0)),
@@ -30651,29 +30690,35 @@
 )</f>
         <v>62-1-1</v>
       </c>
-      <c r="B209" s="126"/>
-      <c r="C209" s="130"/>
-      <c r="D209" s="126"/>
-      <c r="E209" s="130" t="s">
+      <c r="B209" s="137"/>
+      <c r="C209" s="244"/>
+      <c r="D209" s="137"/>
+      <c r="E209" s="244" t="s">
         <v>234</v>
       </c>
-      <c r="F209" s="104" t="s">
+      <c r="F209" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="G209" s="99"/>
-      <c r="H209" s="80"/>
-      <c r="I209" s="80"/>
-      <c r="J209" s="99" t="s">
-        <v>563</v>
-      </c>
-      <c r="K209" s="99"/>
-      <c r="L209" s="80"/>
-      <c r="M209" s="80"/>
-      <c r="N209" s="80"/>
-      <c r="O209" s="80"/>
-      <c r="P209" s="80"/>
-      <c r="Q209" s="105"/>
-      <c r="R209" s="99"/>
+      <c r="G209" s="139"/>
+      <c r="H209" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="I209" s="96" t="s">
+        <v>685</v>
+      </c>
+      <c r="J209" s="139" t="s">
+        <v>558</v>
+      </c>
+      <c r="K209" s="139" t="s">
+        <v>559</v>
+      </c>
+      <c r="L209" s="96"/>
+      <c r="M209" s="96"/>
+      <c r="N209" s="96"/>
+      <c r="O209" s="96"/>
+      <c r="P209" s="96"/>
+      <c r="Q209" s="140"/>
+      <c r="R209" s="139"/>
     </row>
     <row r="210" spans="1:18" ht="33.75">
       <c r="A210" s="42" t="str" cm="1">
@@ -30699,7 +30744,7 @@
       <c r="H210" s="80"/>
       <c r="I210" s="80"/>
       <c r="J210" s="99" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K210" s="99"/>
       <c r="L210" s="80"/>
@@ -30710,8 +30755,8 @@
       <c r="Q210" s="105"/>
       <c r="R210" s="99"/>
     </row>
-    <row r="211" spans="1:18" ht="33.75">
-      <c r="A211" s="42" t="str" cm="1">
+    <row r="211" spans="1:18" s="243" customFormat="1" ht="33.75">
+      <c r="A211" s="241" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E211)&gt;0)*ROW($E$11:E211),0)),
@@ -30723,27 +30768,33 @@
 )</f>
         <v>62-3-1</v>
       </c>
-      <c r="B211" s="118"/>
-      <c r="C211" s="123"/>
-      <c r="D211" s="118"/>
-      <c r="E211" s="123"/>
-      <c r="F211" s="104" t="s">
+      <c r="B211" s="141"/>
+      <c r="C211" s="142"/>
+      <c r="D211" s="141"/>
+      <c r="E211" s="142"/>
+      <c r="F211" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="G211" s="99"/>
-      <c r="H211" s="80"/>
-      <c r="I211" s="80"/>
-      <c r="J211" s="99" t="s">
-        <v>563</v>
-      </c>
-      <c r="K211" s="99"/>
-      <c r="L211" s="80"/>
-      <c r="M211" s="80"/>
-      <c r="N211" s="80"/>
-      <c r="O211" s="80"/>
-      <c r="P211" s="80"/>
-      <c r="Q211" s="105"/>
-      <c r="R211" s="99"/>
+      <c r="G211" s="139"/>
+      <c r="H211" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="I211" s="96" t="s">
+        <v>685</v>
+      </c>
+      <c r="J211" s="139" t="s">
+        <v>558</v>
+      </c>
+      <c r="K211" s="139" t="s">
+        <v>559</v>
+      </c>
+      <c r="L211" s="96"/>
+      <c r="M211" s="96"/>
+      <c r="N211" s="96"/>
+      <c r="O211" s="96"/>
+      <c r="P211" s="96"/>
+      <c r="Q211" s="140"/>
+      <c r="R211" s="139"/>
     </row>
     <row r="212" spans="1:18" ht="45">
       <c r="A212" s="42" t="str" cm="1">
@@ -30769,7 +30820,7 @@
       <c r="H212" s="80"/>
       <c r="I212" s="80"/>
       <c r="J212" s="99" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K212" s="99"/>
       <c r="L212" s="80"/>
@@ -30804,7 +30855,7 @@
       <c r="H213" s="80"/>
       <c r="I213" s="80"/>
       <c r="J213" s="99" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K213" s="99"/>
       <c r="L213" s="80"/>
@@ -30815,8 +30866,8 @@
       <c r="Q213" s="105"/>
       <c r="R213" s="99"/>
     </row>
-    <row r="214" spans="1:18" ht="33.75">
-      <c r="A214" s="42" t="str" cm="1">
+    <row r="214" spans="1:18" s="243" customFormat="1" ht="33.75">
+      <c r="A214" s="241" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E214)&gt;0)*ROW($E$11:E214),0)),
@@ -30828,27 +30879,33 @@
 )</f>
         <v>62-6-1</v>
       </c>
-      <c r="B214" s="118"/>
-      <c r="C214" s="123"/>
-      <c r="D214" s="118"/>
-      <c r="E214" s="123"/>
-      <c r="F214" s="104" t="s">
+      <c r="B214" s="141"/>
+      <c r="C214" s="142"/>
+      <c r="D214" s="141"/>
+      <c r="E214" s="142"/>
+      <c r="F214" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G214" s="99"/>
-      <c r="H214" s="80"/>
-      <c r="I214" s="80"/>
-      <c r="J214" s="99" t="s">
-        <v>664</v>
-      </c>
-      <c r="K214" s="99"/>
-      <c r="L214" s="80"/>
-      <c r="M214" s="80"/>
-      <c r="N214" s="80"/>
-      <c r="O214" s="80"/>
-      <c r="P214" s="80"/>
-      <c r="Q214" s="105"/>
-      <c r="R214" s="99"/>
+      <c r="G214" s="139"/>
+      <c r="H214" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="I214" s="96" t="s">
+        <v>685</v>
+      </c>
+      <c r="J214" s="139" t="s">
+        <v>561</v>
+      </c>
+      <c r="K214" s="139" t="s">
+        <v>562</v>
+      </c>
+      <c r="L214" s="96"/>
+      <c r="M214" s="96"/>
+      <c r="N214" s="96"/>
+      <c r="O214" s="96"/>
+      <c r="P214" s="96"/>
+      <c r="Q214" s="140"/>
+      <c r="R214" s="139"/>
     </row>
     <row r="215" spans="1:18" ht="45">
       <c r="A215" s="42" t="str" cm="1">
@@ -30955,8 +31012,8 @@
       <c r="Q217" s="105"/>
       <c r="R217" s="99"/>
     </row>
-    <row r="218" spans="1:18" ht="33.75">
-      <c r="A218" s="42" t="str" cm="1">
+    <row r="218" spans="1:18" s="243" customFormat="1" ht="101.25">
+      <c r="A218" s="241" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E218)&gt;0)*ROW($E$11:E218),0)),
@@ -30968,29 +31025,35 @@
 )</f>
         <v>63-1-1</v>
       </c>
-      <c r="B218" s="118"/>
-      <c r="C218" s="123"/>
-      <c r="D218" s="118"/>
-      <c r="E218" s="107" t="s">
+      <c r="B218" s="141"/>
+      <c r="C218" s="142"/>
+      <c r="D218" s="141"/>
+      <c r="E218" s="138" t="s">
         <v>270</v>
       </c>
-      <c r="F218" s="104" t="s">
+      <c r="F218" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="G218" s="99"/>
-      <c r="H218" s="80"/>
-      <c r="I218" s="80"/>
-      <c r="J218" s="161" t="s">
-        <v>665</v>
-      </c>
-      <c r="K218" s="99"/>
-      <c r="L218" s="80"/>
-      <c r="M218" s="80"/>
-      <c r="N218" s="80"/>
-      <c r="O218" s="80"/>
-      <c r="P218" s="80"/>
-      <c r="Q218" s="105"/>
-      <c r="R218" s="99"/>
+      <c r="G218" s="139"/>
+      <c r="H218" s="96" t="s">
+        <v>554</v>
+      </c>
+      <c r="I218" s="96" t="s">
+        <v>564</v>
+      </c>
+      <c r="J218" s="245" t="s">
+        <v>565</v>
+      </c>
+      <c r="K218" s="139" t="s">
+        <v>567</v>
+      </c>
+      <c r="L218" s="96"/>
+      <c r="M218" s="96"/>
+      <c r="N218" s="96"/>
+      <c r="O218" s="96"/>
+      <c r="P218" s="96"/>
+      <c r="Q218" s="140"/>
+      <c r="R218" s="139"/>
     </row>
     <row r="219" spans="1:18" ht="22.5">
       <c r="A219" s="42" t="str" cm="1">
@@ -35253,16 +35316,16 @@
       </c>
       <c r="G336" s="61"/>
       <c r="H336" s="62" t="s">
+        <v>663</v>
+      </c>
+      <c r="I336" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J336" s="62" t="s">
+        <v>665</v>
+      </c>
+      <c r="K336" s="62" t="s">
         <v>666</v>
-      </c>
-      <c r="I336" s="62" t="s">
-        <v>667</v>
-      </c>
-      <c r="J336" s="62" t="s">
-        <v>668</v>
-      </c>
-      <c r="K336" s="62" t="s">
-        <v>669</v>
       </c>
       <c r="L336" s="62"/>
       <c r="M336" s="62"/>
@@ -35294,16 +35357,16 @@
       </c>
       <c r="G337" s="61"/>
       <c r="H337" s="62" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I337" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J337" s="62" t="s">
         <v>667</v>
       </c>
-      <c r="J337" s="62" t="s">
-        <v>670</v>
-      </c>
       <c r="K337" s="62" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L337" s="62"/>
       <c r="M337" s="62"/>
@@ -35337,7 +35400,7 @@
       <c r="H338" s="80"/>
       <c r="I338" s="80"/>
       <c r="J338" s="80" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K338" s="80"/>
       <c r="L338" s="80"/>
@@ -35372,7 +35435,7 @@
       <c r="H339" s="80"/>
       <c r="I339" s="80"/>
       <c r="J339" s="80" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K339" s="80"/>
       <c r="L339" s="80"/>
@@ -35409,7 +35472,7 @@
       <c r="H340" s="80"/>
       <c r="I340" s="80"/>
       <c r="J340" s="80" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K340" s="80"/>
       <c r="L340" s="80"/>
@@ -35446,7 +35509,7 @@
       <c r="H341" s="80"/>
       <c r="I341" s="80"/>
       <c r="J341" s="80" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K341" s="80"/>
       <c r="L341" s="80"/>
@@ -35546,10 +35609,10 @@
       </c>
       <c r="B344" s="91"/>
       <c r="C344" s="91"/>
-      <c r="D344" s="162" t="s">
+      <c r="D344" s="161" t="s">
         <v>465</v>
       </c>
-      <c r="E344" s="162" t="s">
+      <c r="E344" s="161" t="s">
         <v>52</v>
       </c>
       <c r="F344" s="99" t="s">
@@ -35559,7 +35622,7 @@
       <c r="H344" s="80"/>
       <c r="I344" s="80"/>
       <c r="J344" s="80" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K344" s="80"/>
       <c r="L344" s="80"/>
@@ -35585,8 +35648,8 @@
       </c>
       <c r="B345" s="91"/>
       <c r="C345" s="91"/>
-      <c r="D345" s="163"/>
-      <c r="E345" s="163"/>
+      <c r="D345" s="162"/>
+      <c r="E345" s="162"/>
       <c r="F345" s="99" t="s">
         <v>467</v>
       </c>
@@ -35594,7 +35657,7 @@
       <c r="H345" s="80"/>
       <c r="I345" s="80"/>
       <c r="J345" s="80" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K345" s="80"/>
       <c r="L345" s="80"/>
@@ -35620,8 +35683,8 @@
       </c>
       <c r="B346" s="91"/>
       <c r="C346" s="91"/>
-      <c r="D346" s="164"/>
-      <c r="E346" s="164"/>
+      <c r="D346" s="163"/>
+      <c r="E346" s="163"/>
       <c r="F346" s="99" t="s">
         <v>468</v>
       </c>
@@ -35629,7 +35692,7 @@
       <c r="H346" s="80"/>
       <c r="I346" s="80"/>
       <c r="J346" s="80" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K346" s="80"/>
       <c r="L346" s="80"/>
@@ -35655,10 +35718,10 @@
       </c>
       <c r="B347" s="91"/>
       <c r="C347" s="91"/>
-      <c r="D347" s="162" t="s">
+      <c r="D347" s="161" t="s">
         <v>469</v>
       </c>
-      <c r="E347" s="162" t="s">
+      <c r="E347" s="161" t="s">
         <v>52</v>
       </c>
       <c r="F347" s="99" t="s">
@@ -35668,7 +35731,7 @@
       <c r="H347" s="80"/>
       <c r="I347" s="80"/>
       <c r="J347" s="80" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K347" s="80"/>
       <c r="L347" s="80"/>
@@ -35694,8 +35757,8 @@
       </c>
       <c r="B348" s="91"/>
       <c r="C348" s="91"/>
-      <c r="D348" s="163"/>
-      <c r="E348" s="163"/>
+      <c r="D348" s="162"/>
+      <c r="E348" s="162"/>
       <c r="F348" s="99" t="s">
         <v>471</v>
       </c>
@@ -35703,7 +35766,7 @@
       <c r="H348" s="80"/>
       <c r="I348" s="80"/>
       <c r="J348" s="80" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K348" s="80"/>
       <c r="L348" s="80"/>
@@ -35729,8 +35792,8 @@
       </c>
       <c r="B349" s="91"/>
       <c r="C349" s="91"/>
-      <c r="D349" s="164"/>
-      <c r="E349" s="164"/>
+      <c r="D349" s="163"/>
+      <c r="E349" s="163"/>
       <c r="F349" s="99" t="s">
         <v>472</v>
       </c>
@@ -35738,7 +35801,7 @@
       <c r="H349" s="80"/>
       <c r="I349" s="80"/>
       <c r="J349" s="80" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K349" s="80"/>
       <c r="L349" s="80"/>
@@ -35764,10 +35827,10 @@
       </c>
       <c r="B350" s="91"/>
       <c r="C350" s="91"/>
-      <c r="D350" s="162" t="s">
+      <c r="D350" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="E350" s="162" t="s">
+      <c r="E350" s="161" t="s">
         <v>52</v>
       </c>
       <c r="F350" s="99" t="s">
@@ -35777,7 +35840,7 @@
       <c r="H350" s="80"/>
       <c r="I350" s="80"/>
       <c r="J350" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K350" s="80"/>
       <c r="L350" s="80"/>
@@ -35803,8 +35866,8 @@
       </c>
       <c r="B351" s="91"/>
       <c r="C351" s="91"/>
-      <c r="D351" s="163"/>
-      <c r="E351" s="163"/>
+      <c r="D351" s="162"/>
+      <c r="E351" s="162"/>
       <c r="F351" s="99" t="s">
         <v>474</v>
       </c>
@@ -35812,7 +35875,7 @@
       <c r="H351" s="80"/>
       <c r="I351" s="80"/>
       <c r="J351" s="80" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K351" s="80"/>
       <c r="L351" s="80"/>
@@ -35838,8 +35901,8 @@
       </c>
       <c r="B352" s="91"/>
       <c r="C352" s="91"/>
-      <c r="D352" s="163"/>
-      <c r="E352" s="163"/>
+      <c r="D352" s="162"/>
+      <c r="E352" s="162"/>
       <c r="F352" s="99" t="s">
         <v>475</v>
       </c>
@@ -35847,7 +35910,7 @@
       <c r="H352" s="80"/>
       <c r="I352" s="80"/>
       <c r="J352" s="80" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K352" s="80"/>
       <c r="L352" s="80"/>
@@ -35873,8 +35936,8 @@
       </c>
       <c r="B353" s="91"/>
       <c r="C353" s="91"/>
-      <c r="D353" s="163"/>
-      <c r="E353" s="163"/>
+      <c r="D353" s="162"/>
+      <c r="E353" s="162"/>
       <c r="F353" s="99" t="s">
         <v>476</v>
       </c>
@@ -35882,7 +35945,7 @@
       <c r="H353" s="80"/>
       <c r="I353" s="80"/>
       <c r="J353" s="80" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K353" s="80"/>
       <c r="L353" s="80"/>
@@ -35908,8 +35971,8 @@
       </c>
       <c r="B354" s="91"/>
       <c r="C354" s="91"/>
-      <c r="D354" s="163"/>
-      <c r="E354" s="163"/>
+      <c r="D354" s="162"/>
+      <c r="E354" s="162"/>
       <c r="F354" s="99" t="s">
         <v>477</v>
       </c>
@@ -35917,7 +35980,7 @@
       <c r="H354" s="80"/>
       <c r="I354" s="80"/>
       <c r="J354" s="80" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K354" s="80"/>
       <c r="L354" s="80"/>
@@ -35943,8 +36006,8 @@
       </c>
       <c r="B355" s="91"/>
       <c r="C355" s="91"/>
-      <c r="D355" s="163"/>
-      <c r="E355" s="163"/>
+      <c r="D355" s="162"/>
+      <c r="E355" s="162"/>
       <c r="F355" s="99" t="s">
         <v>478</v>
       </c>
@@ -35952,7 +36015,7 @@
       <c r="H355" s="80"/>
       <c r="I355" s="80"/>
       <c r="J355" s="80" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K355" s="80"/>
       <c r="L355" s="80"/>
@@ -35978,8 +36041,8 @@
       </c>
       <c r="B356" s="91"/>
       <c r="C356" s="91"/>
-      <c r="D356" s="163"/>
-      <c r="E356" s="163"/>
+      <c r="D356" s="162"/>
+      <c r="E356" s="162"/>
       <c r="F356" s="99" t="s">
         <v>479</v>
       </c>
@@ -35987,7 +36050,7 @@
       <c r="H356" s="80"/>
       <c r="I356" s="80"/>
       <c r="J356" s="80" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K356" s="80"/>
       <c r="L356" s="80"/>
@@ -36013,8 +36076,8 @@
       </c>
       <c r="B357" s="92"/>
       <c r="C357" s="92"/>
-      <c r="D357" s="164"/>
-      <c r="E357" s="164"/>
+      <c r="D357" s="163"/>
+      <c r="E357" s="163"/>
       <c r="F357" s="99" t="s">
         <v>480</v>
       </c>
@@ -36022,7 +36085,7 @@
       <c r="H357" s="80"/>
       <c r="I357" s="80"/>
       <c r="J357" s="80" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K357" s="80"/>
       <c r="L357" s="80"/>
@@ -36065,7 +36128,7 @@
       <c r="H358" s="80"/>
       <c r="I358" s="80"/>
       <c r="J358" s="80" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K358" s="80"/>
       <c r="L358" s="80"/>
@@ -36108,7 +36171,7 @@
       <c r="H359" s="80"/>
       <c r="I359" s="80"/>
       <c r="J359" s="80" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K359" s="80"/>
       <c r="L359" s="80"/>
@@ -36120,7 +36183,7 @@
       <c r="R359" s="80"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:R10" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A10:R359" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="B135:B136"/>
@@ -36282,69 +36345,69 @@
       <c r="A11" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="E11" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="165" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="158" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H11" s="158"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
     </row>
     <row r="12" spans="1:15" s="29" customFormat="1">
       <c r="A12" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="168"/>
-      <c r="C12" s="169"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="166" t="s">
+      <c r="E12" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="165" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="158" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H12" s="158"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
     </row>
     <row r="13" spans="1:15" s="29" customFormat="1" ht="33.75">
       <c r="A13" s="148" t="s">
         <v>531</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="171" t="s">
+      <c r="B13" s="169"/>
+      <c r="C13" s="170" t="s">
         <v>533</v>
       </c>
-      <c r="D13" s="172" t="s">
+      <c r="D13" s="171" t="s">
         <v>525</v>
       </c>
       <c r="E13" s="98" t="s">
@@ -36354,24 +36417,24 @@
         <v>527</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H13" s="98"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
     </row>
     <row r="14" spans="1:15" s="29" customFormat="1" ht="56.25">
       <c r="A14" s="148" t="s">
         <v>532</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="172" t="s">
+      <c r="B14" s="173"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="171" t="s">
         <v>528</v>
       </c>
       <c r="E14" s="98" t="s">
@@ -36381,16 +36444,16 @@
         <v>530</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H14" s="98"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
     </row>
     <row r="15" spans="1:15" s="29" customFormat="1">
       <c r="D15" s="31"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F19C57-F541-4E19-A982-B2570157113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82B895-22E5-4F28-875E-7A84B0F6183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="685">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8577,6 +8577,36 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setUpDb、testNormalEnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安藤</t>
+    <rPh sb="0" eb="2">
+      <t>アンドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1、2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3、4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5、6、7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスティングフレームワークを使用した単体テスト実行時に、業務日付をシステムプロパティ設定による上書き実行が実施できないため、コマンド実行で確認</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -9087,7 +9117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -9599,6 +9629,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9698,93 +9815,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9793,6 +9823,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -11429,57 +11462,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="187" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="216" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="s">
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="234" t="s">
         <v>517</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="212" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="190" t="str">
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="219" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="192"/>
+      <c r="AH1" s="220"/>
+      <c r="AI1" s="221"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -11487,53 +11520,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="187" t="s">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="216" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="193" t="str">
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="190" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="219" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="192"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="221"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -11541,45 +11574,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="187" t="s">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="216" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="185"/>
-      <c r="AG3" s="190"/>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="192"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="211"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="213"/>
+      <c r="AE3" s="213"/>
+      <c r="AF3" s="214"/>
+      <c r="AG3" s="219"/>
+      <c r="AH3" s="220"/>
+      <c r="AI3" s="221"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -11616,1020 +11649,1181 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="195"/>
+      <c r="D7" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="214" t="s">
+      <c r="E7" s="196"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="214" t="s">
+      <c r="H7" s="196"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="214" t="s">
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="215"/>
-      <c r="AF7" s="214" t="s">
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="196"/>
+      <c r="V7" s="196"/>
+      <c r="W7" s="196"/>
+      <c r="X7" s="196"/>
+      <c r="Y7" s="196"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="196"/>
+      <c r="AE7" s="195"/>
+      <c r="AF7" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="215"/>
+      <c r="AG7" s="196"/>
+      <c r="AH7" s="196"/>
+      <c r="AI7" s="195"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="217"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="225"/>
-      <c r="O8" s="225"/>
-      <c r="P8" s="226"/>
-      <c r="Q8" s="227"/>
-      <c r="R8" s="228"/>
-      <c r="S8" s="228"/>
-      <c r="T8" s="228"/>
-      <c r="U8" s="228"/>
-      <c r="V8" s="228"/>
-      <c r="W8" s="228"/>
-      <c r="X8" s="228"/>
-      <c r="Y8" s="228"/>
-      <c r="Z8" s="228"/>
-      <c r="AA8" s="228"/>
-      <c r="AB8" s="228"/>
-      <c r="AC8" s="228"/>
-      <c r="AD8" s="228"/>
-      <c r="AE8" s="229"/>
-      <c r="AF8" s="224"/>
-      <c r="AG8" s="225"/>
-      <c r="AH8" s="225"/>
-      <c r="AI8" s="226"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="206"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="208"/>
+      <c r="U8" s="208"/>
+      <c r="V8" s="208"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="208"/>
+      <c r="AB8" s="208"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="209"/>
+      <c r="AF8" s="204"/>
+      <c r="AG8" s="205"/>
+      <c r="AH8" s="205"/>
+      <c r="AI8" s="206"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="237"/>
-      <c r="M9" s="237"/>
-      <c r="N9" s="237"/>
-      <c r="O9" s="237"/>
-      <c r="P9" s="238"/>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="240"/>
-      <c r="S9" s="240"/>
-      <c r="T9" s="240"/>
-      <c r="U9" s="240"/>
-      <c r="V9" s="240"/>
-      <c r="W9" s="240"/>
-      <c r="X9" s="240"/>
-      <c r="Y9" s="240"/>
-      <c r="Z9" s="240"/>
-      <c r="AA9" s="240"/>
-      <c r="AB9" s="240"/>
-      <c r="AC9" s="240"/>
-      <c r="AD9" s="240"/>
-      <c r="AE9" s="241"/>
-      <c r="AF9" s="236"/>
-      <c r="AG9" s="237"/>
-      <c r="AH9" s="237"/>
-      <c r="AI9" s="238"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="191"/>
+      <c r="S9" s="191"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="191"/>
+      <c r="Z9" s="191"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="191"/>
+      <c r="AC9" s="191"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="192"/>
+      <c r="AF9" s="187"/>
+      <c r="AG9" s="188"/>
+      <c r="AH9" s="188"/>
+      <c r="AI9" s="189"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="240"/>
-      <c r="S10" s="240"/>
-      <c r="T10" s="240"/>
-      <c r="U10" s="240"/>
-      <c r="V10" s="240"/>
-      <c r="W10" s="240"/>
-      <c r="X10" s="240"/>
-      <c r="Y10" s="240"/>
-      <c r="Z10" s="240"/>
-      <c r="AA10" s="240"/>
-      <c r="AB10" s="240"/>
-      <c r="AC10" s="240"/>
-      <c r="AD10" s="240"/>
-      <c r="AE10" s="241"/>
-      <c r="AF10" s="236"/>
-      <c r="AG10" s="237"/>
-      <c r="AH10" s="237"/>
-      <c r="AI10" s="238"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="191"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="191"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="191"/>
+      <c r="AC10" s="191"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="192"/>
+      <c r="AF10" s="187"/>
+      <c r="AG10" s="188"/>
+      <c r="AH10" s="188"/>
+      <c r="AI10" s="189"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="239"/>
-      <c r="R11" s="240"/>
-      <c r="S11" s="240"/>
-      <c r="T11" s="240"/>
-      <c r="U11" s="240"/>
-      <c r="V11" s="240"/>
-      <c r="W11" s="240"/>
-      <c r="X11" s="240"/>
-      <c r="Y11" s="240"/>
-      <c r="Z11" s="240"/>
-      <c r="AA11" s="240"/>
-      <c r="AB11" s="240"/>
-      <c r="AC11" s="240"/>
-      <c r="AD11" s="240"/>
-      <c r="AE11" s="241"/>
-      <c r="AF11" s="236"/>
-      <c r="AG11" s="237"/>
-      <c r="AH11" s="237"/>
-      <c r="AI11" s="238"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="188"/>
+      <c r="O11" s="188"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="191"/>
+      <c r="S11" s="191"/>
+      <c r="T11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="191"/>
+      <c r="X11" s="191"/>
+      <c r="Y11" s="191"/>
+      <c r="Z11" s="191"/>
+      <c r="AA11" s="191"/>
+      <c r="AB11" s="191"/>
+      <c r="AC11" s="191"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="188"/>
+      <c r="AH11" s="188"/>
+      <c r="AI11" s="189"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="239"/>
-      <c r="R12" s="240"/>
-      <c r="S12" s="240"/>
-      <c r="T12" s="240"/>
-      <c r="U12" s="240"/>
-      <c r="V12" s="240"/>
-      <c r="W12" s="240"/>
-      <c r="X12" s="240"/>
-      <c r="Y12" s="240"/>
-      <c r="Z12" s="240"/>
-      <c r="AA12" s="240"/>
-      <c r="AB12" s="240"/>
-      <c r="AC12" s="240"/>
-      <c r="AD12" s="240"/>
-      <c r="AE12" s="241"/>
-      <c r="AF12" s="236"/>
-      <c r="AG12" s="237"/>
-      <c r="AH12" s="237"/>
-      <c r="AI12" s="238"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="188"/>
+      <c r="O12" s="188"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="191"/>
+      <c r="S12" s="191"/>
+      <c r="T12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="187"/>
+      <c r="AG12" s="188"/>
+      <c r="AH12" s="188"/>
+      <c r="AI12" s="189"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="237"/>
-      <c r="P13" s="238"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="240"/>
-      <c r="S13" s="240"/>
-      <c r="T13" s="240"/>
-      <c r="U13" s="240"/>
-      <c r="V13" s="240"/>
-      <c r="W13" s="240"/>
-      <c r="X13" s="240"/>
-      <c r="Y13" s="240"/>
-      <c r="Z13" s="240"/>
-      <c r="AA13" s="240"/>
-      <c r="AB13" s="240"/>
-      <c r="AC13" s="240"/>
-      <c r="AD13" s="240"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="236"/>
-      <c r="AG13" s="237"/>
-      <c r="AH13" s="237"/>
-      <c r="AI13" s="238"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="191"/>
+      <c r="S13" s="191"/>
+      <c r="T13" s="191"/>
+      <c r="U13" s="191"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="191"/>
+      <c r="X13" s="191"/>
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="191"/>
+      <c r="AA13" s="191"/>
+      <c r="AB13" s="191"/>
+      <c r="AC13" s="191"/>
+      <c r="AD13" s="191"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="187"/>
+      <c r="AG13" s="188"/>
+      <c r="AH13" s="188"/>
+      <c r="AI13" s="189"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="237"/>
-      <c r="O14" s="237"/>
-      <c r="P14" s="238"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="240"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="240"/>
-      <c r="U14" s="240"/>
-      <c r="V14" s="240"/>
-      <c r="W14" s="240"/>
-      <c r="X14" s="240"/>
-      <c r="Y14" s="240"/>
-      <c r="Z14" s="240"/>
-      <c r="AA14" s="240"/>
-      <c r="AB14" s="240"/>
-      <c r="AC14" s="240"/>
-      <c r="AD14" s="240"/>
-      <c r="AE14" s="241"/>
-      <c r="AF14" s="236"/>
-      <c r="AG14" s="237"/>
-      <c r="AH14" s="237"/>
-      <c r="AI14" s="238"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="191"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="191"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="191"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="191"/>
+      <c r="AD14" s="191"/>
+      <c r="AE14" s="192"/>
+      <c r="AF14" s="187"/>
+      <c r="AG14" s="188"/>
+      <c r="AH14" s="188"/>
+      <c r="AI14" s="189"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="237"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="240"/>
-      <c r="S15" s="240"/>
-      <c r="T15" s="240"/>
-      <c r="U15" s="240"/>
-      <c r="V15" s="240"/>
-      <c r="W15" s="240"/>
-      <c r="X15" s="240"/>
-      <c r="Y15" s="240"/>
-      <c r="Z15" s="240"/>
-      <c r="AA15" s="240"/>
-      <c r="AB15" s="240"/>
-      <c r="AC15" s="240"/>
-      <c r="AD15" s="240"/>
-      <c r="AE15" s="241"/>
-      <c r="AF15" s="236"/>
-      <c r="AG15" s="237"/>
-      <c r="AH15" s="237"/>
-      <c r="AI15" s="238"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="191"/>
+      <c r="S15" s="191"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="191"/>
+      <c r="X15" s="191"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="191"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="187"/>
+      <c r="AG15" s="188"/>
+      <c r="AH15" s="188"/>
+      <c r="AI15" s="189"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="230"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="238"/>
-      <c r="Q16" s="239"/>
-      <c r="R16" s="240"/>
-      <c r="S16" s="240"/>
-      <c r="T16" s="240"/>
-      <c r="U16" s="240"/>
-      <c r="V16" s="240"/>
-      <c r="W16" s="240"/>
-      <c r="X16" s="240"/>
-      <c r="Y16" s="240"/>
-      <c r="Z16" s="240"/>
-      <c r="AA16" s="240"/>
-      <c r="AB16" s="240"/>
-      <c r="AC16" s="240"/>
-      <c r="AD16" s="240"/>
-      <c r="AE16" s="241"/>
-      <c r="AF16" s="236"/>
-      <c r="AG16" s="237"/>
-      <c r="AH16" s="237"/>
-      <c r="AI16" s="238"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="191"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="191"/>
+      <c r="U16" s="191"/>
+      <c r="V16" s="191"/>
+      <c r="W16" s="191"/>
+      <c r="X16" s="191"/>
+      <c r="Y16" s="191"/>
+      <c r="Z16" s="191"/>
+      <c r="AA16" s="191"/>
+      <c r="AB16" s="191"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="191"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="187"/>
+      <c r="AG16" s="188"/>
+      <c r="AH16" s="188"/>
+      <c r="AI16" s="189"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="237"/>
-      <c r="O17" s="237"/>
-      <c r="P17" s="238"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="240"/>
-      <c r="S17" s="240"/>
-      <c r="T17" s="240"/>
-      <c r="U17" s="240"/>
-      <c r="V17" s="240"/>
-      <c r="W17" s="240"/>
-      <c r="X17" s="240"/>
-      <c r="Y17" s="240"/>
-      <c r="Z17" s="240"/>
-      <c r="AA17" s="240"/>
-      <c r="AB17" s="240"/>
-      <c r="AC17" s="240"/>
-      <c r="AD17" s="240"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="236"/>
-      <c r="AG17" s="237"/>
-      <c r="AH17" s="237"/>
-      <c r="AI17" s="238"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="191"/>
+      <c r="S17" s="191"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="191"/>
+      <c r="W17" s="191"/>
+      <c r="X17" s="191"/>
+      <c r="Y17" s="191"/>
+      <c r="Z17" s="191"/>
+      <c r="AA17" s="191"/>
+      <c r="AB17" s="191"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="191"/>
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="187"/>
+      <c r="AG17" s="188"/>
+      <c r="AH17" s="188"/>
+      <c r="AI17" s="189"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="230"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="237"/>
-      <c r="M18" s="237"/>
-      <c r="N18" s="237"/>
-      <c r="O18" s="237"/>
-      <c r="P18" s="238"/>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="240"/>
-      <c r="S18" s="240"/>
-      <c r="T18" s="240"/>
-      <c r="U18" s="240"/>
-      <c r="V18" s="240"/>
-      <c r="W18" s="240"/>
-      <c r="X18" s="240"/>
-      <c r="Y18" s="240"/>
-      <c r="Z18" s="240"/>
-      <c r="AA18" s="240"/>
-      <c r="AB18" s="240"/>
-      <c r="AC18" s="240"/>
-      <c r="AD18" s="240"/>
-      <c r="AE18" s="241"/>
-      <c r="AF18" s="236"/>
-      <c r="AG18" s="237"/>
-      <c r="AH18" s="237"/>
-      <c r="AI18" s="238"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="191"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="191"/>
+      <c r="Z18" s="191"/>
+      <c r="AA18" s="191"/>
+      <c r="AB18" s="191"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="191"/>
+      <c r="AE18" s="192"/>
+      <c r="AF18" s="187"/>
+      <c r="AG18" s="188"/>
+      <c r="AH18" s="188"/>
+      <c r="AI18" s="189"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="237"/>
-      <c r="N19" s="237"/>
-      <c r="O19" s="237"/>
-      <c r="P19" s="238"/>
-      <c r="Q19" s="239"/>
-      <c r="R19" s="240"/>
-      <c r="S19" s="240"/>
-      <c r="T19" s="240"/>
-      <c r="U19" s="240"/>
-      <c r="V19" s="240"/>
-      <c r="W19" s="240"/>
-      <c r="X19" s="240"/>
-      <c r="Y19" s="240"/>
-      <c r="Z19" s="240"/>
-      <c r="AA19" s="240"/>
-      <c r="AB19" s="240"/>
-      <c r="AC19" s="240"/>
-      <c r="AD19" s="240"/>
-      <c r="AE19" s="241"/>
-      <c r="AF19" s="236"/>
-      <c r="AG19" s="237"/>
-      <c r="AH19" s="237"/>
-      <c r="AI19" s="238"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="191"/>
+      <c r="S19" s="191"/>
+      <c r="T19" s="191"/>
+      <c r="U19" s="191"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="191"/>
+      <c r="Z19" s="191"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="191"/>
+      <c r="AC19" s="191"/>
+      <c r="AD19" s="191"/>
+      <c r="AE19" s="192"/>
+      <c r="AF19" s="187"/>
+      <c r="AG19" s="188"/>
+      <c r="AH19" s="188"/>
+      <c r="AI19" s="189"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="230"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="237"/>
-      <c r="O20" s="237"/>
-      <c r="P20" s="238"/>
-      <c r="Q20" s="239"/>
-      <c r="R20" s="240"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="240"/>
-      <c r="U20" s="240"/>
-      <c r="V20" s="240"/>
-      <c r="W20" s="240"/>
-      <c r="X20" s="240"/>
-      <c r="Y20" s="240"/>
-      <c r="Z20" s="240"/>
-      <c r="AA20" s="240"/>
-      <c r="AB20" s="240"/>
-      <c r="AC20" s="240"/>
-      <c r="AD20" s="240"/>
-      <c r="AE20" s="241"/>
-      <c r="AF20" s="236"/>
-      <c r="AG20" s="237"/>
-      <c r="AH20" s="237"/>
-      <c r="AI20" s="238"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="191"/>
+      <c r="X20" s="191"/>
+      <c r="Y20" s="191"/>
+      <c r="Z20" s="191"/>
+      <c r="AA20" s="191"/>
+      <c r="AB20" s="191"/>
+      <c r="AC20" s="191"/>
+      <c r="AD20" s="191"/>
+      <c r="AE20" s="192"/>
+      <c r="AF20" s="187"/>
+      <c r="AG20" s="188"/>
+      <c r="AH20" s="188"/>
+      <c r="AI20" s="189"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="230"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="237"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="237"/>
-      <c r="O21" s="237"/>
-      <c r="P21" s="238"/>
-      <c r="Q21" s="239"/>
-      <c r="R21" s="240"/>
-      <c r="S21" s="240"/>
-      <c r="T21" s="240"/>
-      <c r="U21" s="240"/>
-      <c r="V21" s="240"/>
-      <c r="W21" s="240"/>
-      <c r="X21" s="240"/>
-      <c r="Y21" s="240"/>
-      <c r="Z21" s="240"/>
-      <c r="AA21" s="240"/>
-      <c r="AB21" s="240"/>
-      <c r="AC21" s="240"/>
-      <c r="AD21" s="240"/>
-      <c r="AE21" s="241"/>
-      <c r="AF21" s="236"/>
-      <c r="AG21" s="237"/>
-      <c r="AH21" s="237"/>
-      <c r="AI21" s="238"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="191"/>
+      <c r="S21" s="191"/>
+      <c r="T21" s="191"/>
+      <c r="U21" s="191"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="191"/>
+      <c r="X21" s="191"/>
+      <c r="Y21" s="191"/>
+      <c r="Z21" s="191"/>
+      <c r="AA21" s="191"/>
+      <c r="AB21" s="191"/>
+      <c r="AC21" s="191"/>
+      <c r="AD21" s="191"/>
+      <c r="AE21" s="192"/>
+      <c r="AF21" s="187"/>
+      <c r="AG21" s="188"/>
+      <c r="AH21" s="188"/>
+      <c r="AI21" s="189"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="236"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="237"/>
-      <c r="N22" s="237"/>
-      <c r="O22" s="237"/>
-      <c r="P22" s="238"/>
-      <c r="Q22" s="239"/>
-      <c r="R22" s="240"/>
-      <c r="S22" s="240"/>
-      <c r="T22" s="240"/>
-      <c r="U22" s="240"/>
-      <c r="V22" s="240"/>
-      <c r="W22" s="240"/>
-      <c r="X22" s="240"/>
-      <c r="Y22" s="240"/>
-      <c r="Z22" s="240"/>
-      <c r="AA22" s="240"/>
-      <c r="AB22" s="240"/>
-      <c r="AC22" s="240"/>
-      <c r="AD22" s="240"/>
-      <c r="AE22" s="241"/>
-      <c r="AF22" s="236"/>
-      <c r="AG22" s="237"/>
-      <c r="AH22" s="237"/>
-      <c r="AI22" s="238"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="188"/>
+      <c r="O22" s="188"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="191"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="191"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="191"/>
+      <c r="X22" s="191"/>
+      <c r="Y22" s="191"/>
+      <c r="Z22" s="191"/>
+      <c r="AA22" s="191"/>
+      <c r="AB22" s="191"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="191"/>
+      <c r="AE22" s="192"/>
+      <c r="AF22" s="187"/>
+      <c r="AG22" s="188"/>
+      <c r="AH22" s="188"/>
+      <c r="AI22" s="189"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
-      <c r="N23" s="237"/>
-      <c r="O23" s="237"/>
-      <c r="P23" s="238"/>
-      <c r="Q23" s="239"/>
-      <c r="R23" s="240"/>
-      <c r="S23" s="240"/>
-      <c r="T23" s="240"/>
-      <c r="U23" s="240"/>
-      <c r="V23" s="240"/>
-      <c r="W23" s="240"/>
-      <c r="X23" s="240"/>
-      <c r="Y23" s="240"/>
-      <c r="Z23" s="240"/>
-      <c r="AA23" s="240"/>
-      <c r="AB23" s="240"/>
-      <c r="AC23" s="240"/>
-      <c r="AD23" s="240"/>
-      <c r="AE23" s="241"/>
-      <c r="AF23" s="236"/>
-      <c r="AG23" s="237"/>
-      <c r="AH23" s="237"/>
-      <c r="AI23" s="238"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="188"/>
+      <c r="O23" s="188"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="191"/>
+      <c r="Z23" s="191"/>
+      <c r="AA23" s="191"/>
+      <c r="AB23" s="191"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="191"/>
+      <c r="AE23" s="192"/>
+      <c r="AF23" s="187"/>
+      <c r="AG23" s="188"/>
+      <c r="AH23" s="188"/>
+      <c r="AI23" s="189"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="236"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="237"/>
-      <c r="O24" s="237"/>
-      <c r="P24" s="238"/>
-      <c r="Q24" s="239"/>
-      <c r="R24" s="240"/>
-      <c r="S24" s="240"/>
-      <c r="T24" s="240"/>
-      <c r="U24" s="240"/>
-      <c r="V24" s="240"/>
-      <c r="W24" s="240"/>
-      <c r="X24" s="240"/>
-      <c r="Y24" s="240"/>
-      <c r="Z24" s="240"/>
-      <c r="AA24" s="240"/>
-      <c r="AB24" s="240"/>
-      <c r="AC24" s="240"/>
-      <c r="AD24" s="240"/>
-      <c r="AE24" s="241"/>
-      <c r="AF24" s="236"/>
-      <c r="AG24" s="237"/>
-      <c r="AH24" s="237"/>
-      <c r="AI24" s="238"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="188"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="188"/>
+      <c r="O24" s="188"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="190"/>
+      <c r="R24" s="191"/>
+      <c r="S24" s="191"/>
+      <c r="T24" s="191"/>
+      <c r="U24" s="191"/>
+      <c r="V24" s="191"/>
+      <c r="W24" s="191"/>
+      <c r="X24" s="191"/>
+      <c r="Y24" s="191"/>
+      <c r="Z24" s="191"/>
+      <c r="AA24" s="191"/>
+      <c r="AB24" s="191"/>
+      <c r="AC24" s="191"/>
+      <c r="AD24" s="191"/>
+      <c r="AE24" s="192"/>
+      <c r="AF24" s="187"/>
+      <c r="AG24" s="188"/>
+      <c r="AH24" s="188"/>
+      <c r="AI24" s="189"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="230"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="237"/>
-      <c r="N25" s="237"/>
-      <c r="O25" s="237"/>
-      <c r="P25" s="238"/>
-      <c r="Q25" s="239"/>
-      <c r="R25" s="240"/>
-      <c r="S25" s="240"/>
-      <c r="T25" s="240"/>
-      <c r="U25" s="240"/>
-      <c r="V25" s="240"/>
-      <c r="W25" s="240"/>
-      <c r="X25" s="240"/>
-      <c r="Y25" s="240"/>
-      <c r="Z25" s="240"/>
-      <c r="AA25" s="240"/>
-      <c r="AB25" s="240"/>
-      <c r="AC25" s="240"/>
-      <c r="AD25" s="240"/>
-      <c r="AE25" s="241"/>
-      <c r="AF25" s="236"/>
-      <c r="AG25" s="237"/>
-      <c r="AH25" s="237"/>
-      <c r="AI25" s="238"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="188"/>
+      <c r="O25" s="188"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="191"/>
+      <c r="S25" s="191"/>
+      <c r="T25" s="191"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="191"/>
+      <c r="Y25" s="191"/>
+      <c r="Z25" s="191"/>
+      <c r="AA25" s="191"/>
+      <c r="AB25" s="191"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="191"/>
+      <c r="AE25" s="192"/>
+      <c r="AF25" s="187"/>
+      <c r="AG25" s="188"/>
+      <c r="AH25" s="188"/>
+      <c r="AI25" s="189"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="230"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="237"/>
-      <c r="N26" s="237"/>
-      <c r="O26" s="237"/>
-      <c r="P26" s="238"/>
-      <c r="Q26" s="239"/>
-      <c r="R26" s="240"/>
-      <c r="S26" s="240"/>
-      <c r="T26" s="240"/>
-      <c r="U26" s="240"/>
-      <c r="V26" s="240"/>
-      <c r="W26" s="240"/>
-      <c r="X26" s="240"/>
-      <c r="Y26" s="240"/>
-      <c r="Z26" s="240"/>
-      <c r="AA26" s="240"/>
-      <c r="AB26" s="240"/>
-      <c r="AC26" s="240"/>
-      <c r="AD26" s="240"/>
-      <c r="AE26" s="241"/>
-      <c r="AF26" s="236"/>
-      <c r="AG26" s="237"/>
-      <c r="AH26" s="237"/>
-      <c r="AI26" s="238"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="191"/>
+      <c r="S26" s="191"/>
+      <c r="T26" s="191"/>
+      <c r="U26" s="191"/>
+      <c r="V26" s="191"/>
+      <c r="W26" s="191"/>
+      <c r="X26" s="191"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="191"/>
+      <c r="AA26" s="191"/>
+      <c r="AB26" s="191"/>
+      <c r="AC26" s="191"/>
+      <c r="AD26" s="191"/>
+      <c r="AE26" s="192"/>
+      <c r="AF26" s="187"/>
+      <c r="AG26" s="188"/>
+      <c r="AH26" s="188"/>
+      <c r="AI26" s="189"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="230"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="237"/>
-      <c r="L27" s="237"/>
-      <c r="M27" s="237"/>
-      <c r="N27" s="237"/>
-      <c r="O27" s="237"/>
-      <c r="P27" s="238"/>
-      <c r="Q27" s="239"/>
-      <c r="R27" s="240"/>
-      <c r="S27" s="240"/>
-      <c r="T27" s="240"/>
-      <c r="U27" s="240"/>
-      <c r="V27" s="240"/>
-      <c r="W27" s="240"/>
-      <c r="X27" s="240"/>
-      <c r="Y27" s="240"/>
-      <c r="Z27" s="240"/>
-      <c r="AA27" s="240"/>
-      <c r="AB27" s="240"/>
-      <c r="AC27" s="240"/>
-      <c r="AD27" s="240"/>
-      <c r="AE27" s="241"/>
-      <c r="AF27" s="236"/>
-      <c r="AG27" s="237"/>
-      <c r="AH27" s="237"/>
-      <c r="AI27" s="238"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="190"/>
+      <c r="R27" s="191"/>
+      <c r="S27" s="191"/>
+      <c r="T27" s="191"/>
+      <c r="U27" s="191"/>
+      <c r="V27" s="191"/>
+      <c r="W27" s="191"/>
+      <c r="X27" s="191"/>
+      <c r="Y27" s="191"/>
+      <c r="Z27" s="191"/>
+      <c r="AA27" s="191"/>
+      <c r="AB27" s="191"/>
+      <c r="AC27" s="191"/>
+      <c r="AD27" s="191"/>
+      <c r="AE27" s="192"/>
+      <c r="AF27" s="187"/>
+      <c r="AG27" s="188"/>
+      <c r="AH27" s="188"/>
+      <c r="AI27" s="189"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="230"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="237"/>
-      <c r="N28" s="237"/>
-      <c r="O28" s="237"/>
-      <c r="P28" s="238"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="240"/>
-      <c r="S28" s="240"/>
-      <c r="T28" s="240"/>
-      <c r="U28" s="240"/>
-      <c r="V28" s="240"/>
-      <c r="W28" s="240"/>
-      <c r="X28" s="240"/>
-      <c r="Y28" s="240"/>
-      <c r="Z28" s="240"/>
-      <c r="AA28" s="240"/>
-      <c r="AB28" s="240"/>
-      <c r="AC28" s="240"/>
-      <c r="AD28" s="240"/>
-      <c r="AE28" s="241"/>
-      <c r="AF28" s="236"/>
-      <c r="AG28" s="237"/>
-      <c r="AH28" s="237"/>
-      <c r="AI28" s="238"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="191"/>
+      <c r="S28" s="191"/>
+      <c r="T28" s="191"/>
+      <c r="U28" s="191"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="191"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="191"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="187"/>
+      <c r="AG28" s="188"/>
+      <c r="AH28" s="188"/>
+      <c r="AI28" s="189"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="230"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="237"/>
-      <c r="M29" s="237"/>
-      <c r="N29" s="237"/>
-      <c r="O29" s="237"/>
-      <c r="P29" s="238"/>
-      <c r="Q29" s="239"/>
-      <c r="R29" s="240"/>
-      <c r="S29" s="240"/>
-      <c r="T29" s="240"/>
-      <c r="U29" s="240"/>
-      <c r="V29" s="240"/>
-      <c r="W29" s="240"/>
-      <c r="X29" s="240"/>
-      <c r="Y29" s="240"/>
-      <c r="Z29" s="240"/>
-      <c r="AA29" s="240"/>
-      <c r="AB29" s="240"/>
-      <c r="AC29" s="240"/>
-      <c r="AD29" s="240"/>
-      <c r="AE29" s="241"/>
-      <c r="AF29" s="236"/>
-      <c r="AG29" s="237"/>
-      <c r="AH29" s="237"/>
-      <c r="AI29" s="238"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="190"/>
+      <c r="R29" s="191"/>
+      <c r="S29" s="191"/>
+      <c r="T29" s="191"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="191"/>
+      <c r="AC29" s="191"/>
+      <c r="AD29" s="191"/>
+      <c r="AE29" s="192"/>
+      <c r="AF29" s="187"/>
+      <c r="AG29" s="188"/>
+      <c r="AH29" s="188"/>
+      <c r="AI29" s="189"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="230"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="236"/>
-      <c r="K30" s="237"/>
-      <c r="L30" s="237"/>
-      <c r="M30" s="237"/>
-      <c r="N30" s="237"/>
-      <c r="O30" s="237"/>
-      <c r="P30" s="238"/>
-      <c r="Q30" s="239"/>
-      <c r="R30" s="240"/>
-      <c r="S30" s="240"/>
-      <c r="T30" s="240"/>
-      <c r="U30" s="240"/>
-      <c r="V30" s="240"/>
-      <c r="W30" s="240"/>
-      <c r="X30" s="240"/>
-      <c r="Y30" s="240"/>
-      <c r="Z30" s="240"/>
-      <c r="AA30" s="240"/>
-      <c r="AB30" s="240"/>
-      <c r="AC30" s="240"/>
-      <c r="AD30" s="240"/>
-      <c r="AE30" s="241"/>
-      <c r="AF30" s="236"/>
-      <c r="AG30" s="237"/>
-      <c r="AH30" s="237"/>
-      <c r="AI30" s="238"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="188"/>
+      <c r="O30" s="188"/>
+      <c r="P30" s="189"/>
+      <c r="Q30" s="190"/>
+      <c r="R30" s="191"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="191"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="191"/>
+      <c r="AB30" s="191"/>
+      <c r="AC30" s="191"/>
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="192"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="188"/>
+      <c r="AH30" s="188"/>
+      <c r="AI30" s="189"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="230"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="236"/>
-      <c r="K31" s="237"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="237"/>
-      <c r="N31" s="237"/>
-      <c r="O31" s="237"/>
-      <c r="P31" s="238"/>
-      <c r="Q31" s="239"/>
-      <c r="R31" s="240"/>
-      <c r="S31" s="240"/>
-      <c r="T31" s="240"/>
-      <c r="U31" s="240"/>
-      <c r="V31" s="240"/>
-      <c r="W31" s="240"/>
-      <c r="X31" s="240"/>
-      <c r="Y31" s="240"/>
-      <c r="Z31" s="240"/>
-      <c r="AA31" s="240"/>
-      <c r="AB31" s="240"/>
-      <c r="AC31" s="240"/>
-      <c r="AD31" s="240"/>
-      <c r="AE31" s="241"/>
-      <c r="AF31" s="236"/>
-      <c r="AG31" s="237"/>
-      <c r="AH31" s="237"/>
-      <c r="AI31" s="238"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="188"/>
+      <c r="O31" s="188"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="190"/>
+      <c r="R31" s="191"/>
+      <c r="S31" s="191"/>
+      <c r="T31" s="191"/>
+      <c r="U31" s="191"/>
+      <c r="V31" s="191"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="191"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="191"/>
+      <c r="AB31" s="191"/>
+      <c r="AC31" s="191"/>
+      <c r="AD31" s="191"/>
+      <c r="AE31" s="192"/>
+      <c r="AF31" s="187"/>
+      <c r="AG31" s="188"/>
+      <c r="AH31" s="188"/>
+      <c r="AI31" s="189"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="230"/>
-      <c r="C32" s="231"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="242"/>
-      <c r="L32" s="237"/>
-      <c r="M32" s="237"/>
-      <c r="N32" s="237"/>
-      <c r="O32" s="237"/>
-      <c r="P32" s="238"/>
-      <c r="Q32" s="239"/>
-      <c r="R32" s="240"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="240"/>
-      <c r="W32" s="240"/>
-      <c r="X32" s="240"/>
-      <c r="Y32" s="240"/>
-      <c r="Z32" s="240"/>
-      <c r="AA32" s="240"/>
-      <c r="AB32" s="240"/>
-      <c r="AC32" s="240"/>
-      <c r="AD32" s="240"/>
-      <c r="AE32" s="241"/>
-      <c r="AF32" s="236"/>
-      <c r="AG32" s="237"/>
-      <c r="AH32" s="237"/>
-      <c r="AI32" s="238"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="188"/>
+      <c r="O32" s="188"/>
+      <c r="P32" s="189"/>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="191"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="192"/>
+      <c r="AF32" s="187"/>
+      <c r="AG32" s="188"/>
+      <c r="AH32" s="188"/>
+      <c r="AI32" s="189"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="230"/>
-      <c r="C33" s="231"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="230"/>
-      <c r="H33" s="235"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="237"/>
-      <c r="P33" s="238"/>
-      <c r="Q33" s="239"/>
-      <c r="R33" s="240"/>
-      <c r="S33" s="240"/>
-      <c r="T33" s="240"/>
-      <c r="U33" s="240"/>
-      <c r="V33" s="240"/>
-      <c r="W33" s="240"/>
-      <c r="X33" s="240"/>
-      <c r="Y33" s="240"/>
-      <c r="Z33" s="240"/>
-      <c r="AA33" s="240"/>
-      <c r="AB33" s="240"/>
-      <c r="AC33" s="240"/>
-      <c r="AD33" s="240"/>
-      <c r="AE33" s="241"/>
-      <c r="AF33" s="236"/>
-      <c r="AG33" s="237"/>
-      <c r="AH33" s="237"/>
-      <c r="AI33" s="238"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="188"/>
+      <c r="O33" s="188"/>
+      <c r="P33" s="189"/>
+      <c r="Q33" s="190"/>
+      <c r="R33" s="191"/>
+      <c r="S33" s="191"/>
+      <c r="T33" s="191"/>
+      <c r="U33" s="191"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="191"/>
+      <c r="Y33" s="191"/>
+      <c r="Z33" s="191"/>
+      <c r="AA33" s="191"/>
+      <c r="AB33" s="191"/>
+      <c r="AC33" s="191"/>
+      <c r="AD33" s="191"/>
+      <c r="AE33" s="192"/>
+      <c r="AF33" s="187"/>
+      <c r="AG33" s="188"/>
+      <c r="AH33" s="188"/>
+      <c r="AI33" s="189"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12648,167 +12842,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -24350,11 +24383,21 @@
       <c r="K42" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
+      <c r="L42" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M42" s="62">
+        <v>1</v>
+      </c>
+      <c r="N42" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O42" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P42" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q42" s="122"/>
       <c r="R42" s="61"/>
     </row>
@@ -24389,11 +24432,21 @@
       <c r="K43" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
+      <c r="L43" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M43" s="62">
+        <v>2</v>
+      </c>
+      <c r="N43" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O43" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P43" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q43" s="122"/>
       <c r="R43" s="61"/>
     </row>
@@ -24430,11 +24483,21 @@
       <c r="K44" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
+      <c r="L44" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M44" s="62">
+        <v>3</v>
+      </c>
+      <c r="N44" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O44" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P44" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q44" s="122"/>
       <c r="R44" s="61"/>
     </row>
@@ -24469,11 +24532,21 @@
       <c r="K45" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
+      <c r="L45" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M45" s="62">
+        <v>4</v>
+      </c>
+      <c r="N45" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O45" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P45" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q45" s="122"/>
       <c r="R45" s="61"/>
     </row>
@@ -25727,11 +25800,21 @@
       <c r="K80" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
-      <c r="O80" s="62"/>
-      <c r="P80" s="62"/>
+      <c r="L80" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M80" s="62" t="s">
+        <v>681</v>
+      </c>
+      <c r="N80" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O80" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P80" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q80" s="122"/>
       <c r="R80" s="61"/>
     </row>
@@ -25765,11 +25848,21 @@
       <c r="K81" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
-      <c r="O81" s="62"/>
-      <c r="P81" s="62"/>
+      <c r="L81" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M81" s="62">
+        <v>5</v>
+      </c>
+      <c r="N81" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O81" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P81" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q81" s="122"/>
       <c r="R81" s="61"/>
     </row>
@@ -25806,11 +25899,21 @@
       <c r="K82" s="61" t="s">
         <v>555</v>
       </c>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="62"/>
-      <c r="P82" s="62"/>
+      <c r="L82" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M82" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="N82" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O82" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P82" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q82" s="122"/>
       <c r="R82" s="61"/>
     </row>
@@ -25849,11 +25952,21 @@
       <c r="K83" s="139" t="s">
         <v>677</v>
       </c>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="96"/>
-      <c r="P83" s="96"/>
+      <c r="L83" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M83" s="62">
+        <v>5</v>
+      </c>
+      <c r="N83" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O83" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P83" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q83" s="140"/>
       <c r="R83" s="139"/>
     </row>
@@ -25964,11 +26077,21 @@
       <c r="K86" s="61" t="s">
         <v>560</v>
       </c>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
-      <c r="P86" s="62"/>
+      <c r="L86" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M86" s="62">
+        <v>5</v>
+      </c>
+      <c r="N86" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O86" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P86" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q86" s="122"/>
       <c r="R86" s="61"/>
     </row>
@@ -27746,11 +27869,21 @@
       <c r="K134" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="L134" s="62"/>
-      <c r="M134" s="62"/>
-      <c r="N134" s="62"/>
-      <c r="O134" s="62"/>
-      <c r="P134" s="62"/>
+      <c r="L134" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M134" s="62">
+        <v>5</v>
+      </c>
+      <c r="N134" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O134" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P134" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q134" s="122"/>
       <c r="R134" s="61"/>
     </row>
@@ -27789,11 +27922,21 @@
       <c r="K135" s="139" t="s">
         <v>569</v>
       </c>
-      <c r="L135" s="96"/>
-      <c r="M135" s="96"/>
-      <c r="N135" s="96"/>
-      <c r="O135" s="96"/>
-      <c r="P135" s="96"/>
+      <c r="L135" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M135" s="62">
+        <v>5</v>
+      </c>
+      <c r="N135" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O135" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P135" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q135" s="140"/>
       <c r="R135" s="139"/>
     </row>
@@ -28017,11 +28160,21 @@
       <c r="K141" s="139" t="s">
         <v>580</v>
       </c>
-      <c r="L141" s="96"/>
-      <c r="M141" s="96"/>
-      <c r="N141" s="96"/>
-      <c r="O141" s="96"/>
-      <c r="P141" s="96"/>
+      <c r="L141" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M141" s="62">
+        <v>5</v>
+      </c>
+      <c r="N141" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O141" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P141" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q141" s="140"/>
       <c r="R141" s="139"/>
     </row>
@@ -28060,11 +28213,21 @@
       <c r="K142" s="139" t="s">
         <v>581</v>
       </c>
-      <c r="L142" s="96"/>
-      <c r="M142" s="96"/>
-      <c r="N142" s="96"/>
-      <c r="O142" s="96"/>
-      <c r="P142" s="96"/>
+      <c r="L142" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M142" s="62">
+        <v>5</v>
+      </c>
+      <c r="N142" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O142" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P142" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q142" s="140"/>
       <c r="R142" s="139"/>
     </row>
@@ -28103,11 +28266,21 @@
       <c r="K143" s="139" t="s">
         <v>582</v>
       </c>
-      <c r="L143" s="96"/>
-      <c r="M143" s="96"/>
-      <c r="N143" s="96"/>
-      <c r="O143" s="96"/>
-      <c r="P143" s="96"/>
+      <c r="L143" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M143" s="62">
+        <v>5</v>
+      </c>
+      <c r="N143" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O143" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P143" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q143" s="140"/>
       <c r="R143" s="139"/>
     </row>
@@ -28183,11 +28356,21 @@
       <c r="K145" s="139" t="s">
         <v>584</v>
       </c>
-      <c r="L145" s="96"/>
-      <c r="M145" s="96"/>
-      <c r="N145" s="96"/>
-      <c r="O145" s="96"/>
-      <c r="P145" s="96"/>
+      <c r="L145" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M145" s="62">
+        <v>5</v>
+      </c>
+      <c r="N145" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O145" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P145" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q145" s="140"/>
       <c r="R145" s="139"/>
     </row>
@@ -28440,11 +28623,21 @@
       <c r="K152" s="139" t="s">
         <v>587</v>
       </c>
-      <c r="L152" s="96"/>
-      <c r="M152" s="96"/>
-      <c r="N152" s="96"/>
-      <c r="O152" s="96"/>
-      <c r="P152" s="96"/>
+      <c r="L152" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M152" s="62">
+        <v>5</v>
+      </c>
+      <c r="N152" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O152" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P152" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q152" s="140"/>
       <c r="R152" s="139"/>
     </row>
@@ -28479,11 +28672,21 @@
       <c r="K153" s="139" t="s">
         <v>589</v>
       </c>
-      <c r="L153" s="96"/>
-      <c r="M153" s="96"/>
-      <c r="N153" s="96"/>
-      <c r="O153" s="96"/>
-      <c r="P153" s="96"/>
+      <c r="L153" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M153" s="62">
+        <v>5</v>
+      </c>
+      <c r="N153" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O153" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P153" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q153" s="140"/>
       <c r="R153" s="139"/>
     </row>
@@ -28518,11 +28721,21 @@
       <c r="K154" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="L154" s="96"/>
-      <c r="M154" s="96"/>
-      <c r="N154" s="96"/>
-      <c r="O154" s="96"/>
-      <c r="P154" s="96"/>
+      <c r="L154" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M154" s="62">
+        <v>5</v>
+      </c>
+      <c r="N154" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O154" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P154" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q154" s="140"/>
       <c r="R154" s="139"/>
     </row>
@@ -28557,11 +28770,21 @@
       <c r="K155" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="L155" s="96"/>
-      <c r="M155" s="96"/>
-      <c r="N155" s="96"/>
-      <c r="O155" s="96"/>
-      <c r="P155" s="96"/>
+      <c r="L155" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M155" s="62">
+        <v>5</v>
+      </c>
+      <c r="N155" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O155" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P155" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q155" s="140"/>
       <c r="R155" s="139"/>
     </row>
@@ -28596,11 +28819,21 @@
       <c r="K156" s="139" t="s">
         <v>595</v>
       </c>
-      <c r="L156" s="96"/>
-      <c r="M156" s="96"/>
-      <c r="N156" s="96"/>
-      <c r="O156" s="96"/>
-      <c r="P156" s="96"/>
+      <c r="L156" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M156" s="62">
+        <v>5</v>
+      </c>
+      <c r="N156" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O156" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P156" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q156" s="140"/>
       <c r="R156" s="139"/>
     </row>
@@ -28635,11 +28868,21 @@
       <c r="K157" s="139" t="s">
         <v>597</v>
       </c>
-      <c r="L157" s="96"/>
-      <c r="M157" s="96"/>
-      <c r="N157" s="96"/>
-      <c r="O157" s="96"/>
-      <c r="P157" s="96"/>
+      <c r="L157" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M157" s="62">
+        <v>5</v>
+      </c>
+      <c r="N157" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O157" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P157" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q157" s="140"/>
       <c r="R157" s="139"/>
     </row>
@@ -28674,11 +28917,21 @@
       <c r="K158" s="139" t="s">
         <v>599</v>
       </c>
-      <c r="L158" s="96"/>
-      <c r="M158" s="96"/>
-      <c r="N158" s="96"/>
-      <c r="O158" s="96"/>
-      <c r="P158" s="96"/>
+      <c r="L158" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M158" s="62">
+        <v>5</v>
+      </c>
+      <c r="N158" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O158" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P158" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q158" s="140"/>
       <c r="R158" s="139"/>
     </row>
@@ -28713,11 +28966,21 @@
       <c r="K159" s="139" t="s">
         <v>601</v>
       </c>
-      <c r="L159" s="96"/>
-      <c r="M159" s="96"/>
-      <c r="N159" s="96"/>
-      <c r="O159" s="96"/>
-      <c r="P159" s="96"/>
+      <c r="L159" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M159" s="62">
+        <v>5</v>
+      </c>
+      <c r="N159" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O159" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P159" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q159" s="140"/>
       <c r="R159" s="139"/>
     </row>
@@ -28752,11 +29015,21 @@
       <c r="K160" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="L160" s="96"/>
-      <c r="M160" s="96"/>
-      <c r="N160" s="96"/>
-      <c r="O160" s="96"/>
-      <c r="P160" s="96"/>
+      <c r="L160" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M160" s="62">
+        <v>5</v>
+      </c>
+      <c r="N160" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O160" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P160" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q160" s="140"/>
       <c r="R160" s="139"/>
     </row>
@@ -28791,11 +29064,21 @@
       <c r="K161" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="L161" s="96"/>
-      <c r="M161" s="96"/>
-      <c r="N161" s="96"/>
-      <c r="O161" s="96"/>
-      <c r="P161" s="96"/>
+      <c r="L161" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M161" s="62">
+        <v>5</v>
+      </c>
+      <c r="N161" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O161" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P161" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q161" s="140"/>
       <c r="R161" s="139"/>
     </row>
@@ -28830,11 +29113,21 @@
       <c r="K162" s="139" t="s">
         <v>607</v>
       </c>
-      <c r="L162" s="96"/>
-      <c r="M162" s="96"/>
-      <c r="N162" s="96"/>
-      <c r="O162" s="96"/>
-      <c r="P162" s="96"/>
+      <c r="L162" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M162" s="62">
+        <v>5</v>
+      </c>
+      <c r="N162" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O162" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P162" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q162" s="140"/>
       <c r="R162" s="139"/>
     </row>
@@ -28869,11 +29162,21 @@
       <c r="K163" s="139" t="s">
         <v>609</v>
       </c>
-      <c r="L163" s="96"/>
-      <c r="M163" s="96"/>
-      <c r="N163" s="96"/>
-      <c r="O163" s="96"/>
-      <c r="P163" s="96"/>
+      <c r="L163" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M163" s="62">
+        <v>5</v>
+      </c>
+      <c r="N163" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O163" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P163" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q163" s="140"/>
       <c r="R163" s="139"/>
     </row>
@@ -28908,11 +29211,21 @@
       <c r="K164" s="139" t="s">
         <v>611</v>
       </c>
-      <c r="L164" s="96"/>
-      <c r="M164" s="96"/>
-      <c r="N164" s="96"/>
-      <c r="O164" s="96"/>
-      <c r="P164" s="96"/>
+      <c r="L164" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M164" s="62">
+        <v>5</v>
+      </c>
+      <c r="N164" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O164" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P164" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q164" s="140"/>
       <c r="R164" s="139"/>
     </row>
@@ -29373,11 +29686,21 @@
       <c r="K177" s="139" t="s">
         <v>617</v>
       </c>
-      <c r="L177" s="96"/>
-      <c r="M177" s="96"/>
-      <c r="N177" s="96"/>
-      <c r="O177" s="96"/>
-      <c r="P177" s="96"/>
+      <c r="L177" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M177" s="62">
+        <v>5</v>
+      </c>
+      <c r="N177" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O177" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P177" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q177" s="140"/>
       <c r="R177" s="139"/>
     </row>
@@ -29412,11 +29735,21 @@
       <c r="K178" s="139" t="s">
         <v>619</v>
       </c>
-      <c r="L178" s="96"/>
-      <c r="M178" s="96"/>
-      <c r="N178" s="96"/>
-      <c r="O178" s="96"/>
-      <c r="P178" s="96"/>
+      <c r="L178" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M178" s="62">
+        <v>5</v>
+      </c>
+      <c r="N178" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O178" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P178" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q178" s="140"/>
       <c r="R178" s="139"/>
     </row>
@@ -29451,11 +29784,21 @@
       <c r="K179" s="139" t="s">
         <v>621</v>
       </c>
-      <c r="L179" s="96"/>
-      <c r="M179" s="96"/>
-      <c r="N179" s="96"/>
-      <c r="O179" s="96"/>
-      <c r="P179" s="96"/>
+      <c r="L179" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M179" s="62">
+        <v>5</v>
+      </c>
+      <c r="N179" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O179" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P179" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q179" s="140"/>
       <c r="R179" s="139"/>
     </row>
@@ -29490,11 +29833,21 @@
       <c r="K180" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="L180" s="96"/>
-      <c r="M180" s="96"/>
-      <c r="N180" s="96"/>
-      <c r="O180" s="96"/>
-      <c r="P180" s="96"/>
+      <c r="L180" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M180" s="62">
+        <v>5</v>
+      </c>
+      <c r="N180" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O180" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P180" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q180" s="140"/>
       <c r="R180" s="139"/>
     </row>
@@ -29529,11 +29882,21 @@
       <c r="K181" s="139" t="s">
         <v>624</v>
       </c>
-      <c r="L181" s="96"/>
-      <c r="M181" s="96"/>
-      <c r="N181" s="96"/>
-      <c r="O181" s="96"/>
-      <c r="P181" s="96"/>
+      <c r="L181" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M181" s="62">
+        <v>8</v>
+      </c>
+      <c r="N181" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O181" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P181" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q181" s="140"/>
       <c r="R181" s="139"/>
     </row>
@@ -29568,11 +29931,21 @@
       <c r="K182" s="139" t="s">
         <v>626</v>
       </c>
-      <c r="L182" s="96"/>
-      <c r="M182" s="96"/>
-      <c r="N182" s="96"/>
-      <c r="O182" s="96"/>
-      <c r="P182" s="96"/>
+      <c r="L182" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M182" s="62">
+        <v>8</v>
+      </c>
+      <c r="N182" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O182" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P182" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q182" s="140"/>
       <c r="R182" s="139"/>
     </row>
@@ -29607,11 +29980,21 @@
       <c r="K183" s="139" t="s">
         <v>599</v>
       </c>
-      <c r="L183" s="96"/>
-      <c r="M183" s="96"/>
-      <c r="N183" s="96"/>
-      <c r="O183" s="96"/>
-      <c r="P183" s="96"/>
+      <c r="L183" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M183" s="62">
+        <v>5</v>
+      </c>
+      <c r="N183" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O183" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P183" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q183" s="140"/>
       <c r="R183" s="139"/>
     </row>
@@ -29646,11 +30029,21 @@
       <c r="K184" s="139" t="s">
         <v>629</v>
       </c>
-      <c r="L184" s="96"/>
-      <c r="M184" s="96"/>
-      <c r="N184" s="96"/>
-      <c r="O184" s="96"/>
-      <c r="P184" s="96"/>
+      <c r="L184" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M184" s="62">
+        <v>5</v>
+      </c>
+      <c r="N184" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O184" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P184" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q184" s="140"/>
       <c r="R184" s="139"/>
     </row>
@@ -29685,11 +30078,21 @@
       <c r="K185" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="L185" s="96"/>
-      <c r="M185" s="96"/>
-      <c r="N185" s="96"/>
-      <c r="O185" s="96"/>
-      <c r="P185" s="96"/>
+      <c r="L185" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M185" s="62">
+        <v>5</v>
+      </c>
+      <c r="N185" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O185" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P185" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q185" s="140"/>
       <c r="R185" s="139"/>
     </row>
@@ -29724,11 +30127,21 @@
       <c r="K186" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="L186" s="96"/>
-      <c r="M186" s="96"/>
-      <c r="N186" s="96"/>
-      <c r="O186" s="96"/>
-      <c r="P186" s="96"/>
+      <c r="L186" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M186" s="62">
+        <v>5</v>
+      </c>
+      <c r="N186" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O186" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P186" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q186" s="140"/>
       <c r="R186" s="139"/>
     </row>
@@ -29763,11 +30176,21 @@
       <c r="K187" s="139" t="s">
         <v>633</v>
       </c>
-      <c r="L187" s="96"/>
-      <c r="M187" s="96"/>
-      <c r="N187" s="96"/>
-      <c r="O187" s="96"/>
-      <c r="P187" s="96"/>
+      <c r="L187" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M187" s="62">
+        <v>5</v>
+      </c>
+      <c r="N187" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O187" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P187" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q187" s="140"/>
       <c r="R187" s="139"/>
     </row>
@@ -29802,11 +30225,21 @@
       <c r="K188" s="139" t="s">
         <v>609</v>
       </c>
-      <c r="L188" s="96"/>
-      <c r="M188" s="96"/>
-      <c r="N188" s="96"/>
-      <c r="O188" s="96"/>
-      <c r="P188" s="96"/>
+      <c r="L188" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M188" s="62">
+        <v>5</v>
+      </c>
+      <c r="N188" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O188" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P188" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q188" s="140"/>
       <c r="R188" s="139"/>
     </row>
@@ -29841,11 +30274,21 @@
       <c r="K189" s="139" t="s">
         <v>611</v>
       </c>
-      <c r="L189" s="96"/>
-      <c r="M189" s="96"/>
-      <c r="N189" s="96"/>
-      <c r="O189" s="96"/>
-      <c r="P189" s="96"/>
+      <c r="L189" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M189" s="62">
+        <v>5</v>
+      </c>
+      <c r="N189" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O189" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P189" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q189" s="140"/>
       <c r="R189" s="139"/>
     </row>
@@ -29882,11 +30325,21 @@
       <c r="K190" s="139" t="s">
         <v>617</v>
       </c>
-      <c r="L190" s="96"/>
-      <c r="M190" s="96"/>
-      <c r="N190" s="96"/>
-      <c r="O190" s="96"/>
-      <c r="P190" s="96"/>
+      <c r="L190" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M190" s="62">
+        <v>5</v>
+      </c>
+      <c r="N190" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O190" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P190" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q190" s="140"/>
       <c r="R190" s="139"/>
     </row>
@@ -29921,11 +30374,21 @@
       <c r="K191" s="139" t="s">
         <v>619</v>
       </c>
-      <c r="L191" s="96"/>
-      <c r="M191" s="96"/>
-      <c r="N191" s="96"/>
-      <c r="O191" s="96"/>
-      <c r="P191" s="96"/>
+      <c r="L191" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M191" s="62">
+        <v>5</v>
+      </c>
+      <c r="N191" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O191" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P191" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q191" s="140"/>
       <c r="R191" s="139"/>
     </row>
@@ -29960,11 +30423,21 @@
       <c r="K192" s="139" t="s">
         <v>621</v>
       </c>
-      <c r="L192" s="96"/>
-      <c r="M192" s="96"/>
-      <c r="N192" s="96"/>
-      <c r="O192" s="96"/>
-      <c r="P192" s="96"/>
+      <c r="L192" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M192" s="62">
+        <v>5</v>
+      </c>
+      <c r="N192" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O192" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P192" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q192" s="140"/>
       <c r="R192" s="139"/>
     </row>
@@ -29999,11 +30472,21 @@
       <c r="K193" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="L193" s="96"/>
-      <c r="M193" s="96"/>
-      <c r="N193" s="96"/>
-      <c r="O193" s="96"/>
-      <c r="P193" s="96"/>
+      <c r="L193" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M193" s="62">
+        <v>5</v>
+      </c>
+      <c r="N193" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O193" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P193" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q193" s="140"/>
       <c r="R193" s="139"/>
     </row>
@@ -30038,11 +30521,21 @@
       <c r="K194" s="139" t="s">
         <v>624</v>
       </c>
-      <c r="L194" s="96"/>
-      <c r="M194" s="96"/>
-      <c r="N194" s="96"/>
-      <c r="O194" s="96"/>
-      <c r="P194" s="96"/>
+      <c r="L194" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M194" s="62">
+        <v>8</v>
+      </c>
+      <c r="N194" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O194" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P194" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q194" s="140"/>
       <c r="R194" s="139"/>
     </row>
@@ -30077,11 +30570,21 @@
       <c r="K195" s="139" t="s">
         <v>626</v>
       </c>
-      <c r="L195" s="96"/>
-      <c r="M195" s="96"/>
-      <c r="N195" s="96"/>
-      <c r="O195" s="96"/>
-      <c r="P195" s="96"/>
+      <c r="L195" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M195" s="62">
+        <v>8</v>
+      </c>
+      <c r="N195" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O195" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P195" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q195" s="140"/>
       <c r="R195" s="139"/>
     </row>
@@ -30116,11 +30619,21 @@
       <c r="K196" s="139" t="s">
         <v>599</v>
       </c>
-      <c r="L196" s="96"/>
-      <c r="M196" s="96"/>
-      <c r="N196" s="96"/>
-      <c r="O196" s="96"/>
-      <c r="P196" s="96"/>
+      <c r="L196" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M196" s="62">
+        <v>5</v>
+      </c>
+      <c r="N196" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O196" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P196" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q196" s="140"/>
       <c r="R196" s="139"/>
     </row>
@@ -30155,11 +30668,21 @@
       <c r="K197" s="139" t="s">
         <v>629</v>
       </c>
-      <c r="L197" s="96"/>
-      <c r="M197" s="96"/>
-      <c r="N197" s="96"/>
-      <c r="O197" s="96"/>
-      <c r="P197" s="96"/>
+      <c r="L197" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M197" s="62">
+        <v>5</v>
+      </c>
+      <c r="N197" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O197" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P197" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q197" s="140"/>
       <c r="R197" s="139"/>
     </row>
@@ -30194,11 +30717,21 @@
       <c r="K198" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="L198" s="96"/>
-      <c r="M198" s="96"/>
-      <c r="N198" s="96"/>
-      <c r="O198" s="96"/>
-      <c r="P198" s="96"/>
+      <c r="L198" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M198" s="62">
+        <v>5</v>
+      </c>
+      <c r="N198" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O198" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P198" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q198" s="140"/>
       <c r="R198" s="139"/>
     </row>
@@ -30233,11 +30766,21 @@
       <c r="K199" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="L199" s="96"/>
-      <c r="M199" s="96"/>
-      <c r="N199" s="96"/>
-      <c r="O199" s="96"/>
-      <c r="P199" s="96"/>
+      <c r="L199" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M199" s="62">
+        <v>5</v>
+      </c>
+      <c r="N199" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O199" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P199" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q199" s="140"/>
       <c r="R199" s="139"/>
     </row>
@@ -30272,11 +30815,21 @@
       <c r="K200" s="139" t="s">
         <v>645</v>
       </c>
-      <c r="L200" s="96"/>
-      <c r="M200" s="96"/>
-      <c r="N200" s="96"/>
-      <c r="O200" s="96"/>
-      <c r="P200" s="96"/>
+      <c r="L200" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M200" s="62">
+        <v>5</v>
+      </c>
+      <c r="N200" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O200" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P200" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q200" s="140"/>
       <c r="R200" s="139"/>
     </row>
@@ -30311,11 +30864,21 @@
       <c r="K201" s="139" t="s">
         <v>647</v>
       </c>
-      <c r="L201" s="96"/>
-      <c r="M201" s="96"/>
-      <c r="N201" s="96"/>
-      <c r="O201" s="96"/>
-      <c r="P201" s="96"/>
+      <c r="L201" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M201" s="62">
+        <v>5</v>
+      </c>
+      <c r="N201" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O201" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P201" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q201" s="140"/>
       <c r="R201" s="139"/>
     </row>
@@ -30350,11 +30913,21 @@
       <c r="K202" s="139" t="s">
         <v>611</v>
       </c>
-      <c r="L202" s="96"/>
-      <c r="M202" s="96"/>
-      <c r="N202" s="96"/>
-      <c r="O202" s="96"/>
-      <c r="P202" s="96"/>
+      <c r="L202" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M202" s="62">
+        <v>5</v>
+      </c>
+      <c r="N202" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O202" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P202" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q202" s="140"/>
       <c r="R202" s="139"/>
     </row>
@@ -30391,11 +30964,21 @@
       <c r="K203" s="139" t="s">
         <v>645</v>
       </c>
-      <c r="L203" s="96"/>
-      <c r="M203" s="96"/>
-      <c r="N203" s="96"/>
-      <c r="O203" s="96"/>
-      <c r="P203" s="96"/>
+      <c r="L203" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M203" s="62">
+        <v>5</v>
+      </c>
+      <c r="N203" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O203" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P203" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q203" s="140"/>
       <c r="R203" s="139"/>
     </row>
@@ -30430,11 +31013,21 @@
       <c r="K204" s="139" t="s">
         <v>647</v>
       </c>
-      <c r="L204" s="96"/>
-      <c r="M204" s="96"/>
-      <c r="N204" s="96"/>
-      <c r="O204" s="96"/>
-      <c r="P204" s="96"/>
+      <c r="L204" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M204" s="62">
+        <v>5</v>
+      </c>
+      <c r="N204" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O204" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P204" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q204" s="140"/>
       <c r="R204" s="139"/>
     </row>
@@ -30613,11 +31206,21 @@
       <c r="K209" s="139" t="s">
         <v>552</v>
       </c>
-      <c r="L209" s="96"/>
-      <c r="M209" s="96"/>
-      <c r="N209" s="96"/>
-      <c r="O209" s="96"/>
-      <c r="P209" s="96"/>
+      <c r="L209" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M209" s="62">
+        <v>5</v>
+      </c>
+      <c r="N209" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O209" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P209" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q209" s="140"/>
       <c r="R209" s="139"/>
     </row>
@@ -30689,11 +31292,21 @@
       <c r="K211" s="139" t="s">
         <v>552</v>
       </c>
-      <c r="L211" s="96"/>
-      <c r="M211" s="96"/>
-      <c r="N211" s="96"/>
-      <c r="O211" s="96"/>
-      <c r="P211" s="96"/>
+      <c r="L211" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M211" s="62">
+        <v>5</v>
+      </c>
+      <c r="N211" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O211" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P211" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q211" s="140"/>
       <c r="R211" s="139"/>
     </row>
@@ -30800,11 +31413,21 @@
       <c r="K214" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="L214" s="96"/>
-      <c r="M214" s="96"/>
-      <c r="N214" s="96"/>
-      <c r="O214" s="96"/>
-      <c r="P214" s="96"/>
+      <c r="L214" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M214" s="62">
+        <v>3</v>
+      </c>
+      <c r="N214" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O214" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P214" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q214" s="140"/>
       <c r="R214" s="139"/>
     </row>
@@ -30948,11 +31571,21 @@
       <c r="K218" s="139" t="s">
         <v>560</v>
       </c>
-      <c r="L218" s="96"/>
-      <c r="M218" s="96"/>
-      <c r="N218" s="96"/>
-      <c r="O218" s="96"/>
-      <c r="P218" s="96"/>
+      <c r="L218" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="M218" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="N218" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O218" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P218" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q218" s="140"/>
       <c r="R218" s="139"/>
     </row>
@@ -35187,7 +35820,7 @@
       <c r="Q335" s="105"/>
       <c r="R335" s="99"/>
     </row>
-    <row r="336" spans="1:18" ht="45">
+    <row r="336" spans="1:18" ht="90">
       <c r="A336" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -35228,15 +35861,25 @@
       <c r="K336" s="62" t="s">
         <v>657</v>
       </c>
-      <c r="L336" s="62"/>
-      <c r="M336" s="62"/>
-      <c r="N336" s="62"/>
-      <c r="O336" s="62"/>
-      <c r="P336" s="62"/>
+      <c r="L336" s="62" t="s">
+        <v>684</v>
+      </c>
+      <c r="M336" s="62">
+        <v>8</v>
+      </c>
+      <c r="N336" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O336" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P336" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q336" s="62"/>
       <c r="R336" s="62"/>
     </row>
-    <row r="337" spans="1:18" ht="45">
+    <row r="337" spans="1:18" ht="90">
       <c r="A337" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -35269,11 +35912,21 @@
       <c r="K337" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="L337" s="62"/>
-      <c r="M337" s="62"/>
-      <c r="N337" s="62"/>
-      <c r="O337" s="62"/>
-      <c r="P337" s="62"/>
+      <c r="L337" s="62" t="s">
+        <v>684</v>
+      </c>
+      <c r="M337" s="62">
+        <v>8</v>
+      </c>
+      <c r="N337" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="O337" s="246">
+        <v>44854</v>
+      </c>
+      <c r="P337" s="62" t="s">
+        <v>680</v>
+      </c>
       <c r="Q337" s="62"/>
       <c r="R337" s="62"/>
     </row>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82B895-22E5-4F28-875E-7A84B0F6183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA59B54-7B76-4405-B95A-1BB217CD2D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="684">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8579,17 +8579,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>setUpDb、testNormalEnd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>安藤</t>
-    <rPh sb="0" eb="2">
-      <t>アンドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -8601,11 +8590,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5、6、7</t>
+    <t>テスティングフレームワークを使用した単体テスト実行時に、業務日付をシステムプロパティ設定による上書き実行が実施できないため、コマンド実行で確認</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テスティングフレームワークを使用した単体テスト実行時に、業務日付をシステムプロパティ設定による上書き実行が実施できないため、コマンド実行で確認</t>
+    <t>TIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testNormalEnd</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9626,95 +9619,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9815,6 +9724,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9823,9 +9819,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10897,12 +10890,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="180" t="str">
+      <c r="I25" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -11462,57 +11455,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="216" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="188" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="225" t="s">
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="234" t="s">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="s">
         <v>517</v>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="210" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="184" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="219" t="str">
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="191" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="220"/>
-      <c r="AI1" s="221"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="193"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -11520,53 +11513,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="216" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="188" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="210" t="s">
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="222" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="219" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="191" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="221"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="193"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -11574,45 +11567,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="216" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="188" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="219"/>
-      <c r="AH3" s="220"/>
-      <c r="AI3" s="221"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="185"/>
+      <c r="AF3" s="186"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="192"/>
+      <c r="AI3" s="193"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -11649,1181 +11642,1020 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="194" t="s">
+      <c r="C7" s="216"/>
+      <c r="D7" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="196"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="194" t="s">
+      <c r="E7" s="217"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="194" t="s">
+      <c r="H7" s="217"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="194" t="s">
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="196"/>
-      <c r="S7" s="196"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196"/>
-      <c r="Y7" s="196"/>
-      <c r="Z7" s="196"/>
-      <c r="AA7" s="196"/>
-      <c r="AB7" s="196"/>
-      <c r="AC7" s="196"/>
-      <c r="AD7" s="196"/>
-      <c r="AE7" s="195"/>
-      <c r="AF7" s="194" t="s">
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="217"/>
+      <c r="U7" s="217"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="217"/>
+      <c r="X7" s="217"/>
+      <c r="Y7" s="217"/>
+      <c r="Z7" s="217"/>
+      <c r="AA7" s="217"/>
+      <c r="AB7" s="217"/>
+      <c r="AC7" s="217"/>
+      <c r="AD7" s="217"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="196"/>
-      <c r="AH7" s="196"/>
-      <c r="AI7" s="195"/>
+      <c r="AG7" s="217"/>
+      <c r="AH7" s="217"/>
+      <c r="AI7" s="216"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="205"/>
-      <c r="O8" s="205"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="208"/>
-      <c r="S8" s="208"/>
-      <c r="T8" s="208"/>
-      <c r="U8" s="208"/>
-      <c r="V8" s="208"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="208"/>
-      <c r="AB8" s="208"/>
-      <c r="AC8" s="208"/>
-      <c r="AD8" s="208"/>
-      <c r="AE8" s="209"/>
-      <c r="AF8" s="204"/>
-      <c r="AG8" s="205"/>
-      <c r="AH8" s="205"/>
-      <c r="AI8" s="206"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="226"/>
+      <c r="N8" s="226"/>
+      <c r="O8" s="226"/>
+      <c r="P8" s="227"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="229"/>
+      <c r="AE8" s="230"/>
+      <c r="AF8" s="225"/>
+      <c r="AG8" s="226"/>
+      <c r="AH8" s="226"/>
+      <c r="AI8" s="227"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="192"/>
-      <c r="AF9" s="187"/>
-      <c r="AG9" s="188"/>
-      <c r="AH9" s="188"/>
-      <c r="AI9" s="189"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
+      <c r="V9" s="241"/>
+      <c r="W9" s="241"/>
+      <c r="X9" s="241"/>
+      <c r="Y9" s="241"/>
+      <c r="Z9" s="241"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
+      <c r="AD9" s="241"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="237"/>
+      <c r="AG9" s="238"/>
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="239"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="192"/>
-      <c r="AF10" s="187"/>
-      <c r="AG10" s="188"/>
-      <c r="AH10" s="188"/>
-      <c r="AI10" s="189"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="239"/>
+      <c r="Q10" s="240"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="241"/>
+      <c r="Y10" s="241"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="241"/>
+      <c r="AC10" s="241"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="242"/>
+      <c r="AF10" s="237"/>
+      <c r="AG10" s="238"/>
+      <c r="AH10" s="238"/>
+      <c r="AI10" s="239"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="188"/>
-      <c r="O11" s="188"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="191"/>
-      <c r="T11" s="191"/>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="191"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
-      <c r="AD11" s="191"/>
-      <c r="AE11" s="192"/>
-      <c r="AF11" s="187"/>
-      <c r="AG11" s="188"/>
-      <c r="AH11" s="188"/>
-      <c r="AI11" s="189"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
+      <c r="U11" s="241"/>
+      <c r="V11" s="241"/>
+      <c r="W11" s="241"/>
+      <c r="X11" s="241"/>
+      <c r="Y11" s="241"/>
+      <c r="Z11" s="241"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="241"/>
+      <c r="AD11" s="241"/>
+      <c r="AE11" s="242"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="238"/>
+      <c r="AH11" s="238"/>
+      <c r="AI11" s="239"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="190"/>
-      <c r="R12" s="191"/>
-      <c r="S12" s="191"/>
-      <c r="T12" s="191"/>
-      <c r="U12" s="191"/>
-      <c r="V12" s="191"/>
-      <c r="W12" s="191"/>
-      <c r="X12" s="191"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="192"/>
-      <c r="AF12" s="187"/>
-      <c r="AG12" s="188"/>
-      <c r="AH12" s="188"/>
-      <c r="AI12" s="189"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="241"/>
+      <c r="S12" s="241"/>
+      <c r="T12" s="241"/>
+      <c r="U12" s="241"/>
+      <c r="V12" s="241"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="241"/>
+      <c r="Y12" s="241"/>
+      <c r="Z12" s="241"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="241"/>
+      <c r="AD12" s="241"/>
+      <c r="AE12" s="242"/>
+      <c r="AF12" s="237"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="238"/>
+      <c r="AI12" s="239"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191"/>
-      <c r="T13" s="191"/>
-      <c r="U13" s="191"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="191"/>
-      <c r="AA13" s="191"/>
-      <c r="AB13" s="191"/>
-      <c r="AC13" s="191"/>
-      <c r="AD13" s="191"/>
-      <c r="AE13" s="192"/>
-      <c r="AF13" s="187"/>
-      <c r="AG13" s="188"/>
-      <c r="AH13" s="188"/>
-      <c r="AI13" s="189"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="238"/>
+      <c r="O13" s="238"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="241"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="237"/>
+      <c r="AG13" s="238"/>
+      <c r="AH13" s="238"/>
+      <c r="AI13" s="239"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="191"/>
-      <c r="AD14" s="191"/>
-      <c r="AE14" s="192"/>
-      <c r="AF14" s="187"/>
-      <c r="AG14" s="188"/>
-      <c r="AH14" s="188"/>
-      <c r="AI14" s="189"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="239"/>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="241"/>
+      <c r="S14" s="241"/>
+      <c r="T14" s="241"/>
+      <c r="U14" s="241"/>
+      <c r="V14" s="241"/>
+      <c r="W14" s="241"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="241"/>
+      <c r="Z14" s="241"/>
+      <c r="AA14" s="241"/>
+      <c r="AB14" s="241"/>
+      <c r="AC14" s="241"/>
+      <c r="AD14" s="241"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="237"/>
+      <c r="AG14" s="238"/>
+      <c r="AH14" s="238"/>
+      <c r="AI14" s="239"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="191"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="191"/>
-      <c r="AE15" s="192"/>
-      <c r="AF15" s="187"/>
-      <c r="AG15" s="188"/>
-      <c r="AH15" s="188"/>
-      <c r="AI15" s="189"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="236"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="239"/>
+      <c r="Q15" s="240"/>
+      <c r="R15" s="241"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="241"/>
+      <c r="U15" s="241"/>
+      <c r="V15" s="241"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="241"/>
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
+      <c r="AD15" s="241"/>
+      <c r="AE15" s="242"/>
+      <c r="AF15" s="237"/>
+      <c r="AG15" s="238"/>
+      <c r="AH15" s="238"/>
+      <c r="AI15" s="239"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="181"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="188"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="191"/>
-      <c r="AB16" s="191"/>
-      <c r="AC16" s="191"/>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="192"/>
-      <c r="AF16" s="187"/>
-      <c r="AG16" s="188"/>
-      <c r="AH16" s="188"/>
-      <c r="AI16" s="189"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="238"/>
+      <c r="P16" s="239"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="241"/>
+      <c r="S16" s="241"/>
+      <c r="T16" s="241"/>
+      <c r="U16" s="241"/>
+      <c r="V16" s="241"/>
+      <c r="W16" s="241"/>
+      <c r="X16" s="241"/>
+      <c r="Y16" s="241"/>
+      <c r="Z16" s="241"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
+      <c r="AD16" s="241"/>
+      <c r="AE16" s="242"/>
+      <c r="AF16" s="237"/>
+      <c r="AG16" s="238"/>
+      <c r="AH16" s="238"/>
+      <c r="AI16" s="239"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="190"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="191"/>
-      <c r="AB17" s="191"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="191"/>
-      <c r="AE17" s="192"/>
-      <c r="AF17" s="187"/>
-      <c r="AG17" s="188"/>
-      <c r="AH17" s="188"/>
-      <c r="AI17" s="189"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="238"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="239"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="241"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="241"/>
+      <c r="X17" s="241"/>
+      <c r="Y17" s="241"/>
+      <c r="Z17" s="241"/>
+      <c r="AA17" s="241"/>
+      <c r="AB17" s="241"/>
+      <c r="AC17" s="241"/>
+      <c r="AD17" s="241"/>
+      <c r="AE17" s="242"/>
+      <c r="AF17" s="237"/>
+      <c r="AG17" s="238"/>
+      <c r="AH17" s="238"/>
+      <c r="AI17" s="239"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="188"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="190"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="191"/>
-      <c r="AB18" s="191"/>
-      <c r="AC18" s="191"/>
-      <c r="AD18" s="191"/>
-      <c r="AE18" s="192"/>
-      <c r="AF18" s="187"/>
-      <c r="AG18" s="188"/>
-      <c r="AH18" s="188"/>
-      <c r="AI18" s="189"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="238"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="241"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="241"/>
+      <c r="V18" s="241"/>
+      <c r="W18" s="241"/>
+      <c r="X18" s="241"/>
+      <c r="Y18" s="241"/>
+      <c r="Z18" s="241"/>
+      <c r="AA18" s="241"/>
+      <c r="AB18" s="241"/>
+      <c r="AC18" s="241"/>
+      <c r="AD18" s="241"/>
+      <c r="AE18" s="242"/>
+      <c r="AF18" s="237"/>
+      <c r="AG18" s="238"/>
+      <c r="AH18" s="238"/>
+      <c r="AI18" s="239"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="189"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="191"/>
-      <c r="Z19" s="191"/>
-      <c r="AA19" s="191"/>
-      <c r="AB19" s="191"/>
-      <c r="AC19" s="191"/>
-      <c r="AD19" s="191"/>
-      <c r="AE19" s="192"/>
-      <c r="AF19" s="187"/>
-      <c r="AG19" s="188"/>
-      <c r="AH19" s="188"/>
-      <c r="AI19" s="189"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="238"/>
+      <c r="O19" s="238"/>
+      <c r="P19" s="239"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="241"/>
+      <c r="S19" s="241"/>
+      <c r="T19" s="241"/>
+      <c r="U19" s="241"/>
+      <c r="V19" s="241"/>
+      <c r="W19" s="241"/>
+      <c r="X19" s="241"/>
+      <c r="Y19" s="241"/>
+      <c r="Z19" s="241"/>
+      <c r="AA19" s="241"/>
+      <c r="AB19" s="241"/>
+      <c r="AC19" s="241"/>
+      <c r="AD19" s="241"/>
+      <c r="AE19" s="242"/>
+      <c r="AF19" s="237"/>
+      <c r="AG19" s="238"/>
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="239"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="191"/>
-      <c r="S20" s="191"/>
-      <c r="T20" s="191"/>
-      <c r="U20" s="191"/>
-      <c r="V20" s="191"/>
-      <c r="W20" s="191"/>
-      <c r="X20" s="191"/>
-      <c r="Y20" s="191"/>
-      <c r="Z20" s="191"/>
-      <c r="AA20" s="191"/>
-      <c r="AB20" s="191"/>
-      <c r="AC20" s="191"/>
-      <c r="AD20" s="191"/>
-      <c r="AE20" s="192"/>
-      <c r="AF20" s="187"/>
-      <c r="AG20" s="188"/>
-      <c r="AH20" s="188"/>
-      <c r="AI20" s="189"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="240"/>
+      <c r="R20" s="241"/>
+      <c r="S20" s="241"/>
+      <c r="T20" s="241"/>
+      <c r="U20" s="241"/>
+      <c r="V20" s="241"/>
+      <c r="W20" s="241"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="241"/>
+      <c r="Z20" s="241"/>
+      <c r="AA20" s="241"/>
+      <c r="AB20" s="241"/>
+      <c r="AC20" s="241"/>
+      <c r="AD20" s="241"/>
+      <c r="AE20" s="242"/>
+      <c r="AF20" s="237"/>
+      <c r="AG20" s="238"/>
+      <c r="AH20" s="238"/>
+      <c r="AI20" s="239"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="191"/>
-      <c r="S21" s="191"/>
-      <c r="T21" s="191"/>
-      <c r="U21" s="191"/>
-      <c r="V21" s="191"/>
-      <c r="W21" s="191"/>
-      <c r="X21" s="191"/>
-      <c r="Y21" s="191"/>
-      <c r="Z21" s="191"/>
-      <c r="AA21" s="191"/>
-      <c r="AB21" s="191"/>
-      <c r="AC21" s="191"/>
-      <c r="AD21" s="191"/>
-      <c r="AE21" s="192"/>
-      <c r="AF21" s="187"/>
-      <c r="AG21" s="188"/>
-      <c r="AH21" s="188"/>
-      <c r="AI21" s="189"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="238"/>
+      <c r="O21" s="238"/>
+      <c r="P21" s="239"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="241"/>
+      <c r="S21" s="241"/>
+      <c r="T21" s="241"/>
+      <c r="U21" s="241"/>
+      <c r="V21" s="241"/>
+      <c r="W21" s="241"/>
+      <c r="X21" s="241"/>
+      <c r="Y21" s="241"/>
+      <c r="Z21" s="241"/>
+      <c r="AA21" s="241"/>
+      <c r="AB21" s="241"/>
+      <c r="AC21" s="241"/>
+      <c r="AD21" s="241"/>
+      <c r="AE21" s="242"/>
+      <c r="AF21" s="237"/>
+      <c r="AG21" s="238"/>
+      <c r="AH21" s="238"/>
+      <c r="AI21" s="239"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="191"/>
-      <c r="S22" s="191"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="191"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="191"/>
-      <c r="X22" s="191"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="191"/>
-      <c r="AA22" s="191"/>
-      <c r="AB22" s="191"/>
-      <c r="AC22" s="191"/>
-      <c r="AD22" s="191"/>
-      <c r="AE22" s="192"/>
-      <c r="AF22" s="187"/>
-      <c r="AG22" s="188"/>
-      <c r="AH22" s="188"/>
-      <c r="AI22" s="189"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="238"/>
+      <c r="M22" s="238"/>
+      <c r="N22" s="238"/>
+      <c r="O22" s="238"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="240"/>
+      <c r="R22" s="241"/>
+      <c r="S22" s="241"/>
+      <c r="T22" s="241"/>
+      <c r="U22" s="241"/>
+      <c r="V22" s="241"/>
+      <c r="W22" s="241"/>
+      <c r="X22" s="241"/>
+      <c r="Y22" s="241"/>
+      <c r="Z22" s="241"/>
+      <c r="AA22" s="241"/>
+      <c r="AB22" s="241"/>
+      <c r="AC22" s="241"/>
+      <c r="AD22" s="241"/>
+      <c r="AE22" s="242"/>
+      <c r="AF22" s="237"/>
+      <c r="AG22" s="238"/>
+      <c r="AH22" s="238"/>
+      <c r="AI22" s="239"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="190"/>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191"/>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="191"/>
-      <c r="AB23" s="191"/>
-      <c r="AC23" s="191"/>
-      <c r="AD23" s="191"/>
-      <c r="AE23" s="192"/>
-      <c r="AF23" s="187"/>
-      <c r="AG23" s="188"/>
-      <c r="AH23" s="188"/>
-      <c r="AI23" s="189"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="238"/>
+      <c r="M23" s="238"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="241"/>
+      <c r="U23" s="241"/>
+      <c r="V23" s="241"/>
+      <c r="W23" s="241"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="241"/>
+      <c r="AA23" s="241"/>
+      <c r="AB23" s="241"/>
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="241"/>
+      <c r="AE23" s="242"/>
+      <c r="AF23" s="237"/>
+      <c r="AG23" s="238"/>
+      <c r="AH23" s="238"/>
+      <c r="AI23" s="239"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
-      <c r="O24" s="188"/>
-      <c r="P24" s="189"/>
-      <c r="Q24" s="190"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
-      <c r="U24" s="191"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="191"/>
-      <c r="Z24" s="191"/>
-      <c r="AA24" s="191"/>
-      <c r="AB24" s="191"/>
-      <c r="AC24" s="191"/>
-      <c r="AD24" s="191"/>
-      <c r="AE24" s="192"/>
-      <c r="AF24" s="187"/>
-      <c r="AG24" s="188"/>
-      <c r="AH24" s="188"/>
-      <c r="AI24" s="189"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="231"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="239"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="241"/>
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="242"/>
+      <c r="AF24" s="237"/>
+      <c r="AG24" s="238"/>
+      <c r="AH24" s="238"/>
+      <c r="AI24" s="239"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="190"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="191"/>
-      <c r="U25" s="191"/>
-      <c r="V25" s="191"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="191"/>
-      <c r="Y25" s="191"/>
-      <c r="Z25" s="191"/>
-      <c r="AA25" s="191"/>
-      <c r="AB25" s="191"/>
-      <c r="AC25" s="191"/>
-      <c r="AD25" s="191"/>
-      <c r="AE25" s="192"/>
-      <c r="AF25" s="187"/>
-      <c r="AG25" s="188"/>
-      <c r="AH25" s="188"/>
-      <c r="AI25" s="189"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="239"/>
+      <c r="Q25" s="240"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="241"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="241"/>
+      <c r="AB25" s="241"/>
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="242"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="238"/>
+      <c r="AH25" s="238"/>
+      <c r="AI25" s="239"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="188"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="191"/>
-      <c r="S26" s="191"/>
-      <c r="T26" s="191"/>
-      <c r="U26" s="191"/>
-      <c r="V26" s="191"/>
-      <c r="W26" s="191"/>
-      <c r="X26" s="191"/>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191"/>
-      <c r="AA26" s="191"/>
-      <c r="AB26" s="191"/>
-      <c r="AC26" s="191"/>
-      <c r="AD26" s="191"/>
-      <c r="AE26" s="192"/>
-      <c r="AF26" s="187"/>
-      <c r="AG26" s="188"/>
-      <c r="AH26" s="188"/>
-      <c r="AI26" s="189"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="239"/>
+      <c r="Q26" s="240"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="241"/>
+      <c r="Z26" s="241"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="241"/>
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="241"/>
+      <c r="AE26" s="242"/>
+      <c r="AF26" s="237"/>
+      <c r="AG26" s="238"/>
+      <c r="AH26" s="238"/>
+      <c r="AI26" s="239"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="181"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="189"/>
-      <c r="Q27" s="190"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="191"/>
-      <c r="T27" s="191"/>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="191"/>
-      <c r="AB27" s="191"/>
-      <c r="AC27" s="191"/>
-      <c r="AD27" s="191"/>
-      <c r="AE27" s="192"/>
-      <c r="AF27" s="187"/>
-      <c r="AG27" s="188"/>
-      <c r="AH27" s="188"/>
-      <c r="AI27" s="189"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="237"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="238"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" s="240"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="241"/>
+      <c r="U27" s="241"/>
+      <c r="V27" s="241"/>
+      <c r="W27" s="241"/>
+      <c r="X27" s="241"/>
+      <c r="Y27" s="241"/>
+      <c r="Z27" s="241"/>
+      <c r="AA27" s="241"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="241"/>
+      <c r="AD27" s="241"/>
+      <c r="AE27" s="242"/>
+      <c r="AF27" s="237"/>
+      <c r="AG27" s="238"/>
+      <c r="AH27" s="238"/>
+      <c r="AI27" s="239"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="188"/>
-      <c r="O28" s="188"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="190"/>
-      <c r="R28" s="191"/>
-      <c r="S28" s="191"/>
-      <c r="T28" s="191"/>
-      <c r="U28" s="191"/>
-      <c r="V28" s="191"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="191"/>
-      <c r="AB28" s="191"/>
-      <c r="AC28" s="191"/>
-      <c r="AD28" s="191"/>
-      <c r="AE28" s="192"/>
-      <c r="AF28" s="187"/>
-      <c r="AG28" s="188"/>
-      <c r="AH28" s="188"/>
-      <c r="AI28" s="189"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="240"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="241"/>
+      <c r="U28" s="241"/>
+      <c r="V28" s="241"/>
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="241"/>
+      <c r="Z28" s="241"/>
+      <c r="AA28" s="241"/>
+      <c r="AB28" s="241"/>
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="241"/>
+      <c r="AE28" s="242"/>
+      <c r="AF28" s="237"/>
+      <c r="AG28" s="238"/>
+      <c r="AH28" s="238"/>
+      <c r="AI28" s="239"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="188"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="190"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="191"/>
-      <c r="U29" s="191"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="191"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="191"/>
-      <c r="AB29" s="191"/>
-      <c r="AC29" s="191"/>
-      <c r="AD29" s="191"/>
-      <c r="AE29" s="192"/>
-      <c r="AF29" s="187"/>
-      <c r="AG29" s="188"/>
-      <c r="AH29" s="188"/>
-      <c r="AI29" s="189"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="238"/>
+      <c r="N29" s="238"/>
+      <c r="O29" s="238"/>
+      <c r="P29" s="239"/>
+      <c r="Q29" s="240"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="241"/>
+      <c r="T29" s="241"/>
+      <c r="U29" s="241"/>
+      <c r="V29" s="241"/>
+      <c r="W29" s="241"/>
+      <c r="X29" s="241"/>
+      <c r="Y29" s="241"/>
+      <c r="Z29" s="241"/>
+      <c r="AA29" s="241"/>
+      <c r="AB29" s="241"/>
+      <c r="AC29" s="241"/>
+      <c r="AD29" s="241"/>
+      <c r="AE29" s="242"/>
+      <c r="AF29" s="237"/>
+      <c r="AG29" s="238"/>
+      <c r="AH29" s="238"/>
+      <c r="AI29" s="239"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188"/>
-      <c r="N30" s="188"/>
-      <c r="O30" s="188"/>
-      <c r="P30" s="189"/>
-      <c r="Q30" s="190"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="191"/>
-      <c r="T30" s="191"/>
-      <c r="U30" s="191"/>
-      <c r="V30" s="191"/>
-      <c r="W30" s="191"/>
-      <c r="X30" s="191"/>
-      <c r="Y30" s="191"/>
-      <c r="Z30" s="191"/>
-      <c r="AA30" s="191"/>
-      <c r="AB30" s="191"/>
-      <c r="AC30" s="191"/>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="192"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="188"/>
-      <c r="AH30" s="188"/>
-      <c r="AI30" s="189"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="237"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="238"/>
+      <c r="M30" s="238"/>
+      <c r="N30" s="238"/>
+      <c r="O30" s="238"/>
+      <c r="P30" s="239"/>
+      <c r="Q30" s="240"/>
+      <c r="R30" s="241"/>
+      <c r="S30" s="241"/>
+      <c r="T30" s="241"/>
+      <c r="U30" s="241"/>
+      <c r="V30" s="241"/>
+      <c r="W30" s="241"/>
+      <c r="X30" s="241"/>
+      <c r="Y30" s="241"/>
+      <c r="Z30" s="241"/>
+      <c r="AA30" s="241"/>
+      <c r="AB30" s="241"/>
+      <c r="AC30" s="241"/>
+      <c r="AD30" s="241"/>
+      <c r="AE30" s="242"/>
+      <c r="AF30" s="237"/>
+      <c r="AG30" s="238"/>
+      <c r="AH30" s="238"/>
+      <c r="AI30" s="239"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="188"/>
-      <c r="O31" s="188"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="190"/>
-      <c r="R31" s="191"/>
-      <c r="S31" s="191"/>
-      <c r="T31" s="191"/>
-      <c r="U31" s="191"/>
-      <c r="V31" s="191"/>
-      <c r="W31" s="191"/>
-      <c r="X31" s="191"/>
-      <c r="Y31" s="191"/>
-      <c r="Z31" s="191"/>
-      <c r="AA31" s="191"/>
-      <c r="AB31" s="191"/>
-      <c r="AC31" s="191"/>
-      <c r="AD31" s="191"/>
-      <c r="AE31" s="192"/>
-      <c r="AF31" s="187"/>
-      <c r="AG31" s="188"/>
-      <c r="AH31" s="188"/>
-      <c r="AI31" s="189"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="237"/>
+      <c r="K31" s="238"/>
+      <c r="L31" s="238"/>
+      <c r="M31" s="238"/>
+      <c r="N31" s="238"/>
+      <c r="O31" s="238"/>
+      <c r="P31" s="239"/>
+      <c r="Q31" s="240"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
+      <c r="U31" s="241"/>
+      <c r="V31" s="241"/>
+      <c r="W31" s="241"/>
+      <c r="X31" s="241"/>
+      <c r="Y31" s="241"/>
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="241"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="241"/>
+      <c r="AE31" s="242"/>
+      <c r="AF31" s="237"/>
+      <c r="AG31" s="238"/>
+      <c r="AH31" s="238"/>
+      <c r="AI31" s="239"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="181"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="188"/>
-      <c r="O32" s="188"/>
-      <c r="P32" s="189"/>
-      <c r="Q32" s="190"/>
-      <c r="R32" s="191"/>
-      <c r="S32" s="191"/>
-      <c r="T32" s="191"/>
-      <c r="U32" s="191"/>
-      <c r="V32" s="191"/>
-      <c r="W32" s="191"/>
-      <c r="X32" s="191"/>
-      <c r="Y32" s="191"/>
-      <c r="Z32" s="191"/>
-      <c r="AA32" s="191"/>
-      <c r="AB32" s="191"/>
-      <c r="AC32" s="191"/>
-      <c r="AD32" s="191"/>
-      <c r="AE32" s="192"/>
-      <c r="AF32" s="187"/>
-      <c r="AG32" s="188"/>
-      <c r="AH32" s="188"/>
-      <c r="AI32" s="189"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="237"/>
+      <c r="K32" s="243"/>
+      <c r="L32" s="238"/>
+      <c r="M32" s="238"/>
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="239"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
+      <c r="W32" s="241"/>
+      <c r="X32" s="241"/>
+      <c r="Y32" s="241"/>
+      <c r="Z32" s="241"/>
+      <c r="AA32" s="241"/>
+      <c r="AB32" s="241"/>
+      <c r="AC32" s="241"/>
+      <c r="AD32" s="241"/>
+      <c r="AE32" s="242"/>
+      <c r="AF32" s="237"/>
+      <c r="AG32" s="238"/>
+      <c r="AH32" s="238"/>
+      <c r="AI32" s="239"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="188"/>
-      <c r="O33" s="188"/>
-      <c r="P33" s="189"/>
-      <c r="Q33" s="190"/>
-      <c r="R33" s="191"/>
-      <c r="S33" s="191"/>
-      <c r="T33" s="191"/>
-      <c r="U33" s="191"/>
-      <c r="V33" s="191"/>
-      <c r="W33" s="191"/>
-      <c r="X33" s="191"/>
-      <c r="Y33" s="191"/>
-      <c r="Z33" s="191"/>
-      <c r="AA33" s="191"/>
-      <c r="AB33" s="191"/>
-      <c r="AC33" s="191"/>
-      <c r="AD33" s="191"/>
-      <c r="AE33" s="192"/>
-      <c r="AF33" s="187"/>
-      <c r="AG33" s="188"/>
-      <c r="AH33" s="188"/>
-      <c r="AI33" s="189"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="238"/>
+      <c r="L33" s="238"/>
+      <c r="M33" s="238"/>
+      <c r="N33" s="238"/>
+      <c r="O33" s="238"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="240"/>
+      <c r="R33" s="241"/>
+      <c r="S33" s="241"/>
+      <c r="T33" s="241"/>
+      <c r="U33" s="241"/>
+      <c r="V33" s="241"/>
+      <c r="W33" s="241"/>
+      <c r="X33" s="241"/>
+      <c r="Y33" s="241"/>
+      <c r="Z33" s="241"/>
+      <c r="AA33" s="241"/>
+      <c r="AB33" s="241"/>
+      <c r="AC33" s="241"/>
+      <c r="AD33" s="241"/>
+      <c r="AE33" s="242"/>
+      <c r="AF33" s="237"/>
+      <c r="AG33" s="238"/>
+      <c r="AH33" s="238"/>
+      <c r="AI33" s="239"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12842,6 +12674,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -16595,7 +16588,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="243" t="s">
+      <c r="B112" s="244" t="s">
         <v>221</v>
       </c>
       <c r="C112" s="56"/>
@@ -16631,7 +16624,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="243"/>
+      <c r="B113" s="244"/>
       <c r="C113" s="56"/>
       <c r="D113" s="44"/>
       <c r="E113" s="82"/>
@@ -17303,7 +17296,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="243" t="s">
+      <c r="B132" s="244" t="s">
         <v>250</v>
       </c>
       <c r="C132" s="56"/>
@@ -17339,7 +17332,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="243"/>
+      <c r="B133" s="244"/>
       <c r="C133" s="56"/>
       <c r="D133" s="44"/>
       <c r="E133" s="44"/>
@@ -24384,19 +24377,19 @@
         <v>534</v>
       </c>
       <c r="L42" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M42" s="62">
         <v>1</v>
       </c>
       <c r="N42" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O42" s="246">
+        <v>682</v>
+      </c>
+      <c r="O42" s="180">
         <v>44854</v>
       </c>
       <c r="P42" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q42" s="122"/>
       <c r="R42" s="61"/>
@@ -24433,19 +24426,19 @@
         <v>534</v>
       </c>
       <c r="L43" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M43" s="62">
         <v>2</v>
       </c>
       <c r="N43" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O43" s="246">
+        <v>682</v>
+      </c>
+      <c r="O43" s="180">
         <v>44854</v>
       </c>
       <c r="P43" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q43" s="122"/>
       <c r="R43" s="61"/>
@@ -24484,19 +24477,19 @@
         <v>537</v>
       </c>
       <c r="L44" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M44" s="62">
         <v>3</v>
       </c>
       <c r="N44" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O44" s="246">
+        <v>682</v>
+      </c>
+      <c r="O44" s="180">
         <v>44854</v>
       </c>
       <c r="P44" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q44" s="122"/>
       <c r="R44" s="61"/>
@@ -24533,19 +24526,19 @@
         <v>537</v>
       </c>
       <c r="L45" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M45" s="62">
         <v>4</v>
       </c>
       <c r="N45" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O45" s="246">
+        <v>682</v>
+      </c>
+      <c r="O45" s="180">
         <v>44854</v>
       </c>
       <c r="P45" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q45" s="122"/>
       <c r="R45" s="61"/>
@@ -25801,19 +25794,19 @@
         <v>550</v>
       </c>
       <c r="L80" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M80" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="N80" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O80" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P80" s="62" t="s">
         <v>678</v>
-      </c>
-      <c r="M80" s="62" t="s">
-        <v>681</v>
-      </c>
-      <c r="N80" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O80" s="246">
-        <v>44854</v>
-      </c>
-      <c r="P80" s="62" t="s">
-        <v>680</v>
       </c>
       <c r="Q80" s="122"/>
       <c r="R80" s="61"/>
@@ -25849,19 +25842,19 @@
         <v>552</v>
       </c>
       <c r="L81" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M81" s="62">
         <v>5</v>
       </c>
       <c r="N81" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O81" s="246">
+        <v>682</v>
+      </c>
+      <c r="O81" s="180">
         <v>44854</v>
       </c>
       <c r="P81" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q81" s="122"/>
       <c r="R81" s="61"/>
@@ -25900,19 +25893,19 @@
         <v>555</v>
       </c>
       <c r="L82" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M82" s="62" t="s">
+        <v>680</v>
+      </c>
+      <c r="N82" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O82" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P82" s="62" t="s">
         <v>678</v>
-      </c>
-      <c r="M82" s="62" t="s">
-        <v>682</v>
-      </c>
-      <c r="N82" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O82" s="246">
-        <v>44854</v>
-      </c>
-      <c r="P82" s="62" t="s">
-        <v>680</v>
       </c>
       <c r="Q82" s="122"/>
       <c r="R82" s="61"/>
@@ -25953,19 +25946,19 @@
         <v>677</v>
       </c>
       <c r="L83" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M83" s="62">
         <v>5</v>
       </c>
       <c r="N83" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O83" s="246">
+        <v>682</v>
+      </c>
+      <c r="O83" s="180">
         <v>44854</v>
       </c>
       <c r="P83" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q83" s="140"/>
       <c r="R83" s="139"/>
@@ -26078,19 +26071,19 @@
         <v>560</v>
       </c>
       <c r="L86" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M86" s="62">
         <v>5</v>
       </c>
       <c r="N86" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O86" s="246">
+        <v>682</v>
+      </c>
+      <c r="O86" s="180">
         <v>44854</v>
       </c>
       <c r="P86" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q86" s="122"/>
       <c r="R86" s="61"/>
@@ -27156,7 +27149,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B115" s="244" t="s">
+      <c r="B115" s="245" t="s">
         <v>492</v>
       </c>
       <c r="C115" s="108"/>
@@ -27193,7 +27186,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B116" s="244"/>
+      <c r="B116" s="245"/>
       <c r="C116" s="108"/>
       <c r="D116" s="103"/>
       <c r="E116" s="132"/>
@@ -27870,19 +27863,19 @@
         <v>570</v>
       </c>
       <c r="L134" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M134" s="62">
         <v>5</v>
       </c>
       <c r="N134" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O134" s="246">
+        <v>682</v>
+      </c>
+      <c r="O134" s="180">
         <v>44854</v>
       </c>
       <c r="P134" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q134" s="122"/>
       <c r="R134" s="61"/>
@@ -27900,7 +27893,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B135" s="245" t="s">
+      <c r="B135" s="246" t="s">
         <v>250</v>
       </c>
       <c r="C135" s="123"/>
@@ -27923,19 +27916,19 @@
         <v>569</v>
       </c>
       <c r="L135" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M135" s="62">
         <v>5</v>
       </c>
       <c r="N135" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O135" s="246">
+        <v>682</v>
+      </c>
+      <c r="O135" s="180">
         <v>44854</v>
       </c>
       <c r="P135" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q135" s="140"/>
       <c r="R135" s="139"/>
@@ -27953,7 +27946,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B136" s="245"/>
+      <c r="B136" s="246"/>
       <c r="C136" s="123"/>
       <c r="D136" s="118"/>
       <c r="E136" s="123"/>
@@ -28161,19 +28154,19 @@
         <v>580</v>
       </c>
       <c r="L141" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M141" s="62">
         <v>5</v>
       </c>
       <c r="N141" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O141" s="246">
+        <v>682</v>
+      </c>
+      <c r="O141" s="180">
         <v>44854</v>
       </c>
       <c r="P141" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q141" s="140"/>
       <c r="R141" s="139"/>
@@ -28214,19 +28207,19 @@
         <v>581</v>
       </c>
       <c r="L142" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M142" s="62">
         <v>5</v>
       </c>
       <c r="N142" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O142" s="246">
+        <v>682</v>
+      </c>
+      <c r="O142" s="180">
         <v>44854</v>
       </c>
       <c r="P142" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q142" s="140"/>
       <c r="R142" s="139"/>
@@ -28267,19 +28260,19 @@
         <v>582</v>
       </c>
       <c r="L143" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M143" s="62">
         <v>5</v>
       </c>
       <c r="N143" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O143" s="246">
+        <v>682</v>
+      </c>
+      <c r="O143" s="180">
         <v>44854</v>
       </c>
       <c r="P143" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q143" s="140"/>
       <c r="R143" s="139"/>
@@ -28357,19 +28350,19 @@
         <v>584</v>
       </c>
       <c r="L145" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M145" s="62">
         <v>5</v>
       </c>
       <c r="N145" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O145" s="246">
+        <v>682</v>
+      </c>
+      <c r="O145" s="180">
         <v>44854</v>
       </c>
       <c r="P145" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q145" s="140"/>
       <c r="R145" s="139"/>
@@ -28624,19 +28617,19 @@
         <v>587</v>
       </c>
       <c r="L152" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M152" s="62">
         <v>5</v>
       </c>
       <c r="N152" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O152" s="246">
+        <v>682</v>
+      </c>
+      <c r="O152" s="180">
         <v>44854</v>
       </c>
       <c r="P152" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q152" s="140"/>
       <c r="R152" s="139"/>
@@ -28673,19 +28666,19 @@
         <v>589</v>
       </c>
       <c r="L153" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M153" s="62">
         <v>5</v>
       </c>
       <c r="N153" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O153" s="246">
+        <v>682</v>
+      </c>
+      <c r="O153" s="180">
         <v>44854</v>
       </c>
       <c r="P153" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q153" s="140"/>
       <c r="R153" s="139"/>
@@ -28722,19 +28715,19 @@
         <v>591</v>
       </c>
       <c r="L154" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M154" s="62">
         <v>5</v>
       </c>
       <c r="N154" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O154" s="246">
+        <v>682</v>
+      </c>
+      <c r="O154" s="180">
         <v>44854</v>
       </c>
       <c r="P154" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q154" s="140"/>
       <c r="R154" s="139"/>
@@ -28771,19 +28764,19 @@
         <v>593</v>
       </c>
       <c r="L155" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M155" s="62">
         <v>5</v>
       </c>
       <c r="N155" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O155" s="246">
+        <v>682</v>
+      </c>
+      <c r="O155" s="180">
         <v>44854</v>
       </c>
       <c r="P155" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q155" s="140"/>
       <c r="R155" s="139"/>
@@ -28820,19 +28813,19 @@
         <v>595</v>
       </c>
       <c r="L156" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M156" s="62">
         <v>5</v>
       </c>
       <c r="N156" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O156" s="246">
+        <v>682</v>
+      </c>
+      <c r="O156" s="180">
         <v>44854</v>
       </c>
       <c r="P156" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q156" s="140"/>
       <c r="R156" s="139"/>
@@ -28869,19 +28862,19 @@
         <v>597</v>
       </c>
       <c r="L157" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M157" s="62">
         <v>5</v>
       </c>
       <c r="N157" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O157" s="246">
+        <v>682</v>
+      </c>
+      <c r="O157" s="180">
         <v>44854</v>
       </c>
       <c r="P157" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q157" s="140"/>
       <c r="R157" s="139"/>
@@ -28918,19 +28911,19 @@
         <v>599</v>
       </c>
       <c r="L158" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M158" s="62">
         <v>5</v>
       </c>
       <c r="N158" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O158" s="246">
+        <v>682</v>
+      </c>
+      <c r="O158" s="180">
         <v>44854</v>
       </c>
       <c r="P158" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q158" s="140"/>
       <c r="R158" s="139"/>
@@ -28967,19 +28960,19 @@
         <v>601</v>
       </c>
       <c r="L159" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M159" s="62">
         <v>5</v>
       </c>
       <c r="N159" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O159" s="246">
+        <v>682</v>
+      </c>
+      <c r="O159" s="180">
         <v>44854</v>
       </c>
       <c r="P159" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q159" s="140"/>
       <c r="R159" s="139"/>
@@ -29016,19 +29009,19 @@
         <v>603</v>
       </c>
       <c r="L160" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M160" s="62">
         <v>5</v>
       </c>
       <c r="N160" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O160" s="246">
+        <v>682</v>
+      </c>
+      <c r="O160" s="180">
         <v>44854</v>
       </c>
       <c r="P160" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q160" s="140"/>
       <c r="R160" s="139"/>
@@ -29065,19 +29058,19 @@
         <v>605</v>
       </c>
       <c r="L161" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M161" s="62">
         <v>5</v>
       </c>
       <c r="N161" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O161" s="246">
+        <v>682</v>
+      </c>
+      <c r="O161" s="180">
         <v>44854</v>
       </c>
       <c r="P161" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q161" s="140"/>
       <c r="R161" s="139"/>
@@ -29114,19 +29107,19 @@
         <v>607</v>
       </c>
       <c r="L162" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M162" s="62">
         <v>5</v>
       </c>
       <c r="N162" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O162" s="246">
+        <v>682</v>
+      </c>
+      <c r="O162" s="180">
         <v>44854</v>
       </c>
       <c r="P162" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q162" s="140"/>
       <c r="R162" s="139"/>
@@ -29163,19 +29156,19 @@
         <v>609</v>
       </c>
       <c r="L163" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M163" s="62">
         <v>5</v>
       </c>
       <c r="N163" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O163" s="246">
+        <v>682</v>
+      </c>
+      <c r="O163" s="180">
         <v>44854</v>
       </c>
       <c r="P163" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q163" s="140"/>
       <c r="R163" s="139"/>
@@ -29212,19 +29205,19 @@
         <v>611</v>
       </c>
       <c r="L164" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M164" s="62">
         <v>5</v>
       </c>
       <c r="N164" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O164" s="246">
+        <v>682</v>
+      </c>
+      <c r="O164" s="180">
         <v>44854</v>
       </c>
       <c r="P164" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q164" s="140"/>
       <c r="R164" s="139"/>
@@ -29687,19 +29680,19 @@
         <v>617</v>
       </c>
       <c r="L177" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M177" s="62">
         <v>5</v>
       </c>
       <c r="N177" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O177" s="246">
+        <v>682</v>
+      </c>
+      <c r="O177" s="180">
         <v>44854</v>
       </c>
       <c r="P177" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q177" s="140"/>
       <c r="R177" s="139"/>
@@ -29736,19 +29729,19 @@
         <v>619</v>
       </c>
       <c r="L178" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M178" s="62">
         <v>5</v>
       </c>
       <c r="N178" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O178" s="246">
+        <v>682</v>
+      </c>
+      <c r="O178" s="180">
         <v>44854</v>
       </c>
       <c r="P178" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q178" s="140"/>
       <c r="R178" s="139"/>
@@ -29785,19 +29778,19 @@
         <v>621</v>
       </c>
       <c r="L179" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M179" s="62">
         <v>5</v>
       </c>
       <c r="N179" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O179" s="246">
+        <v>682</v>
+      </c>
+      <c r="O179" s="180">
         <v>44854</v>
       </c>
       <c r="P179" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q179" s="140"/>
       <c r="R179" s="139"/>
@@ -29834,19 +29827,19 @@
         <v>593</v>
       </c>
       <c r="L180" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M180" s="62">
         <v>5</v>
       </c>
       <c r="N180" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O180" s="246">
+        <v>682</v>
+      </c>
+      <c r="O180" s="180">
         <v>44854</v>
       </c>
       <c r="P180" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q180" s="140"/>
       <c r="R180" s="139"/>
@@ -29883,19 +29876,19 @@
         <v>624</v>
       </c>
       <c r="L181" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M181" s="62">
         <v>8</v>
       </c>
       <c r="N181" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O181" s="246">
+        <v>682</v>
+      </c>
+      <c r="O181" s="180">
         <v>44854</v>
       </c>
       <c r="P181" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q181" s="140"/>
       <c r="R181" s="139"/>
@@ -29932,19 +29925,19 @@
         <v>626</v>
       </c>
       <c r="L182" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M182" s="62">
         <v>8</v>
       </c>
       <c r="N182" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O182" s="246">
+        <v>682</v>
+      </c>
+      <c r="O182" s="180">
         <v>44854</v>
       </c>
       <c r="P182" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q182" s="140"/>
       <c r="R182" s="139"/>
@@ -29981,19 +29974,19 @@
         <v>599</v>
       </c>
       <c r="L183" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M183" s="62">
         <v>5</v>
       </c>
       <c r="N183" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O183" s="246">
+        <v>682</v>
+      </c>
+      <c r="O183" s="180">
         <v>44854</v>
       </c>
       <c r="P183" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q183" s="140"/>
       <c r="R183" s="139"/>
@@ -30030,19 +30023,19 @@
         <v>629</v>
       </c>
       <c r="L184" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M184" s="62">
         <v>5</v>
       </c>
       <c r="N184" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O184" s="246">
+        <v>682</v>
+      </c>
+      <c r="O184" s="180">
         <v>44854</v>
       </c>
       <c r="P184" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q184" s="140"/>
       <c r="R184" s="139"/>
@@ -30079,19 +30072,19 @@
         <v>603</v>
       </c>
       <c r="L185" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M185" s="62">
         <v>5</v>
       </c>
       <c r="N185" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O185" s="246">
+        <v>682</v>
+      </c>
+      <c r="O185" s="180">
         <v>44854</v>
       </c>
       <c r="P185" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q185" s="140"/>
       <c r="R185" s="139"/>
@@ -30128,19 +30121,19 @@
         <v>605</v>
       </c>
       <c r="L186" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M186" s="62">
         <v>5</v>
       </c>
       <c r="N186" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O186" s="246">
+        <v>682</v>
+      </c>
+      <c r="O186" s="180">
         <v>44854</v>
       </c>
       <c r="P186" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q186" s="140"/>
       <c r="R186" s="139"/>
@@ -30177,19 +30170,19 @@
         <v>633</v>
       </c>
       <c r="L187" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M187" s="62">
         <v>5</v>
       </c>
       <c r="N187" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O187" s="246">
+        <v>682</v>
+      </c>
+      <c r="O187" s="180">
         <v>44854</v>
       </c>
       <c r="P187" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q187" s="140"/>
       <c r="R187" s="139"/>
@@ -30226,19 +30219,19 @@
         <v>609</v>
       </c>
       <c r="L188" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M188" s="62">
         <v>5</v>
       </c>
       <c r="N188" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O188" s="246">
+        <v>682</v>
+      </c>
+      <c r="O188" s="180">
         <v>44854</v>
       </c>
       <c r="P188" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q188" s="140"/>
       <c r="R188" s="139"/>
@@ -30275,19 +30268,19 @@
         <v>611</v>
       </c>
       <c r="L189" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M189" s="62">
         <v>5</v>
       </c>
       <c r="N189" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O189" s="246">
+        <v>682</v>
+      </c>
+      <c r="O189" s="180">
         <v>44854</v>
       </c>
       <c r="P189" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q189" s="140"/>
       <c r="R189" s="139"/>
@@ -30326,19 +30319,19 @@
         <v>617</v>
       </c>
       <c r="L190" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M190" s="62">
         <v>5</v>
       </c>
       <c r="N190" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O190" s="246">
+        <v>682</v>
+      </c>
+      <c r="O190" s="180">
         <v>44854</v>
       </c>
       <c r="P190" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q190" s="140"/>
       <c r="R190" s="139"/>
@@ -30375,19 +30368,19 @@
         <v>619</v>
       </c>
       <c r="L191" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M191" s="62">
         <v>5</v>
       </c>
       <c r="N191" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O191" s="246">
+        <v>682</v>
+      </c>
+      <c r="O191" s="180">
         <v>44854</v>
       </c>
       <c r="P191" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q191" s="140"/>
       <c r="R191" s="139"/>
@@ -30424,19 +30417,19 @@
         <v>621</v>
       </c>
       <c r="L192" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M192" s="62">
         <v>5</v>
       </c>
       <c r="N192" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O192" s="246">
+        <v>682</v>
+      </c>
+      <c r="O192" s="180">
         <v>44854</v>
       </c>
       <c r="P192" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q192" s="140"/>
       <c r="R192" s="139"/>
@@ -30473,19 +30466,19 @@
         <v>593</v>
       </c>
       <c r="L193" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M193" s="62">
         <v>5</v>
       </c>
       <c r="N193" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O193" s="246">
+        <v>682</v>
+      </c>
+      <c r="O193" s="180">
         <v>44854</v>
       </c>
       <c r="P193" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q193" s="140"/>
       <c r="R193" s="139"/>
@@ -30522,19 +30515,19 @@
         <v>624</v>
       </c>
       <c r="L194" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M194" s="62">
         <v>8</v>
       </c>
       <c r="N194" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O194" s="246">
+        <v>682</v>
+      </c>
+      <c r="O194" s="180">
         <v>44854</v>
       </c>
       <c r="P194" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q194" s="140"/>
       <c r="R194" s="139"/>
@@ -30571,19 +30564,19 @@
         <v>626</v>
       </c>
       <c r="L195" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M195" s="62">
         <v>8</v>
       </c>
       <c r="N195" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O195" s="246">
+        <v>682</v>
+      </c>
+      <c r="O195" s="180">
         <v>44854</v>
       </c>
       <c r="P195" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q195" s="140"/>
       <c r="R195" s="139"/>
@@ -30620,19 +30613,19 @@
         <v>599</v>
       </c>
       <c r="L196" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M196" s="62">
         <v>5</v>
       </c>
       <c r="N196" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O196" s="246">
+        <v>682</v>
+      </c>
+      <c r="O196" s="180">
         <v>44854</v>
       </c>
       <c r="P196" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q196" s="140"/>
       <c r="R196" s="139"/>
@@ -30669,19 +30662,19 @@
         <v>629</v>
       </c>
       <c r="L197" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M197" s="62">
         <v>5</v>
       </c>
       <c r="N197" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O197" s="246">
+        <v>682</v>
+      </c>
+      <c r="O197" s="180">
         <v>44854</v>
       </c>
       <c r="P197" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q197" s="140"/>
       <c r="R197" s="139"/>
@@ -30718,19 +30711,19 @@
         <v>603</v>
       </c>
       <c r="L198" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M198" s="62">
         <v>5</v>
       </c>
       <c r="N198" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O198" s="246">
+        <v>682</v>
+      </c>
+      <c r="O198" s="180">
         <v>44854</v>
       </c>
       <c r="P198" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q198" s="140"/>
       <c r="R198" s="139"/>
@@ -30767,19 +30760,19 @@
         <v>605</v>
       </c>
       <c r="L199" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M199" s="62">
         <v>5</v>
       </c>
       <c r="N199" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O199" s="246">
+        <v>682</v>
+      </c>
+      <c r="O199" s="180">
         <v>44854</v>
       </c>
       <c r="P199" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q199" s="140"/>
       <c r="R199" s="139"/>
@@ -30816,19 +30809,19 @@
         <v>645</v>
       </c>
       <c r="L200" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M200" s="62">
         <v>5</v>
       </c>
       <c r="N200" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O200" s="246">
+        <v>682</v>
+      </c>
+      <c r="O200" s="180">
         <v>44854</v>
       </c>
       <c r="P200" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q200" s="140"/>
       <c r="R200" s="139"/>
@@ -30865,19 +30858,19 @@
         <v>647</v>
       </c>
       <c r="L201" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M201" s="62">
         <v>5</v>
       </c>
       <c r="N201" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O201" s="246">
+        <v>682</v>
+      </c>
+      <c r="O201" s="180">
         <v>44854</v>
       </c>
       <c r="P201" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q201" s="140"/>
       <c r="R201" s="139"/>
@@ -30914,19 +30907,19 @@
         <v>611</v>
       </c>
       <c r="L202" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M202" s="62">
         <v>5</v>
       </c>
       <c r="N202" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O202" s="246">
+        <v>682</v>
+      </c>
+      <c r="O202" s="180">
         <v>44854</v>
       </c>
       <c r="P202" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q202" s="140"/>
       <c r="R202" s="139"/>
@@ -30965,19 +30958,19 @@
         <v>645</v>
       </c>
       <c r="L203" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M203" s="62">
         <v>5</v>
       </c>
       <c r="N203" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O203" s="246">
+        <v>682</v>
+      </c>
+      <c r="O203" s="180">
         <v>44854</v>
       </c>
       <c r="P203" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q203" s="140"/>
       <c r="R203" s="139"/>
@@ -31014,19 +31007,19 @@
         <v>647</v>
       </c>
       <c r="L204" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M204" s="62">
         <v>5</v>
       </c>
       <c r="N204" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O204" s="246">
+        <v>682</v>
+      </c>
+      <c r="O204" s="180">
         <v>44854</v>
       </c>
       <c r="P204" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q204" s="140"/>
       <c r="R204" s="139"/>
@@ -31207,19 +31200,19 @@
         <v>552</v>
       </c>
       <c r="L209" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M209" s="62">
         <v>5</v>
       </c>
       <c r="N209" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O209" s="246">
+        <v>682</v>
+      </c>
+      <c r="O209" s="180">
         <v>44854</v>
       </c>
       <c r="P209" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q209" s="140"/>
       <c r="R209" s="139"/>
@@ -31293,19 +31286,19 @@
         <v>552</v>
       </c>
       <c r="L211" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M211" s="62">
         <v>5</v>
       </c>
       <c r="N211" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O211" s="246">
+        <v>682</v>
+      </c>
+      <c r="O211" s="180">
         <v>44854</v>
       </c>
       <c r="P211" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q211" s="140"/>
       <c r="R211" s="139"/>
@@ -31414,19 +31407,19 @@
         <v>555</v>
       </c>
       <c r="L214" s="62" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M214" s="62">
         <v>3</v>
       </c>
       <c r="N214" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O214" s="246">
+        <v>682</v>
+      </c>
+      <c r="O214" s="180">
         <v>44854</v>
       </c>
       <c r="P214" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q214" s="140"/>
       <c r="R214" s="139"/>
@@ -31572,19 +31565,19 @@
         <v>560</v>
       </c>
       <c r="L218" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M218" s="62">
+        <v>5</v>
+      </c>
+      <c r="N218" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O218" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P218" s="62" t="s">
         <v>678</v>
-      </c>
-      <c r="M218" s="62" t="s">
-        <v>683</v>
-      </c>
-      <c r="N218" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O218" s="246">
-        <v>44854</v>
-      </c>
-      <c r="P218" s="62" t="s">
-        <v>680</v>
       </c>
       <c r="Q218" s="140"/>
       <c r="R218" s="139"/>
@@ -35862,19 +35855,19 @@
         <v>657</v>
       </c>
       <c r="L336" s="62" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M336" s="62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N336" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O336" s="246">
+        <v>682</v>
+      </c>
+      <c r="O336" s="180">
         <v>44854</v>
       </c>
       <c r="P336" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q336" s="62"/>
       <c r="R336" s="62"/>
@@ -35913,19 +35906,19 @@
         <v>659</v>
       </c>
       <c r="L337" s="62" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M337" s="62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N337" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="O337" s="246">
+        <v>682</v>
+      </c>
+      <c r="O337" s="180">
         <v>44854</v>
       </c>
       <c r="P337" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q337" s="62"/>
       <c r="R337" s="62"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0B6366-15DC-47E3-81D9-F5FEEF24A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA59B54-7B76-4405-B95A-1BB217CD2D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="684">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8101,26 +8101,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロジェクト開始日付に'1-1-1'を設定して出力する。</t>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト開始日付に'1-1-2'を設定して出力する。</t>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>組織IDに4を設定して出力する。</t>
     <rPh sb="0" eb="2">
       <t>ソシキ</t>
@@ -8597,6 +8577,29 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1、2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3、4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスティングフレームワークを使用した単体テスト実行時に、業務日付をシステムプロパティ設定による上書き実行が実施できないため、コマンド実行で確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testNormalEnd</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -9107,7 +9110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -9616,95 +9619,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9804,6 +9723,93 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10884,12 +10890,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="180" t="str">
+      <c r="I25" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -11449,57 +11455,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="216" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="188" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="225" t="s">
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="234" t="s">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="s">
         <v>517</v>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="210" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="184" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="219" t="str">
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="191" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="220"/>
-      <c r="AI1" s="221"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="193"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -11507,53 +11513,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="216" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="188" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="210" t="s">
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="222" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="219" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="191" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="221"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="193"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -11561,45 +11567,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="216" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="188" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="219"/>
-      <c r="AH3" s="220"/>
-      <c r="AI3" s="221"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="185"/>
+      <c r="AF3" s="186"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="192"/>
+      <c r="AI3" s="193"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -11636,1181 +11642,1020 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="194" t="s">
+      <c r="C7" s="216"/>
+      <c r="D7" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="196"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="194" t="s">
+      <c r="E7" s="217"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="194" t="s">
+      <c r="H7" s="217"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="194" t="s">
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="196"/>
-      <c r="S7" s="196"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196"/>
-      <c r="Y7" s="196"/>
-      <c r="Z7" s="196"/>
-      <c r="AA7" s="196"/>
-      <c r="AB7" s="196"/>
-      <c r="AC7" s="196"/>
-      <c r="AD7" s="196"/>
-      <c r="AE7" s="195"/>
-      <c r="AF7" s="194" t="s">
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="217"/>
+      <c r="U7" s="217"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="217"/>
+      <c r="X7" s="217"/>
+      <c r="Y7" s="217"/>
+      <c r="Z7" s="217"/>
+      <c r="AA7" s="217"/>
+      <c r="AB7" s="217"/>
+      <c r="AC7" s="217"/>
+      <c r="AD7" s="217"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="196"/>
-      <c r="AH7" s="196"/>
-      <c r="AI7" s="195"/>
+      <c r="AG7" s="217"/>
+      <c r="AH7" s="217"/>
+      <c r="AI7" s="216"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="205"/>
-      <c r="O8" s="205"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="208"/>
-      <c r="S8" s="208"/>
-      <c r="T8" s="208"/>
-      <c r="U8" s="208"/>
-      <c r="V8" s="208"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="208"/>
-      <c r="AB8" s="208"/>
-      <c r="AC8" s="208"/>
-      <c r="AD8" s="208"/>
-      <c r="AE8" s="209"/>
-      <c r="AF8" s="204"/>
-      <c r="AG8" s="205"/>
-      <c r="AH8" s="205"/>
-      <c r="AI8" s="206"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="226"/>
+      <c r="N8" s="226"/>
+      <c r="O8" s="226"/>
+      <c r="P8" s="227"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="229"/>
+      <c r="AE8" s="230"/>
+      <c r="AF8" s="225"/>
+      <c r="AG8" s="226"/>
+      <c r="AH8" s="226"/>
+      <c r="AI8" s="227"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="192"/>
-      <c r="AF9" s="187"/>
-      <c r="AG9" s="188"/>
-      <c r="AH9" s="188"/>
-      <c r="AI9" s="189"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
+      <c r="V9" s="241"/>
+      <c r="W9" s="241"/>
+      <c r="X9" s="241"/>
+      <c r="Y9" s="241"/>
+      <c r="Z9" s="241"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
+      <c r="AD9" s="241"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="237"/>
+      <c r="AG9" s="238"/>
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="239"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="192"/>
-      <c r="AF10" s="187"/>
-      <c r="AG10" s="188"/>
-      <c r="AH10" s="188"/>
-      <c r="AI10" s="189"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="239"/>
+      <c r="Q10" s="240"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="241"/>
+      <c r="Y10" s="241"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="241"/>
+      <c r="AC10" s="241"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="242"/>
+      <c r="AF10" s="237"/>
+      <c r="AG10" s="238"/>
+      <c r="AH10" s="238"/>
+      <c r="AI10" s="239"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="188"/>
-      <c r="O11" s="188"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="191"/>
-      <c r="T11" s="191"/>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="191"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
-      <c r="AD11" s="191"/>
-      <c r="AE11" s="192"/>
-      <c r="AF11" s="187"/>
-      <c r="AG11" s="188"/>
-      <c r="AH11" s="188"/>
-      <c r="AI11" s="189"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
+      <c r="U11" s="241"/>
+      <c r="V11" s="241"/>
+      <c r="W11" s="241"/>
+      <c r="X11" s="241"/>
+      <c r="Y11" s="241"/>
+      <c r="Z11" s="241"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="241"/>
+      <c r="AD11" s="241"/>
+      <c r="AE11" s="242"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="238"/>
+      <c r="AH11" s="238"/>
+      <c r="AI11" s="239"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="190"/>
-      <c r="R12" s="191"/>
-      <c r="S12" s="191"/>
-      <c r="T12" s="191"/>
-      <c r="U12" s="191"/>
-      <c r="V12" s="191"/>
-      <c r="W12" s="191"/>
-      <c r="X12" s="191"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="192"/>
-      <c r="AF12" s="187"/>
-      <c r="AG12" s="188"/>
-      <c r="AH12" s="188"/>
-      <c r="AI12" s="189"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="241"/>
+      <c r="S12" s="241"/>
+      <c r="T12" s="241"/>
+      <c r="U12" s="241"/>
+      <c r="V12" s="241"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="241"/>
+      <c r="Y12" s="241"/>
+      <c r="Z12" s="241"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="241"/>
+      <c r="AD12" s="241"/>
+      <c r="AE12" s="242"/>
+      <c r="AF12" s="237"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="238"/>
+      <c r="AI12" s="239"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191"/>
-      <c r="T13" s="191"/>
-      <c r="U13" s="191"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="191"/>
-      <c r="AA13" s="191"/>
-      <c r="AB13" s="191"/>
-      <c r="AC13" s="191"/>
-      <c r="AD13" s="191"/>
-      <c r="AE13" s="192"/>
-      <c r="AF13" s="187"/>
-      <c r="AG13" s="188"/>
-      <c r="AH13" s="188"/>
-      <c r="AI13" s="189"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="238"/>
+      <c r="O13" s="238"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="241"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="237"/>
+      <c r="AG13" s="238"/>
+      <c r="AH13" s="238"/>
+      <c r="AI13" s="239"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="191"/>
-      <c r="AD14" s="191"/>
-      <c r="AE14" s="192"/>
-      <c r="AF14" s="187"/>
-      <c r="AG14" s="188"/>
-      <c r="AH14" s="188"/>
-      <c r="AI14" s="189"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="239"/>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="241"/>
+      <c r="S14" s="241"/>
+      <c r="T14" s="241"/>
+      <c r="U14" s="241"/>
+      <c r="V14" s="241"/>
+      <c r="W14" s="241"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="241"/>
+      <c r="Z14" s="241"/>
+      <c r="AA14" s="241"/>
+      <c r="AB14" s="241"/>
+      <c r="AC14" s="241"/>
+      <c r="AD14" s="241"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="237"/>
+      <c r="AG14" s="238"/>
+      <c r="AH14" s="238"/>
+      <c r="AI14" s="239"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="191"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="191"/>
-      <c r="AE15" s="192"/>
-      <c r="AF15" s="187"/>
-      <c r="AG15" s="188"/>
-      <c r="AH15" s="188"/>
-      <c r="AI15" s="189"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="236"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="239"/>
+      <c r="Q15" s="240"/>
+      <c r="R15" s="241"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="241"/>
+      <c r="U15" s="241"/>
+      <c r="V15" s="241"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="241"/>
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
+      <c r="AD15" s="241"/>
+      <c r="AE15" s="242"/>
+      <c r="AF15" s="237"/>
+      <c r="AG15" s="238"/>
+      <c r="AH15" s="238"/>
+      <c r="AI15" s="239"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="181"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="188"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="191"/>
-      <c r="AB16" s="191"/>
-      <c r="AC16" s="191"/>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="192"/>
-      <c r="AF16" s="187"/>
-      <c r="AG16" s="188"/>
-      <c r="AH16" s="188"/>
-      <c r="AI16" s="189"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="238"/>
+      <c r="P16" s="239"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="241"/>
+      <c r="S16" s="241"/>
+      <c r="T16" s="241"/>
+      <c r="U16" s="241"/>
+      <c r="V16" s="241"/>
+      <c r="W16" s="241"/>
+      <c r="X16" s="241"/>
+      <c r="Y16" s="241"/>
+      <c r="Z16" s="241"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
+      <c r="AD16" s="241"/>
+      <c r="AE16" s="242"/>
+      <c r="AF16" s="237"/>
+      <c r="AG16" s="238"/>
+      <c r="AH16" s="238"/>
+      <c r="AI16" s="239"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="190"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="191"/>
-      <c r="AB17" s="191"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="191"/>
-      <c r="AE17" s="192"/>
-      <c r="AF17" s="187"/>
-      <c r="AG17" s="188"/>
-      <c r="AH17" s="188"/>
-      <c r="AI17" s="189"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="238"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="239"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="241"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="241"/>
+      <c r="X17" s="241"/>
+      <c r="Y17" s="241"/>
+      <c r="Z17" s="241"/>
+      <c r="AA17" s="241"/>
+      <c r="AB17" s="241"/>
+      <c r="AC17" s="241"/>
+      <c r="AD17" s="241"/>
+      <c r="AE17" s="242"/>
+      <c r="AF17" s="237"/>
+      <c r="AG17" s="238"/>
+      <c r="AH17" s="238"/>
+      <c r="AI17" s="239"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="188"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="190"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="191"/>
-      <c r="AB18" s="191"/>
-      <c r="AC18" s="191"/>
-      <c r="AD18" s="191"/>
-      <c r="AE18" s="192"/>
-      <c r="AF18" s="187"/>
-      <c r="AG18" s="188"/>
-      <c r="AH18" s="188"/>
-      <c r="AI18" s="189"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="238"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="241"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="241"/>
+      <c r="V18" s="241"/>
+      <c r="W18" s="241"/>
+      <c r="X18" s="241"/>
+      <c r="Y18" s="241"/>
+      <c r="Z18" s="241"/>
+      <c r="AA18" s="241"/>
+      <c r="AB18" s="241"/>
+      <c r="AC18" s="241"/>
+      <c r="AD18" s="241"/>
+      <c r="AE18" s="242"/>
+      <c r="AF18" s="237"/>
+      <c r="AG18" s="238"/>
+      <c r="AH18" s="238"/>
+      <c r="AI18" s="239"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="189"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="191"/>
-      <c r="Z19" s="191"/>
-      <c r="AA19" s="191"/>
-      <c r="AB19" s="191"/>
-      <c r="AC19" s="191"/>
-      <c r="AD19" s="191"/>
-      <c r="AE19" s="192"/>
-      <c r="AF19" s="187"/>
-      <c r="AG19" s="188"/>
-      <c r="AH19" s="188"/>
-      <c r="AI19" s="189"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="238"/>
+      <c r="O19" s="238"/>
+      <c r="P19" s="239"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="241"/>
+      <c r="S19" s="241"/>
+      <c r="T19" s="241"/>
+      <c r="U19" s="241"/>
+      <c r="V19" s="241"/>
+      <c r="W19" s="241"/>
+      <c r="X19" s="241"/>
+      <c r="Y19" s="241"/>
+      <c r="Z19" s="241"/>
+      <c r="AA19" s="241"/>
+      <c r="AB19" s="241"/>
+      <c r="AC19" s="241"/>
+      <c r="AD19" s="241"/>
+      <c r="AE19" s="242"/>
+      <c r="AF19" s="237"/>
+      <c r="AG19" s="238"/>
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="239"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="191"/>
-      <c r="S20" s="191"/>
-      <c r="T20" s="191"/>
-      <c r="U20" s="191"/>
-      <c r="V20" s="191"/>
-      <c r="W20" s="191"/>
-      <c r="X20" s="191"/>
-      <c r="Y20" s="191"/>
-      <c r="Z20" s="191"/>
-      <c r="AA20" s="191"/>
-      <c r="AB20" s="191"/>
-      <c r="AC20" s="191"/>
-      <c r="AD20" s="191"/>
-      <c r="AE20" s="192"/>
-      <c r="AF20" s="187"/>
-      <c r="AG20" s="188"/>
-      <c r="AH20" s="188"/>
-      <c r="AI20" s="189"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="240"/>
+      <c r="R20" s="241"/>
+      <c r="S20" s="241"/>
+      <c r="T20" s="241"/>
+      <c r="U20" s="241"/>
+      <c r="V20" s="241"/>
+      <c r="W20" s="241"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="241"/>
+      <c r="Z20" s="241"/>
+      <c r="AA20" s="241"/>
+      <c r="AB20" s="241"/>
+      <c r="AC20" s="241"/>
+      <c r="AD20" s="241"/>
+      <c r="AE20" s="242"/>
+      <c r="AF20" s="237"/>
+      <c r="AG20" s="238"/>
+      <c r="AH20" s="238"/>
+      <c r="AI20" s="239"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="191"/>
-      <c r="S21" s="191"/>
-      <c r="T21" s="191"/>
-      <c r="U21" s="191"/>
-      <c r="V21" s="191"/>
-      <c r="W21" s="191"/>
-      <c r="X21" s="191"/>
-      <c r="Y21" s="191"/>
-      <c r="Z21" s="191"/>
-      <c r="AA21" s="191"/>
-      <c r="AB21" s="191"/>
-      <c r="AC21" s="191"/>
-      <c r="AD21" s="191"/>
-      <c r="AE21" s="192"/>
-      <c r="AF21" s="187"/>
-      <c r="AG21" s="188"/>
-      <c r="AH21" s="188"/>
-      <c r="AI21" s="189"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="238"/>
+      <c r="O21" s="238"/>
+      <c r="P21" s="239"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="241"/>
+      <c r="S21" s="241"/>
+      <c r="T21" s="241"/>
+      <c r="U21" s="241"/>
+      <c r="V21" s="241"/>
+      <c r="W21" s="241"/>
+      <c r="X21" s="241"/>
+      <c r="Y21" s="241"/>
+      <c r="Z21" s="241"/>
+      <c r="AA21" s="241"/>
+      <c r="AB21" s="241"/>
+      <c r="AC21" s="241"/>
+      <c r="AD21" s="241"/>
+      <c r="AE21" s="242"/>
+      <c r="AF21" s="237"/>
+      <c r="AG21" s="238"/>
+      <c r="AH21" s="238"/>
+      <c r="AI21" s="239"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="191"/>
-      <c r="S22" s="191"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="191"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="191"/>
-      <c r="X22" s="191"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="191"/>
-      <c r="AA22" s="191"/>
-      <c r="AB22" s="191"/>
-      <c r="AC22" s="191"/>
-      <c r="AD22" s="191"/>
-      <c r="AE22" s="192"/>
-      <c r="AF22" s="187"/>
-      <c r="AG22" s="188"/>
-      <c r="AH22" s="188"/>
-      <c r="AI22" s="189"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="238"/>
+      <c r="M22" s="238"/>
+      <c r="N22" s="238"/>
+      <c r="O22" s="238"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="240"/>
+      <c r="R22" s="241"/>
+      <c r="S22" s="241"/>
+      <c r="T22" s="241"/>
+      <c r="U22" s="241"/>
+      <c r="V22" s="241"/>
+      <c r="W22" s="241"/>
+      <c r="X22" s="241"/>
+      <c r="Y22" s="241"/>
+      <c r="Z22" s="241"/>
+      <c r="AA22" s="241"/>
+      <c r="AB22" s="241"/>
+      <c r="AC22" s="241"/>
+      <c r="AD22" s="241"/>
+      <c r="AE22" s="242"/>
+      <c r="AF22" s="237"/>
+      <c r="AG22" s="238"/>
+      <c r="AH22" s="238"/>
+      <c r="AI22" s="239"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="190"/>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191"/>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="191"/>
-      <c r="AB23" s="191"/>
-      <c r="AC23" s="191"/>
-      <c r="AD23" s="191"/>
-      <c r="AE23" s="192"/>
-      <c r="AF23" s="187"/>
-      <c r="AG23" s="188"/>
-      <c r="AH23" s="188"/>
-      <c r="AI23" s="189"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="238"/>
+      <c r="M23" s="238"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="241"/>
+      <c r="U23" s="241"/>
+      <c r="V23" s="241"/>
+      <c r="W23" s="241"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="241"/>
+      <c r="AA23" s="241"/>
+      <c r="AB23" s="241"/>
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="241"/>
+      <c r="AE23" s="242"/>
+      <c r="AF23" s="237"/>
+      <c r="AG23" s="238"/>
+      <c r="AH23" s="238"/>
+      <c r="AI23" s="239"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
-      <c r="O24" s="188"/>
-      <c r="P24" s="189"/>
-      <c r="Q24" s="190"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
-      <c r="U24" s="191"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="191"/>
-      <c r="Z24" s="191"/>
-      <c r="AA24" s="191"/>
-      <c r="AB24" s="191"/>
-      <c r="AC24" s="191"/>
-      <c r="AD24" s="191"/>
-      <c r="AE24" s="192"/>
-      <c r="AF24" s="187"/>
-      <c r="AG24" s="188"/>
-      <c r="AH24" s="188"/>
-      <c r="AI24" s="189"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="231"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="239"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="241"/>
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="242"/>
+      <c r="AF24" s="237"/>
+      <c r="AG24" s="238"/>
+      <c r="AH24" s="238"/>
+      <c r="AI24" s="239"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="190"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="191"/>
-      <c r="U25" s="191"/>
-      <c r="V25" s="191"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="191"/>
-      <c r="Y25" s="191"/>
-      <c r="Z25" s="191"/>
-      <c r="AA25" s="191"/>
-      <c r="AB25" s="191"/>
-      <c r="AC25" s="191"/>
-      <c r="AD25" s="191"/>
-      <c r="AE25" s="192"/>
-      <c r="AF25" s="187"/>
-      <c r="AG25" s="188"/>
-      <c r="AH25" s="188"/>
-      <c r="AI25" s="189"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="239"/>
+      <c r="Q25" s="240"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="241"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="241"/>
+      <c r="AB25" s="241"/>
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="242"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="238"/>
+      <c r="AH25" s="238"/>
+      <c r="AI25" s="239"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="188"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="191"/>
-      <c r="S26" s="191"/>
-      <c r="T26" s="191"/>
-      <c r="U26" s="191"/>
-      <c r="V26" s="191"/>
-      <c r="W26" s="191"/>
-      <c r="X26" s="191"/>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191"/>
-      <c r="AA26" s="191"/>
-      <c r="AB26" s="191"/>
-      <c r="AC26" s="191"/>
-      <c r="AD26" s="191"/>
-      <c r="AE26" s="192"/>
-      <c r="AF26" s="187"/>
-      <c r="AG26" s="188"/>
-      <c r="AH26" s="188"/>
-      <c r="AI26" s="189"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="239"/>
+      <c r="Q26" s="240"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="241"/>
+      <c r="Z26" s="241"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="241"/>
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="241"/>
+      <c r="AE26" s="242"/>
+      <c r="AF26" s="237"/>
+      <c r="AG26" s="238"/>
+      <c r="AH26" s="238"/>
+      <c r="AI26" s="239"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="181"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="189"/>
-      <c r="Q27" s="190"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="191"/>
-      <c r="T27" s="191"/>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="191"/>
-      <c r="AB27" s="191"/>
-      <c r="AC27" s="191"/>
-      <c r="AD27" s="191"/>
-      <c r="AE27" s="192"/>
-      <c r="AF27" s="187"/>
-      <c r="AG27" s="188"/>
-      <c r="AH27" s="188"/>
-      <c r="AI27" s="189"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="237"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="238"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" s="240"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="241"/>
+      <c r="U27" s="241"/>
+      <c r="V27" s="241"/>
+      <c r="W27" s="241"/>
+      <c r="X27" s="241"/>
+      <c r="Y27" s="241"/>
+      <c r="Z27" s="241"/>
+      <c r="AA27" s="241"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="241"/>
+      <c r="AD27" s="241"/>
+      <c r="AE27" s="242"/>
+      <c r="AF27" s="237"/>
+      <c r="AG27" s="238"/>
+      <c r="AH27" s="238"/>
+      <c r="AI27" s="239"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="188"/>
-      <c r="O28" s="188"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="190"/>
-      <c r="R28" s="191"/>
-      <c r="S28" s="191"/>
-      <c r="T28" s="191"/>
-      <c r="U28" s="191"/>
-      <c r="V28" s="191"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="191"/>
-      <c r="AB28" s="191"/>
-      <c r="AC28" s="191"/>
-      <c r="AD28" s="191"/>
-      <c r="AE28" s="192"/>
-      <c r="AF28" s="187"/>
-      <c r="AG28" s="188"/>
-      <c r="AH28" s="188"/>
-      <c r="AI28" s="189"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="240"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="241"/>
+      <c r="U28" s="241"/>
+      <c r="V28" s="241"/>
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="241"/>
+      <c r="Z28" s="241"/>
+      <c r="AA28" s="241"/>
+      <c r="AB28" s="241"/>
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="241"/>
+      <c r="AE28" s="242"/>
+      <c r="AF28" s="237"/>
+      <c r="AG28" s="238"/>
+      <c r="AH28" s="238"/>
+      <c r="AI28" s="239"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="188"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="190"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="191"/>
-      <c r="U29" s="191"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="191"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="191"/>
-      <c r="AB29" s="191"/>
-      <c r="AC29" s="191"/>
-      <c r="AD29" s="191"/>
-      <c r="AE29" s="192"/>
-      <c r="AF29" s="187"/>
-      <c r="AG29" s="188"/>
-      <c r="AH29" s="188"/>
-      <c r="AI29" s="189"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="238"/>
+      <c r="N29" s="238"/>
+      <c r="O29" s="238"/>
+      <c r="P29" s="239"/>
+      <c r="Q29" s="240"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="241"/>
+      <c r="T29" s="241"/>
+      <c r="U29" s="241"/>
+      <c r="V29" s="241"/>
+      <c r="W29" s="241"/>
+      <c r="X29" s="241"/>
+      <c r="Y29" s="241"/>
+      <c r="Z29" s="241"/>
+      <c r="AA29" s="241"/>
+      <c r="AB29" s="241"/>
+      <c r="AC29" s="241"/>
+      <c r="AD29" s="241"/>
+      <c r="AE29" s="242"/>
+      <c r="AF29" s="237"/>
+      <c r="AG29" s="238"/>
+      <c r="AH29" s="238"/>
+      <c r="AI29" s="239"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188"/>
-      <c r="N30" s="188"/>
-      <c r="O30" s="188"/>
-      <c r="P30" s="189"/>
-      <c r="Q30" s="190"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="191"/>
-      <c r="T30" s="191"/>
-      <c r="U30" s="191"/>
-      <c r="V30" s="191"/>
-      <c r="W30" s="191"/>
-      <c r="X30" s="191"/>
-      <c r="Y30" s="191"/>
-      <c r="Z30" s="191"/>
-      <c r="AA30" s="191"/>
-      <c r="AB30" s="191"/>
-      <c r="AC30" s="191"/>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="192"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="188"/>
-      <c r="AH30" s="188"/>
-      <c r="AI30" s="189"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="237"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="238"/>
+      <c r="M30" s="238"/>
+      <c r="N30" s="238"/>
+      <c r="O30" s="238"/>
+      <c r="P30" s="239"/>
+      <c r="Q30" s="240"/>
+      <c r="R30" s="241"/>
+      <c r="S30" s="241"/>
+      <c r="T30" s="241"/>
+      <c r="U30" s="241"/>
+      <c r="V30" s="241"/>
+      <c r="W30" s="241"/>
+      <c r="X30" s="241"/>
+      <c r="Y30" s="241"/>
+      <c r="Z30" s="241"/>
+      <c r="AA30" s="241"/>
+      <c r="AB30" s="241"/>
+      <c r="AC30" s="241"/>
+      <c r="AD30" s="241"/>
+      <c r="AE30" s="242"/>
+      <c r="AF30" s="237"/>
+      <c r="AG30" s="238"/>
+      <c r="AH30" s="238"/>
+      <c r="AI30" s="239"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="188"/>
-      <c r="O31" s="188"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="190"/>
-      <c r="R31" s="191"/>
-      <c r="S31" s="191"/>
-      <c r="T31" s="191"/>
-      <c r="U31" s="191"/>
-      <c r="V31" s="191"/>
-      <c r="W31" s="191"/>
-      <c r="X31" s="191"/>
-      <c r="Y31" s="191"/>
-      <c r="Z31" s="191"/>
-      <c r="AA31" s="191"/>
-      <c r="AB31" s="191"/>
-      <c r="AC31" s="191"/>
-      <c r="AD31" s="191"/>
-      <c r="AE31" s="192"/>
-      <c r="AF31" s="187"/>
-      <c r="AG31" s="188"/>
-      <c r="AH31" s="188"/>
-      <c r="AI31" s="189"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="237"/>
+      <c r="K31" s="238"/>
+      <c r="L31" s="238"/>
+      <c r="M31" s="238"/>
+      <c r="N31" s="238"/>
+      <c r="O31" s="238"/>
+      <c r="P31" s="239"/>
+      <c r="Q31" s="240"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
+      <c r="U31" s="241"/>
+      <c r="V31" s="241"/>
+      <c r="W31" s="241"/>
+      <c r="X31" s="241"/>
+      <c r="Y31" s="241"/>
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="241"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="241"/>
+      <c r="AE31" s="242"/>
+      <c r="AF31" s="237"/>
+      <c r="AG31" s="238"/>
+      <c r="AH31" s="238"/>
+      <c r="AI31" s="239"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="181"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="188"/>
-      <c r="O32" s="188"/>
-      <c r="P32" s="189"/>
-      <c r="Q32" s="190"/>
-      <c r="R32" s="191"/>
-      <c r="S32" s="191"/>
-      <c r="T32" s="191"/>
-      <c r="U32" s="191"/>
-      <c r="V32" s="191"/>
-      <c r="W32" s="191"/>
-      <c r="X32" s="191"/>
-      <c r="Y32" s="191"/>
-      <c r="Z32" s="191"/>
-      <c r="AA32" s="191"/>
-      <c r="AB32" s="191"/>
-      <c r="AC32" s="191"/>
-      <c r="AD32" s="191"/>
-      <c r="AE32" s="192"/>
-      <c r="AF32" s="187"/>
-      <c r="AG32" s="188"/>
-      <c r="AH32" s="188"/>
-      <c r="AI32" s="189"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="237"/>
+      <c r="K32" s="243"/>
+      <c r="L32" s="238"/>
+      <c r="M32" s="238"/>
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="239"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
+      <c r="W32" s="241"/>
+      <c r="X32" s="241"/>
+      <c r="Y32" s="241"/>
+      <c r="Z32" s="241"/>
+      <c r="AA32" s="241"/>
+      <c r="AB32" s="241"/>
+      <c r="AC32" s="241"/>
+      <c r="AD32" s="241"/>
+      <c r="AE32" s="242"/>
+      <c r="AF32" s="237"/>
+      <c r="AG32" s="238"/>
+      <c r="AH32" s="238"/>
+      <c r="AI32" s="239"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="188"/>
-      <c r="O33" s="188"/>
-      <c r="P33" s="189"/>
-      <c r="Q33" s="190"/>
-      <c r="R33" s="191"/>
-      <c r="S33" s="191"/>
-      <c r="T33" s="191"/>
-      <c r="U33" s="191"/>
-      <c r="V33" s="191"/>
-      <c r="W33" s="191"/>
-      <c r="X33" s="191"/>
-      <c r="Y33" s="191"/>
-      <c r="Z33" s="191"/>
-      <c r="AA33" s="191"/>
-      <c r="AB33" s="191"/>
-      <c r="AC33" s="191"/>
-      <c r="AD33" s="191"/>
-      <c r="AE33" s="192"/>
-      <c r="AF33" s="187"/>
-      <c r="AG33" s="188"/>
-      <c r="AH33" s="188"/>
-      <c r="AI33" s="189"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="238"/>
+      <c r="L33" s="238"/>
+      <c r="M33" s="238"/>
+      <c r="N33" s="238"/>
+      <c r="O33" s="238"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="240"/>
+      <c r="R33" s="241"/>
+      <c r="S33" s="241"/>
+      <c r="T33" s="241"/>
+      <c r="U33" s="241"/>
+      <c r="V33" s="241"/>
+      <c r="W33" s="241"/>
+      <c r="X33" s="241"/>
+      <c r="Y33" s="241"/>
+      <c r="Z33" s="241"/>
+      <c r="AA33" s="241"/>
+      <c r="AB33" s="241"/>
+      <c r="AC33" s="241"/>
+      <c r="AD33" s="241"/>
+      <c r="AE33" s="242"/>
+      <c r="AF33" s="237"/>
+      <c r="AG33" s="238"/>
+      <c r="AH33" s="238"/>
+      <c r="AI33" s="239"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12829,6 +12674,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -16582,7 +16588,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="243" t="s">
+      <c r="B112" s="244" t="s">
         <v>221</v>
       </c>
       <c r="C112" s="56"/>
@@ -16618,7 +16624,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="243"/>
+      <c r="B113" s="244"/>
       <c r="C113" s="56"/>
       <c r="D113" s="44"/>
       <c r="E113" s="82"/>
@@ -17290,7 +17296,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="243" t="s">
+      <c r="B132" s="244" t="s">
         <v>250</v>
       </c>
       <c r="C132" s="56"/>
@@ -17326,7 +17332,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="243"/>
+      <c r="B133" s="244"/>
       <c r="C133" s="56"/>
       <c r="D133" s="44"/>
       <c r="E133" s="44"/>
@@ -23062,7 +23068,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -23112,7 +23118,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>21</v>
@@ -23123,7 +23129,7 @@
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -24370,11 +24376,21 @@
       <c r="K42" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
+      <c r="L42" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M42" s="62">
+        <v>1</v>
+      </c>
+      <c r="N42" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O42" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P42" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q42" s="122"/>
       <c r="R42" s="61"/>
     </row>
@@ -24409,11 +24425,21 @@
       <c r="K43" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
+      <c r="L43" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M43" s="62">
+        <v>2</v>
+      </c>
+      <c r="N43" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O43" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P43" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q43" s="122"/>
       <c r="R43" s="61"/>
     </row>
@@ -24450,11 +24476,21 @@
       <c r="K44" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
+      <c r="L44" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M44" s="62">
+        <v>3</v>
+      </c>
+      <c r="N44" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O44" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P44" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q44" s="122"/>
       <c r="R44" s="61"/>
     </row>
@@ -24489,11 +24525,21 @@
       <c r="K45" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
+      <c r="L45" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M45" s="62">
+        <v>4</v>
+      </c>
+      <c r="N45" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O45" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P45" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q45" s="122"/>
       <c r="R45" s="61"/>
     </row>
@@ -25747,11 +25793,21 @@
       <c r="K80" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
-      <c r="O80" s="62"/>
-      <c r="P80" s="62"/>
+      <c r="L80" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M80" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="N80" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O80" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P80" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q80" s="122"/>
       <c r="R80" s="61"/>
     </row>
@@ -25785,11 +25841,21 @@
       <c r="K81" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
-      <c r="O81" s="62"/>
-      <c r="P81" s="62"/>
+      <c r="L81" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M81" s="62">
+        <v>5</v>
+      </c>
+      <c r="N81" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O81" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P81" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q81" s="122"/>
       <c r="R81" s="61"/>
     </row>
@@ -25826,11 +25892,21 @@
       <c r="K82" s="61" t="s">
         <v>555</v>
       </c>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="62"/>
-      <c r="P82" s="62"/>
+      <c r="L82" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M82" s="62" t="s">
+        <v>680</v>
+      </c>
+      <c r="N82" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O82" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P82" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q82" s="122"/>
       <c r="R82" s="61"/>
     </row>
@@ -25861,19 +25937,29 @@
         <v>531</v>
       </c>
       <c r="I83" s="96" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J83" s="176" t="s">
         <v>551</v>
       </c>
       <c r="K83" s="139" t="s">
-        <v>679</v>
-      </c>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="96"/>
-      <c r="P83" s="96"/>
+        <v>677</v>
+      </c>
+      <c r="L83" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M83" s="62">
+        <v>5</v>
+      </c>
+      <c r="N83" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O83" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P83" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q83" s="140"/>
       <c r="R83" s="139"/>
     </row>
@@ -25984,11 +26070,21 @@
       <c r="K86" s="61" t="s">
         <v>560</v>
       </c>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
-      <c r="P86" s="62"/>
+      <c r="L86" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M86" s="62">
+        <v>5</v>
+      </c>
+      <c r="N86" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O86" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P86" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q86" s="122"/>
       <c r="R86" s="61"/>
     </row>
@@ -27053,7 +27149,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B115" s="244" t="s">
+      <c r="B115" s="245" t="s">
         <v>492</v>
       </c>
       <c r="C115" s="108"/>
@@ -27090,7 +27186,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B116" s="244"/>
+      <c r="B116" s="245"/>
       <c r="C116" s="108"/>
       <c r="D116" s="103"/>
       <c r="E116" s="132"/>
@@ -27766,11 +27862,21 @@
       <c r="K134" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="L134" s="62"/>
-      <c r="M134" s="62"/>
-      <c r="N134" s="62"/>
-      <c r="O134" s="62"/>
-      <c r="P134" s="62"/>
+      <c r="L134" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M134" s="62">
+        <v>5</v>
+      </c>
+      <c r="N134" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O134" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P134" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q134" s="122"/>
       <c r="R134" s="61"/>
     </row>
@@ -27787,7 +27893,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B135" s="245" t="s">
+      <c r="B135" s="246" t="s">
         <v>250</v>
       </c>
       <c r="C135" s="123"/>
@@ -27809,11 +27915,21 @@
       <c r="K135" s="139" t="s">
         <v>569</v>
       </c>
-      <c r="L135" s="96"/>
-      <c r="M135" s="96"/>
-      <c r="N135" s="96"/>
-      <c r="O135" s="96"/>
-      <c r="P135" s="96"/>
+      <c r="L135" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M135" s="62">
+        <v>5</v>
+      </c>
+      <c r="N135" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O135" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P135" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q135" s="140"/>
       <c r="R135" s="139"/>
     </row>
@@ -27830,7 +27946,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B136" s="245"/>
+      <c r="B136" s="246"/>
       <c r="C136" s="123"/>
       <c r="D136" s="118"/>
       <c r="E136" s="123"/>
@@ -27948,7 +28064,7 @@
       <c r="H139" s="80"/>
       <c r="I139" s="80"/>
       <c r="J139" s="99" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K139" s="99"/>
       <c r="L139" s="80"/>
@@ -28037,11 +28153,21 @@
       <c r="K141" s="139" t="s">
         <v>580</v>
       </c>
-      <c r="L141" s="96"/>
-      <c r="M141" s="96"/>
-      <c r="N141" s="96"/>
-      <c r="O141" s="96"/>
-      <c r="P141" s="96"/>
+      <c r="L141" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M141" s="62">
+        <v>5</v>
+      </c>
+      <c r="N141" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O141" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P141" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q141" s="140"/>
       <c r="R141" s="139"/>
     </row>
@@ -28080,11 +28206,21 @@
       <c r="K142" s="139" t="s">
         <v>581</v>
       </c>
-      <c r="L142" s="96"/>
-      <c r="M142" s="96"/>
-      <c r="N142" s="96"/>
-      <c r="O142" s="96"/>
-      <c r="P142" s="96"/>
+      <c r="L142" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M142" s="62">
+        <v>5</v>
+      </c>
+      <c r="N142" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O142" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P142" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q142" s="140"/>
       <c r="R142" s="139"/>
     </row>
@@ -28123,11 +28259,21 @@
       <c r="K143" s="139" t="s">
         <v>582</v>
       </c>
-      <c r="L143" s="96"/>
-      <c r="M143" s="96"/>
-      <c r="N143" s="96"/>
-      <c r="O143" s="96"/>
-      <c r="P143" s="96"/>
+      <c r="L143" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M143" s="62">
+        <v>5</v>
+      </c>
+      <c r="N143" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O143" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P143" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q143" s="140"/>
       <c r="R143" s="139"/>
     </row>
@@ -28203,11 +28349,21 @@
       <c r="K145" s="139" t="s">
         <v>584</v>
       </c>
-      <c r="L145" s="96"/>
-      <c r="M145" s="96"/>
-      <c r="N145" s="96"/>
-      <c r="O145" s="96"/>
-      <c r="P145" s="96"/>
+      <c r="L145" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M145" s="62">
+        <v>5</v>
+      </c>
+      <c r="N145" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O145" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P145" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q145" s="140"/>
       <c r="R145" s="139"/>
     </row>
@@ -28460,11 +28616,21 @@
       <c r="K152" s="139" t="s">
         <v>587</v>
       </c>
-      <c r="L152" s="96"/>
-      <c r="M152" s="96"/>
-      <c r="N152" s="96"/>
-      <c r="O152" s="96"/>
-      <c r="P152" s="96"/>
+      <c r="L152" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M152" s="62">
+        <v>5</v>
+      </c>
+      <c r="N152" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O152" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P152" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q152" s="140"/>
       <c r="R152" s="139"/>
     </row>
@@ -28499,11 +28665,21 @@
       <c r="K153" s="139" t="s">
         <v>589</v>
       </c>
-      <c r="L153" s="96"/>
-      <c r="M153" s="96"/>
-      <c r="N153" s="96"/>
-      <c r="O153" s="96"/>
-      <c r="P153" s="96"/>
+      <c r="L153" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M153" s="62">
+        <v>5</v>
+      </c>
+      <c r="N153" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O153" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P153" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q153" s="140"/>
       <c r="R153" s="139"/>
     </row>
@@ -28538,11 +28714,21 @@
       <c r="K154" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="L154" s="96"/>
-      <c r="M154" s="96"/>
-      <c r="N154" s="96"/>
-      <c r="O154" s="96"/>
-      <c r="P154" s="96"/>
+      <c r="L154" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M154" s="62">
+        <v>5</v>
+      </c>
+      <c r="N154" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O154" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P154" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q154" s="140"/>
       <c r="R154" s="139"/>
     </row>
@@ -28577,11 +28763,21 @@
       <c r="K155" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="L155" s="96"/>
-      <c r="M155" s="96"/>
-      <c r="N155" s="96"/>
-      <c r="O155" s="96"/>
-      <c r="P155" s="96"/>
+      <c r="L155" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M155" s="62">
+        <v>5</v>
+      </c>
+      <c r="N155" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O155" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P155" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q155" s="140"/>
       <c r="R155" s="139"/>
     </row>
@@ -28616,11 +28812,21 @@
       <c r="K156" s="139" t="s">
         <v>595</v>
       </c>
-      <c r="L156" s="96"/>
-      <c r="M156" s="96"/>
-      <c r="N156" s="96"/>
-      <c r="O156" s="96"/>
-      <c r="P156" s="96"/>
+      <c r="L156" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M156" s="62">
+        <v>5</v>
+      </c>
+      <c r="N156" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O156" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P156" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q156" s="140"/>
       <c r="R156" s="139"/>
     </row>
@@ -28655,11 +28861,21 @@
       <c r="K157" s="139" t="s">
         <v>597</v>
       </c>
-      <c r="L157" s="96"/>
-      <c r="M157" s="96"/>
-      <c r="N157" s="96"/>
-      <c r="O157" s="96"/>
-      <c r="P157" s="96"/>
+      <c r="L157" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M157" s="62">
+        <v>5</v>
+      </c>
+      <c r="N157" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O157" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P157" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q157" s="140"/>
       <c r="R157" s="139"/>
     </row>
@@ -28694,11 +28910,21 @@
       <c r="K158" s="139" t="s">
         <v>599</v>
       </c>
-      <c r="L158" s="96"/>
-      <c r="M158" s="96"/>
-      <c r="N158" s="96"/>
-      <c r="O158" s="96"/>
-      <c r="P158" s="96"/>
+      <c r="L158" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M158" s="62">
+        <v>5</v>
+      </c>
+      <c r="N158" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O158" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P158" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q158" s="140"/>
       <c r="R158" s="139"/>
     </row>
@@ -28733,11 +28959,21 @@
       <c r="K159" s="139" t="s">
         <v>601</v>
       </c>
-      <c r="L159" s="96"/>
-      <c r="M159" s="96"/>
-      <c r="N159" s="96"/>
-      <c r="O159" s="96"/>
-      <c r="P159" s="96"/>
+      <c r="L159" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M159" s="62">
+        <v>5</v>
+      </c>
+      <c r="N159" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O159" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P159" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q159" s="140"/>
       <c r="R159" s="139"/>
     </row>
@@ -28772,11 +29008,21 @@
       <c r="K160" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="L160" s="96"/>
-      <c r="M160" s="96"/>
-      <c r="N160" s="96"/>
-      <c r="O160" s="96"/>
-      <c r="P160" s="96"/>
+      <c r="L160" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M160" s="62">
+        <v>5</v>
+      </c>
+      <c r="N160" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O160" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P160" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q160" s="140"/>
       <c r="R160" s="139"/>
     </row>
@@ -28811,11 +29057,21 @@
       <c r="K161" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="L161" s="96"/>
-      <c r="M161" s="96"/>
-      <c r="N161" s="96"/>
-      <c r="O161" s="96"/>
-      <c r="P161" s="96"/>
+      <c r="L161" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M161" s="62">
+        <v>5</v>
+      </c>
+      <c r="N161" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O161" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P161" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q161" s="140"/>
       <c r="R161" s="139"/>
     </row>
@@ -28850,11 +29106,21 @@
       <c r="K162" s="139" t="s">
         <v>607</v>
       </c>
-      <c r="L162" s="96"/>
-      <c r="M162" s="96"/>
-      <c r="N162" s="96"/>
-      <c r="O162" s="96"/>
-      <c r="P162" s="96"/>
+      <c r="L162" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M162" s="62">
+        <v>5</v>
+      </c>
+      <c r="N162" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O162" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P162" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q162" s="140"/>
       <c r="R162" s="139"/>
     </row>
@@ -28889,11 +29155,21 @@
       <c r="K163" s="139" t="s">
         <v>609</v>
       </c>
-      <c r="L163" s="96"/>
-      <c r="M163" s="96"/>
-      <c r="N163" s="96"/>
-      <c r="O163" s="96"/>
-      <c r="P163" s="96"/>
+      <c r="L163" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M163" s="62">
+        <v>5</v>
+      </c>
+      <c r="N163" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O163" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P163" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q163" s="140"/>
       <c r="R163" s="139"/>
     </row>
@@ -28928,11 +29204,21 @@
       <c r="K164" s="139" t="s">
         <v>611</v>
       </c>
-      <c r="L164" s="96"/>
-      <c r="M164" s="96"/>
-      <c r="N164" s="96"/>
-      <c r="O164" s="96"/>
-      <c r="P164" s="96"/>
+      <c r="L164" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M164" s="62">
+        <v>5</v>
+      </c>
+      <c r="N164" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O164" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P164" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q164" s="140"/>
       <c r="R164" s="139"/>
     </row>
@@ -29393,11 +29679,21 @@
       <c r="K177" s="139" t="s">
         <v>617</v>
       </c>
-      <c r="L177" s="96"/>
-      <c r="M177" s="96"/>
-      <c r="N177" s="96"/>
-      <c r="O177" s="96"/>
-      <c r="P177" s="96"/>
+      <c r="L177" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M177" s="62">
+        <v>5</v>
+      </c>
+      <c r="N177" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O177" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P177" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q177" s="140"/>
       <c r="R177" s="139"/>
     </row>
@@ -29432,11 +29728,21 @@
       <c r="K178" s="139" t="s">
         <v>619</v>
       </c>
-      <c r="L178" s="96"/>
-      <c r="M178" s="96"/>
-      <c r="N178" s="96"/>
-      <c r="O178" s="96"/>
-      <c r="P178" s="96"/>
+      <c r="L178" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M178" s="62">
+        <v>5</v>
+      </c>
+      <c r="N178" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O178" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P178" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q178" s="140"/>
       <c r="R178" s="139"/>
     </row>
@@ -29471,11 +29777,21 @@
       <c r="K179" s="139" t="s">
         <v>621</v>
       </c>
-      <c r="L179" s="96"/>
-      <c r="M179" s="96"/>
-      <c r="N179" s="96"/>
-      <c r="O179" s="96"/>
-      <c r="P179" s="96"/>
+      <c r="L179" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M179" s="62">
+        <v>5</v>
+      </c>
+      <c r="N179" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O179" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P179" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q179" s="140"/>
       <c r="R179" s="139"/>
     </row>
@@ -29510,11 +29826,21 @@
       <c r="K180" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="L180" s="96"/>
-      <c r="M180" s="96"/>
-      <c r="N180" s="96"/>
-      <c r="O180" s="96"/>
-      <c r="P180" s="96"/>
+      <c r="L180" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M180" s="62">
+        <v>5</v>
+      </c>
+      <c r="N180" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O180" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P180" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q180" s="140"/>
       <c r="R180" s="139"/>
     </row>
@@ -29549,11 +29875,21 @@
       <c r="K181" s="139" t="s">
         <v>624</v>
       </c>
-      <c r="L181" s="96"/>
-      <c r="M181" s="96"/>
-      <c r="N181" s="96"/>
-      <c r="O181" s="96"/>
-      <c r="P181" s="96"/>
+      <c r="L181" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M181" s="62">
+        <v>8</v>
+      </c>
+      <c r="N181" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O181" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P181" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q181" s="140"/>
       <c r="R181" s="139"/>
     </row>
@@ -29588,11 +29924,21 @@
       <c r="K182" s="139" t="s">
         <v>626</v>
       </c>
-      <c r="L182" s="96"/>
-      <c r="M182" s="96"/>
-      <c r="N182" s="96"/>
-      <c r="O182" s="96"/>
-      <c r="P182" s="96"/>
+      <c r="L182" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M182" s="62">
+        <v>8</v>
+      </c>
+      <c r="N182" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O182" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P182" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q182" s="140"/>
       <c r="R182" s="139"/>
     </row>
@@ -29627,11 +29973,21 @@
       <c r="K183" s="139" t="s">
         <v>599</v>
       </c>
-      <c r="L183" s="96"/>
-      <c r="M183" s="96"/>
-      <c r="N183" s="96"/>
-      <c r="O183" s="96"/>
-      <c r="P183" s="96"/>
+      <c r="L183" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M183" s="62">
+        <v>5</v>
+      </c>
+      <c r="N183" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O183" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P183" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q183" s="140"/>
       <c r="R183" s="139"/>
     </row>
@@ -29666,11 +30022,21 @@
       <c r="K184" s="139" t="s">
         <v>629</v>
       </c>
-      <c r="L184" s="96"/>
-      <c r="M184" s="96"/>
-      <c r="N184" s="96"/>
-      <c r="O184" s="96"/>
-      <c r="P184" s="96"/>
+      <c r="L184" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M184" s="62">
+        <v>5</v>
+      </c>
+      <c r="N184" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O184" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P184" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q184" s="140"/>
       <c r="R184" s="139"/>
     </row>
@@ -29705,11 +30071,21 @@
       <c r="K185" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="L185" s="96"/>
-      <c r="M185" s="96"/>
-      <c r="N185" s="96"/>
-      <c r="O185" s="96"/>
-      <c r="P185" s="96"/>
+      <c r="L185" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M185" s="62">
+        <v>5</v>
+      </c>
+      <c r="N185" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O185" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P185" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q185" s="140"/>
       <c r="R185" s="139"/>
     </row>
@@ -29744,11 +30120,21 @@
       <c r="K186" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="L186" s="96"/>
-      <c r="M186" s="96"/>
-      <c r="N186" s="96"/>
-      <c r="O186" s="96"/>
-      <c r="P186" s="96"/>
+      <c r="L186" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M186" s="62">
+        <v>5</v>
+      </c>
+      <c r="N186" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O186" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P186" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q186" s="140"/>
       <c r="R186" s="139"/>
     </row>
@@ -29783,11 +30169,21 @@
       <c r="K187" s="139" t="s">
         <v>633</v>
       </c>
-      <c r="L187" s="96"/>
-      <c r="M187" s="96"/>
-      <c r="N187" s="96"/>
-      <c r="O187" s="96"/>
-      <c r="P187" s="96"/>
+      <c r="L187" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M187" s="62">
+        <v>5</v>
+      </c>
+      <c r="N187" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O187" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P187" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q187" s="140"/>
       <c r="R187" s="139"/>
     </row>
@@ -29822,11 +30218,21 @@
       <c r="K188" s="139" t="s">
         <v>609</v>
       </c>
-      <c r="L188" s="96"/>
-      <c r="M188" s="96"/>
-      <c r="N188" s="96"/>
-      <c r="O188" s="96"/>
-      <c r="P188" s="96"/>
+      <c r="L188" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M188" s="62">
+        <v>5</v>
+      </c>
+      <c r="N188" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O188" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P188" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q188" s="140"/>
       <c r="R188" s="139"/>
     </row>
@@ -29861,11 +30267,21 @@
       <c r="K189" s="139" t="s">
         <v>611</v>
       </c>
-      <c r="L189" s="96"/>
-      <c r="M189" s="96"/>
-      <c r="N189" s="96"/>
-      <c r="O189" s="96"/>
-      <c r="P189" s="96"/>
+      <c r="L189" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M189" s="62">
+        <v>5</v>
+      </c>
+      <c r="N189" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O189" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P189" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q189" s="140"/>
       <c r="R189" s="139"/>
     </row>
@@ -29902,11 +30318,21 @@
       <c r="K190" s="139" t="s">
         <v>617</v>
       </c>
-      <c r="L190" s="96"/>
-      <c r="M190" s="96"/>
-      <c r="N190" s="96"/>
-      <c r="O190" s="96"/>
-      <c r="P190" s="96"/>
+      <c r="L190" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M190" s="62">
+        <v>5</v>
+      </c>
+      <c r="N190" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O190" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P190" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q190" s="140"/>
       <c r="R190" s="139"/>
     </row>
@@ -29941,11 +30367,21 @@
       <c r="K191" s="139" t="s">
         <v>619</v>
       </c>
-      <c r="L191" s="96"/>
-      <c r="M191" s="96"/>
-      <c r="N191" s="96"/>
-      <c r="O191" s="96"/>
-      <c r="P191" s="96"/>
+      <c r="L191" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M191" s="62">
+        <v>5</v>
+      </c>
+      <c r="N191" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O191" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P191" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q191" s="140"/>
       <c r="R191" s="139"/>
     </row>
@@ -29980,11 +30416,21 @@
       <c r="K192" s="139" t="s">
         <v>621</v>
       </c>
-      <c r="L192" s="96"/>
-      <c r="M192" s="96"/>
-      <c r="N192" s="96"/>
-      <c r="O192" s="96"/>
-      <c r="P192" s="96"/>
+      <c r="L192" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M192" s="62">
+        <v>5</v>
+      </c>
+      <c r="N192" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O192" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P192" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q192" s="140"/>
       <c r="R192" s="139"/>
     </row>
@@ -30019,11 +30465,21 @@
       <c r="K193" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="L193" s="96"/>
-      <c r="M193" s="96"/>
-      <c r="N193" s="96"/>
-      <c r="O193" s="96"/>
-      <c r="P193" s="96"/>
+      <c r="L193" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M193" s="62">
+        <v>5</v>
+      </c>
+      <c r="N193" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O193" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P193" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q193" s="140"/>
       <c r="R193" s="139"/>
     </row>
@@ -30053,16 +30509,26 @@
         <v>615</v>
       </c>
       <c r="J194" s="139" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="K194" s="139" t="s">
         <v>624</v>
       </c>
-      <c r="L194" s="96"/>
-      <c r="M194" s="96"/>
-      <c r="N194" s="96"/>
-      <c r="O194" s="96"/>
-      <c r="P194" s="96"/>
+      <c r="L194" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M194" s="62">
+        <v>8</v>
+      </c>
+      <c r="N194" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O194" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P194" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q194" s="140"/>
       <c r="R194" s="139"/>
     </row>
@@ -30092,16 +30558,26 @@
         <v>615</v>
       </c>
       <c r="J195" s="139" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="K195" s="139" t="s">
         <v>626</v>
       </c>
-      <c r="L195" s="96"/>
-      <c r="M195" s="96"/>
-      <c r="N195" s="96"/>
-      <c r="O195" s="96"/>
-      <c r="P195" s="96"/>
+      <c r="L195" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M195" s="62">
+        <v>8</v>
+      </c>
+      <c r="N195" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O195" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P195" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q195" s="140"/>
       <c r="R195" s="139"/>
     </row>
@@ -30131,16 +30607,26 @@
         <v>615</v>
       </c>
       <c r="J196" s="139" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K196" s="139" t="s">
         <v>599</v>
       </c>
-      <c r="L196" s="96"/>
-      <c r="M196" s="96"/>
-      <c r="N196" s="96"/>
-      <c r="O196" s="96"/>
-      <c r="P196" s="96"/>
+      <c r="L196" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M196" s="62">
+        <v>5</v>
+      </c>
+      <c r="N196" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O196" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P196" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q196" s="140"/>
       <c r="R196" s="139"/>
     </row>
@@ -30170,16 +30656,26 @@
         <v>615</v>
       </c>
       <c r="J197" s="139" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K197" s="139" t="s">
         <v>629</v>
       </c>
-      <c r="L197" s="96"/>
-      <c r="M197" s="96"/>
-      <c r="N197" s="96"/>
-      <c r="O197" s="96"/>
-      <c r="P197" s="96"/>
+      <c r="L197" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M197" s="62">
+        <v>5</v>
+      </c>
+      <c r="N197" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O197" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P197" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q197" s="140"/>
       <c r="R197" s="139"/>
     </row>
@@ -30209,16 +30705,26 @@
         <v>615</v>
       </c>
       <c r="J198" s="139" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K198" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="L198" s="96"/>
-      <c r="M198" s="96"/>
-      <c r="N198" s="96"/>
-      <c r="O198" s="96"/>
-      <c r="P198" s="96"/>
+      <c r="L198" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M198" s="62">
+        <v>5</v>
+      </c>
+      <c r="N198" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O198" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P198" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q198" s="140"/>
       <c r="R198" s="139"/>
     </row>
@@ -30248,16 +30754,26 @@
         <v>615</v>
       </c>
       <c r="J199" s="139" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K199" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="L199" s="96"/>
-      <c r="M199" s="96"/>
-      <c r="N199" s="96"/>
-      <c r="O199" s="96"/>
-      <c r="P199" s="96"/>
+      <c r="L199" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M199" s="62">
+        <v>5</v>
+      </c>
+      <c r="N199" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O199" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P199" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q199" s="140"/>
       <c r="R199" s="139"/>
     </row>
@@ -30287,16 +30803,26 @@
         <v>615</v>
       </c>
       <c r="J200" s="139" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K200" s="139" t="s">
-        <v>647</v>
-      </c>
-      <c r="L200" s="96"/>
-      <c r="M200" s="96"/>
-      <c r="N200" s="96"/>
-      <c r="O200" s="96"/>
-      <c r="P200" s="96"/>
+        <v>645</v>
+      </c>
+      <c r="L200" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M200" s="62">
+        <v>5</v>
+      </c>
+      <c r="N200" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O200" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P200" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q200" s="140"/>
       <c r="R200" s="139"/>
     </row>
@@ -30326,16 +30852,26 @@
         <v>615</v>
       </c>
       <c r="J201" s="139" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K201" s="139" t="s">
-        <v>649</v>
-      </c>
-      <c r="L201" s="96"/>
-      <c r="M201" s="96"/>
-      <c r="N201" s="96"/>
-      <c r="O201" s="96"/>
-      <c r="P201" s="96"/>
+        <v>647</v>
+      </c>
+      <c r="L201" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M201" s="62">
+        <v>5</v>
+      </c>
+      <c r="N201" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O201" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P201" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q201" s="140"/>
       <c r="R201" s="139"/>
     </row>
@@ -30365,16 +30901,26 @@
         <v>615</v>
       </c>
       <c r="J202" s="139" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K202" s="139" t="s">
         <v>611</v>
       </c>
-      <c r="L202" s="96"/>
-      <c r="M202" s="96"/>
-      <c r="N202" s="96"/>
-      <c r="O202" s="96"/>
-      <c r="P202" s="96"/>
+      <c r="L202" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M202" s="62">
+        <v>5</v>
+      </c>
+      <c r="N202" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O202" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P202" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q202" s="140"/>
       <c r="R202" s="139"/>
     </row>
@@ -30406,16 +30952,26 @@
         <v>583</v>
       </c>
       <c r="J203" s="139" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K203" s="139" t="s">
-        <v>647</v>
-      </c>
-      <c r="L203" s="96"/>
-      <c r="M203" s="96"/>
-      <c r="N203" s="96"/>
-      <c r="O203" s="96"/>
-      <c r="P203" s="96"/>
+        <v>645</v>
+      </c>
+      <c r="L203" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M203" s="62">
+        <v>5</v>
+      </c>
+      <c r="N203" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O203" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P203" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q203" s="140"/>
       <c r="R203" s="139"/>
     </row>
@@ -30445,16 +31001,26 @@
         <v>583</v>
       </c>
       <c r="J204" s="139" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K204" s="139" t="s">
-        <v>649</v>
-      </c>
-      <c r="L204" s="96"/>
-      <c r="M204" s="96"/>
-      <c r="N204" s="96"/>
-      <c r="O204" s="96"/>
-      <c r="P204" s="96"/>
+        <v>647</v>
+      </c>
+      <c r="L204" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M204" s="62">
+        <v>5</v>
+      </c>
+      <c r="N204" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O204" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P204" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q204" s="140"/>
       <c r="R204" s="139"/>
     </row>
@@ -30482,7 +31048,7 @@
       <c r="H205" s="80"/>
       <c r="I205" s="80"/>
       <c r="J205" s="99" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K205" s="99"/>
       <c r="L205" s="80"/>
@@ -30517,7 +31083,7 @@
       <c r="H206" s="80"/>
       <c r="I206" s="80"/>
       <c r="J206" s="99" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K206" s="99"/>
       <c r="L206" s="80"/>
@@ -30625,7 +31191,7 @@
         <v>531</v>
       </c>
       <c r="I209" s="96" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J209" s="139" t="s">
         <v>551</v>
@@ -30633,11 +31199,21 @@
       <c r="K209" s="139" t="s">
         <v>552</v>
       </c>
-      <c r="L209" s="96"/>
-      <c r="M209" s="96"/>
-      <c r="N209" s="96"/>
-      <c r="O209" s="96"/>
-      <c r="P209" s="96"/>
+      <c r="L209" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M209" s="62">
+        <v>5</v>
+      </c>
+      <c r="N209" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O209" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P209" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q209" s="140"/>
       <c r="R209" s="139"/>
     </row>
@@ -30665,7 +31241,7 @@
       <c r="H210" s="80"/>
       <c r="I210" s="80"/>
       <c r="J210" s="99" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K210" s="99"/>
       <c r="L210" s="80"/>
@@ -30701,7 +31277,7 @@
         <v>531</v>
       </c>
       <c r="I211" s="96" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J211" s="139" t="s">
         <v>551</v>
@@ -30709,11 +31285,21 @@
       <c r="K211" s="139" t="s">
         <v>552</v>
       </c>
-      <c r="L211" s="96"/>
-      <c r="M211" s="96"/>
-      <c r="N211" s="96"/>
-      <c r="O211" s="96"/>
-      <c r="P211" s="96"/>
+      <c r="L211" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M211" s="62">
+        <v>5</v>
+      </c>
+      <c r="N211" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O211" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P211" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q211" s="140"/>
       <c r="R211" s="139"/>
     </row>
@@ -30741,7 +31327,7 @@
       <c r="H212" s="80"/>
       <c r="I212" s="80"/>
       <c r="J212" s="99" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K212" s="99"/>
       <c r="L212" s="80"/>
@@ -30776,7 +31362,7 @@
       <c r="H213" s="80"/>
       <c r="I213" s="80"/>
       <c r="J213" s="99" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K213" s="99"/>
       <c r="L213" s="80"/>
@@ -30812,7 +31398,7 @@
         <v>531</v>
       </c>
       <c r="I214" s="96" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J214" s="139" t="s">
         <v>554</v>
@@ -30820,11 +31406,21 @@
       <c r="K214" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="L214" s="96"/>
-      <c r="M214" s="96"/>
-      <c r="N214" s="96"/>
-      <c r="O214" s="96"/>
-      <c r="P214" s="96"/>
+      <c r="L214" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M214" s="62">
+        <v>3</v>
+      </c>
+      <c r="N214" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O214" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P214" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q214" s="140"/>
       <c r="R214" s="139"/>
     </row>
@@ -30968,11 +31564,21 @@
       <c r="K218" s="139" t="s">
         <v>560</v>
       </c>
-      <c r="L218" s="96"/>
-      <c r="M218" s="96"/>
-      <c r="N218" s="96"/>
-      <c r="O218" s="96"/>
-      <c r="P218" s="96"/>
+      <c r="L218" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="M218" s="62">
+        <v>5</v>
+      </c>
+      <c r="N218" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O218" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P218" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q218" s="140"/>
       <c r="R218" s="139"/>
     </row>
@@ -35207,7 +35813,7 @@
       <c r="Q335" s="105"/>
       <c r="R335" s="99"/>
     </row>
-    <row r="336" spans="1:18" ht="45">
+    <row r="336" spans="1:18" ht="90">
       <c r="A336" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -35237,26 +35843,36 @@
       </c>
       <c r="G336" s="61"/>
       <c r="H336" s="62" t="s">
+        <v>654</v>
+      </c>
+      <c r="I336" s="62" t="s">
+        <v>655</v>
+      </c>
+      <c r="J336" s="62" t="s">
         <v>656</v>
       </c>
-      <c r="I336" s="62" t="s">
+      <c r="K336" s="62" t="s">
         <v>657</v>
       </c>
-      <c r="J336" s="62" t="s">
-        <v>658</v>
-      </c>
-      <c r="K336" s="62" t="s">
-        <v>659</v>
-      </c>
-      <c r="L336" s="62"/>
-      <c r="M336" s="62"/>
-      <c r="N336" s="62"/>
-      <c r="O336" s="62"/>
-      <c r="P336" s="62"/>
+      <c r="L336" s="62" t="s">
+        <v>681</v>
+      </c>
+      <c r="M336" s="62">
+        <v>6</v>
+      </c>
+      <c r="N336" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O336" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P336" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q336" s="62"/>
       <c r="R336" s="62"/>
     </row>
-    <row r="337" spans="1:18" ht="45">
+    <row r="337" spans="1:18" ht="90">
       <c r="A337" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -35278,22 +35894,32 @@
       </c>
       <c r="G337" s="61"/>
       <c r="H337" s="62" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I337" s="62" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J337" s="62" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K337" s="62" t="s">
-        <v>661</v>
-      </c>
-      <c r="L337" s="62"/>
-      <c r="M337" s="62"/>
-      <c r="N337" s="62"/>
-      <c r="O337" s="62"/>
-      <c r="P337" s="62"/>
+        <v>659</v>
+      </c>
+      <c r="L337" s="62" t="s">
+        <v>681</v>
+      </c>
+      <c r="M337" s="62">
+        <v>6</v>
+      </c>
+      <c r="N337" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="O337" s="180">
+        <v>44854</v>
+      </c>
+      <c r="P337" s="62" t="s">
+        <v>678</v>
+      </c>
       <c r="Q337" s="62"/>
       <c r="R337" s="62"/>
     </row>
@@ -35321,7 +35947,7 @@
       <c r="H338" s="80"/>
       <c r="I338" s="80"/>
       <c r="J338" s="80" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K338" s="80"/>
       <c r="L338" s="80"/>
@@ -35356,7 +35982,7 @@
       <c r="H339" s="80"/>
       <c r="I339" s="80"/>
       <c r="J339" s="80" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K339" s="80"/>
       <c r="L339" s="80"/>
@@ -35393,7 +36019,7 @@
       <c r="H340" s="80"/>
       <c r="I340" s="80"/>
       <c r="J340" s="80" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K340" s="80"/>
       <c r="L340" s="80"/>
@@ -35430,7 +36056,7 @@
       <c r="H341" s="80"/>
       <c r="I341" s="80"/>
       <c r="J341" s="80" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K341" s="80"/>
       <c r="L341" s="80"/>
@@ -35543,7 +36169,7 @@
       <c r="H344" s="80"/>
       <c r="I344" s="80"/>
       <c r="J344" s="80" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K344" s="80"/>
       <c r="L344" s="80"/>
@@ -35578,7 +36204,7 @@
       <c r="H345" s="80"/>
       <c r="I345" s="80"/>
       <c r="J345" s="80" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K345" s="80"/>
       <c r="L345" s="80"/>
@@ -35613,7 +36239,7 @@
       <c r="H346" s="80"/>
       <c r="I346" s="80"/>
       <c r="J346" s="80" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K346" s="80"/>
       <c r="L346" s="80"/>
@@ -35652,7 +36278,7 @@
       <c r="H347" s="80"/>
       <c r="I347" s="80"/>
       <c r="J347" s="80" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K347" s="80"/>
       <c r="L347" s="80"/>
@@ -35687,7 +36313,7 @@
       <c r="H348" s="80"/>
       <c r="I348" s="80"/>
       <c r="J348" s="80" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K348" s="80"/>
       <c r="L348" s="80"/>
@@ -35722,7 +36348,7 @@
       <c r="H349" s="80"/>
       <c r="I349" s="80"/>
       <c r="J349" s="80" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K349" s="80"/>
       <c r="L349" s="80"/>
@@ -35761,7 +36387,7 @@
       <c r="H350" s="80"/>
       <c r="I350" s="80"/>
       <c r="J350" s="80" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K350" s="80"/>
       <c r="L350" s="80"/>
@@ -35796,7 +36422,7 @@
       <c r="H351" s="80"/>
       <c r="I351" s="80"/>
       <c r="J351" s="80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K351" s="80"/>
       <c r="L351" s="80"/>
@@ -35831,7 +36457,7 @@
       <c r="H352" s="80"/>
       <c r="I352" s="80"/>
       <c r="J352" s="80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K352" s="80"/>
       <c r="L352" s="80"/>
@@ -35866,7 +36492,7 @@
       <c r="H353" s="80"/>
       <c r="I353" s="80"/>
       <c r="J353" s="80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K353" s="80"/>
       <c r="L353" s="80"/>
@@ -35901,7 +36527,7 @@
       <c r="H354" s="80"/>
       <c r="I354" s="80"/>
       <c r="J354" s="80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K354" s="80"/>
       <c r="L354" s="80"/>
@@ -35936,7 +36562,7 @@
       <c r="H355" s="80"/>
       <c r="I355" s="80"/>
       <c r="J355" s="80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K355" s="80"/>
       <c r="L355" s="80"/>
@@ -35971,7 +36597,7 @@
       <c r="H356" s="80"/>
       <c r="I356" s="80"/>
       <c r="J356" s="80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K356" s="80"/>
       <c r="L356" s="80"/>
@@ -36006,7 +36632,7 @@
       <c r="H357" s="80"/>
       <c r="I357" s="80"/>
       <c r="J357" s="80" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K357" s="80"/>
       <c r="L357" s="80"/>
@@ -36049,7 +36675,7 @@
       <c r="H358" s="80"/>
       <c r="I358" s="80"/>
       <c r="J358" s="80" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K358" s="80"/>
       <c r="L358" s="80"/>
@@ -36092,7 +36718,7 @@
       <c r="H359" s="80"/>
       <c r="I359" s="80"/>
       <c r="J359" s="80" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K359" s="80"/>
       <c r="L359" s="80"/>
@@ -36278,7 +36904,7 @@
       <c r="E11" s="165"/>
       <c r="F11" s="165"/>
       <c r="G11" s="158" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H11" s="158"/>
       <c r="I11" s="166"/>
@@ -36301,7 +36927,7 @@
       <c r="E12" s="165"/>
       <c r="F12" s="165"/>
       <c r="G12" s="158" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H12" s="158"/>
       <c r="I12" s="166"/>
@@ -36326,7 +36952,7 @@
       <c r="E13" s="98"/>
       <c r="F13" s="98"/>
       <c r="G13" s="98" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H13" s="98"/>
       <c r="I13" s="172"/>
@@ -36349,7 +36975,7 @@
       <c r="E14" s="98"/>
       <c r="F14" s="98"/>
       <c r="G14" s="98" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="172"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F117164-7FDE-498F-B432-9DD6F05B5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE3E17-2349-4858-8725-D383C3C32777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="684">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8101,26 +8101,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロジェクト開始日付に'1-1-1'を設定して出力する。</t>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト開始日付に'1-1-2'を設定して出力する。</t>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>組織IDに4を設定して出力する。</t>
     <rPh sb="0" eb="2">
       <t>ソシキ</t>
@@ -8597,6 +8577,29 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1、2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3、4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスティングフレームワークを使用した単体テスト実行時に、業務日付をシステムプロパティ設定による上書き実行が実施できないため、コマンド実行で確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testNormalEnd</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -9107,7 +9110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -9566,6 +9569,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10835,12 +10841,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="163" t="str">
+      <c r="I25" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -11400,57 +11406,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="199" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="200" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="208" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="217" t="s">
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="218" t="s">
         <v>517</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="193" t="s">
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="196" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="202" t="str">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="203" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="203"/>
-      <c r="AI1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="205"/>
       <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
@@ -11458,53 +11464,53 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="199" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="200" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="193" t="s">
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
+      <c r="X2" s="222"/>
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="205" t="str">
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="206" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="207"/>
-      <c r="AG2" s="202" t="str">
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="203" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="204"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="205"/>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
@@ -11512,45 +11518,45 @@
       <c r="AN2" s="22"/>
     </row>
     <row r="3" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="199" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="200" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="216"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="204"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="225"/>
+      <c r="Y3" s="225"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="196"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="205"/>
       <c r="AJ3" s="22"/>
       <c r="AK3" s="22"/>
       <c r="AL3" s="22"/>
@@ -11587,1014 +11593,1014 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="177" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="177" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="177" t="s">
+      <c r="H7" s="180"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="177" t="s">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="178"/>
-      <c r="AF7" s="177" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="178"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="179"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="191"/>
-      <c r="AE8" s="192"/>
-      <c r="AF8" s="187"/>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188"/>
-      <c r="AI8" s="189"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="190"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="192"/>
+      <c r="U8" s="192"/>
+      <c r="V8" s="192"/>
+      <c r="W8" s="192"/>
+      <c r="X8" s="192"/>
+      <c r="Y8" s="192"/>
+      <c r="Z8" s="192"/>
+      <c r="AA8" s="192"/>
+      <c r="AB8" s="192"/>
+      <c r="AC8" s="192"/>
+      <c r="AD8" s="192"/>
+      <c r="AE8" s="193"/>
+      <c r="AF8" s="188"/>
+      <c r="AG8" s="189"/>
+      <c r="AH8" s="189"/>
+      <c r="AI8" s="190"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="172"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="172"/>
+      <c r="AH9" s="172"/>
+      <c r="AI9" s="173"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="174"/>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="172"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="176"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="172"/>
+      <c r="AI10" s="173"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="171"/>
-      <c r="AI11" s="172"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="176"/>
+      <c r="AF11" s="171"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="173"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="171"/>
-      <c r="AI12" s="172"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="175"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="175"/>
+      <c r="AB12" s="175"/>
+      <c r="AC12" s="175"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="171"/>
+      <c r="AG12" s="172"/>
+      <c r="AH12" s="172"/>
+      <c r="AI12" s="173"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="171"/>
-      <c r="AI13" s="172"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="175"/>
+      <c r="AC13" s="175"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="176"/>
+      <c r="AF13" s="171"/>
+      <c r="AG13" s="172"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="173"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="174"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="171"/>
-      <c r="AI14" s="172"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="175"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="175"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="176"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="172"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="173"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="170"/>
-      <c r="AG15" s="171"/>
-      <c r="AH15" s="171"/>
-      <c r="AI15" s="172"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="175"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="176"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="172"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="173"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="174"/>
-      <c r="U16" s="174"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="174"/>
-      <c r="AC16" s="174"/>
-      <c r="AD16" s="174"/>
-      <c r="AE16" s="175"/>
-      <c r="AF16" s="170"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="171"/>
-      <c r="AI16" s="172"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="175"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="175"/>
+      <c r="X16" s="175"/>
+      <c r="Y16" s="175"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="175"/>
+      <c r="AC16" s="175"/>
+      <c r="AD16" s="175"/>
+      <c r="AE16" s="176"/>
+      <c r="AF16" s="171"/>
+      <c r="AG16" s="172"/>
+      <c r="AH16" s="172"/>
+      <c r="AI16" s="173"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="174"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="175"/>
-      <c r="AF17" s="170"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="171"/>
-      <c r="AI17" s="172"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="175"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="175"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="175"/>
+      <c r="AC17" s="175"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="176"/>
+      <c r="AF17" s="171"/>
+      <c r="AG17" s="172"/>
+      <c r="AH17" s="172"/>
+      <c r="AI17" s="173"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="175"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="172"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="175"/>
+      <c r="W18" s="175"/>
+      <c r="X18" s="175"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="175"/>
+      <c r="AB18" s="175"/>
+      <c r="AC18" s="175"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="176"/>
+      <c r="AF18" s="171"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="173"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="174"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="174"/>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="170"/>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="171"/>
-      <c r="AI19" s="172"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="175"/>
+      <c r="W19" s="175"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="175"/>
+      <c r="AB19" s="175"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="176"/>
+      <c r="AF19" s="171"/>
+      <c r="AG19" s="172"/>
+      <c r="AH19" s="172"/>
+      <c r="AI19" s="173"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
-      <c r="U20" s="174"/>
-      <c r="V20" s="174"/>
-      <c r="W20" s="174"/>
-      <c r="X20" s="174"/>
-      <c r="Y20" s="174"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="174"/>
-      <c r="AB20" s="174"/>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="175"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="171"/>
-      <c r="AH20" s="171"/>
-      <c r="AI20" s="172"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="175"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="175"/>
+      <c r="AB20" s="175"/>
+      <c r="AC20" s="175"/>
+      <c r="AD20" s="175"/>
+      <c r="AE20" s="176"/>
+      <c r="AF20" s="171"/>
+      <c r="AG20" s="172"/>
+      <c r="AH20" s="172"/>
+      <c r="AI20" s="173"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="174"/>
-      <c r="AC21" s="174"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="170"/>
-      <c r="AG21" s="171"/>
-      <c r="AH21" s="171"/>
-      <c r="AI21" s="172"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="175"/>
+      <c r="AB21" s="175"/>
+      <c r="AC21" s="175"/>
+      <c r="AD21" s="175"/>
+      <c r="AE21" s="176"/>
+      <c r="AF21" s="171"/>
+      <c r="AG21" s="172"/>
+      <c r="AH21" s="172"/>
+      <c r="AI21" s="173"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
-      <c r="U22" s="174"/>
-      <c r="V22" s="174"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="174"/>
-      <c r="Y22" s="174"/>
-      <c r="Z22" s="174"/>
-      <c r="AA22" s="174"/>
-      <c r="AB22" s="174"/>
-      <c r="AC22" s="174"/>
-      <c r="AD22" s="174"/>
-      <c r="AE22" s="175"/>
-      <c r="AF22" s="170"/>
-      <c r="AG22" s="171"/>
-      <c r="AH22" s="171"/>
-      <c r="AI22" s="172"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="175"/>
+      <c r="W22" s="175"/>
+      <c r="X22" s="175"/>
+      <c r="Y22" s="175"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="175"/>
+      <c r="AB22" s="175"/>
+      <c r="AC22" s="175"/>
+      <c r="AD22" s="175"/>
+      <c r="AE22" s="176"/>
+      <c r="AF22" s="171"/>
+      <c r="AG22" s="172"/>
+      <c r="AH22" s="172"/>
+      <c r="AI22" s="173"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="174"/>
-      <c r="T23" s="174"/>
-      <c r="U23" s="174"/>
-      <c r="V23" s="174"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="174"/>
-      <c r="Y23" s="174"/>
-      <c r="Z23" s="174"/>
-      <c r="AA23" s="174"/>
-      <c r="AB23" s="174"/>
-      <c r="AC23" s="174"/>
-      <c r="AD23" s="174"/>
-      <c r="AE23" s="175"/>
-      <c r="AF23" s="170"/>
-      <c r="AG23" s="171"/>
-      <c r="AH23" s="171"/>
-      <c r="AI23" s="172"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="175"/>
+      <c r="Y23" s="175"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="175"/>
+      <c r="AC23" s="175"/>
+      <c r="AD23" s="175"/>
+      <c r="AE23" s="176"/>
+      <c r="AF23" s="171"/>
+      <c r="AG23" s="172"/>
+      <c r="AH23" s="172"/>
+      <c r="AI23" s="173"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
-      <c r="AB24" s="174"/>
-      <c r="AC24" s="174"/>
-      <c r="AD24" s="174"/>
-      <c r="AE24" s="175"/>
-      <c r="AF24" s="170"/>
-      <c r="AG24" s="171"/>
-      <c r="AH24" s="171"/>
-      <c r="AI24" s="172"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
+      <c r="X24" s="175"/>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="175"/>
+      <c r="AA24" s="175"/>
+      <c r="AB24" s="175"/>
+      <c r="AC24" s="175"/>
+      <c r="AD24" s="175"/>
+      <c r="AE24" s="176"/>
+      <c r="AF24" s="171"/>
+      <c r="AG24" s="172"/>
+      <c r="AH24" s="172"/>
+      <c r="AI24" s="173"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
-      <c r="AB25" s="174"/>
-      <c r="AC25" s="174"/>
-      <c r="AD25" s="174"/>
-      <c r="AE25" s="175"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="171"/>
-      <c r="AH25" s="171"/>
-      <c r="AI25" s="172"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="174"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
+      <c r="X25" s="175"/>
+      <c r="Y25" s="175"/>
+      <c r="Z25" s="175"/>
+      <c r="AA25" s="175"/>
+      <c r="AB25" s="175"/>
+      <c r="AC25" s="175"/>
+      <c r="AD25" s="175"/>
+      <c r="AE25" s="176"/>
+      <c r="AF25" s="171"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="173"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="170"/>
-      <c r="AG26" s="171"/>
-      <c r="AH26" s="171"/>
-      <c r="AI26" s="172"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
+      <c r="X26" s="175"/>
+      <c r="Y26" s="175"/>
+      <c r="Z26" s="175"/>
+      <c r="AA26" s="175"/>
+      <c r="AB26" s="175"/>
+      <c r="AC26" s="175"/>
+      <c r="AD26" s="175"/>
+      <c r="AE26" s="176"/>
+      <c r="AF26" s="171"/>
+      <c r="AG26" s="172"/>
+      <c r="AH26" s="172"/>
+      <c r="AI26" s="173"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="174"/>
-      <c r="V27" s="174"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="174"/>
-      <c r="Y27" s="174"/>
-      <c r="Z27" s="174"/>
-      <c r="AA27" s="174"/>
-      <c r="AB27" s="174"/>
-      <c r="AC27" s="174"/>
-      <c r="AD27" s="174"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="170"/>
-      <c r="AG27" s="171"/>
-      <c r="AH27" s="171"/>
-      <c r="AI27" s="172"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="175"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
+      <c r="AA27" s="175"/>
+      <c r="AB27" s="175"/>
+      <c r="AC27" s="175"/>
+      <c r="AD27" s="175"/>
+      <c r="AE27" s="176"/>
+      <c r="AF27" s="171"/>
+      <c r="AG27" s="172"/>
+      <c r="AH27" s="172"/>
+      <c r="AI27" s="173"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="174"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="174"/>
-      <c r="AE28" s="175"/>
-      <c r="AF28" s="170"/>
-      <c r="AG28" s="171"/>
-      <c r="AH28" s="171"/>
-      <c r="AI28" s="172"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="175"/>
+      <c r="AE28" s="176"/>
+      <c r="AF28" s="171"/>
+      <c r="AG28" s="172"/>
+      <c r="AH28" s="172"/>
+      <c r="AI28" s="173"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="174"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="175"/>
-      <c r="AF29" s="170"/>
-      <c r="AG29" s="171"/>
-      <c r="AH29" s="171"/>
-      <c r="AI29" s="172"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
+      <c r="AA29" s="175"/>
+      <c r="AB29" s="175"/>
+      <c r="AC29" s="175"/>
+      <c r="AD29" s="175"/>
+      <c r="AE29" s="176"/>
+      <c r="AF29" s="171"/>
+      <c r="AG29" s="172"/>
+      <c r="AH29" s="172"/>
+      <c r="AI29" s="173"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="174"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="175"/>
-      <c r="AF30" s="170"/>
-      <c r="AG30" s="171"/>
-      <c r="AH30" s="171"/>
-      <c r="AI30" s="172"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="175"/>
+      <c r="W30" s="175"/>
+      <c r="X30" s="175"/>
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="175"/>
+      <c r="AA30" s="175"/>
+      <c r="AB30" s="175"/>
+      <c r="AC30" s="175"/>
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="176"/>
+      <c r="AF30" s="171"/>
+      <c r="AG30" s="172"/>
+      <c r="AH30" s="172"/>
+      <c r="AI30" s="173"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="175"/>
-      <c r="AF31" s="170"/>
-      <c r="AG31" s="171"/>
-      <c r="AH31" s="171"/>
-      <c r="AI31" s="172"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="172"/>
+      <c r="L31" s="172"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="172"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="173"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="175"/>
+      <c r="V31" s="175"/>
+      <c r="W31" s="175"/>
+      <c r="X31" s="175"/>
+      <c r="Y31" s="175"/>
+      <c r="Z31" s="175"/>
+      <c r="AA31" s="175"/>
+      <c r="AB31" s="175"/>
+      <c r="AC31" s="175"/>
+      <c r="AD31" s="175"/>
+      <c r="AE31" s="176"/>
+      <c r="AF31" s="171"/>
+      <c r="AG31" s="172"/>
+      <c r="AH31" s="172"/>
+      <c r="AI31" s="173"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174"/>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="170"/>
-      <c r="AG32" s="171"/>
-      <c r="AH32" s="171"/>
-      <c r="AI32" s="172"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="175"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+      <c r="Y32" s="175"/>
+      <c r="Z32" s="175"/>
+      <c r="AA32" s="175"/>
+      <c r="AB32" s="175"/>
+      <c r="AC32" s="175"/>
+      <c r="AD32" s="175"/>
+      <c r="AE32" s="176"/>
+      <c r="AF32" s="171"/>
+      <c r="AG32" s="172"/>
+      <c r="AH32" s="172"/>
+      <c r="AI32" s="173"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
-      <c r="AF33" s="170"/>
-      <c r="AG33" s="171"/>
-      <c r="AH33" s="171"/>
-      <c r="AI33" s="172"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="175"/>
+      <c r="X33" s="175"/>
+      <c r="Y33" s="175"/>
+      <c r="Z33" s="175"/>
+      <c r="AA33" s="175"/>
+      <c r="AB33" s="175"/>
+      <c r="AC33" s="175"/>
+      <c r="AD33" s="175"/>
+      <c r="AE33" s="176"/>
+      <c r="AF33" s="171"/>
+      <c r="AG33" s="172"/>
+      <c r="AH33" s="172"/>
+      <c r="AI33" s="173"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
@@ -16533,7 +16539,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="226" t="s">
+      <c r="B112" s="227" t="s">
         <v>221</v>
       </c>
       <c r="C112" s="55"/>
@@ -16569,7 +16575,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="226"/>
+      <c r="B113" s="227"/>
       <c r="C113" s="55"/>
       <c r="D113" s="43"/>
       <c r="E113" s="81"/>
@@ -17241,7 +17247,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="226" t="s">
+      <c r="B132" s="227" t="s">
         <v>250</v>
       </c>
       <c r="C132" s="55"/>
@@ -17277,7 +17283,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="226"/>
+      <c r="B133" s="227"/>
       <c r="C133" s="55"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
@@ -22994,6 +23000,10 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="228" max="16" man="1"/>
+    <brk id="268" max="16" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -23059,7 +23069,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="24" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>21</v>
@@ -23070,7 +23080,7 @@
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -24317,11 +24327,21 @@
       <c r="K42" s="62" t="s">
         <v>534</v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
+      <c r="L42" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M42" s="61">
+        <v>1</v>
+      </c>
+      <c r="N42" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O42" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P42" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q42" s="119"/>
       <c r="R42" s="60"/>
     </row>
@@ -24356,11 +24376,21 @@
       <c r="K43" s="62" t="s">
         <v>534</v>
       </c>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
+      <c r="L43" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M43" s="61">
+        <v>2</v>
+      </c>
+      <c r="N43" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O43" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P43" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q43" s="119"/>
       <c r="R43" s="60"/>
     </row>
@@ -24397,11 +24427,21 @@
       <c r="K44" s="62" t="s">
         <v>537</v>
       </c>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
+      <c r="L44" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M44" s="61">
+        <v>3</v>
+      </c>
+      <c r="N44" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O44" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P44" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q44" s="119"/>
       <c r="R44" s="60"/>
     </row>
@@ -24436,11 +24476,21 @@
       <c r="K45" s="62" t="s">
         <v>537</v>
       </c>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
+      <c r="L45" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M45" s="61">
+        <v>4</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O45" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q45" s="119"/>
       <c r="R45" s="60"/>
     </row>
@@ -25694,11 +25744,21 @@
       <c r="K80" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="61"/>
-      <c r="P80" s="61"/>
+      <c r="L80" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M80" s="61" t="s">
+        <v>679</v>
+      </c>
+      <c r="N80" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O80" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P80" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q80" s="119"/>
       <c r="R80" s="60"/>
     </row>
@@ -25732,11 +25792,21 @@
       <c r="K81" s="62" t="s">
         <v>552</v>
       </c>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
+      <c r="L81" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M81" s="61">
+        <v>5</v>
+      </c>
+      <c r="N81" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O81" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P81" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q81" s="119"/>
       <c r="R81" s="60"/>
     </row>
@@ -25773,11 +25843,21 @@
       <c r="K82" s="60" t="s">
         <v>555</v>
       </c>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="61"/>
+      <c r="L82" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M82" s="61" t="s">
+        <v>680</v>
+      </c>
+      <c r="N82" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O82" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P82" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q82" s="119"/>
       <c r="R82" s="60"/>
     </row>
@@ -25808,19 +25888,29 @@
         <v>531</v>
       </c>
       <c r="I83" s="61" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J83" s="122" t="s">
         <v>551</v>
       </c>
       <c r="K83" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
+        <v>677</v>
+      </c>
+      <c r="L83" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M83" s="61">
+        <v>5</v>
+      </c>
+      <c r="N83" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O83" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P83" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q83" s="119"/>
       <c r="R83" s="60"/>
     </row>
@@ -25931,11 +26021,21 @@
       <c r="K86" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="61"/>
-      <c r="P86" s="61"/>
+      <c r="L86" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M86" s="61">
+        <v>5</v>
+      </c>
+      <c r="N86" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O86" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P86" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q86" s="119"/>
       <c r="R86" s="60"/>
     </row>
@@ -27000,7 +27100,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B115" s="227" t="s">
+      <c r="B115" s="228" t="s">
         <v>492</v>
       </c>
       <c r="C115" s="106"/>
@@ -27037,7 +27137,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B116" s="227"/>
+      <c r="B116" s="228"/>
       <c r="C116" s="106"/>
       <c r="D116" s="101"/>
       <c r="E116" s="129"/>
@@ -27713,11 +27813,21 @@
       <c r="K134" s="60" t="s">
         <v>570</v>
       </c>
-      <c r="L134" s="61"/>
-      <c r="M134" s="61"/>
-      <c r="N134" s="61"/>
-      <c r="O134" s="61"/>
-      <c r="P134" s="61"/>
+      <c r="L134" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M134" s="61">
+        <v>5</v>
+      </c>
+      <c r="N134" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O134" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P134" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q134" s="119"/>
       <c r="R134" s="60"/>
     </row>
@@ -27734,7 +27844,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B135" s="228" t="s">
+      <c r="B135" s="229" t="s">
         <v>250</v>
       </c>
       <c r="C135" s="120"/>
@@ -27756,11 +27866,21 @@
       <c r="K135" s="60" t="s">
         <v>569</v>
       </c>
-      <c r="L135" s="61"/>
-      <c r="M135" s="61"/>
-      <c r="N135" s="61"/>
-      <c r="O135" s="61"/>
-      <c r="P135" s="61"/>
+      <c r="L135" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M135" s="61">
+        <v>5</v>
+      </c>
+      <c r="N135" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O135" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P135" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q135" s="119"/>
       <c r="R135" s="60"/>
     </row>
@@ -27777,7 +27897,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B136" s="228"/>
+      <c r="B136" s="229"/>
       <c r="C136" s="120"/>
       <c r="D136" s="116"/>
       <c r="E136" s="120"/>
@@ -27895,7 +28015,7 @@
       <c r="H139" s="79"/>
       <c r="I139" s="79"/>
       <c r="J139" s="97" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K139" s="97"/>
       <c r="L139" s="79"/>
@@ -27984,11 +28104,21 @@
       <c r="K141" s="60" t="s">
         <v>580</v>
       </c>
-      <c r="L141" s="61"/>
-      <c r="M141" s="61"/>
-      <c r="N141" s="61"/>
-      <c r="O141" s="61"/>
-      <c r="P141" s="61"/>
+      <c r="L141" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M141" s="61">
+        <v>5</v>
+      </c>
+      <c r="N141" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O141" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P141" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q141" s="119"/>
       <c r="R141" s="60"/>
     </row>
@@ -28027,11 +28157,21 @@
       <c r="K142" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="L142" s="61"/>
-      <c r="M142" s="61"/>
-      <c r="N142" s="61"/>
-      <c r="O142" s="61"/>
-      <c r="P142" s="61"/>
+      <c r="L142" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M142" s="61">
+        <v>5</v>
+      </c>
+      <c r="N142" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O142" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P142" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q142" s="119"/>
       <c r="R142" s="60"/>
     </row>
@@ -28070,11 +28210,21 @@
       <c r="K143" s="60" t="s">
         <v>582</v>
       </c>
-      <c r="L143" s="61"/>
-      <c r="M143" s="61"/>
-      <c r="N143" s="61"/>
-      <c r="O143" s="61"/>
-      <c r="P143" s="61"/>
+      <c r="L143" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M143" s="61">
+        <v>5</v>
+      </c>
+      <c r="N143" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O143" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P143" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q143" s="119"/>
       <c r="R143" s="60"/>
     </row>
@@ -28150,11 +28300,21 @@
       <c r="K145" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="L145" s="61"/>
-      <c r="M145" s="61"/>
-      <c r="N145" s="61"/>
-      <c r="O145" s="61"/>
-      <c r="P145" s="61"/>
+      <c r="L145" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M145" s="61">
+        <v>5</v>
+      </c>
+      <c r="N145" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O145" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P145" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q145" s="119"/>
       <c r="R145" s="60"/>
     </row>
@@ -28407,11 +28567,21 @@
       <c r="K152" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="L152" s="61"/>
-      <c r="M152" s="61"/>
-      <c r="N152" s="61"/>
-      <c r="O152" s="61"/>
-      <c r="P152" s="61"/>
+      <c r="L152" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M152" s="61">
+        <v>5</v>
+      </c>
+      <c r="N152" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O152" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P152" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q152" s="119"/>
       <c r="R152" s="60"/>
     </row>
@@ -28446,11 +28616,21 @@
       <c r="K153" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="L153" s="61"/>
-      <c r="M153" s="61"/>
-      <c r="N153" s="61"/>
-      <c r="O153" s="61"/>
-      <c r="P153" s="61"/>
+      <c r="L153" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M153" s="61">
+        <v>5</v>
+      </c>
+      <c r="N153" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O153" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P153" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q153" s="119"/>
       <c r="R153" s="60"/>
     </row>
@@ -28485,11 +28665,21 @@
       <c r="K154" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="L154" s="61"/>
-      <c r="M154" s="61"/>
-      <c r="N154" s="61"/>
-      <c r="O154" s="61"/>
-      <c r="P154" s="61"/>
+      <c r="L154" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M154" s="61">
+        <v>5</v>
+      </c>
+      <c r="N154" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O154" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P154" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q154" s="119"/>
       <c r="R154" s="60"/>
     </row>
@@ -28524,11 +28714,21 @@
       <c r="K155" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="L155" s="61"/>
-      <c r="M155" s="61"/>
-      <c r="N155" s="61"/>
-      <c r="O155" s="61"/>
-      <c r="P155" s="61"/>
+      <c r="L155" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M155" s="61">
+        <v>5</v>
+      </c>
+      <c r="N155" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O155" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P155" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q155" s="119"/>
       <c r="R155" s="60"/>
     </row>
@@ -28563,11 +28763,21 @@
       <c r="K156" s="60" t="s">
         <v>595</v>
       </c>
-      <c r="L156" s="61"/>
-      <c r="M156" s="61"/>
-      <c r="N156" s="61"/>
-      <c r="O156" s="61"/>
-      <c r="P156" s="61"/>
+      <c r="L156" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M156" s="61">
+        <v>5</v>
+      </c>
+      <c r="N156" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O156" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P156" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q156" s="119"/>
       <c r="R156" s="60"/>
     </row>
@@ -28602,11 +28812,21 @@
       <c r="K157" s="60" t="s">
         <v>597</v>
       </c>
-      <c r="L157" s="61"/>
-      <c r="M157" s="61"/>
-      <c r="N157" s="61"/>
-      <c r="O157" s="61"/>
-      <c r="P157" s="61"/>
+      <c r="L157" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M157" s="61">
+        <v>5</v>
+      </c>
+      <c r="N157" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O157" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P157" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q157" s="119"/>
       <c r="R157" s="60"/>
     </row>
@@ -28641,11 +28861,21 @@
       <c r="K158" s="60" t="s">
         <v>599</v>
       </c>
-      <c r="L158" s="61"/>
-      <c r="M158" s="61"/>
-      <c r="N158" s="61"/>
-      <c r="O158" s="61"/>
-      <c r="P158" s="61"/>
+      <c r="L158" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M158" s="61">
+        <v>5</v>
+      </c>
+      <c r="N158" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O158" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P158" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q158" s="119"/>
       <c r="R158" s="60"/>
     </row>
@@ -28680,11 +28910,21 @@
       <c r="K159" s="60" t="s">
         <v>601</v>
       </c>
-      <c r="L159" s="61"/>
-      <c r="M159" s="61"/>
-      <c r="N159" s="61"/>
-      <c r="O159" s="61"/>
-      <c r="P159" s="61"/>
+      <c r="L159" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M159" s="61">
+        <v>5</v>
+      </c>
+      <c r="N159" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O159" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P159" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q159" s="119"/>
       <c r="R159" s="60"/>
     </row>
@@ -28719,11 +28959,21 @@
       <c r="K160" s="60" t="s">
         <v>603</v>
       </c>
-      <c r="L160" s="61"/>
-      <c r="M160" s="61"/>
-      <c r="N160" s="61"/>
-      <c r="O160" s="61"/>
-      <c r="P160" s="61"/>
+      <c r="L160" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M160" s="61">
+        <v>5</v>
+      </c>
+      <c r="N160" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O160" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P160" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q160" s="119"/>
       <c r="R160" s="60"/>
     </row>
@@ -28758,11 +29008,21 @@
       <c r="K161" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="L161" s="61"/>
-      <c r="M161" s="61"/>
-      <c r="N161" s="61"/>
-      <c r="O161" s="61"/>
-      <c r="P161" s="61"/>
+      <c r="L161" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M161" s="61">
+        <v>5</v>
+      </c>
+      <c r="N161" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O161" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P161" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q161" s="119"/>
       <c r="R161" s="60"/>
     </row>
@@ -28797,11 +29057,21 @@
       <c r="K162" s="60" t="s">
         <v>607</v>
       </c>
-      <c r="L162" s="61"/>
-      <c r="M162" s="61"/>
-      <c r="N162" s="61"/>
-      <c r="O162" s="61"/>
-      <c r="P162" s="61"/>
+      <c r="L162" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M162" s="61">
+        <v>5</v>
+      </c>
+      <c r="N162" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O162" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P162" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q162" s="119"/>
       <c r="R162" s="60"/>
     </row>
@@ -28836,11 +29106,21 @@
       <c r="K163" s="60" t="s">
         <v>609</v>
       </c>
-      <c r="L163" s="61"/>
-      <c r="M163" s="61"/>
-      <c r="N163" s="61"/>
-      <c r="O163" s="61"/>
-      <c r="P163" s="61"/>
+      <c r="L163" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M163" s="61">
+        <v>5</v>
+      </c>
+      <c r="N163" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O163" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P163" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q163" s="119"/>
       <c r="R163" s="60"/>
     </row>
@@ -28875,11 +29155,21 @@
       <c r="K164" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="L164" s="61"/>
-      <c r="M164" s="61"/>
-      <c r="N164" s="61"/>
-      <c r="O164" s="61"/>
-      <c r="P164" s="61"/>
+      <c r="L164" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M164" s="61">
+        <v>5</v>
+      </c>
+      <c r="N164" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O164" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P164" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q164" s="119"/>
       <c r="R164" s="60"/>
     </row>
@@ -29340,11 +29630,21 @@
       <c r="K177" s="60" t="s">
         <v>617</v>
       </c>
-      <c r="L177" s="61"/>
-      <c r="M177" s="61"/>
-      <c r="N177" s="61"/>
-      <c r="O177" s="61"/>
-      <c r="P177" s="61"/>
+      <c r="L177" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M177" s="61">
+        <v>5</v>
+      </c>
+      <c r="N177" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O177" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P177" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q177" s="119"/>
       <c r="R177" s="60"/>
     </row>
@@ -29379,11 +29679,21 @@
       <c r="K178" s="60" t="s">
         <v>619</v>
       </c>
-      <c r="L178" s="61"/>
-      <c r="M178" s="61"/>
-      <c r="N178" s="61"/>
-      <c r="O178" s="61"/>
-      <c r="P178" s="61"/>
+      <c r="L178" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M178" s="61">
+        <v>5</v>
+      </c>
+      <c r="N178" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O178" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P178" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q178" s="119"/>
       <c r="R178" s="60"/>
     </row>
@@ -29418,11 +29728,21 @@
       <c r="K179" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="L179" s="61"/>
-      <c r="M179" s="61"/>
-      <c r="N179" s="61"/>
-      <c r="O179" s="61"/>
-      <c r="P179" s="61"/>
+      <c r="L179" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M179" s="61">
+        <v>5</v>
+      </c>
+      <c r="N179" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O179" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P179" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q179" s="119"/>
       <c r="R179" s="60"/>
     </row>
@@ -29457,11 +29777,21 @@
       <c r="K180" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="L180" s="61"/>
-      <c r="M180" s="61"/>
-      <c r="N180" s="61"/>
-      <c r="O180" s="61"/>
-      <c r="P180" s="61"/>
+      <c r="L180" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M180" s="61">
+        <v>5</v>
+      </c>
+      <c r="N180" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O180" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P180" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q180" s="119"/>
       <c r="R180" s="60"/>
     </row>
@@ -29496,11 +29826,21 @@
       <c r="K181" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="L181" s="61"/>
-      <c r="M181" s="61"/>
-      <c r="N181" s="61"/>
-      <c r="O181" s="61"/>
-      <c r="P181" s="61"/>
+      <c r="L181" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M181" s="61">
+        <v>8</v>
+      </c>
+      <c r="N181" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O181" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P181" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q181" s="119"/>
       <c r="R181" s="60"/>
     </row>
@@ -29535,11 +29875,21 @@
       <c r="K182" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="L182" s="61"/>
-      <c r="M182" s="61"/>
-      <c r="N182" s="61"/>
-      <c r="O182" s="61"/>
-      <c r="P182" s="61"/>
+      <c r="L182" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M182" s="61">
+        <v>8</v>
+      </c>
+      <c r="N182" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O182" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P182" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q182" s="119"/>
       <c r="R182" s="60"/>
     </row>
@@ -29574,11 +29924,21 @@
       <c r="K183" s="60" t="s">
         <v>599</v>
       </c>
-      <c r="L183" s="61"/>
-      <c r="M183" s="61"/>
-      <c r="N183" s="61"/>
-      <c r="O183" s="61"/>
-      <c r="P183" s="61"/>
+      <c r="L183" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M183" s="61">
+        <v>5</v>
+      </c>
+      <c r="N183" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O183" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P183" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q183" s="119"/>
       <c r="R183" s="60"/>
     </row>
@@ -29613,11 +29973,21 @@
       <c r="K184" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="L184" s="61"/>
-      <c r="M184" s="61"/>
-      <c r="N184" s="61"/>
-      <c r="O184" s="61"/>
-      <c r="P184" s="61"/>
+      <c r="L184" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M184" s="61">
+        <v>5</v>
+      </c>
+      <c r="N184" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O184" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P184" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q184" s="119"/>
       <c r="R184" s="60"/>
     </row>
@@ -29652,11 +30022,21 @@
       <c r="K185" s="60" t="s">
         <v>603</v>
       </c>
-      <c r="L185" s="61"/>
-      <c r="M185" s="61"/>
-      <c r="N185" s="61"/>
-      <c r="O185" s="61"/>
-      <c r="P185" s="61"/>
+      <c r="L185" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M185" s="61">
+        <v>5</v>
+      </c>
+      <c r="N185" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O185" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P185" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q185" s="119"/>
       <c r="R185" s="60"/>
     </row>
@@ -29691,11 +30071,21 @@
       <c r="K186" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="L186" s="61"/>
-      <c r="M186" s="61"/>
-      <c r="N186" s="61"/>
-      <c r="O186" s="61"/>
-      <c r="P186" s="61"/>
+      <c r="L186" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M186" s="61">
+        <v>5</v>
+      </c>
+      <c r="N186" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O186" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P186" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q186" s="119"/>
       <c r="R186" s="60"/>
     </row>
@@ -29730,11 +30120,21 @@
       <c r="K187" s="60" t="s">
         <v>633</v>
       </c>
-      <c r="L187" s="61"/>
-      <c r="M187" s="61"/>
-      <c r="N187" s="61"/>
-      <c r="O187" s="61"/>
-      <c r="P187" s="61"/>
+      <c r="L187" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M187" s="61">
+        <v>5</v>
+      </c>
+      <c r="N187" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O187" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P187" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q187" s="119"/>
       <c r="R187" s="60"/>
     </row>
@@ -29769,11 +30169,21 @@
       <c r="K188" s="60" t="s">
         <v>609</v>
       </c>
-      <c r="L188" s="61"/>
-      <c r="M188" s="61"/>
-      <c r="N188" s="61"/>
-      <c r="O188" s="61"/>
-      <c r="P188" s="61"/>
+      <c r="L188" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M188" s="61">
+        <v>5</v>
+      </c>
+      <c r="N188" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O188" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P188" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q188" s="119"/>
       <c r="R188" s="60"/>
     </row>
@@ -29808,11 +30218,21 @@
       <c r="K189" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="L189" s="61"/>
-      <c r="M189" s="61"/>
-      <c r="N189" s="61"/>
-      <c r="O189" s="61"/>
-      <c r="P189" s="61"/>
+      <c r="L189" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M189" s="61">
+        <v>5</v>
+      </c>
+      <c r="N189" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O189" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P189" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q189" s="119"/>
       <c r="R189" s="60"/>
     </row>
@@ -29849,11 +30269,21 @@
       <c r="K190" s="60" t="s">
         <v>617</v>
       </c>
-      <c r="L190" s="61"/>
-      <c r="M190" s="61"/>
-      <c r="N190" s="61"/>
-      <c r="O190" s="61"/>
-      <c r="P190" s="61"/>
+      <c r="L190" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M190" s="61">
+        <v>5</v>
+      </c>
+      <c r="N190" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O190" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P190" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q190" s="119"/>
       <c r="R190" s="60"/>
     </row>
@@ -29888,11 +30318,21 @@
       <c r="K191" s="60" t="s">
         <v>619</v>
       </c>
-      <c r="L191" s="61"/>
-      <c r="M191" s="61"/>
-      <c r="N191" s="61"/>
-      <c r="O191" s="61"/>
-      <c r="P191" s="61"/>
+      <c r="L191" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M191" s="61">
+        <v>5</v>
+      </c>
+      <c r="N191" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O191" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P191" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q191" s="119"/>
       <c r="R191" s="60"/>
     </row>
@@ -29927,11 +30367,21 @@
       <c r="K192" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="L192" s="61"/>
-      <c r="M192" s="61"/>
-      <c r="N192" s="61"/>
-      <c r="O192" s="61"/>
-      <c r="P192" s="61"/>
+      <c r="L192" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M192" s="61">
+        <v>5</v>
+      </c>
+      <c r="N192" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O192" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P192" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q192" s="119"/>
       <c r="R192" s="60"/>
     </row>
@@ -29966,11 +30416,21 @@
       <c r="K193" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="L193" s="61"/>
-      <c r="M193" s="61"/>
-      <c r="N193" s="61"/>
-      <c r="O193" s="61"/>
-      <c r="P193" s="61"/>
+      <c r="L193" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M193" s="61">
+        <v>5</v>
+      </c>
+      <c r="N193" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O193" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P193" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q193" s="119"/>
       <c r="R193" s="60"/>
     </row>
@@ -30000,16 +30460,26 @@
         <v>615</v>
       </c>
       <c r="J194" s="60" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="K194" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="L194" s="61"/>
-      <c r="M194" s="61"/>
-      <c r="N194" s="61"/>
-      <c r="O194" s="61"/>
-      <c r="P194" s="61"/>
+      <c r="L194" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M194" s="61">
+        <v>8</v>
+      </c>
+      <c r="N194" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O194" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P194" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q194" s="119"/>
       <c r="R194" s="60"/>
     </row>
@@ -30039,16 +30509,26 @@
         <v>615</v>
       </c>
       <c r="J195" s="60" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="K195" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="L195" s="61"/>
-      <c r="M195" s="61"/>
-      <c r="N195" s="61"/>
-      <c r="O195" s="61"/>
-      <c r="P195" s="61"/>
+      <c r="L195" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M195" s="61">
+        <v>8</v>
+      </c>
+      <c r="N195" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O195" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P195" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q195" s="119"/>
       <c r="R195" s="60"/>
     </row>
@@ -30078,16 +30558,26 @@
         <v>615</v>
       </c>
       <c r="J196" s="60" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K196" s="60" t="s">
         <v>599</v>
       </c>
-      <c r="L196" s="61"/>
-      <c r="M196" s="61"/>
-      <c r="N196" s="61"/>
-      <c r="O196" s="61"/>
-      <c r="P196" s="61"/>
+      <c r="L196" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M196" s="61">
+        <v>5</v>
+      </c>
+      <c r="N196" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O196" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P196" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q196" s="119"/>
       <c r="R196" s="60"/>
     </row>
@@ -30117,16 +30607,26 @@
         <v>615</v>
       </c>
       <c r="J197" s="60" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K197" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="L197" s="61"/>
-      <c r="M197" s="61"/>
-      <c r="N197" s="61"/>
-      <c r="O197" s="61"/>
-      <c r="P197" s="61"/>
+      <c r="L197" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M197" s="61">
+        <v>5</v>
+      </c>
+      <c r="N197" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O197" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P197" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q197" s="119"/>
       <c r="R197" s="60"/>
     </row>
@@ -30156,16 +30656,26 @@
         <v>615</v>
       </c>
       <c r="J198" s="60" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K198" s="60" t="s">
         <v>603</v>
       </c>
-      <c r="L198" s="61"/>
-      <c r="M198" s="61"/>
-      <c r="N198" s="61"/>
-      <c r="O198" s="61"/>
-      <c r="P198" s="61"/>
+      <c r="L198" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M198" s="61">
+        <v>5</v>
+      </c>
+      <c r="N198" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O198" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P198" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q198" s="119"/>
       <c r="R198" s="60"/>
     </row>
@@ -30195,16 +30705,26 @@
         <v>615</v>
       </c>
       <c r="J199" s="60" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K199" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="L199" s="61"/>
-      <c r="M199" s="61"/>
-      <c r="N199" s="61"/>
-      <c r="O199" s="61"/>
-      <c r="P199" s="61"/>
+      <c r="L199" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M199" s="61">
+        <v>5</v>
+      </c>
+      <c r="N199" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O199" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P199" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q199" s="119"/>
       <c r="R199" s="60"/>
     </row>
@@ -30234,16 +30754,26 @@
         <v>615</v>
       </c>
       <c r="J200" s="60" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K200" s="60" t="s">
-        <v>647</v>
-      </c>
-      <c r="L200" s="61"/>
-      <c r="M200" s="61"/>
-      <c r="N200" s="61"/>
-      <c r="O200" s="61"/>
-      <c r="P200" s="61"/>
+        <v>645</v>
+      </c>
+      <c r="L200" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M200" s="61">
+        <v>5</v>
+      </c>
+      <c r="N200" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O200" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P200" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q200" s="119"/>
       <c r="R200" s="60"/>
     </row>
@@ -30273,16 +30803,26 @@
         <v>615</v>
       </c>
       <c r="J201" s="60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K201" s="60" t="s">
-        <v>649</v>
-      </c>
-      <c r="L201" s="61"/>
-      <c r="M201" s="61"/>
-      <c r="N201" s="61"/>
-      <c r="O201" s="61"/>
-      <c r="P201" s="61"/>
+        <v>647</v>
+      </c>
+      <c r="L201" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M201" s="61">
+        <v>5</v>
+      </c>
+      <c r="N201" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O201" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P201" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q201" s="119"/>
       <c r="R201" s="60"/>
     </row>
@@ -30312,16 +30852,26 @@
         <v>615</v>
       </c>
       <c r="J202" s="60" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K202" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="L202" s="61"/>
-      <c r="M202" s="61"/>
-      <c r="N202" s="61"/>
-      <c r="O202" s="61"/>
-      <c r="P202" s="61"/>
+      <c r="L202" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M202" s="61">
+        <v>5</v>
+      </c>
+      <c r="N202" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O202" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P202" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q202" s="119"/>
       <c r="R202" s="60"/>
     </row>
@@ -30353,16 +30903,26 @@
         <v>583</v>
       </c>
       <c r="J203" s="60" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K203" s="60" t="s">
-        <v>647</v>
-      </c>
-      <c r="L203" s="61"/>
-      <c r="M203" s="61"/>
-      <c r="N203" s="61"/>
-      <c r="O203" s="61"/>
-      <c r="P203" s="61"/>
+        <v>645</v>
+      </c>
+      <c r="L203" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M203" s="61">
+        <v>5</v>
+      </c>
+      <c r="N203" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O203" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P203" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q203" s="119"/>
       <c r="R203" s="60"/>
     </row>
@@ -30392,16 +30952,26 @@
         <v>583</v>
       </c>
       <c r="J204" s="60" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K204" s="60" t="s">
-        <v>649</v>
-      </c>
-      <c r="L204" s="61"/>
-      <c r="M204" s="61"/>
-      <c r="N204" s="61"/>
-      <c r="O204" s="61"/>
-      <c r="P204" s="61"/>
+        <v>647</v>
+      </c>
+      <c r="L204" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M204" s="61">
+        <v>5</v>
+      </c>
+      <c r="N204" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O204" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P204" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q204" s="119"/>
       <c r="R204" s="60"/>
     </row>
@@ -30429,7 +30999,7 @@
       <c r="H205" s="79"/>
       <c r="I205" s="79"/>
       <c r="J205" s="97" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K205" s="97"/>
       <c r="L205" s="79"/>
@@ -30464,7 +31034,7 @@
       <c r="H206" s="79"/>
       <c r="I206" s="79"/>
       <c r="J206" s="97" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K206" s="97"/>
       <c r="L206" s="79"/>
@@ -30572,7 +31142,7 @@
         <v>531</v>
       </c>
       <c r="I209" s="61" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J209" s="60" t="s">
         <v>551</v>
@@ -30580,11 +31150,21 @@
       <c r="K209" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="L209" s="61"/>
-      <c r="M209" s="61"/>
-      <c r="N209" s="61"/>
-      <c r="O209" s="61"/>
-      <c r="P209" s="61"/>
+      <c r="L209" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M209" s="61">
+        <v>5</v>
+      </c>
+      <c r="N209" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O209" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P209" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q209" s="119"/>
       <c r="R209" s="60"/>
     </row>
@@ -30612,7 +31192,7 @@
       <c r="H210" s="79"/>
       <c r="I210" s="79"/>
       <c r="J210" s="97" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K210" s="97"/>
       <c r="L210" s="79"/>
@@ -30648,7 +31228,7 @@
         <v>531</v>
       </c>
       <c r="I211" s="61" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J211" s="60" t="s">
         <v>551</v>
@@ -30656,11 +31236,21 @@
       <c r="K211" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="L211" s="61"/>
-      <c r="M211" s="61"/>
-      <c r="N211" s="61"/>
-      <c r="O211" s="61"/>
-      <c r="P211" s="61"/>
+      <c r="L211" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M211" s="61">
+        <v>5</v>
+      </c>
+      <c r="N211" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O211" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P211" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q211" s="119"/>
       <c r="R211" s="60"/>
     </row>
@@ -30688,7 +31278,7 @@
       <c r="H212" s="79"/>
       <c r="I212" s="79"/>
       <c r="J212" s="97" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K212" s="97"/>
       <c r="L212" s="79"/>
@@ -30723,7 +31313,7 @@
       <c r="H213" s="79"/>
       <c r="I213" s="79"/>
       <c r="J213" s="97" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K213" s="97"/>
       <c r="L213" s="79"/>
@@ -30759,7 +31349,7 @@
         <v>531</v>
       </c>
       <c r="I214" s="61" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J214" s="60" t="s">
         <v>554</v>
@@ -30767,11 +31357,21 @@
       <c r="K214" s="60" t="s">
         <v>555</v>
       </c>
-      <c r="L214" s="61"/>
-      <c r="M214" s="61"/>
-      <c r="N214" s="61"/>
-      <c r="O214" s="61"/>
-      <c r="P214" s="61"/>
+      <c r="L214" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M214" s="61">
+        <v>3</v>
+      </c>
+      <c r="N214" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O214" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P214" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q214" s="119"/>
       <c r="R214" s="60"/>
     </row>
@@ -30915,11 +31515,21 @@
       <c r="K218" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="L218" s="61"/>
-      <c r="M218" s="61"/>
-      <c r="N218" s="61"/>
-      <c r="O218" s="61"/>
-      <c r="P218" s="61"/>
+      <c r="L218" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="M218" s="61">
+        <v>5</v>
+      </c>
+      <c r="N218" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O218" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P218" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q218" s="119"/>
       <c r="R218" s="60"/>
     </row>
@@ -35154,7 +35764,7 @@
       <c r="Q335" s="103"/>
       <c r="R335" s="97"/>
     </row>
-    <row r="336" spans="1:18" ht="45">
+    <row r="336" spans="1:18" ht="90">
       <c r="A336" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -35184,26 +35794,36 @@
       </c>
       <c r="G336" s="60"/>
       <c r="H336" s="61" t="s">
+        <v>654</v>
+      </c>
+      <c r="I336" s="61" t="s">
+        <v>655</v>
+      </c>
+      <c r="J336" s="61" t="s">
         <v>656</v>
       </c>
-      <c r="I336" s="61" t="s">
+      <c r="K336" s="61" t="s">
         <v>657</v>
       </c>
-      <c r="J336" s="61" t="s">
-        <v>658</v>
-      </c>
-      <c r="K336" s="61" t="s">
-        <v>659</v>
-      </c>
-      <c r="L336" s="61"/>
-      <c r="M336" s="61"/>
-      <c r="N336" s="61"/>
-      <c r="O336" s="61"/>
-      <c r="P336" s="61"/>
+      <c r="L336" s="61" t="s">
+        <v>681</v>
+      </c>
+      <c r="M336" s="61">
+        <v>6</v>
+      </c>
+      <c r="N336" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O336" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P336" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q336" s="61"/>
       <c r="R336" s="61"/>
     </row>
-    <row r="337" spans="1:18" ht="45">
+    <row r="337" spans="1:18" ht="90">
       <c r="A337" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -35225,22 +35845,32 @@
       </c>
       <c r="G337" s="60"/>
       <c r="H337" s="61" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I337" s="61" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J337" s="61" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K337" s="61" t="s">
-        <v>661</v>
-      </c>
-      <c r="L337" s="61"/>
-      <c r="M337" s="61"/>
-      <c r="N337" s="61"/>
-      <c r="O337" s="61"/>
-      <c r="P337" s="61"/>
+        <v>659</v>
+      </c>
+      <c r="L337" s="61" t="s">
+        <v>681</v>
+      </c>
+      <c r="M337" s="61">
+        <v>6</v>
+      </c>
+      <c r="N337" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="O337" s="163">
+        <v>44854</v>
+      </c>
+      <c r="P337" s="61" t="s">
+        <v>678</v>
+      </c>
       <c r="Q337" s="61"/>
       <c r="R337" s="61"/>
     </row>
@@ -35268,7 +35898,7 @@
       <c r="H338" s="79"/>
       <c r="I338" s="79"/>
       <c r="J338" s="79" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K338" s="79"/>
       <c r="L338" s="79"/>
@@ -35303,7 +35933,7 @@
       <c r="H339" s="79"/>
       <c r="I339" s="79"/>
       <c r="J339" s="79" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K339" s="79"/>
       <c r="L339" s="79"/>
@@ -35340,7 +35970,7 @@
       <c r="H340" s="79"/>
       <c r="I340" s="79"/>
       <c r="J340" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K340" s="79"/>
       <c r="L340" s="79"/>
@@ -35377,7 +36007,7 @@
       <c r="H341" s="79"/>
       <c r="I341" s="79"/>
       <c r="J341" s="79" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K341" s="79"/>
       <c r="L341" s="79"/>
@@ -35490,7 +36120,7 @@
       <c r="H344" s="79"/>
       <c r="I344" s="79"/>
       <c r="J344" s="79" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K344" s="79"/>
       <c r="L344" s="79"/>
@@ -35525,7 +36155,7 @@
       <c r="H345" s="79"/>
       <c r="I345" s="79"/>
       <c r="J345" s="79" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K345" s="79"/>
       <c r="L345" s="79"/>
@@ -35560,7 +36190,7 @@
       <c r="H346" s="79"/>
       <c r="I346" s="79"/>
       <c r="J346" s="79" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K346" s="79"/>
       <c r="L346" s="79"/>
@@ -35599,7 +36229,7 @@
       <c r="H347" s="79"/>
       <c r="I347" s="79"/>
       <c r="J347" s="79" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K347" s="79"/>
       <c r="L347" s="79"/>
@@ -35634,7 +36264,7 @@
       <c r="H348" s="79"/>
       <c r="I348" s="79"/>
       <c r="J348" s="79" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K348" s="79"/>
       <c r="L348" s="79"/>
@@ -35669,7 +36299,7 @@
       <c r="H349" s="79"/>
       <c r="I349" s="79"/>
       <c r="J349" s="79" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K349" s="79"/>
       <c r="L349" s="79"/>
@@ -35708,7 +36338,7 @@
       <c r="H350" s="79"/>
       <c r="I350" s="79"/>
       <c r="J350" s="79" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K350" s="79"/>
       <c r="L350" s="79"/>
@@ -35743,7 +36373,7 @@
       <c r="H351" s="79"/>
       <c r="I351" s="79"/>
       <c r="J351" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K351" s="79"/>
       <c r="L351" s="79"/>
@@ -35778,7 +36408,7 @@
       <c r="H352" s="79"/>
       <c r="I352" s="79"/>
       <c r="J352" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K352" s="79"/>
       <c r="L352" s="79"/>
@@ -35813,7 +36443,7 @@
       <c r="H353" s="79"/>
       <c r="I353" s="79"/>
       <c r="J353" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K353" s="79"/>
       <c r="L353" s="79"/>
@@ -35848,7 +36478,7 @@
       <c r="H354" s="79"/>
       <c r="I354" s="79"/>
       <c r="J354" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K354" s="79"/>
       <c r="L354" s="79"/>
@@ -35883,7 +36513,7 @@
       <c r="H355" s="79"/>
       <c r="I355" s="79"/>
       <c r="J355" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K355" s="79"/>
       <c r="L355" s="79"/>
@@ -35918,7 +36548,7 @@
       <c r="H356" s="79"/>
       <c r="I356" s="79"/>
       <c r="J356" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K356" s="79"/>
       <c r="L356" s="79"/>
@@ -35953,7 +36583,7 @@
       <c r="H357" s="79"/>
       <c r="I357" s="79"/>
       <c r="J357" s="79" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K357" s="79"/>
       <c r="L357" s="79"/>
@@ -35996,7 +36626,7 @@
       <c r="H358" s="79"/>
       <c r="I358" s="79"/>
       <c r="J358" s="79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K358" s="79"/>
       <c r="L358" s="79"/>
@@ -36039,7 +36669,7 @@
       <c r="H359" s="79"/>
       <c r="I359" s="79"/>
       <c r="J359" s="79" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K359" s="79"/>
       <c r="L359" s="79"/>
@@ -36068,6 +36698,11 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"MS　明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="224" max="17" man="1"/>
+    <brk id="258" max="17" man="1"/>
+    <brk id="286" max="17" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -36220,7 +36855,7 @@
       <c r="E11" s="152"/>
       <c r="F11" s="152"/>
       <c r="G11" s="146" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H11" s="146"/>
       <c r="I11" s="153"/>
@@ -36243,7 +36878,7 @@
       <c r="E12" s="152"/>
       <c r="F12" s="152"/>
       <c r="G12" s="146" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H12" s="146"/>
       <c r="I12" s="153"/>
@@ -36268,7 +36903,7 @@
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
       <c r="G13" s="96" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H13" s="96"/>
       <c r="I13" s="159"/>
@@ -36291,7 +36926,7 @@
       <c r="E14" s="96"/>
       <c r="F14" s="96"/>
       <c r="G14" s="96" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H14" s="96"/>
       <c r="I14" s="159"/>
